--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="90">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -64,10 +65,13 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>0-1-0</t>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -88,49 +92,145 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Place 11</t>
-  </si>
-  <si>
-    <t>Place 12</t>
-  </si>
-  <si>
-    <t>Place 13</t>
-  </si>
-  <si>
-    <t>Place 14</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>13th Place</t>
+  </si>
+  <si>
+    <t>14th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>11.4-2.6</t>
+  </si>
+  <si>
+    <t>9.5-4.5</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
+  </si>
+  <si>
+    <t>8.4-5.6</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
+  </si>
+  <si>
+    <t>4.9-9.1</t>
+  </si>
+  <si>
+    <t>4.3-9.7</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -139,7 +239,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -576,22 +706,22 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -600,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -609,10 +739,10 @@
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -623,16 +753,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -656,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -667,25 +797,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -694,19 +824,19 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -717,22 +847,22 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -741,19 +871,19 @@
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -764,22 +894,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -788,19 +918,19 @@
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -811,16 +941,16 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -844,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -858,22 +988,22 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -891,10 +1021,10 @@
         <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -952,22 +1082,22 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -985,10 +1115,10 @@
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -996,46 +1126,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1046,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1079,7 +1209,7 @@
         <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O12" t="s">
         <v>14</v>
@@ -1093,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1102,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -1126,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O13" t="s">
         <v>15</v>
@@ -1137,46 +1267,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1220,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O15" t="s">
         <v>14</v>
@@ -1241,13 +1371,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1255,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.07142857142857142</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1269,13 +1399,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.1428571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1283,13 +1413,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.2142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1297,10 +1427,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.2142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1311,13 +1441,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3571428571428572</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1325,13 +1455,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.4285714285714285</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1339,13 +1469,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1353,13 +1483,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>0.5714285714285714</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1367,10 +1497,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>0.5714285714285714</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1381,10 +1511,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>0.7142857142857143</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1395,13 +1525,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.7142857142857143</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1409,10 +1539,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.7857142857142857</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1423,13 +1553,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.8571428571428571</v>
+        <v>1.5</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1437,10 +1567,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>0.9285714285714286</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1461,16 +1591,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1478,16 +1608,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.2857142857142858</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1495,13 +1625,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0.9285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="D3">
-        <v>-0.0714285714285714</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1512,16 +1642,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.8571428571428571</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="D4">
-        <v>-0.1428571428571429</v>
+        <v>-0.6428571428571428</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1529,13 +1659,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>0.7142857142857143</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="D5">
-        <v>-0.2857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1546,16 +1676,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0.7142857142857143</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="D6">
-        <v>0.7142857142857143</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1563,13 +1693,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.6428571428571429</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="D7">
-        <v>-0.3571428571428571</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1580,13 +1710,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1597,16 +1727,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>-0.0714285714285714</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1614,13 +1744,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.3571428571428572</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D10">
-        <v>-0.6428571428571428</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1631,16 +1761,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>0.3571428571428572</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D11">
-        <v>0.3571428571428572</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1648,13 +1778,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>0.2142857142857143</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D12">
-        <v>0.2142857142857143</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1665,16 +1795,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0.1428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D13">
-        <v>0.1428571428571428</v>
+        <v>-0.4285714285714286</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1682,13 +1812,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>0.07142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
-        <v>0.07142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1702,13 +1832,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-0.6428571428571428</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1726,84 +1856,84 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>54.33</v>
+        <v>70.8</v>
       </c>
       <c r="C2">
-        <v>40.83</v>
+        <v>19.3</v>
       </c>
       <c r="D2">
-        <v>4.78</v>
+        <v>6.2</v>
       </c>
       <c r="E2">
-        <v>0.06</v>
+        <v>2.4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1821,562 +1951,562 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>30.41</v>
+        <v>10.3</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>29.5</v>
       </c>
       <c r="D3">
-        <v>27.08</v>
+        <v>20.5</v>
       </c>
       <c r="E3">
-        <v>12.87</v>
+        <v>12.5</v>
       </c>
       <c r="F3">
-        <v>4.32</v>
+        <v>10.3</v>
       </c>
       <c r="G3">
-        <v>1.12</v>
+        <v>6.8</v>
       </c>
       <c r="H3">
-        <v>0.16</v>
+        <v>5.1</v>
       </c>
       <c r="I3">
-        <v>0.04</v>
+        <v>2.9</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>89.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>10.74</v>
+        <v>9.1</v>
       </c>
       <c r="C4">
-        <v>17.32</v>
+        <v>17.7</v>
       </c>
       <c r="D4">
-        <v>26.64</v>
+        <v>19.4</v>
       </c>
       <c r="E4">
-        <v>22.22</v>
+        <v>16.7</v>
       </c>
       <c r="F4">
-        <v>13.71</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="H4">
-        <v>2.45</v>
+        <v>5.3</v>
       </c>
       <c r="I4">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="J4">
-        <v>0.11</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
+        <v>1.3</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>99.88000000000002</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="C5">
-        <v>10.39</v>
+        <v>10.1</v>
       </c>
       <c r="D5">
-        <v>20.02</v>
+        <v>15.6</v>
       </c>
       <c r="E5">
-        <v>22.76</v>
+        <v>16.7</v>
       </c>
       <c r="F5">
-        <v>19.36</v>
+        <v>18.2</v>
       </c>
       <c r="G5">
-        <v>13.23</v>
+        <v>12.9</v>
       </c>
       <c r="H5">
-        <v>6.859999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I5">
-        <v>2.72</v>
+        <v>6.6</v>
       </c>
       <c r="J5">
-        <v>0.95</v>
+        <v>4.2</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>0.02</v>
+        <v>0.7</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P5">
-        <v>98.83000000000001</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.8099999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="C6">
-        <v>4.69</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>12.11</v>
+        <v>13.3</v>
       </c>
       <c r="E6">
-        <v>17.94</v>
+        <v>13.4</v>
       </c>
       <c r="F6">
-        <v>21.42</v>
+        <v>13.8</v>
       </c>
       <c r="G6">
-        <v>17.79</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>13.32</v>
+        <v>11.7</v>
       </c>
       <c r="I6">
-        <v>7.71</v>
+        <v>8.5</v>
       </c>
       <c r="J6">
-        <v>3.03</v>
+        <v>6.4</v>
       </c>
       <c r="K6">
-        <v>0.98</v>
+        <v>4.4</v>
       </c>
       <c r="L6">
-        <v>0.17</v>
+        <v>2.4</v>
       </c>
       <c r="M6">
-        <v>0.03</v>
+        <v>1.8</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P6">
-        <v>95.78999999999999</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.18</v>
+        <v>2.2</v>
       </c>
       <c r="C7">
-        <v>2.12</v>
+        <v>8.1</v>
       </c>
       <c r="D7">
-        <v>5.79</v>
+        <v>10.6</v>
       </c>
       <c r="E7">
-        <v>13.23</v>
+        <v>13.9</v>
       </c>
       <c r="F7">
-        <v>18.11</v>
+        <v>11.1</v>
       </c>
       <c r="G7">
-        <v>19.86</v>
+        <v>14.9</v>
       </c>
       <c r="H7">
-        <v>17.46</v>
+        <v>10.4</v>
       </c>
       <c r="I7">
-        <v>12.33</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>6.660000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K7">
-        <v>2.96</v>
+        <v>5.6</v>
       </c>
       <c r="L7">
-        <v>1.12</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>0.18</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P7">
-        <v>89.07999999999998</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1.1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>6.1</v>
+      </c>
+      <c r="E8">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>0.04</v>
-      </c>
-      <c r="C8">
-        <v>0.54</v>
-      </c>
-      <c r="D8">
-        <v>2.59</v>
-      </c>
-      <c r="E8">
-        <v>6.68</v>
-      </c>
       <c r="F8">
-        <v>12.34</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G8">
-        <v>17.65</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>19.42</v>
+        <v>13.3</v>
       </c>
       <c r="I8">
-        <v>17.31</v>
+        <v>13.3</v>
       </c>
       <c r="J8">
-        <v>12.34</v>
+        <v>8.9</v>
       </c>
       <c r="K8">
-        <v>6.99</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L8">
-        <v>3.05</v>
+        <v>6.1</v>
       </c>
       <c r="M8">
-        <v>0.88</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>0.15</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
-        <v>0.02</v>
+        <v>1.3</v>
       </c>
       <c r="P8">
-        <v>76.56999999999999</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="E9">
-        <v>3.07</v>
+        <v>7.2</v>
       </c>
       <c r="F9">
-        <v>6.76</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G9">
-        <v>12.91</v>
+        <v>13.4</v>
       </c>
       <c r="H9">
-        <v>16.83</v>
+        <v>14.5</v>
       </c>
       <c r="I9">
-        <v>19.51</v>
+        <v>13.8</v>
       </c>
       <c r="J9">
-        <v>17.64</v>
+        <v>11.5</v>
       </c>
       <c r="K9">
-        <v>12.94</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L9">
-        <v>6.61</v>
+        <v>6.9</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>4.4</v>
       </c>
       <c r="N9">
-        <v>0.5700000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="O9">
-        <v>0.01</v>
+        <v>1.1</v>
       </c>
       <c r="P9">
-        <v>59.98</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>0.15</v>
+        <v>2.3</v>
       </c>
       <c r="E10">
-        <v>0.89</v>
+        <v>4.3</v>
       </c>
       <c r="F10">
-        <v>2.72</v>
+        <v>6.7</v>
       </c>
       <c r="G10">
-        <v>7.75</v>
+        <v>7.8</v>
       </c>
       <c r="H10">
-        <v>13.03</v>
+        <v>10.6</v>
       </c>
       <c r="I10">
-        <v>17.54</v>
+        <v>13</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>11.8</v>
       </c>
       <c r="K10">
-        <v>18.22</v>
+        <v>13.9</v>
       </c>
       <c r="L10">
-        <v>11.95</v>
+        <v>10.6</v>
       </c>
       <c r="M10">
-        <v>5.949999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="N10">
-        <v>1.64</v>
+        <v>5.4</v>
       </c>
       <c r="O10">
-        <v>0.15</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>42.09</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>0.24</v>
+        <v>1.9</v>
       </c>
       <c r="F11">
-        <v>1.08</v>
+        <v>3.4</v>
       </c>
       <c r="G11">
-        <v>2.69</v>
+        <v>4.1</v>
       </c>
       <c r="H11">
-        <v>7.340000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="I11">
-        <v>13.47</v>
+        <v>12.3</v>
       </c>
       <c r="J11">
-        <v>18.95</v>
+        <v>18.2</v>
       </c>
       <c r="K11">
-        <v>20.3</v>
+        <v>17.2</v>
       </c>
       <c r="L11">
-        <v>18.16</v>
+        <v>14.7</v>
       </c>
       <c r="M11">
-        <v>12.21</v>
+        <v>9.5</v>
       </c>
       <c r="N11">
-        <v>4.82</v>
+        <v>7.4</v>
       </c>
       <c r="O11">
-        <v>0.72</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>24.84</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="E12">
-        <v>0.04</v>
+        <v>0.7</v>
       </c>
       <c r="F12">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="G12">
-        <v>0.72</v>
+        <v>2.3</v>
       </c>
       <c r="H12">
-        <v>2.66</v>
+        <v>5.3</v>
       </c>
       <c r="I12">
-        <v>6.550000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="J12">
-        <v>13.3</v>
+        <v>9.1</v>
       </c>
       <c r="K12">
-        <v>19.59</v>
+        <v>12.2</v>
       </c>
       <c r="L12">
-        <v>22.69</v>
+        <v>14.9</v>
       </c>
       <c r="M12">
-        <v>20.51</v>
+        <v>15.9</v>
       </c>
       <c r="N12">
-        <v>10.46</v>
+        <v>14.3</v>
       </c>
       <c r="O12">
-        <v>3.28</v>
+        <v>17.8</v>
       </c>
       <c r="P12">
-        <v>10.17</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G13">
-        <v>0.08</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0.45</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="J13">
-        <v>5.94</v>
+        <v>7.8</v>
       </c>
       <c r="K13">
-        <v>13.26</v>
+        <v>10.3</v>
       </c>
       <c r="L13">
-        <v>22.89</v>
+        <v>16.8</v>
       </c>
       <c r="M13">
-        <v>26.3</v>
+        <v>17.3</v>
       </c>
       <c r="N13">
-        <v>17.81</v>
+        <v>17.5</v>
       </c>
       <c r="O13">
-        <v>11.27</v>
+        <v>15.2</v>
       </c>
       <c r="P13">
-        <v>2.53</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2385,93 +2515,93 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H14">
-        <v>0.02</v>
+        <v>1.8</v>
       </c>
       <c r="I14">
-        <v>0.22</v>
+        <v>3.3</v>
       </c>
       <c r="J14">
-        <v>1.08</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>4.55</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>13.27</v>
+        <v>13.1</v>
       </c>
       <c r="M14">
-        <v>26.96</v>
+        <v>17.9</v>
       </c>
       <c r="N14">
-        <v>23.38</v>
+        <v>20.7</v>
       </c>
       <c r="O14">
-        <v>30.52</v>
+        <v>29.4</v>
       </c>
       <c r="P14">
-        <v>0.24</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="L15">
-        <v>0.06999999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M15">
-        <v>4.73</v>
+        <v>17.3</v>
       </c>
       <c r="N15">
-        <v>41.17</v>
+        <v>27.2</v>
       </c>
       <c r="O15">
-        <v>54.03</v>
+        <v>28.2</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -2480,6 +2610,409 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>121.27</v>
+      </c>
+      <c r="E2">
+        <v>242.54</v>
+      </c>
+      <c r="F2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>114.34</v>
+      </c>
+      <c r="E3">
+        <v>228.68</v>
+      </c>
+      <c r="F3">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>115.63</v>
+      </c>
+      <c r="E4">
+        <v>231.26</v>
+      </c>
+      <c r="F4">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>110.98</v>
+      </c>
+      <c r="E5">
+        <v>221.96</v>
+      </c>
+      <c r="F5">
+        <v>92.60000000000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>110.61</v>
+      </c>
+      <c r="E6">
+        <v>221.22</v>
+      </c>
+      <c r="F6">
+        <v>83.39999999999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>110.5</v>
+      </c>
+      <c r="E7">
+        <v>221</v>
+      </c>
+      <c r="F7">
+        <v>79.2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>106.1</v>
+      </c>
+      <c r="E8">
+        <v>212.2</v>
+      </c>
+      <c r="F8">
+        <v>68.60000000000001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>103.33</v>
+      </c>
+      <c r="E9">
+        <v>206.66</v>
+      </c>
+      <c r="F9">
+        <v>64.7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>99.97</v>
+      </c>
+      <c r="E10">
+        <v>199.94</v>
+      </c>
+      <c r="F10">
+        <v>45.6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>99.02</v>
+      </c>
+      <c r="E11">
+        <v>198.04</v>
+      </c>
+      <c r="F11">
+        <v>29.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>94.70999999999999</v>
+      </c>
+      <c r="E12">
+        <v>189.42</v>
+      </c>
+      <c r="F12">
+        <v>15.8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>90.7</v>
+      </c>
+      <c r="E13">
+        <v>181.4</v>
+      </c>
+      <c r="F13">
+        <v>15.1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>86.96000000000001</v>
+      </c>
+      <c r="E14">
+        <v>173.92</v>
+      </c>
+      <c r="F14">
+        <v>6.9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>90.62</v>
+      </c>
+      <c r="E15">
+        <v>181.24</v>
+      </c>
+      <c r="F15">
+        <v>6.1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2489,16 +3022,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2509,13 +3042,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2523,16 +3056,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2540,16 +3073,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2557,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -2565,8 +3098,8 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2580,10 +3113,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2591,16 +3124,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2608,16 +3141,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2625,16 +3158,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2642,16 +3175,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>-3</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2662,13 +3195,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2676,16 +3209,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2693,16 +3226,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2710,16 +3243,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2730,188 +3263,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>-3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-3</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>-4</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-5</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>-6</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>-7</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2921,33 +3279,331 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>-4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>-6</v>
+      </c>
+      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>-3</v>
+      </c>
+      <c r="C13">
+        <v>-6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>-5</v>
+      </c>
+      <c r="C14">
+        <v>-7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>-7</v>
+      </c>
+      <c r="C15">
+        <v>-13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-13</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>-5</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="104">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -170,13 +170,13 @@
     <t>11.4-2.6</t>
   </si>
   <si>
-    <t>9.5-4.5</t>
-  </si>
-  <si>
-    <t>8.9-5.1</t>
-  </si>
-  <si>
-    <t>8.4-5.6</t>
+    <t>9.4-4.6</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
   </si>
   <si>
     <t>7.9-6.1</t>
@@ -191,30 +191,27 @@
     <t>7.0-7.0</t>
   </si>
   <si>
-    <t>6.2-7.8</t>
+    <t>6.4-7.6</t>
   </si>
   <si>
     <t>5.7-8.3</t>
   </si>
   <si>
-    <t>4.8-9.2</t>
-  </si>
-  <si>
     <t>4.9-9.1</t>
   </si>
   <si>
-    <t>4.3-9.7</t>
-  </si>
-  <si>
-    <t>4.0-10.0</t>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
+  </si>
+  <si>
+    <t>3.9-10.1</t>
   </si>
   <si>
     <t>12-2</t>
   </si>
   <si>
-    <t>10-4</t>
-  </si>
-  <si>
     <t>9-5</t>
   </si>
   <si>
@@ -233,10 +230,55 @@
     <t>4-10</t>
   </si>
   <si>
+    <t>Owners</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Zachary Dillon</t>
+  </si>
+  <si>
+    <t>nicholas spadaro</t>
+  </si>
+  <si>
+    <t>Michael Dillon</t>
+  </si>
+  <si>
+    <t>Kathy Dillon</t>
+  </si>
+  <si>
+    <t>Mikaela Mitcho</t>
+  </si>
+  <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
+    <t>gabriella spadaro</t>
+  </si>
+  <si>
+    <t>Stephanie Mattei</t>
+  </si>
+  <si>
+    <t>Ryan Lesiak</t>
+  </si>
+  <si>
+    <t>Lawrence Rosello</t>
+  </si>
+  <si>
+    <t>Brendan Fanning</t>
+  </si>
+  <si>
+    <t>Josh Formola</t>
+  </si>
+  <si>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
+    <t>Antonio  Spadaro</t>
   </si>
   <si>
     <t>↑4</t>
@@ -1909,31 +1951,31 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>70.8</v>
+        <v>72.5</v>
       </c>
       <c r="C2">
-        <v>19.3</v>
+        <v>16.3</v>
       </c>
       <c r="D2">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="E2">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="F2">
         <v>0.7</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
         <v>0.1</v>
       </c>
       <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="J2">
         <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1959,40 +2001,40 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>29.5</v>
+        <v>26.9</v>
       </c>
       <c r="D3">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>12.5</v>
+        <v>16.4</v>
       </c>
       <c r="F3">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="G3">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="H3">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="J3">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K3">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L3">
         <v>0.1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N3">
         <v>0.1</v>
@@ -2001,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>89.90000000000001</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2009,49 +2051,49 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
       <c r="C4">
-        <v>17.7</v>
+        <v>19.8</v>
       </c>
       <c r="D4">
-        <v>19.4</v>
+        <v>17.1</v>
       </c>
       <c r="E4">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>11.4</v>
       </c>
       <c r="G4">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H4">
-        <v>5.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I4">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="J4">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K4">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L4">
         <v>0.8</v>
       </c>
       <c r="M4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>86.3</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2059,49 +2101,49 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="C5">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="E5">
-        <v>16.7</v>
+        <v>18.1</v>
       </c>
       <c r="F5">
-        <v>18.2</v>
+        <v>16.2</v>
       </c>
       <c r="G5">
-        <v>12.9</v>
+        <v>14.3</v>
       </c>
       <c r="H5">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I5">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="J5">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="K5">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="M5">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
         <v>0.1</v>
       </c>
       <c r="O5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>76.40000000000001</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2109,49 +2151,49 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>10.1</v>
       </c>
       <c r="D6">
-        <v>13.3</v>
+        <v>12.1</v>
       </c>
       <c r="E6">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="F6">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="H6">
-        <v>11.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I6">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="K6">
         <v>4.4</v>
       </c>
       <c r="L6">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O6">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="P6">
-        <v>63.2</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2159,31 +2201,31 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="C7">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="D7">
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>13.9</v>
+        <v>11.9</v>
       </c>
       <c r="F7">
-        <v>11.1</v>
+        <v>13.2</v>
       </c>
       <c r="G7">
-        <v>14.9</v>
+        <v>13.2</v>
       </c>
       <c r="H7">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>10.1</v>
       </c>
       <c r="J7">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="K7">
         <v>5.6</v>
@@ -2192,16 +2234,16 @@
         <v>3.3</v>
       </c>
       <c r="M7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N7">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="O7">
         <v>0.1</v>
       </c>
       <c r="P7">
-        <v>60.8</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2209,49 +2251,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D8">
-        <v>6.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="F8">
-        <v>9.800000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>10.7</v>
       </c>
       <c r="H8">
-        <v>13.3</v>
+        <v>11.2</v>
       </c>
       <c r="I8">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="J8">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="K8">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L8">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="O8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P8">
-        <v>42</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2262,46 +2304,46 @@
         <v>0.6</v>
       </c>
       <c r="C9">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D9">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="E9">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="F9">
-        <v>8.300000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="G9">
-        <v>13.4</v>
+        <v>11.9</v>
       </c>
       <c r="H9">
-        <v>14.5</v>
+        <v>15.6</v>
       </c>
       <c r="I9">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="J9">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="K9">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="L9">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="M9">
         <v>4.4</v>
       </c>
       <c r="N9">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2309,10 +2351,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>2.3</v>
@@ -2321,37 +2363,37 @@
         <v>4.3</v>
       </c>
       <c r="F10">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="G10">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="H10">
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="J10">
-        <v>11.8</v>
+        <v>15</v>
       </c>
       <c r="K10">
-        <v>13.9</v>
+        <v>13.1</v>
       </c>
       <c r="L10">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="M10">
-        <v>9.6</v>
+        <v>7.9</v>
       </c>
       <c r="N10">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="P10">
-        <v>22</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2365,143 +2407,143 @@
         <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="F11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G11">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H11">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="I11">
         <v>12.3</v>
       </c>
       <c r="J11">
-        <v>18.2</v>
+        <v>16.4</v>
       </c>
       <c r="K11">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="L11">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="M11">
+        <v>11.2</v>
+      </c>
+      <c r="N11">
+        <v>6.3</v>
+      </c>
+      <c r="O11">
+        <v>3.7</v>
+      </c>
+      <c r="P11">
         <v>9.5</v>
-      </c>
-      <c r="N11">
-        <v>7.4</v>
-      </c>
-      <c r="O11">
-        <v>3.5</v>
-      </c>
-      <c r="P11">
-        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
         <v>0.3</v>
       </c>
       <c r="E12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1.8</v>
       </c>
       <c r="G12">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H12">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="I12">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="J12">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="K12">
-        <v>12.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L12">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>15.9</v>
+        <v>17.6</v>
       </c>
       <c r="N12">
-        <v>14.3</v>
+        <v>18.5</v>
       </c>
       <c r="O12">
-        <v>17.8</v>
+        <v>15.7</v>
       </c>
       <c r="P12">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H13">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="I13">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="J13">
-        <v>7.8</v>
+        <v>9.9</v>
       </c>
       <c r="K13">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="L13">
-        <v>16.8</v>
+        <v>15.4</v>
       </c>
       <c r="M13">
-        <v>17.3</v>
+        <v>16.7</v>
       </c>
       <c r="N13">
-        <v>17.5</v>
+        <v>14.6</v>
       </c>
       <c r="O13">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P13">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2515,43 +2557,43 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G14">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I14">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="L14">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="M14">
-        <v>17.9</v>
+        <v>16.8</v>
       </c>
       <c r="N14">
-        <v>20.7</v>
+        <v>23.1</v>
       </c>
       <c r="O14">
-        <v>29.4</v>
+        <v>27.8</v>
       </c>
       <c r="P14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2562,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2574,34 +2616,34 @@
         <v>0.4</v>
       </c>
       <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
         <v>1.1</v>
       </c>
-      <c r="H15">
-        <v>1.6</v>
-      </c>
       <c r="I15">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="J15">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="K15">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="L15">
-        <v>9.6</v>
+        <v>10.8</v>
       </c>
       <c r="M15">
-        <v>17.3</v>
+        <v>16</v>
       </c>
       <c r="N15">
-        <v>27.2</v>
+        <v>24.2</v>
       </c>
       <c r="O15">
-        <v>28.2</v>
+        <v>32.7</v>
       </c>
       <c r="P15">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -2660,7 +2702,7 @@
         <v>242.54</v>
       </c>
       <c r="F2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
@@ -2686,7 +2728,7 @@
         <v>228.68</v>
       </c>
       <c r="F3">
-        <v>97.89999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -2712,13 +2754,13 @@
         <v>231.26</v>
       </c>
       <c r="F4">
-        <v>94.69999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2738,13 +2780,13 @@
         <v>221.96</v>
       </c>
       <c r="F5">
-        <v>92.60000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G5" t="s">
         <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2764,13 +2806,13 @@
         <v>221.22</v>
       </c>
       <c r="F6">
-        <v>83.39999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2790,13 +2832,13 @@
         <v>221</v>
       </c>
       <c r="F7">
-        <v>79.2</v>
+        <v>81.5</v>
       </c>
       <c r="G7" t="s">
         <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2816,13 +2858,13 @@
         <v>212.2</v>
       </c>
       <c r="F8">
-        <v>68.60000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2842,13 +2884,13 @@
         <v>206.66</v>
       </c>
       <c r="F9">
-        <v>64.7</v>
+        <v>65.7</v>
       </c>
       <c r="G9" t="s">
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2868,13 +2910,13 @@
         <v>199.94</v>
       </c>
       <c r="F10">
-        <v>45.6</v>
+        <v>46.8</v>
       </c>
       <c r="G10" t="s">
         <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2894,13 +2936,13 @@
         <v>198.04</v>
       </c>
       <c r="F11">
-        <v>29.5</v>
+        <v>30.3</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2920,13 +2962,13 @@
         <v>189.42</v>
       </c>
       <c r="F12">
-        <v>15.8</v>
+        <v>17.4</v>
       </c>
       <c r="G12" t="s">
         <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2946,7 +2988,7 @@
         <v>181.4</v>
       </c>
       <c r="F13">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="G13" t="s">
         <v>59</v>
@@ -2972,13 +3014,13 @@
         <v>173.92</v>
       </c>
       <c r="F14">
-        <v>6.9</v>
+        <v>5.4</v>
       </c>
       <c r="G14" t="s">
         <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2998,13 +3040,13 @@
         <v>181.24</v>
       </c>
       <c r="F15">
-        <v>6.1</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3014,262 +3056,307 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
         <v>-1</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
         <v>-3</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11">
         <v>-4</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12">
         <v>-5</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13">
         <v>-6</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
       <c r="E13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
         <v>-7</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
       <c r="E14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15">
         <v>-13</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3287,10 +3374,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>71</v>
@@ -3307,7 +3394,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3321,7 +3408,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3335,7 +3422,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3349,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3363,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3377,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3391,7 +3478,7 @@
         <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3405,7 +3492,7 @@
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3419,7 +3506,7 @@
         <v>-3</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3433,7 +3520,7 @@
         <v>-4</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3447,7 +3534,7 @@
         <v>-5</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3461,7 +3548,7 @@
         <v>-6</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3475,7 +3562,7 @@
         <v>-7</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3489,7 +3576,7 @@
         <v>-13</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3507,25 +3594,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="107">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -41,7 +41,7 @@
     <t>Ertz When I Pee</t>
   </si>
   <si>
-    <t>Maid of Honor</t>
+    <t>Is it Hockey Season?</t>
   </si>
   <si>
     <t>Crazy Kat</t>
@@ -65,13 +65,16 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -158,58 +161,61 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>11.4-2.6</t>
-  </si>
-  <si>
-    <t>9.4-4.6</t>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>10.1-3.9</t>
+  </si>
+  <si>
+    <t>9.7-4.3</t>
+  </si>
+  <si>
+    <t>9.3-4.7</t>
   </si>
   <si>
     <t>8.7-5.3</t>
   </si>
   <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>7.9-6.1</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
   </si>
   <si>
     <t>6.4-7.6</t>
   </si>
   <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
     <t>5.7-8.3</t>
   </si>
   <si>
-    <t>4.9-9.1</t>
-  </si>
-  <si>
-    <t>5.0-9.0</t>
-  </si>
-  <si>
-    <t>4.4-9.6</t>
-  </si>
-  <si>
-    <t>3.9-10.1</t>
-  </si>
-  <si>
-    <t>12-2</t>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>5.2-8.8</t>
+  </si>
+  <si>
+    <t>5.1-8.9</t>
+  </si>
+  <si>
+    <t>4.1-9.9</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -218,12 +224,12 @@
     <t>8-6</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
@@ -251,67 +257,70 @@
     <t>Kathy Dillon</t>
   </si>
   <si>
+    <t>Stephanie Mattei</t>
+  </si>
+  <si>
+    <t>gabriella spadaro</t>
+  </si>
+  <si>
+    <t>Lawrence Rosello</t>
+  </si>
+  <si>
     <t>Mikaela Mitcho</t>
   </si>
   <si>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
     <t>Sal Spadaro</t>
   </si>
   <si>
-    <t>gabriella spadaro</t>
-  </si>
-  <si>
-    <t>Stephanie Mattei</t>
+    <t>Brendan Fanning</t>
   </si>
   <si>
     <t>Ryan Lesiak</t>
   </si>
   <si>
-    <t>Lawrence Rosello</t>
-  </si>
-  <si>
-    <t>Brendan Fanning</t>
+    <t>Antonio  Spadaro</t>
   </si>
   <si>
     <t>Josh Formola</t>
   </si>
   <si>
-    <t>Marissa Rodriguez</t>
-  </si>
-  <si>
-    <t>Antonio  Spadaro</t>
-  </si>
-  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -751,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -766,13 +775,13 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -792,40 +801,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -839,46 +848,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
       <c r="N4" t="s">
         <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -886,40 +895,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>16</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -960,10 +969,10 @@
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
@@ -980,37 +989,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -1027,40 +1036,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -1080,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1089,22 +1098,22 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -1121,40 +1130,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
         <v>16</v>
@@ -1168,46 +1177,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1215,40 +1224,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N12" t="s">
         <v>16</v>
@@ -1262,46 +1271,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N13" t="s">
         <v>16</v>
       </c>
       <c r="O13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1362,16 +1371,16 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1383,10 +1392,10 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -1413,13 +1422,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1430,10 +1439,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1444,10 +1453,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.3571428571428572</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1458,10 +1467,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1469,10 +1478,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1483,10 +1492,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.9285714285714286</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1497,13 +1506,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>0.9285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1511,13 +1520,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1525,10 +1534,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.142857142857143</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1539,10 +1548,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>1.142857142857143</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1553,10 +1562,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1.285714285714286</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1567,13 +1576,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>1.357142857142857</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1581,13 +1590,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>1.428571428571429</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1595,10 +1604,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1609,13 +1618,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>1.642857142857143</v>
+        <v>2.071428571428572</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1633,16 +1642,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1650,13 +1659,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1.714285714285714</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="D2">
-        <v>-0.2857142857142858</v>
+        <v>0.4285714285714284</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1667,16 +1676,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.428571428571429</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="D3">
-        <v>0.4285714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1684,13 +1693,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1.357142857142857</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="D4">
-        <v>-0.6428571428571428</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1701,16 +1710,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1.357142857142857</v>
+        <v>2.071428571428572</v>
       </c>
       <c r="D5">
-        <v>0.3571428571428572</v>
+        <v>-0.9285714285714284</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1718,16 +1727,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1.214285714285714</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="D6">
-        <v>0.2142857142857142</v>
+        <v>-0.1428571428571428</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1735,16 +1744,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1.214285714285714</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D7">
-        <v>0.2142857142857142</v>
+        <v>-0.4285714285714286</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1755,10 +1764,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>1.071428571428571</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="D8">
-        <v>0.0714285714285714</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1769,16 +1778,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>0.9285714285714286</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="D9">
-        <v>-0.0714285714285714</v>
+        <v>-0.6428571428571428</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1786,13 +1795,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0.8571428571428571</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="D10">
-        <v>-0.1428571428571429</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1803,13 +1812,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0.7142857142857143</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D11">
-        <v>-0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1820,16 +1829,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1837,16 +1846,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>0.5714285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D13">
-        <v>-0.4285714285714286</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1854,16 +1863,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1871,13 +1880,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>0.3571428571428572</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D15">
-        <v>-0.6428571428571428</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1898,84 +1907,84 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>72.5</v>
+        <v>31.7</v>
       </c>
       <c r="C2">
-        <v>16.3</v>
+        <v>25.6</v>
       </c>
       <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
         <v>6.6</v>
       </c>
-      <c r="E2">
-        <v>3.2</v>
-      </c>
-      <c r="F2">
-        <v>0.7</v>
-      </c>
       <c r="G2">
+        <v>3.7</v>
+      </c>
+      <c r="H2">
+        <v>1.6</v>
+      </c>
+      <c r="I2">
         <v>0.5</v>
       </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
-      <c r="I2">
-        <v>0.1</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1993,257 +2002,257 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>99.8</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>26.9</v>
+        <v>23.4</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>17.3</v>
       </c>
       <c r="E3">
-        <v>16.4</v>
+        <v>10.8</v>
       </c>
       <c r="F3">
-        <v>10.4</v>
+        <v>6.3</v>
       </c>
       <c r="G3">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="I3">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="J3">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
         <v>0.1</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>90.8</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>6.7</v>
+        <v>14.4</v>
       </c>
       <c r="C4">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="D4">
-        <v>17.1</v>
+        <v>20.3</v>
       </c>
       <c r="E4">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="F4">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="G4">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="I4">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="J4">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K4">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>80.7</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2.4</v>
+        <v>10.6</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>14.2</v>
       </c>
       <c r="D5">
         <v>16.4</v>
       </c>
       <c r="E5">
-        <v>18.1</v>
+        <v>16.7</v>
       </c>
       <c r="F5">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="G5">
-        <v>14.3</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>9.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="I5">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L5">
+        <v>1.1</v>
+      </c>
+      <c r="M5">
         <v>0.9</v>
-      </c>
-      <c r="M5">
-        <v>0.2</v>
       </c>
       <c r="N5">
         <v>0.1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P5">
-        <v>78.40000000000001</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="C6">
-        <v>10.1</v>
+        <v>6.8</v>
       </c>
       <c r="D6">
-        <v>12.1</v>
+        <v>9.5</v>
       </c>
       <c r="E6">
-        <v>12.6</v>
+        <v>13.7</v>
       </c>
       <c r="F6">
-        <v>13.6</v>
+        <v>16.6</v>
       </c>
       <c r="G6">
-        <v>12.7</v>
+        <v>17.3</v>
       </c>
       <c r="H6">
-        <v>9.699999999999999</v>
+        <v>13.3</v>
       </c>
       <c r="I6">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J6">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="K6">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N6">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="O6">
         <v>0.6</v>
       </c>
       <c r="P6">
-        <v>64.3</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="E7">
-        <v>11.9</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>13.2</v>
+        <v>14.2</v>
       </c>
       <c r="G7">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>10.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J7">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="K7">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="O7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P7">
-        <v>61.4</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2251,99 +2260,99 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="E8">
-        <v>7.5</v>
+        <v>4.4</v>
       </c>
       <c r="F8">
-        <v>11.1</v>
+        <v>7.3</v>
       </c>
       <c r="G8">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="H8">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>13.1</v>
+        <v>10.3</v>
       </c>
       <c r="J8">
-        <v>9.5</v>
+        <v>12.3</v>
       </c>
       <c r="K8">
-        <v>8.199999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>4.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N8">
-        <v>3.6</v>
+        <v>6.7</v>
       </c>
       <c r="O8">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>42.4</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="F9">
-        <v>10.7</v>
+        <v>5.4</v>
       </c>
       <c r="G9">
-        <v>11.9</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>15.6</v>
+        <v>10.9</v>
       </c>
       <c r="I9">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="J9">
         <v>11.7</v>
       </c>
       <c r="K9">
-        <v>8.9</v>
+        <v>11.7</v>
       </c>
       <c r="L9">
-        <v>6.6</v>
+        <v>11.5</v>
       </c>
       <c r="M9">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="P9">
-        <v>36.6</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2351,204 +2360,204 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="F10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I10">
-        <v>13.3</v>
+        <v>14.5</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="K10">
-        <v>13.1</v>
+        <v>11.8</v>
       </c>
       <c r="L10">
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="M10">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="N10">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O10">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P10">
-        <v>21.5</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="E11">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="F11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G11">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="I11">
-        <v>12.3</v>
+        <v>10.2</v>
       </c>
       <c r="J11">
-        <v>16.4</v>
+        <v>9.5</v>
       </c>
       <c r="K11">
-        <v>17.3</v>
+        <v>12.4</v>
       </c>
       <c r="L11">
-        <v>14.8</v>
+        <v>10.6</v>
       </c>
       <c r="M11">
-        <v>11.2</v>
+        <v>12.9</v>
       </c>
       <c r="N11">
-        <v>6.3</v>
+        <v>12.2</v>
       </c>
       <c r="O11">
-        <v>3.7</v>
+        <v>10.9</v>
       </c>
       <c r="P11">
-        <v>9.5</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F12">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H12">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="I12">
-        <v>5.8</v>
+        <v>9.1</v>
       </c>
       <c r="J12">
-        <v>8.5</v>
+        <v>10.9</v>
       </c>
       <c r="K12">
-        <v>9.199999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>13.4</v>
       </c>
       <c r="M12">
-        <v>17.6</v>
+        <v>13.8</v>
       </c>
       <c r="N12">
-        <v>18.5</v>
+        <v>14.9</v>
       </c>
       <c r="O12">
-        <v>15.7</v>
+        <v>10.4</v>
       </c>
       <c r="P12">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="G13">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H13">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="I13">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="J13">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="K13">
-        <v>10.6</v>
+        <v>12.5</v>
       </c>
       <c r="L13">
-        <v>15.4</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>16.7</v>
+        <v>12.8</v>
       </c>
       <c r="N13">
-        <v>14.6</v>
+        <v>13.8</v>
       </c>
       <c r="O13">
-        <v>15.4</v>
+        <v>17.1</v>
       </c>
       <c r="P13">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2557,48 +2566,48 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F14">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="G14">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H14">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="I14">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="J14">
-        <v>4.6</v>
+        <v>7.1</v>
       </c>
       <c r="K14">
-        <v>9.1</v>
+        <v>11.8</v>
       </c>
       <c r="L14">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="M14">
-        <v>16.8</v>
+        <v>14.8</v>
       </c>
       <c r="N14">
-        <v>23.1</v>
+        <v>17.1</v>
       </c>
       <c r="O14">
-        <v>27.8</v>
+        <v>17.7</v>
       </c>
       <c r="P14">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2607,43 +2616,43 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G15">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H15">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="I15">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="J15">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="K15">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="L15">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>14.6</v>
       </c>
       <c r="N15">
-        <v>24.2</v>
+        <v>20.5</v>
       </c>
       <c r="O15">
-        <v>32.7</v>
+        <v>31.5</v>
       </c>
       <c r="P15">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -2661,184 +2670,184 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>121.27</v>
+        <v>116.3733333333333</v>
       </c>
       <c r="E2">
-        <v>242.54</v>
+        <v>349.12</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>114.34</v>
+        <v>123.7333333333333</v>
       </c>
       <c r="E3">
-        <v>228.68</v>
+        <v>371.2</v>
       </c>
       <c r="F3">
-        <v>97.39999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>115.63</v>
+        <v>115.3333333333333</v>
       </c>
       <c r="E4">
-        <v>231.26</v>
+        <v>346</v>
       </c>
       <c r="F4">
-        <v>93.8</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>110.98</v>
+        <v>116.5733333333333</v>
       </c>
       <c r="E5">
-        <v>221.96</v>
+        <v>349.72</v>
       </c>
       <c r="F5">
-        <v>92.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>110.61</v>
+        <v>107.5866666666667</v>
       </c>
       <c r="E6">
-        <v>221.22</v>
+        <v>322.76</v>
       </c>
       <c r="F6">
-        <v>82.19999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7">
-        <v>110.5</v>
+        <v>108.3666666666667</v>
       </c>
       <c r="E7">
-        <v>221</v>
+        <v>325.1</v>
       </c>
       <c r="F7">
-        <v>81.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2846,207 +2855,207 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>106.1</v>
+        <v>102.0666666666667</v>
       </c>
       <c r="E8">
-        <v>212.2</v>
+        <v>306.2</v>
       </c>
       <c r="F8">
-        <v>66.7</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D9">
-        <v>103.33</v>
+        <v>98.58</v>
       </c>
       <c r="E9">
-        <v>206.66</v>
+        <v>295.74</v>
       </c>
       <c r="F9">
-        <v>65.7</v>
+        <v>46.2</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>99.97</v>
+        <v>100.3666666666667</v>
       </c>
       <c r="E10">
-        <v>199.94</v>
+        <v>301.1</v>
       </c>
       <c r="F10">
-        <v>46.8</v>
+        <v>43.1</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>99.02</v>
+        <v>93.36666666666667</v>
       </c>
       <c r="E11">
-        <v>198.04</v>
+        <v>280.1</v>
       </c>
       <c r="F11">
-        <v>30.3</v>
+        <v>31.5</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>94.70999999999999</v>
+        <v>93.81333333333333</v>
       </c>
       <c r="E12">
-        <v>189.42</v>
+        <v>281.44</v>
       </c>
       <c r="F12">
-        <v>17.4</v>
+        <v>24.3</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>90.7</v>
+        <v>93.2</v>
       </c>
       <c r="E13">
-        <v>181.4</v>
+        <v>279.6</v>
       </c>
       <c r="F13">
-        <v>15.5</v>
+        <v>20.9</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D14">
-        <v>86.96000000000001</v>
+        <v>91.15333333333335</v>
       </c>
       <c r="E14">
-        <v>173.92</v>
+        <v>273.46</v>
       </c>
       <c r="F14">
-        <v>5.4</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>90.62</v>
+        <v>93.48666666666666</v>
       </c>
       <c r="E15">
-        <v>181.24</v>
+        <v>280.46</v>
       </c>
       <c r="F15">
-        <v>4.399999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3064,19 +3073,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3087,16 +3096,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3107,16 +3116,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3127,16 +3136,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3147,16 +3156,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3164,19 +3173,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3184,19 +3193,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3204,13 +3213,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -3224,19 +3233,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3244,16 +3253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>-3</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -3264,19 +3273,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3287,16 +3296,16 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3304,19 +3313,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3324,19 +3333,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3344,19 +3353,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3366,24 +3375,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3393,11 +3405,14 @@
       <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3407,11 +3422,14 @@
       <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3421,11 +3439,14 @@
       <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3435,95 +3456,116 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>-3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10">
+        <v>-3</v>
+      </c>
+      <c r="E10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B11">
         <v>-4</v>
       </c>
-      <c r="C7">
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
-      </c>
-      <c r="C10">
-        <v>-3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-3</v>
-      </c>
-      <c r="C11">
-        <v>-4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11">
+        <v>-6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -3533,50 +3575,62 @@
       <c r="C12">
         <v>-5</v>
       </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12">
+        <v>-6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>-2</v>
+      </c>
+      <c r="C13">
+        <v>-3</v>
+      </c>
+      <c r="D13">
+        <v>-8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>-7</v>
+      </c>
+      <c r="C14">
+        <v>-13</v>
+      </c>
+      <c r="D14">
+        <v>-10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>-3</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>-6</v>
       </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>-5</v>
-      </c>
-      <c r="C14">
-        <v>-7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>-7</v>
-      </c>
-      <c r="C15">
-        <v>-13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
+      <c r="D15">
+        <v>-11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3640,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3594,25 +3648,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3672,24 +3726,102 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>-11</v>
+      </c>
+      <c r="F4">
+        <v>-3</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>-3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <v>-8</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H7" t="s">
         <v>9</v>
       </c>
     </row>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="111">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -65,16 +65,19 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -161,40 +164,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>10.1-3.9</t>
-  </si>
-  <si>
-    <t>9.7-4.3</t>
-  </si>
-  <si>
-    <t>9.3-4.7</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>10.2-3.8</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>8.2-5.8</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>7.3-6.7</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
   </si>
   <si>
     <t>5.7-8.3</t>
@@ -203,16 +215,10 @@
     <t>5.4-8.6</t>
   </si>
   <si>
-    <t>5.2-8.8</t>
-  </si>
-  <si>
-    <t>5.1-8.9</t>
-  </si>
-  <si>
-    <t>4.1-9.9</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
   </si>
   <si>
     <t>10-4</t>
@@ -224,12 +230,12 @@
     <t>8-6</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
@@ -245,73 +251,76 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Michael Dillon</t>
+  </si>
+  <si>
     <t>Zachary Dillon</t>
   </si>
   <si>
     <t>nicholas spadaro</t>
   </si>
   <si>
-    <t>Michael Dillon</t>
-  </si>
-  <si>
     <t>Kathy Dillon</t>
   </si>
   <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
     <t>Stephanie Mattei</t>
   </si>
   <si>
+    <t>Ryan Lesiak</t>
+  </si>
+  <si>
     <t>gabriella spadaro</t>
   </si>
   <si>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
+    <t>Josh Formola</t>
+  </si>
+  <si>
     <t>Lawrence Rosello</t>
   </si>
   <si>
     <t>Mikaela Mitcho</t>
   </si>
   <si>
-    <t>Marissa Rodriguez</t>
-  </si>
-  <si>
-    <t>Sal Spadaro</t>
-  </si>
-  <si>
     <t>Brendan Fanning</t>
   </si>
   <si>
-    <t>Ryan Lesiak</t>
-  </si>
-  <si>
     <t>Antonio  Spadaro</t>
   </si>
   <si>
-    <t>Josh Formola</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -321,6 +330,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -760,7 +772,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -775,10 +787,10 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -801,22 +813,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -828,10 +840,10 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -840,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -848,22 +860,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -872,16 +884,16 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -895,40 +907,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -942,37 +954,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
@@ -981,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -995,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1004,13 +1016,13 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -1036,22 +1048,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1060,13 +1072,13 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
         <v>16</v>
@@ -1083,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1095,10 +1107,10 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1110,10 +1122,10 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -1130,46 +1142,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1177,22 +1189,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -1201,19 +1213,19 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O11" t="s">
         <v>16</v>
@@ -1239,16 +1251,16 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
@@ -1274,25 +1286,25 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -1318,46 +1330,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1365,37 +1377,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -1404,7 +1416,7 @@
         <v>16</v>
       </c>
       <c r="O15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1422,13 +1434,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1439,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.4285714285714285</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1453,10 +1465,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.7857142857142857</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1467,10 +1479,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.214285714285714</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1478,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.285714285714286</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1492,13 +1504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1.357142857142857</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1506,13 +1518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1.428571428571429</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1520,13 +1532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1534,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>1.714285714285714</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1548,13 +1560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1.714285714285714</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1562,10 +1574,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1.785714285714286</v>
+        <v>2.5</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1579,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1.857142857142857</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1590,13 +1602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>1.857142857142857</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1604,13 +1616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>2.642857142857143</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1618,10 +1630,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>2.071428571428572</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1642,16 +1654,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1662,10 +1674,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2.428571428571428</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0.4285714285714284</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1679,13 +1691,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.142857142857143</v>
+        <v>2.785714285714286</v>
       </c>
       <c r="D3">
-        <v>0.1428571428571428</v>
+        <v>0.7857142857142856</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1693,16 +1705,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2.142857142857143</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="D4">
-        <v>0.1428571428571428</v>
+        <v>-1.285714285714286</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1710,16 +1722,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>2.071428571428572</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="D5">
-        <v>-0.9285714285714284</v>
+        <v>-0.5714285714285716</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1727,13 +1739,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1.857142857142857</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="D6">
-        <v>-0.1428571428571428</v>
+        <v>-0.7142857142857144</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1744,16 +1756,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1.571428571428571</v>
+        <v>2.214285714285714</v>
       </c>
       <c r="D7">
-        <v>-0.4285714285714286</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1761,13 +1773,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1.428571428571429</v>
+        <v>2.071428571428572</v>
       </c>
       <c r="D8">
-        <v>0.4285714285714286</v>
+        <v>0.07142857142857162</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1778,16 +1790,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.357142857142857</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>-0.6428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1795,16 +1807,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>1.214285714285714</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D10">
-        <v>0.2142857142857142</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1815,10 +1827,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1.142857142857143</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D11">
-        <v>0.1428571428571428</v>
+        <v>-0.4285714285714286</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1829,16 +1841,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1849,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>0.9285714285714286</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="D13">
-        <v>0.9285714285714286</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1863,16 +1875,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8571428571428571</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="D14">
-        <v>-0.1428571428571429</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1880,13 +1892,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.8571428571428571</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="D15">
-        <v>-0.1428571428571429</v>
+        <v>-0.9285714285714286</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1907,52 +1919,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1960,31 +1972,31 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>31.7</v>
+        <v>42.7</v>
       </c>
       <c r="C2">
-        <v>25.6</v>
+        <v>24.4</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>12.7</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F2">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="G2">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H2">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1993,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2010,99 +2022,99 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>24.7</v>
       </c>
       <c r="C3">
-        <v>23.4</v>
+        <v>21.2</v>
       </c>
       <c r="D3">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="E3">
-        <v>10.8</v>
+        <v>12.2</v>
       </c>
       <c r="F3">
-        <v>6.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G3">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H3">
+        <v>4.6</v>
+      </c>
+      <c r="I3">
         <v>2.4</v>
       </c>
-      <c r="I3">
-        <v>1.4</v>
-      </c>
       <c r="J3">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="K3">
+        <v>0.9</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+      <c r="M3">
         <v>0.2</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.1</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P3">
-        <v>95.3</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>14.4</v>
+        <v>10.3</v>
       </c>
       <c r="C4">
-        <v>19.5</v>
+        <v>14.2</v>
       </c>
       <c r="D4">
-        <v>20.3</v>
+        <v>15.2</v>
       </c>
       <c r="E4">
-        <v>17.5</v>
+        <v>14.3</v>
       </c>
       <c r="F4">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="G4">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>4.4</v>
+        <v>7.7</v>
       </c>
       <c r="I4">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="J4">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="M4">
+        <v>0.4</v>
+      </c>
+      <c r="N4">
         <v>0.1</v>
-      </c>
-      <c r="N4">
-        <v>0.2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>90.8</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2110,349 +2122,349 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>10.6</v>
+        <v>9.5</v>
       </c>
       <c r="C5">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="D5">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="E5">
-        <v>16.7</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>15.6</v>
+        <v>11.6</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="H5">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J5">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="K5">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="M5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N5">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="O5">
         <v>0.1</v>
       </c>
       <c r="P5">
-        <v>83.5</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D6">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="E6">
-        <v>13.7</v>
+        <v>12.9</v>
       </c>
       <c r="F6">
-        <v>16.6</v>
+        <v>11.6</v>
       </c>
       <c r="G6">
-        <v>17.3</v>
+        <v>12.8</v>
       </c>
       <c r="H6">
-        <v>13.3</v>
+        <v>9.6</v>
       </c>
       <c r="I6">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="J6">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="L6">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="M6">
+        <v>1.9</v>
+      </c>
+      <c r="N6">
         <v>1.2</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.5</v>
       </c>
-      <c r="O6">
-        <v>0.6</v>
-      </c>
       <c r="P6">
-        <v>66.7</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="C7">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="D7">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>11.3</v>
       </c>
       <c r="F7">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="G7">
-        <v>12.6</v>
+        <v>13.9</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>12.9</v>
       </c>
       <c r="I7">
-        <v>8.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="J7">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="L7">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="M7">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="O7">
         <v>0.3</v>
       </c>
       <c r="P7">
-        <v>63.4</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="D8">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>4.4</v>
+        <v>8.1</v>
       </c>
       <c r="F8">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>11.2</v>
+        <v>13.2</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>12.4</v>
       </c>
       <c r="I8">
-        <v>10.3</v>
+        <v>12.1</v>
       </c>
       <c r="J8">
-        <v>12.3</v>
+        <v>10.8</v>
       </c>
       <c r="K8">
-        <v>10.6</v>
+        <v>7.2</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="M8">
-        <v>9.800000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="N8">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="P8">
-        <v>26.3</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="D9">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="E9">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="F9">
-        <v>5.4</v>
+        <v>8.9</v>
       </c>
       <c r="G9">
+        <v>7.4</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>10.6</v>
+      </c>
+      <c r="J9">
         <v>9</v>
       </c>
-      <c r="H9">
-        <v>10.9</v>
-      </c>
-      <c r="I9">
-        <v>12.4</v>
-      </c>
-      <c r="J9">
-        <v>11.7</v>
-      </c>
       <c r="K9">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="L9">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="M9">
-        <v>9.4</v>
+        <v>6.3</v>
       </c>
       <c r="N9">
-        <v>7.3</v>
+        <v>4.1</v>
       </c>
       <c r="O9">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="P9">
-        <v>19.8</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="E10">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="H10">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="I10">
-        <v>14.5</v>
+        <v>10.4</v>
       </c>
       <c r="J10">
-        <v>15.2</v>
+        <v>13.9</v>
       </c>
       <c r="K10">
-        <v>11.8</v>
+        <v>13.3</v>
       </c>
       <c r="L10">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="M10">
-        <v>7.6</v>
+        <v>10.9</v>
       </c>
       <c r="N10">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="O10">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="P10">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
         <v>1.8</v>
       </c>
       <c r="F11">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="H11">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="I11">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J11">
+        <v>10.6</v>
+      </c>
+      <c r="K11">
+        <v>11.1</v>
+      </c>
+      <c r="L11">
+        <v>12.9</v>
+      </c>
+      <c r="M11">
+        <v>16.4</v>
+      </c>
+      <c r="N11">
+        <v>12.7</v>
+      </c>
+      <c r="O11">
         <v>10.2</v>
       </c>
-      <c r="J11">
-        <v>9.5</v>
-      </c>
-      <c r="K11">
-        <v>12.4</v>
-      </c>
-      <c r="L11">
-        <v>10.6</v>
-      </c>
-      <c r="M11">
-        <v>12.9</v>
-      </c>
-      <c r="N11">
-        <v>12.2</v>
-      </c>
-      <c r="O11">
-        <v>10.9</v>
-      </c>
       <c r="P11">
-        <v>13.4</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2460,149 +2472,149 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="E12">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G12">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="H12">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>9.1</v>
       </c>
       <c r="J12">
+        <v>9.1</v>
+      </c>
+      <c r="K12">
+        <v>11.6</v>
+      </c>
+      <c r="L12">
+        <v>15.6</v>
+      </c>
+      <c r="M12">
+        <v>14.9</v>
+      </c>
+      <c r="N12">
+        <v>12.2</v>
+      </c>
+      <c r="O12">
         <v>10.9</v>
       </c>
-      <c r="K12">
-        <v>12.3</v>
-      </c>
-      <c r="L12">
-        <v>13.4</v>
-      </c>
-      <c r="M12">
-        <v>13.8</v>
-      </c>
-      <c r="N12">
-        <v>14.9</v>
-      </c>
-      <c r="O12">
-        <v>10.4</v>
-      </c>
       <c r="P12">
-        <v>9.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>0.1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="F13">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H13">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="I13">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="J13">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="K13">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>12.8</v>
       </c>
       <c r="M13">
-        <v>12.8</v>
+        <v>15.6</v>
       </c>
       <c r="N13">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="O13">
-        <v>17.1</v>
+        <v>13.1</v>
       </c>
       <c r="P13">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="F14">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="G14">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H14">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="I14">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="J14">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="K14">
-        <v>11.8</v>
+        <v>10.5</v>
       </c>
       <c r="L14">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>14.8</v>
+        <v>12.6</v>
       </c>
       <c r="N14">
-        <v>17.1</v>
+        <v>20.5</v>
       </c>
       <c r="O14">
-        <v>17.7</v>
+        <v>21.7</v>
       </c>
       <c r="P14">
-        <v>5.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2619,40 +2631,40 @@
         <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F15">
         <v>0.6</v>
       </c>
       <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
         <v>1.2</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.6</v>
       </c>
-      <c r="I15">
-        <v>3.6</v>
-      </c>
       <c r="J15">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="K15">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="L15">
-        <v>11.4</v>
+        <v>10.9</v>
       </c>
       <c r="M15">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="N15">
-        <v>20.5</v>
+        <v>22.2</v>
       </c>
       <c r="O15">
-        <v>31.5</v>
+        <v>36.6</v>
       </c>
       <c r="P15">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -2670,28 +2682,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2699,25 +2711,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>116.3733333333333</v>
+        <v>115.785</v>
       </c>
       <c r="E2">
-        <v>349.12</v>
+        <v>463.14</v>
       </c>
       <c r="F2">
         <v>99.7</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2725,51 +2737,51 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>123.7333333333333</v>
+        <v>120.09</v>
       </c>
       <c r="E3">
-        <v>371.2</v>
+        <v>480.36</v>
       </c>
       <c r="F3">
-        <v>99.09999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>115.3333333333333</v>
+        <v>112.22</v>
       </c>
       <c r="E4">
-        <v>346</v>
+        <v>448.88</v>
       </c>
       <c r="F4">
-        <v>97.39999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2777,129 +2789,129 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>116.5733333333333</v>
+        <v>117.9</v>
       </c>
       <c r="E5">
-        <v>349.72</v>
+        <v>471.6</v>
       </c>
       <c r="F5">
-        <v>93.7</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D6">
-        <v>107.5866666666667</v>
+        <v>108.665</v>
       </c>
       <c r="E6">
-        <v>322.76</v>
+        <v>434.66</v>
       </c>
       <c r="F6">
-        <v>87.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>108.3666666666667</v>
+        <v>110.21</v>
       </c>
       <c r="E7">
-        <v>325.1</v>
+        <v>440.84</v>
       </c>
       <c r="F7">
-        <v>82.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>102.0666666666667</v>
+        <v>106.5</v>
       </c>
       <c r="E8">
-        <v>306.2</v>
+        <v>426</v>
       </c>
       <c r="F8">
-        <v>47.59999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>98.58</v>
+        <v>106.69</v>
       </c>
       <c r="E9">
-        <v>295.74</v>
+        <v>426.76</v>
       </c>
       <c r="F9">
-        <v>46.2</v>
+        <v>61.9</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2907,51 +2919,51 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>100.3666666666667</v>
+        <v>100.73</v>
       </c>
       <c r="E10">
-        <v>301.1</v>
+        <v>402.92</v>
       </c>
       <c r="F10">
-        <v>43.1</v>
+        <v>39.3</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>93.36666666666667</v>
+        <v>101.815</v>
       </c>
       <c r="E11">
-        <v>280.1</v>
+        <v>407.26</v>
       </c>
       <c r="F11">
-        <v>31.5</v>
+        <v>26.1</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2959,77 +2971,77 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>93.81333333333333</v>
+        <v>95.565</v>
       </c>
       <c r="E12">
-        <v>281.44</v>
+        <v>382.26</v>
       </c>
       <c r="F12">
-        <v>24.3</v>
+        <v>25.7</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>93.2</v>
+        <v>99.22500000000001</v>
       </c>
       <c r="E13">
-        <v>279.6</v>
+        <v>396.9</v>
       </c>
       <c r="F13">
-        <v>20.9</v>
+        <v>22.7</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D14">
-        <v>91.15333333333335</v>
+        <v>93.00500000000001</v>
       </c>
       <c r="E14">
-        <v>273.46</v>
+        <v>372.02</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>15.3</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3037,25 +3049,25 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>93.48666666666666</v>
+        <v>97.38999999999999</v>
       </c>
       <c r="E15">
-        <v>280.46</v>
+        <v>389.5599999999999</v>
       </c>
       <c r="F15">
-        <v>8.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3073,19 +3085,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3093,19 +3105,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3113,19 +3125,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3133,19 +3145,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3156,16 +3168,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3173,19 +3185,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3193,19 +3205,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3213,19 +3225,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3233,19 +3245,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>-3</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3256,7 +3268,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>-3</v>
@@ -3265,7 +3277,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3273,19 +3285,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D11">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3293,19 +3305,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3313,19 +3325,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3333,19 +3345,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3353,19 +3365,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3375,78 +3387,90 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3459,79 +3483,94 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>-2</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-2</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <v>-8</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>-1</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+      <c r="E9">
         <v>-3</v>
       </c>
-      <c r="C8">
-        <v>-4</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>-3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -3544,93 +3583,111 @@
       <c r="D10">
         <v>-3</v>
       </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10">
+        <v>-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11">
+        <v>-11</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>-3</v>
+      </c>
+      <c r="C12">
         <v>-4</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="D12">
+        <v>-2</v>
+      </c>
+      <c r="E12">
+        <v>-4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>-3</v>
+      </c>
+      <c r="E13">
+        <v>-5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>-6</v>
       </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
+      <c r="C14">
+        <v>-5</v>
+      </c>
+      <c r="D14">
         <v>-6</v>
       </c>
-      <c r="C12">
-        <v>-5</v>
-      </c>
-      <c r="D12">
-        <v>-6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>-2</v>
-      </c>
-      <c r="C13">
-        <v>-3</v>
-      </c>
-      <c r="D13">
-        <v>-8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="E14">
+        <v>-16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>-7</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>-13</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>-10</v>
       </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>-3</v>
-      </c>
-      <c r="C15">
-        <v>-6</v>
-      </c>
-      <c r="D15">
-        <v>-11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
+      <c r="E15">
+        <v>-19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3697,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3648,25 +3705,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3674,25 +3731,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3700,25 +3757,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3726,25 +3783,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3752,25 +3809,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3781,22 +3838,22 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="F6">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3804,25 +3861,129 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>-3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>-19</v>
+      </c>
+      <c r="F8">
+        <v>-16</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>-6</v>
+      </c>
+      <c r="F9">
+        <v>-8</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H10" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>-4</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="109">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -179,46 +179,40 @@
     <t>0-4</t>
   </si>
   <si>
-    <t>10.2-3.8</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
-  </si>
-  <si>
-    <t>8.2-5.8</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>7.3-6.7</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>5.0-9.0</t>
-  </si>
-  <si>
-    <t>4.0-10.0</t>
+    <t>10.2-3.7-0.1</t>
+  </si>
+  <si>
+    <t>9.1-4.8-0.1</t>
+  </si>
+  <si>
+    <t>8.4-5.5-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>7.3-6.6-0.1</t>
+  </si>
+  <si>
+    <t>7.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.3-7.6-0.1</t>
+  </si>
+  <si>
+    <t>5.7-8.2-0.1</t>
+  </si>
+  <si>
+    <t>5.4-8.5-0.1</t>
+  </si>
+  <si>
+    <t>5.3-8.6-0.1</t>
+  </si>
+  <si>
+    <t>4.9-9.0-0.1</t>
+  </si>
+  <si>
+    <t>3.9-10.0-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -1972,40 +1966,40 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>24.4</v>
+        <v>23.2</v>
       </c>
       <c r="D2">
-        <v>12.7</v>
+        <v>14.3</v>
       </c>
       <c r="E2">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F2">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="G2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H2">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
         <v>0.2</v>
       </c>
       <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="L2">
+        <v>0.1</v>
+      </c>
+      <c r="M2">
         <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0.1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2014,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>97.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2022,96 +2016,96 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="C3">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>17.2</v>
+        <v>13.5</v>
       </c>
       <c r="E3">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="F3">
-        <v>8.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="G3">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H3">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="I3">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>89.40000000000001</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="C4">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
         <v>15.2</v>
       </c>
-      <c r="E4">
-        <v>14.3</v>
-      </c>
       <c r="F4">
-        <v>13.7</v>
+        <v>12.7</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="I4">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J4">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L4">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="M4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N4">
+        <v>0.6</v>
+      </c>
+      <c r="O4">
         <v>0.1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
       </c>
       <c r="P4">
         <v>78.7</v>
@@ -2119,52 +2113,52 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>14.5</v>
       </c>
-      <c r="D5">
-        <v>15.6</v>
-      </c>
       <c r="E5">
-        <v>14</v>
+        <v>15.8</v>
       </c>
       <c r="F5">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
       <c r="G5">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="H5">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="J5">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L5">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="M5">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="N5">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="O5">
         <v>0.1</v>
       </c>
       <c r="P5">
-        <v>75.90000000000001</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2172,40 +2166,40 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>6.3</v>
+        <v>8.9</v>
       </c>
       <c r="C6">
-        <v>9.800000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="D6">
-        <v>10.5</v>
+        <v>13.3</v>
       </c>
       <c r="E6">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="F6">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="G6">
-        <v>12.8</v>
+        <v>10.6</v>
       </c>
       <c r="H6">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="I6">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="J6">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="K6">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="N6">
         <v>1.2</v>
@@ -2214,107 +2208,107 @@
         <v>0.5</v>
       </c>
       <c r="P6">
-        <v>63.9</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="C7">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D7">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E7">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
       <c r="F7">
-        <v>14.1</v>
+        <v>11.4</v>
       </c>
       <c r="G7">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H7">
-        <v>12.9</v>
+        <v>10.9</v>
       </c>
       <c r="I7">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="J7">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
       <c r="K7">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="L7">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="O7">
         <v>0.3</v>
       </c>
       <c r="P7">
-        <v>53.2</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>8.1</v>
+        <v>10.7</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="G8">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
       <c r="H8">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
       <c r="I8">
-        <v>12.1</v>
+        <v>10.6</v>
       </c>
       <c r="J8">
-        <v>10.8</v>
+        <v>9.4</v>
       </c>
       <c r="K8">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="L8">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="M8">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="P8">
-        <v>43.7</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2322,49 +2316,49 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="D9">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="E9">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="F9">
-        <v>8.9</v>
+        <v>10.9</v>
       </c>
       <c r="G9">
-        <v>7.4</v>
+        <v>10.7</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="I9">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>10.9</v>
       </c>
       <c r="K9">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L9">
         <v>7.6</v>
       </c>
       <c r="M9">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="N9">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="O9">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="P9">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2372,149 +2366,149 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D10">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="E10">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G10">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="J10">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="K10">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="L10">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="M10">
-        <v>10.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="N10">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="O10">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>19.4</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1.4</v>
+      </c>
+      <c r="F11">
+        <v>2.7</v>
+      </c>
+      <c r="G11">
+        <v>4.9</v>
+      </c>
+      <c r="H11">
+        <v>5.3</v>
+      </c>
+      <c r="I11">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J11">
+        <v>9.6</v>
+      </c>
+      <c r="K11">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.9</v>
-      </c>
-      <c r="E11">
-        <v>1.8</v>
-      </c>
-      <c r="F11">
-        <v>2.6</v>
-      </c>
-      <c r="G11">
-        <v>5.2</v>
-      </c>
-      <c r="H11">
-        <v>6.6</v>
-      </c>
-      <c r="I11">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J11">
-        <v>10.6</v>
-      </c>
-      <c r="K11">
-        <v>11.1</v>
-      </c>
       <c r="L11">
-        <v>12.9</v>
+        <v>13.9</v>
       </c>
       <c r="M11">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="N11">
-        <v>12.7</v>
+        <v>15</v>
       </c>
       <c r="O11">
-        <v>10.2</v>
+        <v>7.7</v>
       </c>
       <c r="P11">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
         <v>0.3</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.8</v>
       </c>
-      <c r="D12">
-        <v>1.2</v>
-      </c>
       <c r="E12">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="F12">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G12">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J12">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K12">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="L12">
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="M12">
+        <v>17.8</v>
+      </c>
+      <c r="N12">
         <v>14.9</v>
       </c>
-      <c r="N12">
-        <v>12.2</v>
-      </c>
       <c r="O12">
-        <v>10.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P12">
-        <v>10.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2528,43 +2522,43 @@
         <v>0.3</v>
       </c>
       <c r="D13">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="E13">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F13">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H13">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J13">
-        <v>9.4</v>
+        <v>10.7</v>
       </c>
       <c r="K13">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="L13">
-        <v>12.8</v>
+        <v>14.4</v>
       </c>
       <c r="M13">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="N13">
-        <v>15</v>
+        <v>13.4</v>
       </c>
       <c r="O13">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="P13">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2572,49 +2566,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="F14">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="G14">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H14">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="I14">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>10.3</v>
       </c>
       <c r="M14">
-        <v>12.6</v>
+        <v>14.7</v>
       </c>
       <c r="N14">
         <v>20.5</v>
       </c>
       <c r="O14">
-        <v>21.7</v>
+        <v>23.3</v>
       </c>
       <c r="P14">
-        <v>7</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2631,40 +2625,40 @@
         <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
         <v>0.6</v>
       </c>
-      <c r="G15">
-        <v>0.7</v>
-      </c>
       <c r="H15">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="I15">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J15">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="K15">
         <v>7.1</v>
       </c>
       <c r="L15">
-        <v>10.9</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="N15">
-        <v>22.2</v>
+        <v>19.7</v>
       </c>
       <c r="O15">
-        <v>36.6</v>
+        <v>40.5</v>
       </c>
       <c r="P15">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -2723,13 +2717,13 @@
         <v>463.14</v>
       </c>
       <c r="F2">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G2" t="s">
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2749,13 +2743,13 @@
         <v>480.36</v>
       </c>
       <c r="F3">
-        <v>96.39999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="G3" t="s">
         <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2775,13 +2769,13 @@
         <v>448.88</v>
       </c>
       <c r="F4">
-        <v>91.90000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="G4" t="s">
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2801,13 +2795,13 @@
         <v>471.6</v>
       </c>
       <c r="F5">
-        <v>89</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="G5" t="s">
         <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2827,13 +2821,13 @@
         <v>434.66</v>
       </c>
       <c r="F6">
-        <v>82</v>
+        <v>84.3</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2853,13 +2847,13 @@
         <v>440.84</v>
       </c>
       <c r="F7">
-        <v>76.5</v>
+        <v>73.3</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2879,13 +2873,13 @@
         <v>426</v>
       </c>
       <c r="F8">
-        <v>68.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2905,13 +2899,13 @@
         <v>426.76</v>
       </c>
       <c r="F9">
-        <v>61.9</v>
+        <v>62.8</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2931,70 +2925,70 @@
         <v>402.92</v>
       </c>
       <c r="F10">
-        <v>39.3</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>101.815</v>
+        <v>95.565</v>
       </c>
       <c r="E11">
-        <v>407.26</v>
+        <v>382.26</v>
       </c>
       <c r="F11">
-        <v>26.1</v>
+        <v>25.3</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>95.565</v>
+        <v>99.22500000000001</v>
       </c>
       <c r="E12">
-        <v>382.26</v>
+        <v>396.9</v>
       </c>
       <c r="F12">
-        <v>25.7</v>
+        <v>22.9</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -3003,19 +2997,19 @@
         <v>0.25</v>
       </c>
       <c r="D13">
-        <v>99.22500000000001</v>
+        <v>101.815</v>
       </c>
       <c r="E13">
-        <v>396.9</v>
+        <v>407.26</v>
       </c>
       <c r="F13">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3035,13 +3029,13 @@
         <v>372.02</v>
       </c>
       <c r="F14">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3061,13 +3055,13 @@
         <v>389.5599999999999</v>
       </c>
       <c r="F15">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3088,16 +3082,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3108,7 +3102,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -3117,7 +3111,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3128,7 +3122,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -3137,7 +3131,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3148,7 +3142,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -3157,7 +3151,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3168,7 +3162,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3177,7 +3171,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3188,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -3197,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3208,7 +3202,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3217,7 +3211,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3228,7 +3222,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3237,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3248,7 +3242,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>-3</v>
@@ -3257,7 +3251,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3268,7 +3262,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>-3</v>
@@ -3277,7 +3271,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3288,7 +3282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>-3</v>
@@ -3297,7 +3291,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3308,7 +3302,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <v>-4</v>
@@ -3317,7 +3311,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3328,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13">
         <v>-5</v>
@@ -3337,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3348,7 +3342,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14">
         <v>-16</v>
@@ -3357,7 +3351,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3368,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>-19</v>
@@ -3377,7 +3371,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3395,19 +3389,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3427,7 +3421,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3447,7 +3441,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3467,7 +3461,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3487,7 +3481,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3507,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3527,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3547,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3567,7 +3561,7 @@
         <v>-3</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3587,7 +3581,7 @@
         <v>-3</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3607,7 +3601,7 @@
         <v>-3</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3627,7 +3621,7 @@
         <v>-4</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3647,7 +3641,7 @@
         <v>-5</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3667,7 +3661,7 @@
         <v>-16</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3687,7 +3681,7 @@
         <v>-19</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3705,25 +3699,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="109">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -65,19 +65,19 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -164,63 +164,60 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>10.2-3.7-0.1</t>
-  </si>
-  <si>
-    <t>9.1-4.8-0.1</t>
-  </si>
-  <si>
-    <t>8.4-5.5-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.7-0.1</t>
-  </si>
-  <si>
-    <t>7.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>7.0-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.3-7.6-0.1</t>
-  </si>
-  <si>
-    <t>5.7-8.2-0.1</t>
-  </si>
-  <si>
-    <t>5.4-8.5-0.1</t>
-  </si>
-  <si>
-    <t>5.3-8.6-0.1</t>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>9.4-4.5-0.1</t>
+  </si>
+  <si>
+    <t>9.0-4.9-0.1</t>
+  </si>
+  <si>
+    <t>8.0-5.9-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.4-0.1</t>
+  </si>
+  <si>
+    <t>7.2-6.7-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.1-0.1</t>
+  </si>
+  <si>
+    <t>6.6-7.3-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.8-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.7-0.1</t>
   </si>
   <si>
     <t>4.9-9.0-0.1</t>
   </si>
   <si>
-    <t>3.9-10.0-0.1</t>
+    <t>5.1-8.8-0.1</t>
+  </si>
+  <si>
+    <t>4.6-9.3-0.1</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -245,78 +239,81 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Zachary Dillon</t>
+  </si>
+  <si>
     <t>Michael Dillon</t>
   </si>
   <si>
-    <t>Zachary Dillon</t>
-  </si>
-  <si>
     <t>nicholas spadaro</t>
   </si>
   <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
     <t>Kathy Dillon</t>
   </si>
   <si>
-    <t>Sal Spadaro</t>
-  </si>
-  <si>
     <t>Stephanie Mattei</t>
   </si>
   <si>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
+    <t>Lawrence Rosello</t>
+  </si>
+  <si>
+    <t>gabriella spadaro</t>
+  </si>
+  <si>
+    <t>Mikaela Mitcho</t>
+  </si>
+  <si>
     <t>Ryan Lesiak</t>
   </si>
   <si>
-    <t>gabriella spadaro</t>
-  </si>
-  <si>
-    <t>Marissa Rodriguez</t>
+    <t>Brendan Fanning</t>
   </si>
   <si>
     <t>Josh Formola</t>
   </si>
   <si>
-    <t>Lawrence Rosello</t>
-  </si>
-  <si>
-    <t>Mikaela Mitcho</t>
-  </si>
-  <si>
-    <t>Brendan Fanning</t>
-  </si>
-  <si>
     <t>Antonio  Spadaro</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓1</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -763,16 +763,16 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -781,13 +781,13 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -834,16 +834,16 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
         <v>15</v>
@@ -854,10 +854,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -866,13 +866,13 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -881,19 +881,19 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -916,19 +916,19 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -937,10 +937,10 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -951,25 +951,25 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
@@ -978,16 +978,16 @@
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -998,16 +998,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1022,19 +1022,19 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1042,40 +1042,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -1089,34 +1089,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
@@ -1136,46 +1136,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1183,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1195,25 +1195,25 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
         <v>18</v>
@@ -1222,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1230,25 +1230,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1257,19 +1257,19 @@
         <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1277,28 +1277,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -1307,13 +1307,13 @@
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O13" t="s">
         <v>14</v>
@@ -1324,46 +1324,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
         <v>15</v>
       </c>
       <c r="O14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1374,28 +1374,28 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
@@ -1404,13 +1404,13 @@
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1442,13 +1442,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>0.9285714285714286</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1470,10 +1470,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.357142857142857</v>
+        <v>2.071428571428572</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1.714285714285714</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1498,13 +1498,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1.857142857142857</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1512,13 +1512,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>1.928571428571429</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1526,10 +1526,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1.928571428571429</v>
+        <v>2.642857142857143</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1540,10 +1540,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>2.642857142857143</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1554,10 +1554,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2.285714285714286</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1568,13 +1568,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>2.785714285714286</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1582,10 +1582,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>2.571428571428572</v>
+        <v>2.785714285714286</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1596,13 +1596,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>2.571428571428572</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>2.642857142857143</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1627,10 +1627,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>2.714285714285714</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1668,13 +1668,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1682,16 +1682,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2.785714285714286</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="D3">
-        <v>0.7857142857142856</v>
+        <v>-0.7142857142857144</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1699,13 +1699,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2.714285714285714</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D4">
-        <v>-1.285714285714286</v>
+        <v>-0.7857142857142856</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1716,16 +1716,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2.428571428571428</v>
+        <v>3.071428571428572</v>
       </c>
       <c r="D5">
-        <v>-0.5714285714285716</v>
+        <v>0.07142857142857162</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1733,16 +1733,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.285714285714286</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D6">
-        <v>-0.7142857142857144</v>
+        <v>-0.1428571428571428</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1753,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>2.214285714285714</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="D7">
-        <v>0.2142857142857144</v>
+        <v>0.5714285714285716</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1767,13 +1767,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.071428571428572</v>
+        <v>2.5</v>
       </c>
       <c r="D8">
-        <v>0.07142857142857162</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1784,13 +1784,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>2.357142857142857</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.6428571428571428</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1801,16 +1801,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1.714285714285714</v>
+        <v>2.357142857142857</v>
       </c>
       <c r="D10">
-        <v>0.7142857142857142</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1818,16 +1818,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>1.571428571428571</v>
+        <v>2.357142857142857</v>
       </c>
       <c r="D11">
-        <v>-0.4285714285714286</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1835,16 +1835,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>1.571428571428571</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="D12">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1852,16 +1852,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>1.357142857142857</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="D13">
-        <v>1.357142857142857</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1869,13 +1869,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>1.214285714285714</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D14">
-        <v>0.2142857142857142</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1889,13 +1889,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1.071428571428571</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="D15">
-        <v>-0.9285714285714286</v>
+        <v>-0.7857142857142858</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1966,49 +1966,49 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>25.1</v>
       </c>
       <c r="C2">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>14.3</v>
+        <v>18.6</v>
       </c>
       <c r="E2">
-        <v>8.199999999999999</v>
+        <v>13.6</v>
       </c>
       <c r="F2">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H2">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="I2">
+        <v>1.4</v>
+      </c>
+      <c r="J2">
+        <v>0.6</v>
+      </c>
+      <c r="K2">
         <v>0.4</v>
       </c>
-      <c r="J2">
-        <v>0.2</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
         <v>0.1</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>97.09999999999999</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2016,40 +2016,40 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>23.3</v>
+        <v>32.9</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>21.3</v>
       </c>
       <c r="D3">
-        <v>13.5</v>
+        <v>15.6</v>
       </c>
       <c r="E3">
-        <v>13.7</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="G3">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="H3">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2058,512 +2058,512 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>88.3</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>10.1</v>
+        <v>20.7</v>
       </c>
       <c r="C4">
-        <v>13.5</v>
+        <v>17.7</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>16.8</v>
       </c>
       <c r="E4">
-        <v>15.2</v>
+        <v>13.3</v>
       </c>
       <c r="F4">
-        <v>12.7</v>
+        <v>11.2</v>
       </c>
       <c r="G4">
-        <v>11.2</v>
+        <v>6.7</v>
       </c>
       <c r="H4">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="I4">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="J4">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="L4">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="O4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>78.7</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="D5">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="E5">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="F5">
-        <v>12.6</v>
+        <v>13.5</v>
       </c>
       <c r="G5">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>10.1</v>
       </c>
       <c r="I5">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="J5">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="L5">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="M5">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="N5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O5">
         <v>0.1</v>
       </c>
       <c r="P5">
-        <v>77.5</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>8.9</v>
+        <v>4.5</v>
       </c>
       <c r="C6">
-        <v>10.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D6">
-        <v>13.3</v>
+        <v>7.7</v>
       </c>
       <c r="E6">
-        <v>11.5</v>
+        <v>10.1</v>
       </c>
       <c r="F6">
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
       <c r="G6">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="H6">
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="I6">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J6">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="M6">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="N6">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P6">
-        <v>66.7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="C7">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="D7">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="E7">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="F7">
-        <v>11.4</v>
+        <v>8.6</v>
       </c>
       <c r="G7">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="H7">
-        <v>10.9</v>
+        <v>12.9</v>
       </c>
       <c r="I7">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>10.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K7">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="L7">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="M7">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="N7">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="O7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="C8">
+        <v>4.8</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>8.9</v>
+      </c>
+      <c r="F8">
+        <v>10.3</v>
+      </c>
+      <c r="G8">
+        <v>11.3</v>
+      </c>
+      <c r="H8">
+        <v>10.4</v>
+      </c>
+      <c r="I8">
+        <v>12.9</v>
+      </c>
+      <c r="J8">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K8">
+        <v>7.8</v>
+      </c>
+      <c r="L8">
         <v>4.6</v>
       </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>10.7</v>
-      </c>
-      <c r="F8">
-        <v>9.9</v>
-      </c>
-      <c r="G8">
-        <v>12.1</v>
-      </c>
-      <c r="H8">
-        <v>14.4</v>
-      </c>
-      <c r="I8">
-        <v>10.6</v>
-      </c>
-      <c r="J8">
-        <v>9.4</v>
-      </c>
-      <c r="K8">
-        <v>6.5</v>
-      </c>
-      <c r="L8">
-        <v>5.6</v>
-      </c>
       <c r="M8">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="P8">
-        <v>48.3</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="C9">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D9">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="E9">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="F9">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
       <c r="G9">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="H9">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="I9">
-        <v>10.7</v>
+        <v>12.3</v>
       </c>
       <c r="J9">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="K9">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="L9">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="M9">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="N9">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O9">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P9">
-        <v>40.5</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="E10">
-        <v>3.4</v>
+        <v>6.1</v>
       </c>
       <c r="F10">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="I10">
-        <v>10.3</v>
+        <v>10.9</v>
       </c>
       <c r="J10">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="K10">
-        <v>13.8</v>
+        <v>12</v>
       </c>
       <c r="L10">
-        <v>12.1</v>
+        <v>8.9</v>
       </c>
       <c r="M10">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="N10">
-        <v>7.7</v>
+        <v>4.8</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>20.7</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="F11">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="G11">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="H11">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I11">
-        <v>9.699999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="J11">
+        <v>12.6</v>
+      </c>
+      <c r="K11">
+        <v>14.1</v>
+      </c>
+      <c r="L11">
         <v>9.6</v>
       </c>
-      <c r="K11">
-        <v>13</v>
-      </c>
-      <c r="L11">
-        <v>13.9</v>
-      </c>
       <c r="M11">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
       <c r="N11">
-        <v>15</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O11">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="P11">
-        <v>10.3</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="E12">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I12">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K12">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="L12">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="M12">
-        <v>17.8</v>
+        <v>14.5</v>
       </c>
       <c r="N12">
-        <v>14.9</v>
+        <v>13.1</v>
       </c>
       <c r="O12">
-        <v>9.800000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="P12">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0.3</v>
       </c>
       <c r="D13">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>2.3</v>
       </c>
       <c r="G13">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="I13">
-        <v>8.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="J13">
-        <v>10.7</v>
+        <v>6.6</v>
       </c>
       <c r="K13">
-        <v>10.8</v>
+        <v>8.4</v>
       </c>
       <c r="L13">
-        <v>14.4</v>
+        <v>11.8</v>
       </c>
       <c r="M13">
-        <v>15.4</v>
+        <v>13.6</v>
       </c>
       <c r="N13">
-        <v>13.4</v>
+        <v>20.4</v>
       </c>
       <c r="O13">
-        <v>12.4</v>
+        <v>23.5</v>
       </c>
       <c r="P13">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2575,45 +2575,45 @@
         <v>0.5</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F14">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="G14">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H14">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="I14">
+        <v>5.3</v>
+      </c>
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="J14">
-        <v>7</v>
-      </c>
       <c r="K14">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L14">
-        <v>10.3</v>
+        <v>15.6</v>
       </c>
       <c r="M14">
-        <v>14.7</v>
+        <v>19.4</v>
       </c>
       <c r="N14">
-        <v>20.5</v>
+        <v>22.3</v>
       </c>
       <c r="O14">
-        <v>23.3</v>
+        <v>15.4</v>
       </c>
       <c r="P14">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2622,43 +2622,43 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="E15">
-        <v>0.2</v>
-      </c>
       <c r="F15">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G15">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H15">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="I15">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J15">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="K15">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>13.1</v>
       </c>
       <c r="M15">
-        <v>12.6</v>
+        <v>16.5</v>
       </c>
       <c r="N15">
-        <v>19.7</v>
+        <v>17.6</v>
       </c>
       <c r="O15">
-        <v>40.5</v>
+        <v>33.6</v>
       </c>
       <c r="P15">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -2708,22 +2708,22 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>115.785</v>
+        <v>115.832</v>
       </c>
       <c r="E2">
-        <v>463.14</v>
+        <v>579.16</v>
       </c>
       <c r="F2">
-        <v>99.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2731,25 +2731,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>120.09</v>
+        <v>119.108</v>
       </c>
       <c r="E3">
-        <v>480.36</v>
+        <v>595.54</v>
       </c>
       <c r="F3">
-        <v>96.7</v>
+        <v>97.7</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2757,25 +2757,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>112.22</v>
+        <v>114.936</v>
       </c>
       <c r="E4">
-        <v>448.88</v>
+        <v>574.6799999999999</v>
       </c>
       <c r="F4">
-        <v>90.7</v>
+        <v>94.8</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2783,48 +2783,48 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>117.9</v>
+        <v>115.784</v>
       </c>
       <c r="E5">
-        <v>471.6</v>
+        <v>578.9200000000001</v>
       </c>
       <c r="F5">
-        <v>89.60000000000001</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>108.665</v>
+        <v>111.248</v>
       </c>
       <c r="E6">
-        <v>434.66</v>
+        <v>556.24</v>
       </c>
       <c r="F6">
-        <v>84.3</v>
+        <v>71.7</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
         <v>66</v>
@@ -2832,25 +2832,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>110.21</v>
+        <v>106.864</v>
       </c>
       <c r="E7">
-        <v>440.84</v>
+        <v>534.3199999999999</v>
       </c>
       <c r="F7">
-        <v>73.3</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
         <v>66</v>
@@ -2858,210 +2858,210 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>106.5</v>
+        <v>107.128</v>
       </c>
       <c r="E8">
-        <v>426</v>
+        <v>535.64</v>
       </c>
       <c r="F8">
-        <v>70.09999999999999</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>106.69</v>
+        <v>111.2</v>
       </c>
       <c r="E9">
-        <v>426.76</v>
+        <v>556</v>
       </c>
       <c r="F9">
-        <v>62.8</v>
+        <v>62.2</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>100.73</v>
+        <v>107.676</v>
       </c>
       <c r="E10">
-        <v>402.92</v>
+        <v>538.38</v>
       </c>
       <c r="F10">
-        <v>42</v>
+        <v>52.1</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>95.565</v>
+        <v>104.524</v>
       </c>
       <c r="E11">
-        <v>382.26</v>
+        <v>522.62</v>
       </c>
       <c r="F11">
-        <v>25.3</v>
+        <v>39.3</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>99.22500000000001</v>
+        <v>104.952</v>
       </c>
       <c r="E12">
-        <v>396.9</v>
+        <v>524.76</v>
       </c>
       <c r="F12">
-        <v>22.9</v>
+        <v>20.6</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>101.815</v>
+        <v>98.62800000000001</v>
       </c>
       <c r="E13">
-        <v>407.26</v>
+        <v>493.14</v>
       </c>
       <c r="F13">
-        <v>22.3</v>
+        <v>15.7</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>93.00500000000001</v>
+        <v>96.524</v>
       </c>
       <c r="E14">
-        <v>372.02</v>
+        <v>482.62</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>13.6</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>97.38999999999999</v>
+        <v>95.94800000000001</v>
       </c>
       <c r="E15">
-        <v>389.5599999999999</v>
+        <v>479.74</v>
       </c>
       <c r="F15">
-        <v>5.4</v>
+        <v>6.9</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3082,16 +3082,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3099,19 +3099,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3119,19 +3119,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3142,16 +3142,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3159,16 +3159,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -3179,19 +3179,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3202,16 +3202,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3219,19 +3219,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3239,19 +3239,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3259,10 +3259,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>-3</v>
@@ -3271,7 +3271,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3279,19 +3279,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>-3</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3299,19 +3299,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3319,19 +3319,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3339,19 +3339,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3362,16 +3362,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3381,70 +3381,79 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3460,51 +3469,60 @@
       <c r="E4">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-6</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>-4</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-6</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3520,151 +3538,175 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>-5</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>-3</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="C8">
-        <v>-3</v>
-      </c>
-      <c r="D8">
-        <v>-8</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-1</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>-7</v>
-      </c>
-      <c r="D10">
-        <v>-3</v>
       </c>
       <c r="E10">
         <v>-3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>-3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>-3</v>
+      </c>
+      <c r="E11">
+        <v>-5</v>
+      </c>
+      <c r="F11">
+        <v>-3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-2</v>
+      </c>
+      <c r="C12">
+        <v>-3</v>
+      </c>
+      <c r="D12">
+        <v>-8</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-6</v>
+      </c>
+      <c r="G12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-6</v>
+      </c>
+      <c r="C13">
+        <v>-5</v>
+      </c>
+      <c r="D13">
+        <v>-6</v>
+      </c>
+      <c r="E13">
+        <v>-16</v>
+      </c>
+      <c r="F13">
+        <v>-12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>-3</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>-6</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>-11</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>-3</v>
       </c>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>-3</v>
-      </c>
-      <c r="C12">
-        <v>-4</v>
-      </c>
-      <c r="D12">
-        <v>-2</v>
-      </c>
-      <c r="E12">
-        <v>-4</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F14">
+        <v>-13</v>
+      </c>
+      <c r="G14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>-3</v>
-      </c>
-      <c r="E13">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>-6</v>
-      </c>
-      <c r="C14">
-        <v>-5</v>
-      </c>
-      <c r="D14">
-        <v>-6</v>
-      </c>
-      <c r="E14">
-        <v>-16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -3680,8 +3722,11 @@
       <c r="E15">
         <v>-19</v>
       </c>
-      <c r="F15" t="s">
-        <v>97</v>
+      <c r="F15">
+        <v>-18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3691,7 +3736,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3777,25 +3822,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F4">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3806,22 +3851,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-13</v>
+      </c>
+      <c r="G5">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>-5</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3829,25 +3874,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>-11</v>
-      </c>
       <c r="F6">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3858,22 +3903,22 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E7">
+        <v>-11</v>
+      </c>
+      <c r="F7">
         <v>-3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3881,25 +3926,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>-19</v>
-      </c>
-      <c r="F8">
-        <v>-16</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3907,25 +3952,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>-19</v>
+      </c>
+      <c r="F9">
+        <v>-16</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>-6</v>
-      </c>
-      <c r="F9">
-        <v>-8</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3933,51 +3978,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
-        <v>-4</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="117">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -143,6 +144,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -179,16 +198,19 @@
     <t>9.4-4.5-0.1</t>
   </si>
   <si>
+    <t>9.5-4.5-0.1</t>
+  </si>
+  <si>
     <t>9.0-4.9-0.1</t>
   </si>
   <si>
-    <t>8.0-5.9-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.4-0.1</t>
-  </si>
-  <si>
-    <t>7.2-6.7-0.1</t>
+    <t>8.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>7.6-6.4-0.1</t>
+  </si>
+  <si>
+    <t>7.1-6.8-0.1</t>
   </si>
   <si>
     <t>6.8-7.1-0.1</t>
@@ -200,24 +222,24 @@
     <t>6.1-7.8-0.1</t>
   </si>
   <si>
+    <t>5.1-8.8-0.1</t>
+  </si>
+  <si>
     <t>5.2-8.7-0.1</t>
   </si>
   <si>
     <t>4.9-9.0-0.1</t>
   </si>
   <si>
-    <t>5.1-8.8-0.1</t>
-  </si>
-  <si>
-    <t>4.6-9.3-0.1</t>
+    <t>4.5-9.4-0.1</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>10-4</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -228,6 +250,9 @@
   </si>
   <si>
     <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -1966,40 +1991,40 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>22.1</v>
       </c>
       <c r="D2">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="E2">
-        <v>13.6</v>
+        <v>11.6</v>
       </c>
       <c r="F2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="G2">
-        <v>4.7</v>
+        <v>6.9</v>
       </c>
       <c r="H2">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="I2">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K2">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
         <v>0.1</v>
@@ -2008,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2019,37 +2044,37 @@
         <v>32.9</v>
       </c>
       <c r="C3">
-        <v>21.3</v>
+        <v>22.1</v>
       </c>
       <c r="D3">
-        <v>15.6</v>
+        <v>16.6</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="G3">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H3">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J3">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2058,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>92.40000000000001</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2066,49 +2091,49 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="C4">
         <v>17.7</v>
       </c>
       <c r="D4">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="E4">
-        <v>13.3</v>
+        <v>15.3</v>
       </c>
       <c r="F4">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
       <c r="G4">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H4">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="I4">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>1.2</v>
       </c>
-      <c r="L4">
-        <v>0.4</v>
-      </c>
       <c r="M4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>86.40000000000001</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2116,49 +2141,49 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C5">
-        <v>11.5</v>
+        <v>13.2</v>
       </c>
       <c r="D5">
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="E5">
-        <v>14.7</v>
+        <v>13.5</v>
       </c>
       <c r="F5">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="G5">
-        <v>9.5</v>
+        <v>11.9</v>
       </c>
       <c r="H5">
-        <v>10.1</v>
+        <v>8.6</v>
       </c>
       <c r="I5">
         <v>6.2</v>
       </c>
       <c r="J5">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="M5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P5">
-        <v>71.7</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2166,49 +2191,49 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="C6">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="D6">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="E6">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F6">
-        <v>11.1</v>
+        <v>12.7</v>
       </c>
       <c r="G6">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H6">
-        <v>9.4</v>
+        <v>9.9</v>
       </c>
       <c r="I6">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J6">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="K6">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="L6">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="M6">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O6">
         <v>0.8</v>
       </c>
       <c r="P6">
-        <v>53</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2216,49 +2241,49 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C7">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="D7">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G7">
+        <v>13.3</v>
+      </c>
+      <c r="H7">
+        <v>11.5</v>
+      </c>
+      <c r="I7">
+        <v>8.9</v>
+      </c>
+      <c r="J7">
         <v>9.6</v>
       </c>
-      <c r="F7">
-        <v>8.6</v>
-      </c>
-      <c r="G7">
-        <v>13.2</v>
-      </c>
-      <c r="H7">
-        <v>12.9</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>8.800000000000001</v>
-      </c>
       <c r="K7">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L7">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M7">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7">
-        <v>48.1</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2266,49 +2291,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="C8">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="E8">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="F8">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G8">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="H8">
+        <v>10.6</v>
+      </c>
+      <c r="I8">
+        <v>12.7</v>
+      </c>
+      <c r="J8">
         <v>10.4</v>
       </c>
-      <c r="I8">
-        <v>12.9</v>
-      </c>
-      <c r="J8">
-        <v>9.800000000000001</v>
-      </c>
       <c r="K8">
-        <v>7.8</v>
+        <v>10.6</v>
       </c>
       <c r="L8">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="M8">
         <v>4.6</v>
       </c>
       <c r="N8">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="P8">
-        <v>44.8</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2316,49 +2341,49 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D9">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F9">
-        <v>10.1</v>
+        <v>11.7</v>
       </c>
       <c r="G9">
-        <v>12.1</v>
+        <v>10.7</v>
       </c>
       <c r="H9">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="I9">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="J9">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="K9">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="L9">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="M9">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="N9">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>1.2</v>
       </c>
       <c r="P9">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2366,49 +2391,49 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="D10">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="E10">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="F10">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="G10">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="H10">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="I10">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="J10">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>10.4</v>
       </c>
       <c r="L10">
         <v>8.9</v>
       </c>
       <c r="M10">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="N10">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="P10">
-        <v>29.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2416,49 +2441,49 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="E11">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="G11">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="H11">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I11">
-        <v>11.4</v>
+        <v>9.6</v>
       </c>
       <c r="J11">
-        <v>12.6</v>
+        <v>11.5</v>
       </c>
       <c r="K11">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="L11">
-        <v>9.6</v>
+        <v>12.4</v>
       </c>
       <c r="M11">
-        <v>9.5</v>
+        <v>12.7</v>
       </c>
       <c r="N11">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="O11">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="P11">
-        <v>18.7</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2466,104 +2491,104 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D12">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F12">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="G12">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J12">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K12">
-        <v>11.9</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>14.9</v>
+        <v>12.5</v>
       </c>
       <c r="M12">
-        <v>14.5</v>
+        <v>17.3</v>
       </c>
       <c r="N12">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="O12">
-        <v>15.2</v>
+        <v>16.6</v>
       </c>
       <c r="P12">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F13">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="G13">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H13">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I13">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="J13">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="K13">
-        <v>8.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L13">
-        <v>11.8</v>
+        <v>12.9</v>
       </c>
       <c r="M13">
-        <v>13.6</v>
+        <v>18.5</v>
       </c>
       <c r="N13">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
       <c r="O13">
-        <v>23.5</v>
+        <v>14.9</v>
       </c>
       <c r="P13">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2575,40 +2600,40 @@
         <v>0.5</v>
       </c>
       <c r="E14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="G14">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="I14">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="K14">
-        <v>8.699999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="L14">
-        <v>15.6</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>19.4</v>
+        <v>14.4</v>
       </c>
       <c r="N14">
-        <v>22.3</v>
+        <v>18.5</v>
       </c>
       <c r="O14">
-        <v>15.4</v>
+        <v>23.4</v>
       </c>
       <c r="P14">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2619,46 +2644,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
         <v>0.1</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G15">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H15">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="I15">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J15">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="L15">
-        <v>13.1</v>
+        <v>14.2</v>
       </c>
       <c r="M15">
-        <v>16.5</v>
+        <v>13.2</v>
       </c>
       <c r="N15">
-        <v>17.6</v>
+        <v>22</v>
       </c>
       <c r="O15">
-        <v>33.6</v>
+        <v>32.5</v>
       </c>
       <c r="P15">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2667,6 +2692,361 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>86.3</v>
+      </c>
+      <c r="C2">
+        <v>98</v>
+      </c>
+      <c r="D2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E2">
+        <v>99.5</v>
+      </c>
+      <c r="F2">
+        <v>98.2</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>63.2</v>
+      </c>
+      <c r="C3">
+        <v>94.3</v>
+      </c>
+      <c r="D3">
+        <v>98.7</v>
+      </c>
+      <c r="E3">
+        <v>97</v>
+      </c>
+      <c r="F3">
+        <v>97.2</v>
+      </c>
+      <c r="G3">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>68.2</v>
+      </c>
+      <c r="C4">
+        <v>25.7</v>
+      </c>
+      <c r="D4">
+        <v>86.3</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>96.2</v>
+      </c>
+      <c r="G4">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>22.1</v>
+      </c>
+      <c r="C5">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="D5">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="E5">
+        <v>89.2</v>
+      </c>
+      <c r="F5">
+        <v>92.5</v>
+      </c>
+      <c r="G5">
+        <v>89.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>46.40000000000001</v>
+      </c>
+      <c r="C6">
+        <v>66.60000000000001</v>
+      </c>
+      <c r="D6">
+        <v>21.8</v>
+      </c>
+      <c r="E6">
+        <v>62.5</v>
+      </c>
+      <c r="F6">
+        <v>74.7</v>
+      </c>
+      <c r="G6">
+        <v>76.09999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>93.5</v>
+      </c>
+      <c r="C7">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>50.8</v>
+      </c>
+      <c r="E7">
+        <v>81.3</v>
+      </c>
+      <c r="F7">
+        <v>67.5</v>
+      </c>
+      <c r="G7">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="C8">
+        <v>15.5</v>
+      </c>
+      <c r="D8">
+        <v>38.5</v>
+      </c>
+      <c r="E8">
+        <v>43.5</v>
+      </c>
+      <c r="F8">
+        <v>65.8</v>
+      </c>
+      <c r="G8">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>96.2</v>
+      </c>
+      <c r="C9">
+        <v>91.5</v>
+      </c>
+      <c r="D9">
+        <v>97.5</v>
+      </c>
+      <c r="E9">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="F9">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>59.09999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>98.8</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>84.3</v>
+      </c>
+      <c r="E10">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>50.7</v>
+      </c>
+      <c r="G10">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>99.5</v>
+      </c>
+      <c r="C11">
+        <v>70.89999999999999</v>
+      </c>
+      <c r="D11">
+        <v>49.5</v>
+      </c>
+      <c r="E11">
+        <v>26.2</v>
+      </c>
+      <c r="F11">
+        <v>33.2</v>
+      </c>
+      <c r="G11">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="C12">
+        <v>15.9</v>
+      </c>
+      <c r="D12">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="E12">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="F12">
+        <v>24.5</v>
+      </c>
+      <c r="G12">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1.2</v>
+      </c>
+      <c r="C13">
+        <v>8.9</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>27.6</v>
+      </c>
+      <c r="F13">
+        <v>13.5</v>
+      </c>
+      <c r="G13">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>29.9</v>
+      </c>
+      <c r="C14">
+        <v>82.3</v>
+      </c>
+      <c r="D14">
+        <v>33.2</v>
+      </c>
+      <c r="E14">
+        <v>18.1</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>4.5</v>
+      </c>
+      <c r="C15">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="D15">
+        <v>15.7</v>
+      </c>
+      <c r="E15">
+        <v>24.2</v>
+      </c>
+      <c r="F15">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="G15">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -2679,25 +3059,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2705,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -2717,13 +3097,13 @@
         <v>579.16</v>
       </c>
       <c r="F2">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2731,7 +3111,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -2743,13 +3123,13 @@
         <v>595.54</v>
       </c>
       <c r="F3">
-        <v>97.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2757,7 +3137,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>0.8</v>
@@ -2769,13 +3149,13 @@
         <v>574.6799999999999</v>
       </c>
       <c r="F4">
-        <v>94.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2783,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>0.6</v>
@@ -2795,13 +3175,13 @@
         <v>578.9200000000001</v>
       </c>
       <c r="F5">
-        <v>88</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2809,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -2821,13 +3201,13 @@
         <v>556.24</v>
       </c>
       <c r="F6">
-        <v>71.7</v>
+        <v>75.8</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2835,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -2847,13 +3227,13 @@
         <v>534.3199999999999</v>
       </c>
       <c r="F7">
-        <v>71</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2861,7 +3241,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>0.6</v>
@@ -2873,13 +3253,13 @@
         <v>535.64</v>
       </c>
       <c r="F8">
-        <v>68.10000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2887,7 +3267,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>0.4</v>
@@ -2899,13 +3279,13 @@
         <v>556</v>
       </c>
       <c r="F9">
-        <v>62.2</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2913,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>0.4</v>
@@ -2925,13 +3305,13 @@
         <v>538.38</v>
       </c>
       <c r="F10">
-        <v>52.1</v>
+        <v>53.7</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2939,7 +3319,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>0.4</v>
@@ -2951,13 +3331,13 @@
         <v>522.62</v>
       </c>
       <c r="F11">
-        <v>39.3</v>
+        <v>35.2</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2965,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -2977,65 +3357,65 @@
         <v>524.76</v>
       </c>
       <c r="F12">
-        <v>20.6</v>
+        <v>19.9</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>98.62800000000001</v>
+        <v>96.524</v>
       </c>
       <c r="E13">
-        <v>493.14</v>
+        <v>482.62</v>
       </c>
       <c r="F13">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D14">
-        <v>96.524</v>
+        <v>98.62800000000001</v>
       </c>
       <c r="E14">
-        <v>482.62</v>
+        <v>493.14</v>
       </c>
       <c r="F14">
-        <v>13.6</v>
+        <v>14.7</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3043,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>0.2</v>
@@ -3055,13 +3435,13 @@
         <v>479.74</v>
       </c>
       <c r="F15">
-        <v>6.9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3069,7 +3449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -3082,16 +3462,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3102,7 +3482,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -3111,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3122,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -3131,7 +3511,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3142,7 +3522,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -3151,7 +3531,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3162,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -3171,7 +3551,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3182,7 +3562,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -3191,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3202,7 +3582,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -3211,7 +3591,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3222,7 +3602,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3231,7 +3611,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3242,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3251,7 +3631,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3262,7 +3642,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>-3</v>
@@ -3271,7 +3651,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3282,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>-3</v>
@@ -3291,7 +3671,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3302,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>-6</v>
@@ -3311,7 +3691,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3322,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>-12</v>
@@ -3331,7 +3711,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3342,7 +3722,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <v>-13</v>
@@ -3351,7 +3731,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3362,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <v>-18</v>
@@ -3371,7 +3751,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3379,7 +3759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -3389,22 +3769,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3427,7 +3807,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3450,7 +3830,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3473,7 +3853,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3496,7 +3876,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3519,7 +3899,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3542,7 +3922,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3565,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3588,7 +3968,7 @@
         <v>-1</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3611,7 +3991,7 @@
         <v>-3</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3634,7 +4014,7 @@
         <v>-3</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3657,7 +4037,7 @@
         <v>-6</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3680,7 +4060,7 @@
         <v>-12</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3703,7 +4083,7 @@
         <v>-13</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3726,7 +4106,7 @@
         <v>-18</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3734,7 +4114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -3744,25 +4124,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="121">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -66,19 +66,22 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -162,6 +165,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -183,63 +189,66 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>9.4-4.5-0.1</t>
-  </si>
-  <si>
-    <t>9.5-4.5-0.1</t>
-  </si>
-  <si>
-    <t>9.0-4.9-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.7-0.1</t>
-  </si>
-  <si>
-    <t>7.6-6.4-0.1</t>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>9.8-4.2-0.1</t>
+  </si>
+  <si>
+    <t>9.5-4.4-0.1</t>
+  </si>
+  <si>
+    <t>9.2-4.7-0.1</t>
+  </si>
+  <si>
+    <t>8.0-5.9-0.1</t>
+  </si>
+  <si>
+    <t>7.4-6.5-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.1-0.1</t>
   </si>
   <si>
     <t>7.1-6.8-0.1</t>
   </si>
   <si>
-    <t>6.8-7.1-0.1</t>
-  </si>
-  <si>
-    <t>6.6-7.3-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.8-0.1</t>
-  </si>
-  <si>
-    <t>5.1-8.8-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.7-0.1</t>
+    <t>7.0-7.0-0.1</t>
+  </si>
+  <si>
+    <t>6.5-7.5-0.1</t>
+  </si>
+  <si>
+    <t>5.9-8.0</t>
+  </si>
+  <si>
+    <t>5.8-8.1-0.1</t>
+  </si>
+  <si>
+    <t>4.6-9.4-0.1</t>
   </si>
   <si>
     <t>4.9-9.0-0.1</t>
   </si>
   <si>
-    <t>4.5-9.4-0.1</t>
+    <t>4.0-10.0-0.1</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -267,76 +276,76 @@
     <t>Zachary Dillon</t>
   </si>
   <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
+    <t>nicholas spadaro</t>
+  </si>
+  <si>
+    <t>Mikaela Mitcho</t>
+  </si>
+  <si>
+    <t>Lawrence Rosello</t>
+  </si>
+  <si>
+    <t>Kathy Dillon</t>
+  </si>
+  <si>
+    <t>gabriella spadaro</t>
+  </si>
+  <si>
     <t>Michael Dillon</t>
   </si>
   <si>
-    <t>nicholas spadaro</t>
-  </si>
-  <si>
-    <t>Sal Spadaro</t>
-  </si>
-  <si>
-    <t>Kathy Dillon</t>
-  </si>
-  <si>
     <t>Stephanie Mattei</t>
   </si>
   <si>
     <t>Marissa Rodriguez</t>
   </si>
   <si>
-    <t>Lawrence Rosello</t>
-  </si>
-  <si>
-    <t>gabriella spadaro</t>
-  </si>
-  <si>
-    <t>Mikaela Mitcho</t>
+    <t>Brendan Fanning</t>
   </si>
   <si>
     <t>Ryan Lesiak</t>
   </si>
   <si>
-    <t>Brendan Fanning</t>
-  </si>
-  <si>
     <t>Josh Formola</t>
   </si>
   <si>
     <t>Antonio  Spadaro</t>
   </si>
   <si>
-    <t>↓2</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓8</t>
   </si>
   <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -352,6 +361,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -791,10 +803,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -812,13 +824,13 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -841,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -865,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
         <v>16</v>
@@ -932,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -953,13 +965,13 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
@@ -976,40 +988,40 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
@@ -1029,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1047,13 +1059,13 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
         <v>16</v>
@@ -1067,43 +1079,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O8" t="s">
         <v>14</v>
@@ -1123,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1164,40 +1176,40 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O10" t="s">
         <v>16</v>
@@ -1211,40 +1223,40 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O11" t="s">
         <v>18</v>
@@ -1261,19 +1273,19 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1282,13 +1294,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
@@ -1308,34 +1320,34 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
         <v>18</v>
@@ -1349,46 +1361,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1402,34 +1414,34 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N15" t="s">
         <v>14</v>
@@ -1453,13 +1465,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1470,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1481,13 +1493,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.714285714285714</v>
+        <v>2.214285714285714</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1495,13 +1507,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2.071428571428572</v>
+        <v>2.214285714285714</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1509,13 +1521,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>2.285714285714286</v>
+        <v>2.642857142857143</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1523,10 +1535,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.571428571428572</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1537,13 +1549,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2.571428571428572</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1551,10 +1563,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2.642857142857143</v>
+        <v>3.071428571428572</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1565,13 +1577,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.642857142857143</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1579,10 +1591,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>2.714285714285714</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1593,13 +1605,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2.785714285714286</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1607,10 +1619,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2.785714285714286</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1621,13 +1633,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>2.857142857142857</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1635,13 +1647,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>2.857142857142857</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1652,10 +1664,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1673,16 +1685,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1693,13 +1705,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>4.214285714285714</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.7857142857142856</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1707,16 +1719,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>3.285714285714286</v>
+        <v>3.785714285714286</v>
       </c>
       <c r="D3">
-        <v>-0.7142857142857144</v>
+        <v>-1.214285714285714</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1724,16 +1736,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3.214285714285714</v>
+        <v>3.642857142857143</v>
       </c>
       <c r="D4">
-        <v>-0.7857142857142856</v>
+        <v>-1.357142857142857</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1741,16 +1753,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3.071428571428572</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="D5">
-        <v>0.07142857142857162</v>
+        <v>-0.5714285714285716</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1758,16 +1770,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2.857142857142857</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="D6">
-        <v>-0.1428571428571428</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1775,16 +1787,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.571428571428572</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D7">
-        <v>0.5714285714285716</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1792,13 +1804,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1809,13 +1821,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2.357142857142857</v>
+        <v>3.071428571428572</v>
       </c>
       <c r="D9">
-        <v>-0.6428571428571428</v>
+        <v>0.07142857142857162</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1826,16 +1838,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2.357142857142857</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D10">
-        <v>0.3571428571428572</v>
+        <v>-1.142857142857143</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1843,16 +1855,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>2.357142857142857</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D11">
-        <v>1.357142857142857</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1863,10 +1875,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>2.285714285714286</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D12">
-        <v>0.2857142857142856</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1877,13 +1889,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>1.857142857142857</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="D13">
-        <v>0.8571428571428572</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1897,10 +1909,10 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>1.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="D14">
-        <v>0.5714285714285714</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1914,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1.214285714285714</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="D15">
-        <v>-0.7857142857142858</v>
+        <v>-0.6428571428571428</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1938,140 +1950,140 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>25.4</v>
+        <v>42.3</v>
       </c>
       <c r="C2">
-        <v>22.1</v>
+        <v>21.5</v>
       </c>
       <c r="D2">
-        <v>19.1</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>11.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F2">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="G2">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="H2">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="I2">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="J2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>93.7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>32.9</v>
+        <v>23.2</v>
       </c>
       <c r="C3">
-        <v>22.1</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>16.6</v>
+        <v>20.5</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>11.9</v>
       </c>
       <c r="F3">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G3">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="J3">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="K3">
         <v>0.4</v>
       </c>
       <c r="L3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -2083,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>93</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2091,37 +2103,37 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>20.4</v>
+        <v>17.2</v>
       </c>
       <c r="C4">
-        <v>17.7</v>
+        <v>23.6</v>
       </c>
       <c r="D4">
-        <v>15.8</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>15.3</v>
+        <v>13.2</v>
       </c>
       <c r="F4">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G4">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="H4">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="I4">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="J4">
         <v>2.1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="M4">
         <v>0.1</v>
@@ -2133,507 +2145,507 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>85.90000000000001</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>6.9</v>
+      </c>
+      <c r="C5">
+        <v>9.5</v>
+      </c>
+      <c r="D5">
+        <v>11.2</v>
+      </c>
+      <c r="E5">
+        <v>11.4</v>
+      </c>
+      <c r="F5">
+        <v>13.1</v>
+      </c>
+      <c r="G5">
+        <v>11.5</v>
+      </c>
+      <c r="H5">
+        <v>11.4</v>
+      </c>
+      <c r="I5">
+        <v>7.7</v>
+      </c>
+      <c r="J5">
+        <v>6.7</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>2.6</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C5">
-        <v>13.2</v>
-      </c>
-      <c r="D5">
-        <v>12.8</v>
-      </c>
-      <c r="E5">
-        <v>13.5</v>
-      </c>
-      <c r="F5">
-        <v>13.9</v>
-      </c>
-      <c r="G5">
-        <v>11.9</v>
-      </c>
-      <c r="H5">
-        <v>8.6</v>
-      </c>
-      <c r="I5">
-        <v>6.2</v>
-      </c>
-      <c r="J5">
-        <v>5.2</v>
-      </c>
-      <c r="K5">
-        <v>3.5</v>
-      </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.9</v>
       </c>
-      <c r="M5">
-        <v>0.6</v>
-      </c>
-      <c r="N5">
-        <v>0.2</v>
-      </c>
       <c r="O5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P5">
-        <v>74.59999999999999</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="C6">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9.1</v>
+        <v>7.8</v>
       </c>
       <c r="E6">
-        <v>9.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F6">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="G6">
+        <v>12.2</v>
+      </c>
+      <c r="H6">
+        <v>10.6</v>
+      </c>
+      <c r="I6">
         <v>10.9</v>
       </c>
-      <c r="H6">
-        <v>9.9</v>
-      </c>
-      <c r="I6">
-        <v>9.800000000000001</v>
-      </c>
       <c r="J6">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="K6">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="N6">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="O6">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="P6">
-        <v>56.1</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="E7">
+        <v>10.7</v>
+      </c>
+      <c r="F7">
+        <v>12.4</v>
+      </c>
+      <c r="G7">
+        <v>12.6</v>
+      </c>
+      <c r="H7">
+        <v>13.4</v>
+      </c>
+      <c r="I7">
         <v>11</v>
       </c>
-      <c r="F7">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G7">
-        <v>13.3</v>
-      </c>
-      <c r="H7">
-        <v>11.5</v>
-      </c>
-      <c r="I7">
-        <v>8.9</v>
-      </c>
       <c r="J7">
-        <v>9.6</v>
+        <v>8.1</v>
       </c>
       <c r="K7">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="L7">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="M7">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P7">
-        <v>51.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>6.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F8">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="G8">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="H8">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="I8">
-        <v>12.7</v>
+        <v>13.5</v>
       </c>
       <c r="J8">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="K8">
-        <v>10.6</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="M8">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P8">
-        <v>40.3</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="C9">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="E9">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="F9">
-        <v>11.7</v>
+        <v>9.4</v>
       </c>
       <c r="G9">
-        <v>10.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H9">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="I9">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>9.1</v>
       </c>
       <c r="K9">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="L9">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M9">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O9">
         <v>1.2</v>
       </c>
       <c r="P9">
-        <v>37.8</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F10">
-        <v>7.9</v>
+        <v>9.5</v>
       </c>
       <c r="G10">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="H10">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="J10">
-        <v>11.2</v>
+        <v>13.1</v>
       </c>
       <c r="K10">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="L10">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
       <c r="M10">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="N10">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="O10">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="P10">
-        <v>30</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
         <v>0.9</v>
       </c>
       <c r="D11">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="F11">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="G11">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H11">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11">
-        <v>9.6</v>
+        <v>10.3</v>
       </c>
       <c r="J11">
+        <v>11.9</v>
+      </c>
+      <c r="K11">
+        <v>13.7</v>
+      </c>
+      <c r="L11">
         <v>11.5</v>
       </c>
-      <c r="K11">
-        <v>13.6</v>
-      </c>
-      <c r="L11">
-        <v>12.4</v>
-      </c>
       <c r="M11">
-        <v>12.7</v>
+        <v>11.3</v>
       </c>
       <c r="N11">
         <v>9.1</v>
       </c>
       <c r="O11">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="P11">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="E12">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="F12">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H12">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="I12">
-        <v>6.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J12">
-        <v>9.300000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="K12">
-        <v>11</v>
+        <v>14.4</v>
       </c>
       <c r="L12">
-        <v>12.5</v>
+        <v>15.9</v>
       </c>
       <c r="M12">
-        <v>17.3</v>
+        <v>13</v>
       </c>
       <c r="N12">
-        <v>13.4</v>
+        <v>10.4</v>
       </c>
       <c r="O12">
-        <v>16.6</v>
+        <v>4.4</v>
       </c>
       <c r="P12">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="F13">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="G13">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H13">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="I13">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="J13">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="K13">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L13">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="M13">
-        <v>18.5</v>
+        <v>17.6</v>
       </c>
       <c r="N13">
-        <v>21.6</v>
+        <v>24.1</v>
       </c>
       <c r="O13">
-        <v>14.9</v>
+        <v>21</v>
       </c>
       <c r="P13">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0.1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.5</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="I14">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="J14">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="K14">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>14.8</v>
       </c>
       <c r="M14">
-        <v>14.4</v>
+        <v>21.6</v>
       </c>
       <c r="N14">
-        <v>18.5</v>
+        <v>23.3</v>
       </c>
       <c r="O14">
-        <v>23.4</v>
+        <v>17.5</v>
       </c>
       <c r="P14">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2644,46 +2656,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>0.5</v>
       </c>
-      <c r="E15">
-        <v>0.1</v>
-      </c>
-      <c r="F15">
-        <v>0.2</v>
-      </c>
-      <c r="G15">
+      <c r="H15">
+        <v>0.6</v>
+      </c>
+      <c r="I15">
         <v>1.1</v>
       </c>
-      <c r="H15">
-        <v>1.9</v>
-      </c>
-      <c r="I15">
-        <v>3.1</v>
-      </c>
       <c r="J15">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="L15">
-        <v>14.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M15">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="N15">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="O15">
-        <v>32.5</v>
+        <v>46.5</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2693,352 +2705,397 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>66.7</v>
+      </c>
+      <c r="C2">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="D2">
+        <v>98.5</v>
+      </c>
+      <c r="E2">
+        <v>97.5</v>
+      </c>
+      <c r="F2">
+        <v>97.8</v>
+      </c>
+      <c r="G2">
+        <v>99.5</v>
+      </c>
+      <c r="H2">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>86.3</v>
-      </c>
-      <c r="C2">
+      <c r="B3">
+        <v>86.8</v>
+      </c>
+      <c r="C3">
         <v>98</v>
       </c>
-      <c r="D2">
+      <c r="D3">
+        <v>99.3</v>
+      </c>
+      <c r="E3">
         <v>99.59999999999999</v>
       </c>
-      <c r="E2">
-        <v>99.5</v>
-      </c>
-      <c r="F2">
-        <v>98.2</v>
-      </c>
-      <c r="G2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>63.2</v>
-      </c>
-      <c r="C3">
-        <v>94.3</v>
-      </c>
-      <c r="D3">
-        <v>98.7</v>
-      </c>
-      <c r="E3">
-        <v>97</v>
-      </c>
       <c r="F3">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="G3">
+        <v>97.7</v>
+      </c>
+      <c r="H3">
         <v>98.09999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>68.2</v>
+        <v>67</v>
       </c>
       <c r="C4">
-        <v>25.7</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>86.3</v>
+        <v>87.8</v>
       </c>
       <c r="E4">
-        <v>89</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="F4">
-        <v>96.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G4">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>96.8</v>
+      </c>
+      <c r="H4">
+        <v>96.89999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2.8</v>
+      </c>
+      <c r="C5">
+        <v>16.2</v>
+      </c>
+      <c r="D5">
+        <v>37.9</v>
+      </c>
+      <c r="E5">
+        <v>39.5</v>
+      </c>
+      <c r="F5">
+        <v>65.10000000000001</v>
+      </c>
+      <c r="G5">
+        <v>84.8</v>
+      </c>
+      <c r="H5">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="C6">
+        <v>40.9</v>
+      </c>
+      <c r="D6">
+        <v>50.2</v>
+      </c>
+      <c r="E6">
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <v>69.8</v>
+      </c>
+      <c r="G6">
+        <v>78.10000000000001</v>
+      </c>
+      <c r="H6">
+        <v>79.90000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>98.2</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>85.5</v>
+      </c>
+      <c r="E7">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>22.1</v>
-      </c>
-      <c r="C5">
-        <v>82.19999999999999</v>
-      </c>
-      <c r="D5">
-        <v>94.89999999999999</v>
-      </c>
-      <c r="E5">
-        <v>89.2</v>
-      </c>
-      <c r="F5">
-        <v>92.5</v>
-      </c>
-      <c r="G5">
-        <v>89.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D8">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="E8">
+        <v>88.8</v>
+      </c>
+      <c r="F8">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="G8">
+        <v>63.4</v>
+      </c>
+      <c r="H8">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>46.40000000000001</v>
-      </c>
-      <c r="C6">
-        <v>66.60000000000001</v>
-      </c>
-      <c r="D6">
-        <v>21.8</v>
-      </c>
-      <c r="E6">
-        <v>62.5</v>
-      </c>
-      <c r="F6">
-        <v>74.7</v>
-      </c>
-      <c r="G6">
-        <v>76.09999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>93.5</v>
-      </c>
-      <c r="C7">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>50.8</v>
-      </c>
-      <c r="E7">
-        <v>81.3</v>
-      </c>
-      <c r="F7">
-        <v>67.5</v>
-      </c>
-      <c r="G7">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="C8">
-        <v>15.5</v>
-      </c>
-      <c r="D8">
-        <v>38.5</v>
-      </c>
-      <c r="E8">
-        <v>43.5</v>
-      </c>
-      <c r="F8">
-        <v>65.8</v>
-      </c>
-      <c r="G8">
+      <c r="B9">
+        <v>46.8</v>
+      </c>
+      <c r="C9">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="D9">
+        <v>24.5</v>
+      </c>
+      <c r="E9">
+        <v>60.9</v>
+      </c>
+      <c r="F9">
+        <v>73.8</v>
+      </c>
+      <c r="G9">
+        <v>59.8</v>
+      </c>
+      <c r="H9">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>96.2</v>
-      </c>
-      <c r="C9">
-        <v>91.5</v>
-      </c>
-      <c r="D9">
-        <v>97.5</v>
-      </c>
-      <c r="E9">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="F9">
-        <v>65</v>
-      </c>
-      <c r="G9">
-        <v>59.09999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B10">
-        <v>98.8</v>
+        <v>95.5</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>84.3</v>
+        <v>96.5</v>
       </c>
       <c r="E10">
-        <v>63</v>
+        <v>73.3</v>
       </c>
       <c r="F10">
-        <v>50.7</v>
+        <v>61.8</v>
       </c>
       <c r="G10">
-        <v>51.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="H10">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>30.4</v>
+      </c>
+      <c r="C11">
+        <v>82.39999999999999</v>
+      </c>
+      <c r="D11">
+        <v>30.5</v>
+      </c>
+      <c r="E11">
+        <v>19.8</v>
+      </c>
+      <c r="F11">
+        <v>14.4</v>
+      </c>
+      <c r="G11">
+        <v>38.3</v>
+      </c>
+      <c r="H11">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>99.5</v>
-      </c>
-      <c r="C11">
-        <v>70.89999999999999</v>
-      </c>
-      <c r="D11">
-        <v>49.5</v>
-      </c>
-      <c r="E11">
-        <v>26.2</v>
-      </c>
-      <c r="F11">
-        <v>33.2</v>
-      </c>
-      <c r="G11">
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="B12">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C12">
+        <v>72.39999999999999</v>
+      </c>
+      <c r="D12">
+        <v>50.6</v>
+      </c>
+      <c r="E12">
+        <v>27.5</v>
+      </c>
+      <c r="F12">
+        <v>37.5</v>
+      </c>
+      <c r="G12">
+        <v>28.9</v>
+      </c>
+      <c r="H12">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="C12">
-        <v>15.9</v>
-      </c>
-      <c r="D12">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="E12">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="F12">
-        <v>24.5</v>
-      </c>
-      <c r="G12">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="B13">
+        <v>84.7</v>
+      </c>
+      <c r="C13">
+        <v>19.1</v>
+      </c>
+      <c r="D13">
+        <v>5.7</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>22.9</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>1.2</v>
-      </c>
-      <c r="C13">
-        <v>8.9</v>
-      </c>
-      <c r="D13">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>27.6</v>
-      </c>
-      <c r="F13">
-        <v>13.5</v>
-      </c>
-      <c r="G13">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B14">
-        <v>29.9</v>
+        <v>1.4</v>
       </c>
       <c r="C14">
-        <v>82.3</v>
+        <v>6.9</v>
       </c>
       <c r="D14">
-        <v>33.2</v>
+        <v>23.4</v>
       </c>
       <c r="E14">
-        <v>18.1</v>
+        <v>23.1</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>14.8</v>
       </c>
       <c r="G14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="H14">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>4.5</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C15">
-        <v>7.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="D15">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E15">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="F15">
-        <v>7.000000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="G15">
-        <v>8.300000000000001</v>
+        <v>3.4</v>
+      </c>
+      <c r="H15">
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -3056,80 +3113,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D2">
-        <v>115.832</v>
+        <v>118.35</v>
       </c>
       <c r="E2">
-        <v>579.16</v>
+        <v>710.1</v>
       </c>
       <c r="F2">
-        <v>98.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3">
-        <v>119.108</v>
+        <v>112.33</v>
       </c>
       <c r="E3">
-        <v>595.54</v>
+        <v>673.98</v>
       </c>
       <c r="F3">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3137,77 +3194,77 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4">
-        <v>114.936</v>
+        <v>112.3866666666667</v>
       </c>
       <c r="E4">
-        <v>574.6799999999999</v>
+        <v>674.3199999999999</v>
       </c>
       <c r="F4">
-        <v>95.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>115.784</v>
+        <v>110.66</v>
       </c>
       <c r="E5">
-        <v>578.9200000000001</v>
+        <v>663.96</v>
       </c>
       <c r="F5">
-        <v>89.40000000000001</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>111.248</v>
+        <v>110.96</v>
       </c>
       <c r="E6">
-        <v>556.24</v>
+        <v>665.76</v>
       </c>
       <c r="F6">
-        <v>75.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3215,207 +3272,207 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7">
-        <v>106.864</v>
+        <v>105.64</v>
       </c>
       <c r="E7">
-        <v>534.3199999999999</v>
+        <v>633.84</v>
       </c>
       <c r="F7">
-        <v>71.89999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>107.128</v>
+        <v>109.8433333333333</v>
       </c>
       <c r="E8">
-        <v>535.64</v>
+        <v>659.0599999999999</v>
       </c>
       <c r="F8">
-        <v>63.6</v>
+        <v>68.7</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>111.2</v>
+        <v>109.1133333333333</v>
       </c>
       <c r="E9">
-        <v>556</v>
+        <v>654.6799999999999</v>
       </c>
       <c r="F9">
-        <v>62</v>
+        <v>63.4</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>107.676</v>
+        <v>112.2033333333333</v>
       </c>
       <c r="E10">
-        <v>538.38</v>
+        <v>673.22</v>
       </c>
       <c r="F10">
-        <v>53.7</v>
+        <v>55.2</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>104.524</v>
+        <v>105.2666666666667</v>
       </c>
       <c r="E11">
-        <v>522.62</v>
+        <v>631.6</v>
       </c>
       <c r="F11">
-        <v>35.2</v>
+        <v>35.8</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>104.952</v>
+        <v>104.78</v>
       </c>
       <c r="E12">
-        <v>524.76</v>
+        <v>628.6800000000001</v>
       </c>
       <c r="F12">
-        <v>19.9</v>
+        <v>29.4</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D13">
-        <v>96.524</v>
+        <v>102.6733333333333</v>
       </c>
       <c r="E13">
-        <v>482.62</v>
+        <v>616.04</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D14">
-        <v>98.62800000000001</v>
+        <v>95.65333333333332</v>
       </c>
       <c r="E14">
-        <v>493.14</v>
+        <v>573.92</v>
       </c>
       <c r="F14">
-        <v>14.7</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3423,25 +3480,25 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D15">
-        <v>95.94800000000001</v>
+        <v>95.43666666666667</v>
       </c>
       <c r="E15">
-        <v>479.74</v>
+        <v>572.62</v>
       </c>
       <c r="F15">
-        <v>7.000000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3459,19 +3516,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3482,16 +3539,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3499,19 +3556,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3522,16 +3579,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3539,19 +3596,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3559,19 +3616,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3579,19 +3636,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3599,16 +3656,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>97</v>
@@ -3619,19 +3676,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3639,19 +3696,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3659,19 +3716,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3679,19 +3736,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3699,19 +3756,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3722,16 +3779,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3742,16 +3799,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D15">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3761,33 +3818,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>113</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3806,34 +3866,40 @@
       <c r="F2">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
+        <v>-4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-6</v>
+      </c>
+      <c r="E3">
         <v>3</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>17</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3852,218 +3918,248 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>-3</v>
+      </c>
+      <c r="E5">
+        <v>-5</v>
+      </c>
+      <c r="F5">
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
         <v>-4</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-6</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="D8">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>-3</v>
       </c>
       <c r="F8">
+        <v>-3</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>-3</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>-4</v>
-      </c>
-      <c r="F9">
+      <c r="G10">
         <v>-1</v>
       </c>
-      <c r="G9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>-3</v>
-      </c>
-      <c r="F10">
-        <v>-3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="D11">
         <v>-3</v>
       </c>
       <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>-6</v>
+      </c>
+      <c r="C12">
         <v>-5</v>
       </c>
-      <c r="F11">
+      <c r="D12">
+        <v>-6</v>
+      </c>
+      <c r="E12">
+        <v>-16</v>
+      </c>
+      <c r="F12">
+        <v>-12</v>
+      </c>
+      <c r="G12">
+        <v>-4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>-2</v>
+      </c>
+      <c r="C13">
         <v>-3</v>
       </c>
-      <c r="G11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>-2</v>
-      </c>
-      <c r="C12">
-        <v>-3</v>
-      </c>
-      <c r="D12">
+      <c r="D13">
         <v>-8</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>-6</v>
       </c>
-      <c r="G12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>-6</v>
-      </c>
-      <c r="C13">
-        <v>-5</v>
-      </c>
-      <c r="D13">
-        <v>-6</v>
-      </c>
-      <c r="E13">
-        <v>-16</v>
-      </c>
-      <c r="F13">
-        <v>-12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13">
+        <v>-9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4082,11 +4178,14 @@
       <c r="F14">
         <v>-13</v>
       </c>
-      <c r="G14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14">
+        <v>-17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -4105,8 +4204,11 @@
       <c r="F15">
         <v>-18</v>
       </c>
-      <c r="G15" t="s">
-        <v>104</v>
+      <c r="G15">
+        <v>-21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4116,7 +4218,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4124,25 +4226,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4228,25 +4330,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4257,22 +4359,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-13</v>
+      </c>
+      <c r="G6">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>-5</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4280,25 +4382,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>-11</v>
-      </c>
       <c r="F7">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4306,25 +4408,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>-3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4332,25 +4434,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="F9">
-        <v>-16</v>
+        <v>-3</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4358,25 +4460,103 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>-6</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>-19</v>
+      </c>
+      <c r="F13">
+        <v>-16</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="124">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -66,22 +66,25 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -168,6 +171,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -189,66 +195,72 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>9.8-4.2-0.1</t>
-  </si>
-  <si>
-    <t>9.5-4.4-0.1</t>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>10.2-3.7-0.1</t>
+  </si>
+  <si>
+    <t>9.8-4.1-0.1</t>
   </si>
   <si>
     <t>9.2-4.7-0.1</t>
   </si>
   <si>
+    <t>8.4-5.5-0.1</t>
+  </si>
+  <si>
     <t>8.0-5.9-0.1</t>
   </si>
   <si>
-    <t>7.4-6.5-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.1-0.1</t>
-  </si>
-  <si>
-    <t>7.1-6.8-0.1</t>
-  </si>
-  <si>
-    <t>7.0-7.0-0.1</t>
+    <t>7.2-6.7-0.1</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
   </si>
   <si>
     <t>6.5-7.5-0.1</t>
   </si>
   <si>
-    <t>5.9-8.0</t>
-  </si>
-  <si>
-    <t>5.8-8.1-0.1</t>
+    <t>6.4-7.6-0.1</t>
+  </si>
+  <si>
+    <t>6.4-7.5-0.1</t>
+  </si>
+  <si>
+    <t>5.7-8.2-0.1</t>
   </si>
   <si>
     <t>4.6-9.4-0.1</t>
   </si>
   <si>
-    <t>4.9-9.0-0.1</t>
-  </si>
-  <si>
-    <t>4.0-10.0-0.1</t>
+    <t>4.2-9.7-0.1</t>
+  </si>
+  <si>
+    <t>4.3-9.7-0.1</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -258,9 +270,6 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -285,27 +294,27 @@
     <t>Mikaela Mitcho</t>
   </si>
   <si>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
+    <t>gabriella spadaro</t>
+  </si>
+  <si>
+    <t>Kathy Dillon</t>
+  </si>
+  <si>
     <t>Lawrence Rosello</t>
   </si>
   <si>
-    <t>Kathy Dillon</t>
-  </si>
-  <si>
-    <t>gabriella spadaro</t>
-  </si>
-  <si>
     <t>Michael Dillon</t>
   </si>
   <si>
+    <t>Brendan Fanning</t>
+  </si>
+  <si>
     <t>Stephanie Mattei</t>
   </si>
   <si>
-    <t>Marissa Rodriguez</t>
-  </si>
-  <si>
-    <t>Brendan Fanning</t>
-  </si>
-  <si>
     <t>Ryan Lesiak</t>
   </si>
   <si>
@@ -315,39 +324,36 @@
     <t>Antonio  Spadaro</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -364,6 +370,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -800,22 +809,22 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -824,19 +833,19 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -906,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -918,16 +927,16 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
         <v>14</v>
@@ -944,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -965,19 +974,19 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -985,7 +994,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -994,25 +1003,25 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1024,7 +1033,7 @@
         <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1035,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -1062,13 +1071,13 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O7" t="s">
         <v>16</v>
@@ -1082,16 +1091,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -1109,16 +1118,16 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N8" t="s">
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1129,7 +1138,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1141,10 +1150,10 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -1156,13 +1165,13 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O9" t="s">
         <v>14</v>
@@ -1176,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1188,10 +1197,10 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -1223,22 +1232,22 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -1247,16 +1256,16 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O11" t="s">
         <v>18</v>
@@ -1273,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1282,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1297,10 +1306,10 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
@@ -1320,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1329,31 +1338,31 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N13" t="s">
         <v>18</v>
       </c>
       <c r="O13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1364,28 +1373,28 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
         <v>14</v>
@@ -1394,13 +1403,13 @@
         <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1411,31 +1420,31 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
@@ -1444,10 +1453,10 @@
         <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1465,13 +1474,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1482,7 +1491,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.714285714285714</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1496,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.214285714285714</v>
+        <v>2.357142857142857</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1510,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.214285714285714</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1524,10 +1533,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2.642857142857143</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1538,10 +1547,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.857142857142857</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1552,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1563,13 +1572,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3.071428571428572</v>
+        <v>3.642857142857143</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1577,13 +1586,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.142857142857143</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1591,13 +1600,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3.214285714285714</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1605,13 +1614,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>3.214285714285714</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1619,13 +1628,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>3.571428571428572</v>
+        <v>4.071428571428571</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1633,13 +1642,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>3.571428571428572</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1647,10 +1656,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>3.714285714285714</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1661,13 +1670,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>3.857142857142857</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1685,16 +1694,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1705,13 +1714,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>4.214285714285714</v>
+        <v>4.928571428571429</v>
       </c>
       <c r="D2">
-        <v>-0.7857142857142856</v>
+        <v>-0.07142857142857117</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1722,13 +1731,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3.785714285714286</v>
+        <v>4.785714285714286</v>
       </c>
       <c r="D3">
         <v>-1.214285714285714</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1736,13 +1745,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3.642857142857143</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="D4">
-        <v>-1.357142857142857</v>
+        <v>0.1428571428571432</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -1753,16 +1762,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3.428571428571428</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>-0.5714285714285716</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1770,16 +1779,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.285714285714286</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1.285714285714286</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1790,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.214285714285714</v>
+        <v>3.785714285714286</v>
       </c>
       <c r="D7">
-        <v>0.2142857142857144</v>
+        <v>0.7857142857142856</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1804,13 +1813,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>3.214285714285714</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="D8">
-        <v>0.2142857142857144</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1821,13 +1830,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>3.071428571428572</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="D9">
-        <v>0.07142857142857162</v>
+        <v>0.5714285714285716</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1838,16 +1847,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>2.857142857142857</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="D10">
-        <v>-1.142857142857143</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1855,16 +1864,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2.857142857142857</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="D11">
-        <v>0.8571428571428572</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1872,16 +1881,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2.857142857142857</v>
+        <v>2.928571428571428</v>
       </c>
       <c r="D12">
-        <v>0.8571428571428572</v>
+        <v>-1.071428571428572</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1892,10 +1901,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>2.428571428571428</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D13">
-        <v>1.428571428571428</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1909,13 +1918,13 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>1.785714285714286</v>
+        <v>2.214285714285714</v>
       </c>
       <c r="D14">
-        <v>0.7857142857142858</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1950,90 +1959,90 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>42.3</v>
+        <v>22.5</v>
       </c>
       <c r="C2">
-        <v>21.5</v>
+        <v>26.5</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="E2">
-        <v>9.300000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="F2">
+        <v>7.1</v>
+      </c>
+      <c r="G2">
         <v>4.2</v>
       </c>
-      <c r="G2">
-        <v>3.7</v>
-      </c>
       <c r="H2">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="I2">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -2045,45 +2054,45 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>96</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>23.2</v>
+        <v>46.2</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>20.5</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>11.9</v>
+        <v>6.3</v>
       </c>
       <c r="F3">
-        <v>8.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="G3">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="I3">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -2095,48 +2104,48 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>93.8</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>17.2</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>20.9</v>
       </c>
       <c r="E4">
-        <v>13.2</v>
+        <v>15.7</v>
       </c>
       <c r="F4">
         <v>8.699999999999999</v>
       </c>
       <c r="G4">
-        <v>8.1</v>
+        <v>4.8</v>
       </c>
       <c r="H4">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="J4">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2145,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>87.8</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2153,399 +2162,399 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="C5">
-        <v>9.5</v>
+        <v>11.6</v>
       </c>
       <c r="D5">
-        <v>11.2</v>
+        <v>16.8</v>
       </c>
       <c r="E5">
-        <v>11.4</v>
+        <v>16.5</v>
       </c>
       <c r="F5">
-        <v>13.1</v>
+        <v>15.6</v>
       </c>
       <c r="G5">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>11.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I5">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="J5">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N5">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="O5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>63.6</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="D6">
-        <v>7.8</v>
+        <v>13.4</v>
       </c>
       <c r="E6">
-        <v>11.5</v>
+        <v>18.4</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>14.7</v>
       </c>
       <c r="G6">
-        <v>12.2</v>
+        <v>15.9</v>
       </c>
       <c r="H6">
-        <v>10.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
-        <v>10.9</v>
+        <v>7.6</v>
       </c>
       <c r="J6">
-        <v>9.5</v>
+        <v>4.6</v>
       </c>
       <c r="K6">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="N6">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="O6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>53.8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>1.9</v>
+      </c>
+      <c r="D7">
+        <v>4.1</v>
+      </c>
+      <c r="E7">
+        <v>7.1</v>
+      </c>
+      <c r="F7">
+        <v>13.1</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>12.9</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>10.1</v>
+      </c>
+      <c r="K7">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L7">
+        <v>7.5</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>2.3</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>9.5</v>
-      </c>
-      <c r="E7">
-        <v>10.7</v>
-      </c>
-      <c r="F7">
-        <v>12.4</v>
-      </c>
-      <c r="G7">
-        <v>12.6</v>
-      </c>
-      <c r="H7">
-        <v>13.4</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>8.1</v>
-      </c>
-      <c r="K7">
-        <v>6.5</v>
-      </c>
-      <c r="L7">
-        <v>3.9</v>
-      </c>
-      <c r="M7">
-        <v>2.9</v>
-      </c>
       <c r="N7">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O7">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="P7">
-        <v>52.5</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="E8">
-        <v>9.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="F8">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G8">
+        <v>11.2</v>
+      </c>
+      <c r="H8">
         <v>10.4</v>
       </c>
-      <c r="G8">
-        <v>11.7</v>
-      </c>
-      <c r="H8">
-        <v>11.4</v>
-      </c>
       <c r="I8">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J8">
-        <v>10.2</v>
+        <v>12.1</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>11.9</v>
       </c>
       <c r="L8">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="M8">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="O8">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="P8">
-        <v>43.8</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="D9">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="E9">
-        <v>9.1</v>
+        <v>5.4</v>
       </c>
       <c r="F9">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H9">
-        <v>10.8</v>
+        <v>13.1</v>
       </c>
       <c r="I9">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="J9">
-        <v>9.1</v>
+        <v>12.8</v>
       </c>
       <c r="K9">
-        <v>8.9</v>
+        <v>11.4</v>
       </c>
       <c r="L9">
-        <v>8.699999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M9">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="N9">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O9">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>39.9</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E10">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="F10">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="G10">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
       <c r="H10">
-        <v>12.1</v>
+        <v>10.9</v>
       </c>
       <c r="I10">
-        <v>11.2</v>
+        <v>14.1</v>
       </c>
       <c r="J10">
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="L10">
-        <v>6.6</v>
+        <v>10.4</v>
       </c>
       <c r="M10">
-        <v>7.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N10">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P10">
-        <v>31.9</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="E11">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="F11">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="G11">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>8.199999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="I11">
-        <v>10.3</v>
+        <v>10.9</v>
       </c>
       <c r="J11">
-        <v>11.9</v>
+        <v>15.3</v>
       </c>
       <c r="K11">
-        <v>13.7</v>
+        <v>15.4</v>
       </c>
       <c r="L11">
-        <v>11.5</v>
+        <v>10.4</v>
       </c>
       <c r="M11">
-        <v>11.3</v>
+        <v>6.7</v>
       </c>
       <c r="N11">
-        <v>9.1</v>
+        <v>4.2</v>
       </c>
       <c r="O11">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="P11">
-        <v>17.3</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="E12">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="F12">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="G12">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="H12">
-        <v>6.6</v>
+        <v>10.8</v>
       </c>
       <c r="I12">
-        <v>9.300000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="J12">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="K12">
-        <v>14.4</v>
+        <v>12.7</v>
       </c>
       <c r="L12">
-        <v>15.9</v>
+        <v>14.1</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12">
-        <v>10.4</v>
+        <v>7.7</v>
       </c>
       <c r="O12">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="P12">
-        <v>13.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2556,46 +2565,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.3</v>
       </c>
-      <c r="E13">
-        <v>0.4</v>
-      </c>
       <c r="F13">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G13">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="I13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="L13">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
       <c r="M13">
-        <v>17.6</v>
+        <v>18.3</v>
       </c>
       <c r="N13">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="O13">
-        <v>21</v>
+        <v>25.6</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2612,40 +2621,40 @@
         <v>0.1</v>
       </c>
       <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
         <v>0.5</v>
       </c>
-      <c r="F14">
-        <v>0.8</v>
-      </c>
-      <c r="G14">
-        <v>0.8</v>
-      </c>
       <c r="H14">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="I14">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="J14">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="K14">
-        <v>10.2</v>
+        <v>4.7</v>
       </c>
       <c r="L14">
-        <v>14.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M14">
-        <v>21.6</v>
+        <v>15.1</v>
       </c>
       <c r="N14">
-        <v>23.3</v>
+        <v>24.8</v>
       </c>
       <c r="O14">
-        <v>17.5</v>
+        <v>40.5</v>
       </c>
       <c r="P14">
-        <v>2.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2659,43 +2668,43 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H15">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="I15">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="K15">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="L15">
-        <v>9.699999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="M15">
-        <v>13.3</v>
+        <v>20.5</v>
       </c>
       <c r="N15">
-        <v>21.2</v>
+        <v>25.1</v>
       </c>
       <c r="O15">
-        <v>46.5</v>
+        <v>23.3</v>
       </c>
       <c r="P15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2705,397 +2714,442 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>67.5</v>
+      </c>
+      <c r="C2">
+        <v>26.3</v>
+      </c>
+      <c r="D2">
+        <v>89.2</v>
+      </c>
+      <c r="E2">
+        <v>90.3</v>
+      </c>
+      <c r="F2">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="G2">
+        <v>96.8</v>
+      </c>
+      <c r="H2">
+        <v>99.7</v>
+      </c>
+      <c r="I2">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>66.7</v>
-      </c>
-      <c r="C2">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="D2">
+      <c r="B3">
+        <v>63.1</v>
+      </c>
+      <c r="C3">
+        <v>95.3</v>
+      </c>
+      <c r="D3">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E3">
+        <v>97.2</v>
+      </c>
+      <c r="F3">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="G3">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H3">
+        <v>99.2</v>
+      </c>
+      <c r="I3">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>87.2</v>
+      </c>
+      <c r="C4">
         <v>98.5</v>
       </c>
-      <c r="E2">
-        <v>97.5</v>
-      </c>
-      <c r="F2">
-        <v>97.8</v>
-      </c>
-      <c r="G2">
-        <v>99.5</v>
-      </c>
-      <c r="H2">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>86.8</v>
-      </c>
-      <c r="C3">
+      <c r="D4">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E4">
+        <v>99.3</v>
+      </c>
+      <c r="F4">
         <v>98</v>
       </c>
-      <c r="D3">
-        <v>99.3</v>
-      </c>
-      <c r="E3">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F3">
-        <v>97.5</v>
-      </c>
-      <c r="G3">
+      <c r="G4">
         <v>97.7</v>
       </c>
-      <c r="H3">
-        <v>98.09999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>67</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>87.8</v>
-      </c>
-      <c r="E4">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="F4">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="G4">
-        <v>96.8</v>
-      </c>
       <c r="H4">
-        <v>96.89999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I4">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="D5">
-        <v>37.9</v>
+        <v>38.4</v>
       </c>
       <c r="E5">
-        <v>39.5</v>
+        <v>41.7</v>
       </c>
       <c r="F5">
-        <v>65.10000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="G5">
-        <v>84.8</v>
+        <v>84.2</v>
       </c>
       <c r="H5">
-        <v>85.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>92.7</v>
+      </c>
+      <c r="I5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>97.7</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="E6">
+        <v>66.8</v>
+      </c>
+      <c r="F6">
+        <v>51.5</v>
+      </c>
+      <c r="G6">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="H6">
+        <v>87.7</v>
+      </c>
+      <c r="I6">
+        <v>88.90000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="C6">
-        <v>40.9</v>
-      </c>
-      <c r="D6">
-        <v>50.2</v>
-      </c>
-      <c r="E6">
-        <v>85</v>
-      </c>
-      <c r="F6">
-        <v>69.8</v>
-      </c>
-      <c r="G6">
-        <v>78.10000000000001</v>
-      </c>
-      <c r="H6">
-        <v>79.90000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B7">
-        <v>98.2</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>41.4</v>
       </c>
       <c r="D7">
-        <v>85.5</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>65.60000000000001</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="F7">
-        <v>53</v>
+        <v>70.3</v>
       </c>
       <c r="G7">
-        <v>74.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="H7">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>61.4</v>
+      </c>
+      <c r="I7">
+        <v>64.40000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>32.1</v>
       </c>
       <c r="C8">
-        <v>81.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="D8">
-        <v>94.09999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="E8">
-        <v>88.8</v>
+        <v>15.4</v>
       </c>
       <c r="F8">
-        <v>89.60000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="G8">
-        <v>63.4</v>
+        <v>36</v>
       </c>
       <c r="H8">
-        <v>65.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="I8">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>46.8</v>
+        <v>43.7</v>
       </c>
       <c r="C9">
-        <v>64.8</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="D9">
-        <v>24.5</v>
+        <v>19.4</v>
       </c>
       <c r="E9">
-        <v>60.9</v>
+        <v>63.8</v>
       </c>
       <c r="F9">
-        <v>73.8</v>
+        <v>76</v>
       </c>
       <c r="G9">
-        <v>59.8</v>
+        <v>63.4</v>
       </c>
       <c r="H9">
-        <v>61.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="I9">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>23.9</v>
+      </c>
+      <c r="C10">
+        <v>82.3</v>
+      </c>
+      <c r="D10">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="E10">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="F10">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="G10">
+        <v>59.7</v>
+      </c>
+      <c r="H10">
+        <v>50.8</v>
+      </c>
+      <c r="I10">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>99.7</v>
+      </c>
+      <c r="C11">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="D11">
+        <v>49.4</v>
+      </c>
+      <c r="E11">
+        <v>26.4</v>
+      </c>
+      <c r="F11">
+        <v>36.1</v>
+      </c>
+      <c r="G11">
+        <v>35.2</v>
+      </c>
+      <c r="H11">
+        <v>48.1</v>
+      </c>
+      <c r="I11">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>95.5</v>
-      </c>
-      <c r="C10">
-        <v>92</v>
-      </c>
-      <c r="D10">
-        <v>96.5</v>
-      </c>
-      <c r="E10">
-        <v>73.3</v>
-      </c>
-      <c r="F10">
-        <v>61.8</v>
-      </c>
-      <c r="G10">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="H10">
-        <v>55.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>30.4</v>
-      </c>
-      <c r="C11">
-        <v>82.39999999999999</v>
-      </c>
-      <c r="D11">
-        <v>30.5</v>
-      </c>
-      <c r="E11">
-        <v>19.8</v>
-      </c>
-      <c r="F11">
-        <v>14.4</v>
-      </c>
-      <c r="G11">
-        <v>38.3</v>
-      </c>
-      <c r="H11">
-        <v>31.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B12">
-        <v>99.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="C12">
-        <v>72.39999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D12">
-        <v>50.6</v>
+        <v>98.3</v>
       </c>
       <c r="E12">
-        <v>27.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F12">
-        <v>37.5</v>
+        <v>63.4</v>
       </c>
       <c r="G12">
-        <v>28.9</v>
+        <v>58.09999999999999</v>
       </c>
       <c r="H12">
-        <v>28.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>33.2</v>
+      </c>
+      <c r="I12">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13">
-        <v>84.7</v>
+        <v>84.5</v>
       </c>
       <c r="C13">
-        <v>19.1</v>
+        <v>15.4</v>
       </c>
       <c r="D13">
-        <v>5.7</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="F13">
         <v>22.9</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="H13">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>6.9</v>
+      </c>
+      <c r="I13">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>5.4</v>
+      </c>
+      <c r="C14">
+        <v>5.7</v>
+      </c>
+      <c r="D14">
+        <v>17.6</v>
+      </c>
+      <c r="E14">
+        <v>22.6</v>
+      </c>
+      <c r="F14">
+        <v>6.7</v>
+      </c>
+      <c r="G14">
+        <v>3.4</v>
+      </c>
+      <c r="H14">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="I14">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>1.4</v>
-      </c>
-      <c r="C14">
-        <v>6.9</v>
-      </c>
-      <c r="D14">
-        <v>23.4</v>
-      </c>
-      <c r="E14">
-        <v>23.1</v>
-      </c>
-      <c r="F14">
-        <v>14.8</v>
-      </c>
-      <c r="G14">
-        <v>7.199999999999999</v>
-      </c>
-      <c r="H14">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B15">
-        <v>4.399999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="C15">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>15.5</v>
+        <v>21.6</v>
       </c>
       <c r="E15">
-        <v>23.3</v>
+        <v>25.7</v>
       </c>
       <c r="F15">
-        <v>6.4</v>
+        <v>12.7</v>
       </c>
       <c r="G15">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
       <c r="H15">
-        <v>2.7</v>
+        <v>3.7</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3113,54 +3167,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2">
-        <v>118.35</v>
+        <v>119.0171428571428</v>
       </c>
       <c r="E2">
-        <v>710.1</v>
+        <v>833.1199999999999</v>
       </c>
       <c r="F2">
-        <v>98.8</v>
+        <v>99.5</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3168,51 +3222,51 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D3">
-        <v>112.33</v>
+        <v>110.3685714285714</v>
       </c>
       <c r="E3">
-        <v>673.98</v>
+        <v>772.58</v>
       </c>
       <c r="F3">
-        <v>98.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>112.3866666666667</v>
+        <v>118.72</v>
       </c>
       <c r="E4">
-        <v>674.3199999999999</v>
+        <v>831.04</v>
       </c>
       <c r="F4">
-        <v>96.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3220,25 +3274,25 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
-        <v>110.66</v>
+        <v>110.62</v>
       </c>
       <c r="E5">
-        <v>663.96</v>
+        <v>774.34</v>
       </c>
       <c r="F5">
-        <v>82.69999999999999</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3246,25 +3300,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>110.96</v>
+        <v>112.9457142857143</v>
       </c>
       <c r="E6">
-        <v>665.76</v>
+        <v>790.62</v>
       </c>
       <c r="F6">
-        <v>76.90000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3272,51 +3326,51 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7">
-        <v>105.64</v>
+        <v>102.6114285714286</v>
       </c>
       <c r="E7">
-        <v>633.84</v>
+        <v>718.28</v>
       </c>
       <c r="F7">
-        <v>75.3</v>
+        <v>64.7</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8">
-        <v>109.8433333333333</v>
+        <v>108.0371428571429</v>
       </c>
       <c r="E8">
-        <v>659.0599999999999</v>
+        <v>756.26</v>
       </c>
       <c r="F8">
-        <v>68.7</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3324,181 +3378,181 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9">
-        <v>109.1133333333333</v>
+        <v>109.5485714285714</v>
       </c>
       <c r="E9">
-        <v>654.6799999999999</v>
+        <v>766.84</v>
       </c>
       <c r="F9">
-        <v>63.4</v>
+        <v>53.1</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>112.2033333333333</v>
+        <v>108.1285714285714</v>
       </c>
       <c r="E10">
-        <v>673.22</v>
+        <v>756.9000000000001</v>
       </c>
       <c r="F10">
-        <v>55.2</v>
+        <v>48.8</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D11">
-        <v>105.2666666666667</v>
+        <v>106.3885714285714</v>
       </c>
       <c r="E11">
-        <v>631.6</v>
+        <v>744.72</v>
       </c>
       <c r="F11">
-        <v>35.8</v>
+        <v>46.9</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D12">
-        <v>104.78</v>
+        <v>108.86</v>
       </c>
       <c r="E12">
-        <v>628.6800000000001</v>
+        <v>762.02</v>
       </c>
       <c r="F12">
-        <v>29.4</v>
+        <v>36.1</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D13">
-        <v>102.6733333333333</v>
+        <v>97.12571428571428</v>
       </c>
       <c r="E13">
-        <v>616.04</v>
+        <v>679.88</v>
       </c>
       <c r="F13">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C14">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D14">
-        <v>95.65333333333332</v>
+        <v>103.5085714285714</v>
       </c>
       <c r="E14">
-        <v>573.92</v>
+        <v>724.5599999999999</v>
       </c>
       <c r="F14">
-        <v>7.000000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D15">
-        <v>95.43666666666667</v>
+        <v>92.98857142857142</v>
       </c>
       <c r="E15">
-        <v>572.62</v>
+        <v>650.92</v>
       </c>
       <c r="F15">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3516,19 +3570,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3539,16 +3593,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3559,16 +3613,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3579,16 +3633,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3599,16 +3653,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3616,19 +3670,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3636,19 +3690,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3656,19 +3710,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3676,19 +3730,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3696,19 +3750,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3716,19 +3770,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3736,19 +3790,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3759,16 +3813,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D13">
-        <v>-9</v>
+        <v>-16</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3779,16 +3833,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3799,16 +3853,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D15">
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3818,36 +3872,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3869,11 +3926,14 @@
       <c r="G2">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3895,11 +3955,14 @@
       <c r="G3">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3921,11 +3984,14 @@
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3947,193 +4013,217 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>-7</v>
+      </c>
+      <c r="D6">
         <v>-3</v>
       </c>
-      <c r="C6">
-        <v>-4</v>
-      </c>
-      <c r="D6">
-        <v>-2</v>
-      </c>
       <c r="E6">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
       <c r="C7">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>11</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="H10">
+        <v>-3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>-6</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <v>-6</v>
+      </c>
+      <c r="E11">
+        <v>-16</v>
+      </c>
+      <c r="F11">
+        <v>-12</v>
+      </c>
+      <c r="G11">
+        <v>-4</v>
+      </c>
+      <c r="H11">
+        <v>-3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>-2</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>-2</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>-1</v>
       </c>
-      <c r="H10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>-5</v>
-      </c>
-      <c r="C11">
+      <c r="H12">
         <v>-7</v>
       </c>
-      <c r="D11">
-        <v>-3</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>-6</v>
-      </c>
-      <c r="C12">
-        <v>-5</v>
-      </c>
-      <c r="D12">
-        <v>-6</v>
-      </c>
-      <c r="E12">
-        <v>-16</v>
-      </c>
-      <c r="F12">
-        <v>-12</v>
-      </c>
-      <c r="G12">
-        <v>-4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4155,11 +4245,14 @@
       <c r="G13">
         <v>-9</v>
       </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13">
+        <v>-16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4181,11 +4274,14 @@
       <c r="G14">
         <v>-17</v>
       </c>
-      <c r="H14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14">
+        <v>-23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -4207,8 +4303,11 @@
       <c r="G15">
         <v>-21</v>
       </c>
-      <c r="H15" t="s">
-        <v>107</v>
+      <c r="H15">
+        <v>-28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4226,25 +4325,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4252,25 +4351,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>-3</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4281,22 +4380,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>-3</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4304,25 +4403,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4330,25 +4429,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
       <c r="E5">
-        <v>19</v>
+        <v>-3</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4356,25 +4455,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4385,22 +4484,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-13</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4408,25 +4507,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4434,25 +4533,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>-11</v>
-      </c>
-      <c r="F9">
-        <v>-3</v>
-      </c>
       <c r="G9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4460,25 +4559,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4486,25 +4585,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4512,25 +4611,25 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
+      <c r="H12" t="s">
         <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4538,25 +4637,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>-19</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>-16</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="124">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -189,6 +189,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -213,7 +216,7 @@
     <t>1-6</t>
   </si>
   <si>
-    <t>10.2-3.7-0.1</t>
+    <t>10.2-3.8-0.1</t>
   </si>
   <si>
     <t>9.8-4.1-0.1</t>
@@ -222,34 +225,31 @@
     <t>9.2-4.7-0.1</t>
   </si>
   <si>
-    <t>8.4-5.5-0.1</t>
+    <t>8.5-5.4-0.1</t>
   </si>
   <si>
     <t>8.0-5.9-0.1</t>
   </si>
   <si>
-    <t>7.2-6.7-0.1</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
+    <t>7.2-6.8-0.1</t>
+  </si>
+  <si>
+    <t>6.6-7.3-0.1</t>
   </si>
   <si>
     <t>6.5-7.5-0.1</t>
   </si>
   <si>
-    <t>6.4-7.6-0.1</t>
-  </si>
-  <si>
     <t>6.4-7.5-0.1</t>
   </si>
   <si>
-    <t>5.7-8.2-0.1</t>
+    <t>5.7-8.3-0.1</t>
+  </si>
+  <si>
+    <t>4.2-9.7-0.1</t>
   </si>
   <si>
     <t>4.6-9.4-0.1</t>
-  </si>
-  <si>
-    <t>4.2-9.7-0.1</t>
   </si>
   <si>
     <t>4.3-9.7-0.1</t>
@@ -2009,28 +2009,28 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>22.5</v>
+        <v>45.4</v>
       </c>
       <c r="C2">
-        <v>26.5</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>22.5</v>
+        <v>14.1</v>
       </c>
       <c r="E2">
-        <v>14.5</v>
+        <v>7.7</v>
       </c>
       <c r="F2">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H2">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0.5</v>
@@ -2039,10 +2039,10 @@
         <v>0.5</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0.1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -2054,42 +2054,42 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>97.3</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>46.2</v>
+        <v>21.9</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>25.8</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>22.8</v>
       </c>
       <c r="E3">
-        <v>6.3</v>
+        <v>13.8</v>
       </c>
       <c r="F3">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H3">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="J3">
         <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>97.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2112,40 +2112,40 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C4">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="D4">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="E4">
-        <v>15.7</v>
+        <v>12.9</v>
       </c>
       <c r="F4">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G4">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I4">
         <v>1.2</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K4">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
+        <v>0.1</v>
+      </c>
+      <c r="M4">
         <v>0.2</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2162,37 +2162,37 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="C5">
-        <v>11.6</v>
+        <v>12.8</v>
       </c>
       <c r="D5">
-        <v>16.8</v>
+        <v>14.4</v>
       </c>
       <c r="E5">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="F5">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="H5">
-        <v>8.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="I5">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="J5">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="M5">
         <v>0.5</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>77.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2212,49 +2212,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="C6">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="D6">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>18.4</v>
+        <v>16.5</v>
       </c>
       <c r="F6">
-        <v>14.7</v>
+        <v>15.5</v>
       </c>
       <c r="G6">
-        <v>15.9</v>
+        <v>14.9</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I6">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J6">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="K6">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M6">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6">
         <v>0.1</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
-        <v>73</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2262,149 +2262,149 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="E7">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="F7">
-        <v>13.1</v>
+        <v>10.4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H7">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="J7">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="K7">
-        <v>9.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="L7">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="N7">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="P7">
-        <v>39.8</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D8">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="E8">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="F8">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G8">
-        <v>11.2</v>
+        <v>8.9</v>
       </c>
       <c r="H8">
-        <v>10.4</v>
+        <v>14.4</v>
       </c>
       <c r="I8">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="J8">
-        <v>12.1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="L8">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="M8">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="N8">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O8">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="P8">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="E9">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="G9">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H9">
-        <v>13.1</v>
+        <v>11.3</v>
       </c>
       <c r="I9">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="J9">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="K9">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="L9">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="M9">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="N9">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="O9">
         <v>2</v>
       </c>
       <c r="P9">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2412,49 +2412,49 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="E10">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="G10">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H10">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="I10">
         <v>14.1</v>
       </c>
       <c r="J10">
-        <v>14.1</v>
+        <v>11.8</v>
       </c>
       <c r="K10">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="L10">
-        <v>10.4</v>
+        <v>11.9</v>
       </c>
       <c r="M10">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O10">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="P10">
-        <v>23.8</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
         <v>0.4</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="E11">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="F11">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="H11">
-        <v>13.8</v>
+        <v>13.2</v>
       </c>
       <c r="I11">
-        <v>10.9</v>
+        <v>12.5</v>
       </c>
       <c r="J11">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="K11">
-        <v>15.4</v>
+        <v>13.4</v>
       </c>
       <c r="L11">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="M11">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="N11">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="P11">
-        <v>22.2</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2521,40 +2521,40 @@
         <v>0.4</v>
       </c>
       <c r="E12">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="F12">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G12">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="H12">
-        <v>10.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I12">
-        <v>13.3</v>
+        <v>11.7</v>
       </c>
       <c r="J12">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="K12">
-        <v>12.7</v>
+        <v>15.2</v>
       </c>
       <c r="L12">
-        <v>14.1</v>
+        <v>14.9</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N12">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>12</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2568,48 +2568,48 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
         <v>0.6</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K13">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="M13">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N13">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="O13">
-        <v>25.6</v>
+        <v>27.5</v>
       </c>
       <c r="P13">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2618,48 +2618,48 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
         <v>0.3</v>
       </c>
-      <c r="F14">
-        <v>0.1</v>
-      </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="I14">
+        <v>2.8</v>
+      </c>
+      <c r="J14">
+        <v>6.8</v>
+      </c>
+      <c r="K14">
+        <v>7.2</v>
+      </c>
+      <c r="L14">
+        <v>10.3</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>26.1</v>
+      </c>
+      <c r="O14">
+        <v>24</v>
+      </c>
+      <c r="P14">
         <v>1.1</v>
-      </c>
-      <c r="J14">
-        <v>2.3</v>
-      </c>
-      <c r="K14">
-        <v>4.7</v>
-      </c>
-      <c r="L14">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="M14">
-        <v>15.1</v>
-      </c>
-      <c r="N14">
-        <v>24.8</v>
-      </c>
-      <c r="O14">
-        <v>40.5</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2668,43 +2668,43 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15">
         <v>0.2</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.3</v>
-      </c>
       <c r="H15">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="I15">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="J15">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="K15">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="L15">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M15">
-        <v>20.5</v>
+        <v>15.9</v>
       </c>
       <c r="N15">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="O15">
-        <v>23.3</v>
+        <v>39.6</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -2751,25 +2751,25 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>67.5</v>
+        <v>66.3</v>
       </c>
       <c r="C2">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="D2">
-        <v>89.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E2">
-        <v>90.3</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="F2">
-        <v>95.89999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="G2">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="H2">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="I2">
         <v>99.7</v>
@@ -2777,60 +2777,60 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>63.1</v>
+        <v>87.3</v>
       </c>
       <c r="C3">
-        <v>95.3</v>
+        <v>98.3</v>
       </c>
       <c r="D3">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E3">
-        <v>97.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F3">
-        <v>97.89999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="G3">
-        <v>98.90000000000001</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="H3">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="I3">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>87.2</v>
+        <v>63.5</v>
       </c>
       <c r="C4">
+        <v>94.3</v>
+      </c>
+      <c r="D4">
+        <v>98.3</v>
+      </c>
+      <c r="E4">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F4">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="G4">
+        <v>99</v>
+      </c>
+      <c r="H4">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I4">
         <v>98.5</v>
-      </c>
-      <c r="D4">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E4">
-        <v>99.3</v>
-      </c>
-      <c r="F4">
-        <v>98</v>
-      </c>
-      <c r="G4">
-        <v>97.7</v>
-      </c>
-      <c r="H4">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="I4">
-        <v>98.7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2838,28 +2838,28 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="C5">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
       <c r="D5">
-        <v>38.4</v>
+        <v>37.8</v>
       </c>
       <c r="E5">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="F5">
-        <v>64.2</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="G5">
-        <v>84.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H5">
-        <v>92.7</v>
+        <v>91.7</v>
       </c>
       <c r="I5">
-        <v>94</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2867,28 +2867,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D6">
-        <v>84.59999999999999</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="E6">
-        <v>66.8</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="F6">
-        <v>51.5</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="G6">
-        <v>71.89999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="H6">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="I6">
-        <v>88.90000000000001</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2896,115 +2896,115 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>94.19999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="C7">
-        <v>41.4</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>51.8</v>
       </c>
       <c r="E7">
-        <v>82.39999999999999</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>70.3</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="G7">
-        <v>77.5</v>
+        <v>78.3</v>
       </c>
       <c r="H7">
-        <v>61.4</v>
+        <v>63.1</v>
       </c>
       <c r="I7">
-        <v>64.40000000000001</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>32.1</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="C8">
-        <v>84.7</v>
+        <v>63.9</v>
       </c>
       <c r="D8">
-        <v>32.8</v>
+        <v>22.2</v>
       </c>
       <c r="E8">
-        <v>15.4</v>
+        <v>64.2</v>
       </c>
       <c r="F8">
-        <v>14.8</v>
+        <v>75</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>61.4</v>
       </c>
       <c r="H8">
-        <v>55.00000000000001</v>
+        <v>53.6</v>
       </c>
       <c r="I8">
-        <v>55.2</v>
+        <v>55.90000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>43.7</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>65.60000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="D9">
-        <v>19.4</v>
+        <v>94.3</v>
       </c>
       <c r="E9">
-        <v>63.8</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="F9">
-        <v>76</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="G9">
-        <v>63.4</v>
+        <v>65.7</v>
       </c>
       <c r="H9">
-        <v>55.00000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="I9">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>23.9</v>
+        <v>30.4</v>
       </c>
       <c r="C10">
-        <v>82.3</v>
+        <v>83.8</v>
       </c>
       <c r="D10">
-        <v>94.19999999999999</v>
+        <v>32.2</v>
       </c>
       <c r="E10">
-        <v>89.90000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="F10">
-        <v>89.60000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="G10">
-        <v>59.7</v>
+        <v>34.2</v>
       </c>
       <c r="H10">
-        <v>50.8</v>
+        <v>54</v>
       </c>
       <c r="I10">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3012,28 +3012,28 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C11">
-        <v>70.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="D11">
         <v>49.4</v>
       </c>
       <c r="E11">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F11">
-        <v>36.1</v>
+        <v>36.9</v>
       </c>
       <c r="G11">
-        <v>35.2</v>
+        <v>33.5</v>
       </c>
       <c r="H11">
-        <v>48.1</v>
+        <v>49.9</v>
       </c>
       <c r="I11">
-        <v>49.1</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3041,86 +3041,86 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>95.8</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="C12">
-        <v>90.90000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="D12">
-        <v>98.3</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="E12">
-        <v>73.59999999999999</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="F12">
-        <v>63.4</v>
+        <v>62.1</v>
       </c>
       <c r="G12">
-        <v>58.09999999999999</v>
+        <v>58.3</v>
       </c>
       <c r="H12">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="I12">
-        <v>33.3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>84.5</v>
+        <v>5.7</v>
       </c>
       <c r="C13">
+        <v>7.5</v>
+      </c>
+      <c r="D13">
         <v>15.4</v>
       </c>
-      <c r="D13">
-        <v>7.199999999999999</v>
-      </c>
       <c r="E13">
-        <v>4.9</v>
+        <v>20.3</v>
       </c>
       <c r="F13">
-        <v>22.9</v>
+        <v>8.4</v>
       </c>
       <c r="G13">
-        <v>10.5</v>
+        <v>3.1</v>
       </c>
       <c r="H13">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I13">
-        <v>5.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>5.4</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C14">
-        <v>5.7</v>
+        <v>16.7</v>
       </c>
       <c r="D14">
-        <v>17.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E14">
-        <v>22.6</v>
+        <v>4.7</v>
       </c>
       <c r="F14">
-        <v>6.7</v>
+        <v>22.8</v>
       </c>
       <c r="G14">
-        <v>3.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H14">
-        <v>7.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I14">
-        <v>4.5</v>
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3128,28 +3128,28 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="D15">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="E15">
-        <v>25.7</v>
+        <v>26.6</v>
       </c>
       <c r="F15">
-        <v>12.7</v>
+        <v>13.8</v>
       </c>
       <c r="G15">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="H15">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -3159,13 +3159,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3190,13 +3190,16 @@
       <c r="H1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>0.8571428571428571</v>
@@ -3208,21 +3211,24 @@
         <v>833.1199999999999</v>
       </c>
       <c r="F2">
-        <v>99.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>0.8571428571428571</v>
@@ -3234,21 +3240,24 @@
         <v>772.58</v>
       </c>
       <c r="F3">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
+        <v>99.2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -3260,21 +3269,24 @@
         <v>831.04</v>
       </c>
       <c r="F4">
-        <v>98.8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
+        <v>98.7</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -3286,21 +3298,24 @@
         <v>774.34</v>
       </c>
       <c r="F5">
-        <v>92.80000000000001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3312,21 +3327,24 @@
         <v>790.62</v>
       </c>
       <c r="F6">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
       </c>
       <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3338,21 +3356,24 @@
         <v>718.28</v>
       </c>
       <c r="F7">
-        <v>64.7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
+        <v>62.4</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
       </c>
       <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>0.4285714285714285</v>
@@ -3364,21 +3385,24 @@
         <v>756.26</v>
       </c>
       <c r="F8">
-        <v>54.40000000000001</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
+        <v>56.7</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
       </c>
       <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -3390,21 +3414,24 @@
         <v>766.84</v>
       </c>
       <c r="F9">
-        <v>53.1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
+        <v>52.6</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
       <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3416,21 +3443,24 @@
         <v>756.9000000000001</v>
       </c>
       <c r="F10">
-        <v>48.8</v>
-      </c>
-      <c r="G10" t="s">
+        <v>51.9</v>
+      </c>
+      <c r="G10">
+        <v>1.2</v>
+      </c>
+      <c r="H10" t="s">
         <v>71</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>0.4285714285714285</v>
@@ -3442,21 +3472,24 @@
         <v>744.72</v>
       </c>
       <c r="F11">
-        <v>46.9</v>
-      </c>
-      <c r="G11" t="s">
+        <v>48.8</v>
+      </c>
+      <c r="G11">
+        <v>1.3</v>
+      </c>
+      <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>0.2857142857142857</v>
@@ -3468,73 +3501,82 @@
         <v>762.02</v>
       </c>
       <c r="F12">
-        <v>36.1</v>
-      </c>
-      <c r="G12" t="s">
+        <v>33.2</v>
+      </c>
+      <c r="G12">
+        <v>3.1</v>
+      </c>
+      <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D13">
+        <v>103.5085714285714</v>
+      </c>
+      <c r="E13">
+        <v>724.5599999999999</v>
+      </c>
+      <c r="F13">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="G13">
+        <v>27.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D13">
-        <v>97.12571428571428</v>
-      </c>
-      <c r="E13">
-        <v>679.88</v>
-      </c>
-      <c r="F13">
-        <v>6.9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
       <c r="C14">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D14">
-        <v>103.5085714285714</v>
+        <v>97.12571428571428</v>
       </c>
       <c r="E14">
-        <v>724.5599999999999</v>
+        <v>679.88</v>
       </c>
       <c r="F14">
-        <v>6.4</v>
-      </c>
-      <c r="G14" t="s">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
         <v>75</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>0.2857142857142857</v>
@@ -3546,12 +3588,15 @@
         <v>650.92</v>
       </c>
       <c r="F15">
-        <v>2.8</v>
-      </c>
-      <c r="G15" t="s">
+        <v>2.9</v>
+      </c>
+      <c r="G15">
+        <v>39.6</v>
+      </c>
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>82</v>
       </c>
     </row>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="129">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -66,25 +66,28 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -174,6 +177,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -198,64 +204,67 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>10.2-3.8-0.1</t>
-  </si>
-  <si>
-    <t>9.8-4.1-0.1</t>
-  </si>
-  <si>
-    <t>9.2-4.7-0.1</t>
-  </si>
-  <si>
-    <t>8.5-5.4-0.1</t>
-  </si>
-  <si>
-    <t>8.0-5.9-0.1</t>
-  </si>
-  <si>
-    <t>7.2-6.8-0.1</t>
-  </si>
-  <si>
-    <t>6.6-7.3-0.1</t>
-  </si>
-  <si>
-    <t>6.5-7.5-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.5-0.1</t>
-  </si>
-  <si>
-    <t>5.7-8.3-0.1</t>
-  </si>
-  <si>
-    <t>4.2-9.7-0.1</t>
-  </si>
-  <si>
-    <t>4.6-9.4-0.1</t>
-  </si>
-  <si>
-    <t>4.3-9.7-0.1</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>10.5-3.4-0.1</t>
+  </si>
+  <si>
+    <t>9.3-4.6-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>7.3-6.6</t>
+  </si>
+  <si>
+    <t>7.1-6.8</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
+  </si>
+  <si>
+    <t>6.5-7.4-0.1</t>
+  </si>
+  <si>
+    <t>6.0-8.0-0.1</t>
+  </si>
+  <si>
+    <t>6.0-7.9-0.1</t>
+  </si>
+  <si>
+    <t>5.9-8.0-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.7</t>
+  </si>
+  <si>
+    <t>4.2-9.7</t>
+  </si>
+  <si>
+    <t>3.6-10.3</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>9-5</t>
@@ -270,6 +279,9 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -282,37 +294,40 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>nicholas spadaro</t>
+  </si>
+  <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
+    <t>Mikaela Mitcho</t>
+  </si>
+  <si>
     <t>Zachary Dillon</t>
   </si>
   <si>
-    <t>Sal Spadaro</t>
-  </si>
-  <si>
-    <t>nicholas spadaro</t>
-  </si>
-  <si>
-    <t>Mikaela Mitcho</t>
+    <t>gabriella spadaro</t>
   </si>
   <si>
     <t>Marissa Rodriguez</t>
   </si>
   <si>
-    <t>gabriella spadaro</t>
+    <t>Lawrence Rosello</t>
   </si>
   <si>
     <t>Kathy Dillon</t>
   </si>
   <si>
-    <t>Lawrence Rosello</t>
-  </si>
-  <si>
     <t>Michael Dillon</t>
   </si>
   <si>
+    <t>Stephanie Mattei</t>
+  </si>
+  <si>
     <t>Brendan Fanning</t>
   </si>
   <si>
-    <t>Stephanie Mattei</t>
+    <t>Antonio  Spadaro</t>
   </si>
   <si>
     <t>Ryan Lesiak</t>
@@ -321,39 +336,36 @@
     <t>Josh Formola</t>
   </si>
   <si>
-    <t>Antonio  Spadaro</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓11</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -373,6 +385,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -812,40 +827,40 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -856,43 +871,43 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -900,25 +915,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -927,10 +942,10 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -939,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -947,16 +962,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -968,13 +983,13 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -994,10 +1009,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1006,22 +1021,22 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1047,40 +1062,40 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
         <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1088,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1109,13 +1124,13 @@
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -1135,34 +1150,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
@@ -1182,46 +1197,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1232,43 +1247,43 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1282,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1291,31 +1306,31 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
         <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1326,43 +1341,43 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
         <v>18</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1370,10 +1385,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1391,7 +1406,7 @@
         <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -1406,10 +1421,10 @@
         <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1423,7 +1438,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -1432,25 +1447,25 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N15" t="s">
         <v>19</v>
@@ -1474,13 +1489,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1488,13 +1503,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1.928571428571429</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1502,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>2.357142857142857</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1516,13 +1531,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.571428571428572</v>
+        <v>2.928571428571428</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1533,7 +1548,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>3.142857142857143</v>
+        <v>3.357142857142857</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1547,10 +1562,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.214285714285714</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1558,13 +1573,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1572,13 +1587,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.642857142857143</v>
+        <v>3.928571428571428</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1589,10 +1604,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.714285714285714</v>
+        <v>4.071428571428571</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1600,13 +1615,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3.857142857142857</v>
+        <v>4.5</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1614,13 +1629,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1631,10 +1646,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>4.071428571428571</v>
+        <v>4.642857142857143</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1642,10 +1657,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>4.142857142857143</v>
+        <v>4.857142857142857</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1659,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>4.285714285714286</v>
+        <v>5.142857142857143</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1673,10 +1688,10 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>4.571428571428571</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1694,16 +1709,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1711,16 +1726,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>4.928571428571429</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="D2">
-        <v>-0.07142857142857117</v>
+        <v>-1.714285714285714</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1728,16 +1743,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>4.785714285714286</v>
+        <v>5.214285714285714</v>
       </c>
       <c r="D3">
-        <v>-1.214285714285714</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1745,16 +1760,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>4.142857142857143</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.1428571428571432</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1765,13 +1780,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.928571428571429</v>
       </c>
       <c r="D5">
-        <v>-2</v>
+        <v>-2.071428571428571</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1779,16 +1794,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1796,16 +1811,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3.785714285714286</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="D7">
-        <v>0.7857142857142856</v>
+        <v>0.4285714285714288</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1813,16 +1828,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.714285714285714</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="D8">
-        <v>0.7142857142857144</v>
+        <v>0.1428571428571432</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1830,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.571428571428572</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="D9">
-        <v>0.5714285714285716</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1847,16 +1862,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>3.428571428571428</v>
+        <v>4.071428571428571</v>
       </c>
       <c r="D10">
-        <v>1.428571428571428</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1864,13 +1879,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>3.285714285714286</v>
+        <v>3.642857142857143</v>
       </c>
       <c r="D11">
-        <v>0.2857142857142856</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1881,16 +1896,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>2.928571428571428</v>
+        <v>3.071428571428572</v>
       </c>
       <c r="D12">
-        <v>-1.071428571428572</v>
+        <v>2.071428571428572</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1898,16 +1913,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>2.857142857142857</v>
+        <v>2.928571428571428</v>
       </c>
       <c r="D13">
-        <v>1.857142857142857</v>
+        <v>-1.071428571428572</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1918,13 +1933,13 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>2.214285714285714</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="D14">
-        <v>0.2142857142857144</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1935,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1.357142857142857</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="D15">
-        <v>-0.6428571428571428</v>
+        <v>-0.8571428571428572</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1959,52 +1974,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2012,37 +2027,37 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>45.4</v>
+        <v>47.6</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>29.3</v>
       </c>
       <c r="D2">
-        <v>14.1</v>
+        <v>12.7</v>
       </c>
       <c r="E2">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G2">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -2054,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>97.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2062,34 +2077,34 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>21.9</v>
+        <v>33.9</v>
       </c>
       <c r="C3">
-        <v>25.8</v>
+        <v>37.2</v>
       </c>
       <c r="D3">
-        <v>22.8</v>
+        <v>17.9</v>
       </c>
       <c r="E3">
-        <v>13.8</v>
+        <v>5.1</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="G3">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H3">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2104,48 +2119,48 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>95.40000000000001</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>20.9</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>24.2</v>
+        <v>19.6</v>
       </c>
       <c r="D4">
-        <v>19.8</v>
+        <v>27.9</v>
       </c>
       <c r="E4">
-        <v>12.9</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="H4">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I4">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J4">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2154,57 +2169,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>95</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>6.7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>12.8</v>
+        <v>7.4</v>
       </c>
       <c r="D5">
-        <v>14.4</v>
+        <v>19.7</v>
       </c>
       <c r="E5">
-        <v>18.5</v>
+        <v>20.2</v>
       </c>
       <c r="F5">
-        <v>15.5</v>
+        <v>16.8</v>
       </c>
       <c r="G5">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I5">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="J5">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="M5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>80.09999999999999</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2212,99 +2227,99 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>8.1</v>
+        <v>2.1</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>18.3</v>
+      </c>
+      <c r="G6">
         <v>16.5</v>
       </c>
-      <c r="F6">
-        <v>15.5</v>
-      </c>
-      <c r="G6">
-        <v>14.9</v>
-      </c>
       <c r="H6">
+        <v>12.9</v>
+      </c>
+      <c r="I6">
         <v>9.800000000000001</v>
       </c>
-      <c r="I6">
-        <v>7.8</v>
-      </c>
       <c r="J6">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="L6">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="M6">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="N6">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="O6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>71.40000000000001</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
+        <v>5.5</v>
+      </c>
+      <c r="E7">
+        <v>11.6</v>
+      </c>
+      <c r="F7">
+        <v>15.7</v>
+      </c>
+      <c r="G7">
+        <v>14.4</v>
+      </c>
+      <c r="H7">
+        <v>14.2</v>
+      </c>
+      <c r="I7">
+        <v>11.3</v>
+      </c>
+      <c r="J7">
+        <v>10.6</v>
+      </c>
+      <c r="K7">
+        <v>6.5</v>
+      </c>
+      <c r="L7">
+        <v>4.3</v>
+      </c>
+      <c r="M7">
         <v>3.2</v>
       </c>
-      <c r="E7">
-        <v>8.4</v>
-      </c>
-      <c r="F7">
-        <v>10.4</v>
-      </c>
-      <c r="G7">
-        <v>13.5</v>
-      </c>
-      <c r="H7">
-        <v>12.5</v>
-      </c>
-      <c r="I7">
-        <v>12.1</v>
-      </c>
-      <c r="J7">
-        <v>10.9</v>
-      </c>
-      <c r="K7">
-        <v>10.9</v>
-      </c>
-      <c r="L7">
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <v>5.1</v>
-      </c>
       <c r="N7">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="O7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P7">
-        <v>37.8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2312,199 +2327,199 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="D8">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>5.4</v>
+        <v>10.7</v>
       </c>
       <c r="F8">
-        <v>9.300000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="G8">
-        <v>8.9</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>14.4</v>
+        <v>12.7</v>
       </c>
       <c r="I8">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="K8">
-        <v>12.8</v>
+        <v>7.8</v>
       </c>
       <c r="L8">
-        <v>8.9</v>
+        <v>4.3</v>
       </c>
       <c r="M8">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="P8">
-        <v>29.4</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="F9">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="G9">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="I9">
-        <v>12.8</v>
+        <v>11.7</v>
       </c>
       <c r="J9">
         <v>13.8</v>
       </c>
       <c r="K9">
-        <v>12.3</v>
+        <v>15</v>
       </c>
       <c r="L9">
-        <v>9.5</v>
+        <v>15.7</v>
       </c>
       <c r="M9">
-        <v>6.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N9">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P9">
-        <v>28.5</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>3.7</v>
+      </c>
+      <c r="F10">
+        <v>4.4</v>
+      </c>
+      <c r="G10">
+        <v>8.6</v>
+      </c>
+      <c r="H10">
+        <v>11.8</v>
+      </c>
+      <c r="I10">
+        <v>12.2</v>
+      </c>
+      <c r="J10">
+        <v>13.7</v>
+      </c>
+      <c r="K10">
+        <v>13.7</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>8.9</v>
+      </c>
+      <c r="N10">
+        <v>7.1</v>
+      </c>
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>0.2</v>
-      </c>
-      <c r="C10">
-        <v>1.1</v>
-      </c>
-      <c r="D10">
-        <v>2.7</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>8.6</v>
-      </c>
-      <c r="G10">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H10">
-        <v>11.5</v>
-      </c>
-      <c r="I10">
-        <v>14.1</v>
-      </c>
-      <c r="J10">
-        <v>11.8</v>
-      </c>
-      <c r="K10">
-        <v>12</v>
-      </c>
-      <c r="L10">
-        <v>11.9</v>
-      </c>
-      <c r="M10">
-        <v>7.3</v>
-      </c>
-      <c r="N10">
-        <v>3.9</v>
-      </c>
-      <c r="O10">
-        <v>1.2</v>
-      </c>
       <c r="P10">
-        <v>26.3</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="F11">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="G11">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="H11">
-        <v>13.2</v>
+        <v>11.9</v>
       </c>
       <c r="I11">
-        <v>12.5</v>
+        <v>14.2</v>
       </c>
       <c r="J11">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
       <c r="K11">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="L11">
-        <v>11.4</v>
+        <v>10.9</v>
       </c>
       <c r="M11">
-        <v>6.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P11">
-        <v>23.1</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2518,48 +2533,48 @@
         <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="F12">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="G12">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="H12">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I12">
-        <v>11.7</v>
+        <v>13.4</v>
       </c>
       <c r="J12">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="K12">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="L12">
         <v>14.9</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>11.1</v>
       </c>
       <c r="N12">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>11.7</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2568,43 +2583,43 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F13">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H13">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="I13">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="J13">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>13.2</v>
       </c>
       <c r="L13">
-        <v>12.3</v>
+        <v>17.4</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>22.9</v>
       </c>
       <c r="N13">
-        <v>23.1</v>
+        <v>17.9</v>
       </c>
       <c r="O13">
-        <v>27.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P13">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2621,45 +2636,45 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F14">
         <v>0.3</v>
       </c>
       <c r="G14">
+        <v>0.3</v>
+      </c>
+      <c r="H14">
         <v>0.6</v>
       </c>
-      <c r="H14">
-        <v>1.7</v>
-      </c>
       <c r="I14">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="J14">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="K14">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="L14">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="N14">
-        <v>26.1</v>
+        <v>27.8</v>
       </c>
       <c r="O14">
-        <v>24</v>
+        <v>37.6</v>
       </c>
       <c r="P14">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2668,43 +2683,43 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0.2</v>
       </c>
       <c r="H15">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I15">
+        <v>1.2</v>
+      </c>
+      <c r="J15">
         <v>1.5</v>
       </c>
-      <c r="J15">
-        <v>2.6</v>
-      </c>
       <c r="K15">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="M15">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="N15">
-        <v>25.2</v>
+        <v>25.9</v>
       </c>
       <c r="O15">
-        <v>39.6</v>
+        <v>45.2</v>
       </c>
       <c r="P15">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2714,300 +2729,330 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>87.2</v>
+      </c>
+      <c r="C2">
+        <v>97.8</v>
+      </c>
+      <c r="D2">
+        <v>99.7</v>
+      </c>
+      <c r="E2">
+        <v>99.5</v>
+      </c>
+      <c r="F2">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="G2">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="H2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>66.3</v>
-      </c>
-      <c r="C2">
-        <v>26.8</v>
-      </c>
-      <c r="D2">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="E2">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="F2">
-        <v>94.89999999999999</v>
-      </c>
-      <c r="G2">
-        <v>96.7</v>
-      </c>
-      <c r="H2">
-        <v>99.2</v>
-      </c>
-      <c r="I2">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B3">
-        <v>87.3</v>
+        <v>66.2</v>
       </c>
       <c r="C3">
-        <v>98.3</v>
+        <v>25.4</v>
       </c>
       <c r="D3">
-        <v>99.3</v>
+        <v>87</v>
       </c>
       <c r="E3">
-        <v>99.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="F3">
-        <v>98.7</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G3">
         <v>96.89999999999999</v>
       </c>
       <c r="H3">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I3">
+        <v>99.8</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2.6</v>
+      </c>
+      <c r="C4">
+        <v>18.3</v>
+      </c>
+      <c r="D4">
+        <v>36.9</v>
+      </c>
+      <c r="E4">
+        <v>43.5</v>
+      </c>
+      <c r="F4">
+        <v>66.2</v>
+      </c>
+      <c r="G4">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="H4">
+        <v>91.2</v>
+      </c>
+      <c r="I4">
+        <v>98.7</v>
+      </c>
+      <c r="J4">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="C5">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="D5">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E5">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F5">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="G5">
         <v>99.3</v>
       </c>
-      <c r="I3">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>63.5</v>
-      </c>
-      <c r="C4">
-        <v>94.3</v>
-      </c>
-      <c r="D4">
+      <c r="H5">
         <v>98.3</v>
       </c>
-      <c r="E4">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="F4">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="G4">
-        <v>99</v>
-      </c>
-      <c r="H4">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="I4">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>3.2</v>
-      </c>
-      <c r="C5">
-        <v>16.2</v>
-      </c>
-      <c r="D5">
-        <v>37.8</v>
-      </c>
-      <c r="E5">
-        <v>41.9</v>
-      </c>
-      <c r="F5">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="G5">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="H5">
-        <v>91.7</v>
-      </c>
       <c r="I5">
-        <v>93.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="J5">
+        <v>92.80000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="C6">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>84.39999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="E6">
-        <v>66.60000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="F6">
-        <v>53.90000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="G6">
-        <v>72.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="H6">
-        <v>87.5</v>
+        <v>89.7</v>
       </c>
       <c r="I6">
-        <v>90.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="J6">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>25.3</v>
+      </c>
+      <c r="C7">
+        <v>84.2</v>
+      </c>
+      <c r="D7">
+        <v>94.8</v>
+      </c>
+      <c r="E7">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="F7">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="G7">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="H7">
+        <v>51.3</v>
+      </c>
+      <c r="I7">
+        <v>75.5</v>
+      </c>
+      <c r="J7">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>31.2</v>
+      </c>
+      <c r="C8">
+        <v>83.8</v>
+      </c>
+      <c r="D8">
+        <v>32.9</v>
+      </c>
+      <c r="E8">
+        <v>17.1</v>
+      </c>
+      <c r="F8">
+        <v>13.2</v>
+      </c>
+      <c r="G8">
+        <v>37.3</v>
+      </c>
+      <c r="H8">
+        <v>54.7</v>
+      </c>
+      <c r="I8">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="J8">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>93.2</v>
-      </c>
-      <c r="C7">
-        <v>39</v>
-      </c>
-      <c r="D7">
-        <v>51.8</v>
-      </c>
-      <c r="E7">
-        <v>84</v>
-      </c>
-      <c r="F7">
-        <v>69.19999999999999</v>
-      </c>
-      <c r="G7">
-        <v>78.3</v>
-      </c>
-      <c r="H7">
-        <v>63.1</v>
-      </c>
-      <c r="I7">
-        <v>65.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>47.09999999999999</v>
-      </c>
-      <c r="C8">
-        <v>63.9</v>
-      </c>
-      <c r="D8">
-        <v>22.2</v>
-      </c>
-      <c r="E8">
-        <v>64.2</v>
-      </c>
-      <c r="F8">
-        <v>75</v>
-      </c>
-      <c r="G8">
-        <v>61.4</v>
-      </c>
-      <c r="H8">
-        <v>53.6</v>
-      </c>
-      <c r="I8">
-        <v>55.90000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B9">
-        <v>21</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="C9">
-        <v>82.8</v>
+        <v>38.5</v>
       </c>
       <c r="D9">
-        <v>94.3</v>
+        <v>50.1</v>
       </c>
       <c r="E9">
-        <v>89.60000000000001</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="F9">
-        <v>89.60000000000001</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="G9">
-        <v>65.7</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="H9">
-        <v>49.1</v>
+        <v>60.8</v>
       </c>
       <c r="I9">
-        <v>54.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>42.8</v>
+      </c>
+      <c r="J9">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>30.4</v>
+        <v>45.9</v>
       </c>
       <c r="C10">
-        <v>83.8</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>32.2</v>
+        <v>22.6</v>
       </c>
       <c r="E10">
-        <v>15.5</v>
+        <v>65.8</v>
       </c>
       <c r="F10">
-        <v>12.4</v>
+        <v>75.3</v>
       </c>
       <c r="G10">
-        <v>34.2</v>
+        <v>62.6</v>
       </c>
       <c r="H10">
-        <v>54</v>
+        <v>51.6</v>
       </c>
       <c r="I10">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <v>40.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3015,141 +3060,156 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C11">
-        <v>71.2</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="D11">
-        <v>49.4</v>
+        <v>46.6</v>
       </c>
       <c r="E11">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="F11">
-        <v>36.9</v>
+        <v>35.5</v>
       </c>
       <c r="G11">
-        <v>33.5</v>
+        <v>28.6</v>
       </c>
       <c r="H11">
-        <v>49.9</v>
+        <v>52</v>
       </c>
       <c r="I11">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>39.8</v>
+      </c>
+      <c r="J11">
+        <v>40.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>96.89999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C12">
-        <v>91.10000000000001</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>97.89999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E12">
-        <v>70.19999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="F12">
-        <v>62.1</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="G12">
-        <v>58.3</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="H12">
-        <v>33.3</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="I12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>36.7</v>
+      </c>
+      <c r="J12">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="C13">
         <v>7.5</v>
       </c>
       <c r="D13">
-        <v>15.4</v>
+        <v>19.6</v>
       </c>
       <c r="E13">
-        <v>20.3</v>
+        <v>23.9</v>
       </c>
       <c r="F13">
-        <v>8.4</v>
+        <v>14.1</v>
       </c>
       <c r="G13">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="H13">
         <v>3.1</v>
       </c>
-      <c r="H13">
-        <v>8.1</v>
-      </c>
       <c r="I13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>12.5</v>
+      </c>
+      <c r="J13">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>5.5</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>20.6</v>
+      </c>
+      <c r="F14">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="G14">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="H14">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="I14">
+        <v>2.5</v>
+      </c>
+      <c r="J14">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="C14">
-        <v>16.7</v>
-      </c>
-      <c r="D14">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="E14">
-        <v>4.7</v>
-      </c>
-      <c r="F14">
-        <v>22.8</v>
-      </c>
-      <c r="G14">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H14">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="I14">
-        <v>5.899999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B15">
-        <v>1.1</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C15">
-        <v>8.6</v>
+        <v>17.4</v>
       </c>
       <c r="D15">
-        <v>21.7</v>
+        <v>9.5</v>
       </c>
       <c r="E15">
-        <v>26.6</v>
+        <v>5.5</v>
       </c>
       <c r="F15">
-        <v>13.8</v>
+        <v>22.1</v>
       </c>
       <c r="G15">
-        <v>7.3</v>
+        <v>10.1</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="I15">
-        <v>2.9</v>
+        <v>1.3</v>
+      </c>
+      <c r="J15">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -3167,31 +3227,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3199,28 +3259,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="D2">
-        <v>119.0171428571428</v>
+        <v>117.29</v>
       </c>
       <c r="E2">
-        <v>833.1199999999999</v>
+        <v>938.3199999999999</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3228,86 +3288,86 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="D3">
-        <v>110.3685714285714</v>
+        <v>113.53</v>
       </c>
       <c r="E3">
-        <v>772.58</v>
+        <v>908.24</v>
       </c>
       <c r="F3">
-        <v>99.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>118.72</v>
+        <v>114.345</v>
       </c>
       <c r="E4">
-        <v>831.04</v>
+        <v>914.76</v>
       </c>
       <c r="F4">
-        <v>98.7</v>
+        <v>99.2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="D5">
-        <v>110.62</v>
+        <v>113.8075</v>
       </c>
       <c r="E5">
-        <v>774.34</v>
+        <v>910.4599999999999</v>
       </c>
       <c r="F5">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3315,57 +3375,57 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>112.9457142857143</v>
+        <v>113.405</v>
       </c>
       <c r="E6">
-        <v>790.62</v>
+        <v>907.24</v>
       </c>
       <c r="F6">
-        <v>89</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>102.6114285714286</v>
+        <v>111.165</v>
       </c>
       <c r="E7">
-        <v>718.28</v>
+        <v>889.3200000000001</v>
       </c>
       <c r="F7">
-        <v>62.4</v>
+        <v>74.5</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3373,86 +3433,86 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>108.0371428571429</v>
+        <v>110.0425</v>
       </c>
       <c r="E8">
-        <v>756.26</v>
+        <v>880.34</v>
       </c>
       <c r="F8">
-        <v>56.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G8">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>109.5485714285714</v>
+        <v>98.41499999999999</v>
       </c>
       <c r="E9">
-        <v>766.84</v>
+        <v>787.3199999999999</v>
       </c>
       <c r="F9">
-        <v>52.6</v>
+        <v>43.6</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>0.375</v>
+      </c>
+      <c r="D10">
+        <v>108.1575</v>
+      </c>
+      <c r="E10">
+        <v>865.26</v>
+      </c>
+      <c r="F10">
+        <v>41.6</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="D10">
-        <v>108.1285714285714</v>
-      </c>
-      <c r="E10">
-        <v>756.9000000000001</v>
-      </c>
-      <c r="F10">
-        <v>51.9</v>
-      </c>
-      <c r="G10">
-        <v>1.2</v>
-      </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3460,28 +3520,28 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D11">
-        <v>106.3885714285714</v>
+        <v>107.12</v>
       </c>
       <c r="E11">
-        <v>744.72</v>
+        <v>856.96</v>
       </c>
       <c r="F11">
-        <v>48.8</v>
+        <v>40.40000000000001</v>
       </c>
       <c r="G11">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3489,57 +3549,57 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D12">
-        <v>108.86</v>
+        <v>104.8</v>
       </c>
       <c r="E12">
-        <v>762.02</v>
+        <v>838.4</v>
       </c>
       <c r="F12">
-        <v>33.2</v>
+        <v>35.8</v>
       </c>
       <c r="G12">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13">
-        <v>0.1428571428571428</v>
+        <v>0.375</v>
       </c>
       <c r="D13">
-        <v>103.5085714285714</v>
+        <v>97.105</v>
       </c>
       <c r="E13">
-        <v>724.5599999999999</v>
+        <v>776.8399999999999</v>
       </c>
       <c r="F13">
-        <v>6.600000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="G13">
-        <v>27.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3547,57 +3607,57 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D14">
-        <v>97.12571428571428</v>
+        <v>94.52499999999999</v>
       </c>
       <c r="E14">
-        <v>679.88</v>
+        <v>756.2</v>
       </c>
       <c r="F14">
-        <v>5.600000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>37.6</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C15">
-        <v>0.2857142857142857</v>
+        <v>0.125</v>
       </c>
       <c r="D15">
-        <v>92.98857142857142</v>
+        <v>100.3325</v>
       </c>
       <c r="E15">
-        <v>650.92</v>
+        <v>802.66</v>
       </c>
       <c r="F15">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>39.6</v>
+        <v>45.2</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3615,19 +3675,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3635,19 +3695,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3658,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3675,19 +3735,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3695,19 +3755,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3715,19 +3775,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3735,19 +3795,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3755,19 +3815,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3775,19 +3835,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3798,16 +3858,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3815,19 +3875,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3835,19 +3895,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3855,19 +3915,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D13">
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3875,19 +3935,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>-23</v>
+        <v>-27</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3895,19 +3955,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D15">
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3917,68 +3977,74 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-      <c r="E2">
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>19</v>
-      </c>
-      <c r="H2">
+      <c r="I2">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4003,185 +4069,206 @@
       <c r="H3">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>-5</v>
+      </c>
+      <c r="F4">
+        <v>-3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
+      <c r="J5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>-3</v>
-      </c>
-      <c r="E5">
-        <v>-5</v>
-      </c>
-      <c r="F5">
-        <v>-3</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B6">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="D6">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>-3</v>
       </c>
       <c r="F6">
+        <v>-3</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E7">
         <v>-3</v>
       </c>
       <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>-3</v>
       </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
       <c r="C8">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>-3</v>
-      </c>
       <c r="C9">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -4206,153 +4293,171 @@
       <c r="H10">
         <v>-3</v>
       </c>
-      <c r="I10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-7</v>
+      </c>
+      <c r="I11">
+        <v>-4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>-6</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-5</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-6</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-16</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-12</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-4</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-3</v>
       </c>
-      <c r="I11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
+      <c r="I12">
+        <v>-5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>-7</v>
+      </c>
+      <c r="C13">
+        <v>-13</v>
+      </c>
+      <c r="D13">
+        <v>-10</v>
+      </c>
+      <c r="E13">
+        <v>-19</v>
+      </c>
+      <c r="F13">
+        <v>-18</v>
+      </c>
+      <c r="G13">
+        <v>-21</v>
+      </c>
+      <c r="H13">
+        <v>-28</v>
+      </c>
+      <c r="I13">
+        <v>-23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
         <v>-2</v>
       </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-      <c r="H12">
-        <v>-7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>-2</v>
-      </c>
-      <c r="C13">
+      <c r="C14">
         <v>-3</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>-8</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>-6</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>-9</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>-16</v>
       </c>
-      <c r="I13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="I14">
+        <v>-27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>-3</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>-6</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>-11</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>-3</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>-13</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>-17</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>-23</v>
       </c>
-      <c r="I14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>-7</v>
-      </c>
-      <c r="C15">
-        <v>-13</v>
-      </c>
-      <c r="D15">
-        <v>-10</v>
-      </c>
-      <c r="E15">
-        <v>-19</v>
-      </c>
-      <c r="F15">
-        <v>-18</v>
-      </c>
-      <c r="G15">
-        <v>-21</v>
-      </c>
-      <c r="H15">
-        <v>-28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>109</v>
+      <c r="I15">
+        <v>-27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4362,7 +4467,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4370,25 +4475,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4396,25 +4501,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>-3</v>
+        <v>-23</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4422,25 +4527,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>-3</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4451,22 +4556,22 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>-3</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4474,25 +4579,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4500,25 +4605,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
       <c r="E6">
-        <v>19</v>
+        <v>-3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4526,25 +4631,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4555,22 +4660,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-13</v>
+      </c>
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4578,22 +4683,22 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
         <v>12</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -4604,25 +4709,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>-11</v>
-      </c>
       <c r="F10">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4633,22 +4738,22 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
         <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>-4</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4656,25 +4761,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
       <c r="E12">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>-3</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4682,24 +4787,76 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>-4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>-4</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>15</v>
       </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
         <v>11</v>
       </c>
     </row>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="131">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -66,28 +66,31 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>0-8-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -180,6 +183,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -204,64 +210,67 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>10.5-3.4-0.1</t>
-  </si>
-  <si>
-    <t>9.3-4.6-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.7-0.1</t>
-  </si>
-  <si>
-    <t>7.3-6.6</t>
-  </si>
-  <si>
-    <t>7.1-6.8</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>9.9-4.0-0.1</t>
+  </si>
+  <si>
+    <t>10.9-3.1-0.1</t>
+  </si>
+  <si>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>8.6-5.3-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>6.7-7.2</t>
   </si>
   <si>
     <t>7.1-6.9</t>
   </si>
   <si>
-    <t>6.5-7.4-0.1</t>
-  </si>
-  <si>
-    <t>6.0-8.0-0.1</t>
-  </si>
-  <si>
-    <t>6.0-7.9-0.1</t>
-  </si>
-  <si>
-    <t>5.9-8.0-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.7</t>
-  </si>
-  <si>
-    <t>4.2-9.7</t>
-  </si>
-  <si>
-    <t>3.6-10.3</t>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>4.7-9.2</t>
+  </si>
+  <si>
+    <t>4.2-9.8-0.1</t>
+  </si>
+  <si>
+    <t>3.8-10.1</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>11-3</t>
@@ -276,9 +285,6 @@
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
@@ -294,21 +300,21 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
+    <t>Zachary Dillon</t>
+  </si>
+  <si>
+    <t>gabriella spadaro</t>
+  </si>
+  <si>
+    <t>Mikaela Mitcho</t>
+  </si>
+  <si>
     <t>nicholas spadaro</t>
   </si>
   <si>
-    <t>Sal Spadaro</t>
-  </si>
-  <si>
-    <t>Mikaela Mitcho</t>
-  </si>
-  <si>
-    <t>Zachary Dillon</t>
-  </si>
-  <si>
-    <t>gabriella spadaro</t>
-  </si>
-  <si>
     <t>Marissa Rodriguez</t>
   </si>
   <si>
@@ -318,54 +324,51 @@
     <t>Kathy Dillon</t>
   </si>
   <si>
+    <t>Stephanie Mattei</t>
+  </si>
+  <si>
     <t>Michael Dillon</t>
   </si>
   <si>
-    <t>Stephanie Mattei</t>
-  </si>
-  <si>
     <t>Brendan Fanning</t>
   </si>
   <si>
     <t>Antonio  Spadaro</t>
   </si>
   <si>
+    <t>Josh Formola</t>
+  </si>
+  <si>
     <t>Ryan Lesiak</t>
   </si>
   <si>
-    <t>Josh Formola</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -388,6 +391,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -827,13 +833,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -845,19 +851,19 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
         <v>16</v>
@@ -886,13 +892,13 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -907,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -924,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -945,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -968,28 +974,28 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -1021,7 +1027,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -1030,13 +1036,13 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1048,7 +1054,7 @@
         <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1062,13 +1068,13 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1077,16 +1083,16 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -1109,19 +1115,19 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -1130,16 +1136,16 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
         <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O8" t="s">
         <v>19</v>
@@ -1150,46 +1156,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
       <c r="O9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1197,46 +1203,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
         <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1247,22 +1253,22 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
@@ -1271,16 +1277,16 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O11" t="s">
         <v>19</v>
@@ -1294,16 +1300,16 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1312,25 +1318,25 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" t="s">
         <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1341,43 +1347,43 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
         <v>18</v>
       </c>
       <c r="O13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1412,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -1432,46 +1438,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1489,13 +1495,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1503,13 +1509,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.714285714285714</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1517,13 +1523,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2.857142857142857</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1531,13 +1537,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2.928571428571428</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1548,10 +1554,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>3.357142857142857</v>
+        <v>3.785714285714286</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1562,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1573,13 +1579,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3.714285714285714</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1587,13 +1593,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3.928571428571428</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1601,13 +1607,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4.071428571428571</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1615,13 +1621,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>4.642857142857143</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1629,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1643,13 +1649,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>4.642857142857143</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1657,13 +1663,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>4.857142857142857</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1671,13 +1677,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>5.142857142857143</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1685,13 +1691,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>5.285714285714286</v>
+        <v>6.071428571428571</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1709,16 +1715,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1729,13 +1735,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>5.285714285714286</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="D2">
-        <v>-1.714285714285714</v>
+        <v>-1.857142857142857</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1746,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5.214285714285714</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="D3">
-        <v>0.2142857142857144</v>
+        <v>-0.4285714285714288</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1760,13 +1766,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>-1.571428571428571</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1777,16 +1783,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4.928571428571429</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="D5">
-        <v>-2.071428571428571</v>
+        <v>-0.6428571428571432</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1797,13 +1803,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.714285714285714</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="D6">
-        <v>0.7142857142857144</v>
+        <v>0.3571428571428568</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1811,13 +1817,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>4.428571428571429</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.4285714285714288</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1828,13 +1834,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4.142857142857143</v>
+        <v>4.642857142857143</v>
       </c>
       <c r="D8">
-        <v>0.1428571428571432</v>
+        <v>0.6428571428571432</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1845,16 +1851,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>4.142857142857143</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="D9">
-        <v>1.142857142857143</v>
+        <v>0.5714285714285712</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1862,13 +1868,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4.071428571428571</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="D10">
-        <v>1.071428571428571</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1879,16 +1885,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3.642857142857143</v>
+        <v>4.214285714285714</v>
       </c>
       <c r="D11">
-        <v>0.6428571428571428</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1899,13 +1905,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>3.071428571428572</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="D12">
-        <v>2.071428571428572</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1916,13 +1922,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>2.928571428571428</v>
+        <v>3.642857142857143</v>
       </c>
       <c r="D13">
-        <v>-1.071428571428572</v>
+        <v>-1.357142857142857</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1933,10 +1939,10 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>2.285714285714286</v>
+        <v>2.5</v>
       </c>
       <c r="D14">
-        <v>0.2857142857142856</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1974,81 +1980,81 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>47.6</v>
+        <v>19.4</v>
       </c>
       <c r="C2">
-        <v>29.3</v>
+        <v>39.8</v>
       </c>
       <c r="D2">
-        <v>12.7</v>
+        <v>23.4</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>10.1</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2069,39 +2075,39 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>33.9</v>
+        <v>66.3</v>
       </c>
       <c r="C3">
-        <v>37.2</v>
+        <v>20.6</v>
       </c>
       <c r="D3">
-        <v>17.9</v>
+        <v>7.3</v>
       </c>
       <c r="E3">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="F3">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="G3">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>99.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2127,37 +2133,37 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>7.9</v>
       </c>
       <c r="C4">
-        <v>19.6</v>
+        <v>16.1</v>
       </c>
       <c r="D4">
-        <v>27.9</v>
+        <v>25.3</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>14.3</v>
       </c>
       <c r="G4">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="H4">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="I4">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -2169,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>95.2</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2177,37 +2183,37 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="C5">
-        <v>7.4</v>
+        <v>15.6</v>
       </c>
       <c r="D5">
-        <v>19.7</v>
+        <v>21.5</v>
       </c>
       <c r="E5">
-        <v>20.2</v>
+        <v>19.3</v>
       </c>
       <c r="F5">
-        <v>16.8</v>
+        <v>15.5</v>
       </c>
       <c r="G5">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="I5">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -2219,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>79.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2227,349 +2233,349 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="C6">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="D6">
-        <v>7.4</v>
+        <v>12.7</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>20.7</v>
       </c>
       <c r="F6">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="G6">
-        <v>16.5</v>
+        <v>13.9</v>
       </c>
       <c r="H6">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="I6">
-        <v>9.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="K6">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="M6">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="N6">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>60.9</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>0.3</v>
       </c>
-      <c r="C7">
-        <v>1.5</v>
-      </c>
       <c r="D7">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>11.6</v>
+        <v>5.8</v>
       </c>
       <c r="F7">
-        <v>15.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G7">
-        <v>14.4</v>
+        <v>15.3</v>
       </c>
       <c r="H7">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="I7">
-        <v>11.3</v>
+        <v>13.9</v>
       </c>
       <c r="J7">
-        <v>10.6</v>
+        <v>13.4</v>
       </c>
       <c r="K7">
-        <v>6.5</v>
+        <v>11.9</v>
       </c>
       <c r="L7">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="P7">
-        <v>49</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="E8">
-        <v>10.7</v>
+        <v>4.8</v>
       </c>
       <c r="F8">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>11.9</v>
       </c>
       <c r="H8">
-        <v>12.7</v>
+        <v>14.5</v>
       </c>
       <c r="I8">
-        <v>12.2</v>
+        <v>15.2</v>
       </c>
       <c r="J8">
-        <v>10.8</v>
+        <v>13.7</v>
       </c>
       <c r="K8">
+        <v>11.7</v>
+      </c>
+      <c r="L8">
         <v>7.8</v>
       </c>
-      <c r="L8">
-        <v>4.3</v>
-      </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P8">
-        <v>46.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="E9">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="F9">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="H9">
-        <v>10.6</v>
+        <v>14.1</v>
       </c>
       <c r="I9">
-        <v>11.7</v>
+        <v>15.9</v>
       </c>
       <c r="J9">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="K9">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="L9">
-        <v>15.7</v>
+        <v>10.8</v>
       </c>
       <c r="M9">
-        <v>8.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="O9">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="P9">
-        <v>18.1</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="F10">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>8.6</v>
+        <v>10.6</v>
       </c>
       <c r="H10">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>12.2</v>
+        <v>15.6</v>
       </c>
       <c r="J10">
-        <v>13.7</v>
+        <v>14.8</v>
       </c>
       <c r="K10">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="M10">
-        <v>8.9</v>
+        <v>6.5</v>
       </c>
       <c r="N10">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="P10">
-        <v>17.6</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D11">
+        <v>2.5</v>
+      </c>
+      <c r="E11">
+        <v>4.9</v>
+      </c>
+      <c r="F11">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G11">
+        <v>10.5</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>12.3</v>
+      </c>
+      <c r="J11">
+        <v>15.7</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>10.2</v>
+      </c>
+      <c r="M11">
+        <v>5.7</v>
+      </c>
+      <c r="N11">
+        <v>2.7</v>
+      </c>
+      <c r="O11">
         <v>0.6</v>
       </c>
-      <c r="E11">
-        <v>3.4</v>
-      </c>
-      <c r="F11">
-        <v>6.2</v>
-      </c>
-      <c r="G11">
-        <v>7.2</v>
-      </c>
-      <c r="H11">
-        <v>11.9</v>
-      </c>
-      <c r="I11">
-        <v>14.2</v>
-      </c>
-      <c r="J11">
-        <v>14.8</v>
-      </c>
-      <c r="K11">
-        <v>13.6</v>
-      </c>
-      <c r="L11">
-        <v>10.9</v>
-      </c>
-      <c r="M11">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="O11">
-        <v>1.4</v>
-      </c>
       <c r="P11">
-        <v>17.5</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0.1</v>
       </c>
       <c r="E12">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="F12">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="G12">
-        <v>7.3</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="I12">
-        <v>13.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J12">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="K12">
-        <v>15.5</v>
+        <v>16.4</v>
       </c>
       <c r="L12">
-        <v>14.9</v>
+        <v>20.9</v>
       </c>
       <c r="M12">
-        <v>11.1</v>
+        <v>14.8</v>
       </c>
       <c r="N12">
-        <v>7.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P12">
-        <v>13.4</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2586,45 +2592,45 @@
         <v>0</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
         <v>0.3</v>
       </c>
-      <c r="F13">
-        <v>0.7</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+      <c r="I13">
         <v>1.9</v>
       </c>
-      <c r="H13">
-        <v>3.9</v>
-      </c>
-      <c r="I13">
-        <v>5.3</v>
-      </c>
       <c r="J13">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="K13">
-        <v>13.2</v>
+        <v>6.1</v>
       </c>
       <c r="L13">
-        <v>17.4</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>22.9</v>
+        <v>20.7</v>
       </c>
       <c r="N13">
-        <v>17.9</v>
+        <v>29.2</v>
       </c>
       <c r="O13">
-        <v>9.300000000000001</v>
+        <v>22.7</v>
       </c>
       <c r="P13">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2636,45 +2642,45 @@
         <v>0</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0.1</v>
       </c>
-      <c r="F14">
-        <v>0.3</v>
-      </c>
       <c r="G14">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H14">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="I14">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="L14">
-        <v>9.699999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="M14">
-        <v>15.5</v>
+        <v>24.8</v>
       </c>
       <c r="N14">
-        <v>27.8</v>
+        <v>25.6</v>
       </c>
       <c r="O14">
-        <v>37.6</v>
+        <v>25.3</v>
       </c>
       <c r="P14">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2692,34 +2698,34 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
         <v>1.2</v>
       </c>
-      <c r="J15">
-        <v>1.5</v>
-      </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="L15">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="N15">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="O15">
-        <v>45.2</v>
+        <v>48</v>
       </c>
       <c r="P15">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -2729,487 +2735,532 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>87.2</v>
+        <v>69</v>
       </c>
       <c r="C2">
-        <v>97.8</v>
+        <v>24.6</v>
       </c>
       <c r="D2">
-        <v>99.7</v>
+        <v>88.3</v>
       </c>
       <c r="E2">
-        <v>99.5</v>
+        <v>91.8</v>
       </c>
       <c r="F2">
-        <v>97.89999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="G2">
-        <v>97.89999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="H2">
         <v>99.40000000000001</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>66.2</v>
+        <v>86.3</v>
       </c>
       <c r="C3">
-        <v>25.4</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>99.7</v>
       </c>
       <c r="E3">
-        <v>91.2</v>
+        <v>99.8</v>
       </c>
       <c r="F3">
-        <v>94.19999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="G3">
-        <v>96.89999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H3">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K3">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="C4">
-        <v>18.3</v>
+        <v>17.1</v>
       </c>
       <c r="D4">
-        <v>36.9</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="E4">
-        <v>43.5</v>
+        <v>42.9</v>
       </c>
       <c r="F4">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G4">
-        <v>81.69999999999999</v>
+        <v>84</v>
       </c>
       <c r="H4">
-        <v>91.2</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="I4">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="J4">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K4">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>65.40000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="C5">
-        <v>94.69999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D5">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>97.09999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="F5">
-        <v>97.89999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G5">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="H5">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="I5">
-        <v>92.30000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="J5">
-        <v>92.80000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>96.3</v>
+      </c>
+      <c r="K5">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6">
-        <v>87.7</v>
+        <v>84.3</v>
       </c>
       <c r="E6">
-        <v>64.5</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="F6">
-        <v>49.8</v>
+        <v>53.3</v>
       </c>
       <c r="G6">
-        <v>75.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="H6">
+        <v>87.8</v>
+      </c>
+      <c r="I6">
+        <v>84.7</v>
+      </c>
+      <c r="J6">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="K6">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C7">
+        <v>71.5</v>
+      </c>
+      <c r="D7">
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>24.6</v>
+      </c>
+      <c r="F7">
+        <v>35.9</v>
+      </c>
+      <c r="G7">
+        <v>32.2</v>
+      </c>
+      <c r="H7">
+        <v>51</v>
+      </c>
+      <c r="I7">
+        <v>39.2</v>
+      </c>
+      <c r="J7">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="K7">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>92.2</v>
+      </c>
+      <c r="C8">
+        <v>43.6</v>
+      </c>
+      <c r="D8">
+        <v>49.1</v>
+      </c>
+      <c r="E8">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F8">
+        <v>69.19999999999999</v>
+      </c>
+      <c r="G8">
+        <v>78.8</v>
+      </c>
+      <c r="H8">
+        <v>63.4</v>
+      </c>
+      <c r="I8">
+        <v>42.2</v>
+      </c>
+      <c r="J8">
+        <v>63</v>
+      </c>
+      <c r="K8">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="C9">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D9">
+        <v>98.8</v>
+      </c>
+      <c r="E9">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="F9">
+        <v>63.5</v>
+      </c>
+      <c r="G9">
+        <v>53.7</v>
+      </c>
+      <c r="H9">
+        <v>34.9</v>
+      </c>
+      <c r="I9">
+        <v>33.90000000000001</v>
+      </c>
+      <c r="J9">
+        <v>52.40000000000001</v>
+      </c>
+      <c r="K9">
+        <v>56.89999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>30.9</v>
+      </c>
+      <c r="C10">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D10">
+        <v>30.9</v>
+      </c>
+      <c r="E10">
+        <v>18.1</v>
+      </c>
+      <c r="F10">
+        <v>13.8</v>
+      </c>
+      <c r="G10">
+        <v>35.9</v>
+      </c>
+      <c r="H10">
+        <v>55.3</v>
+      </c>
+      <c r="I10">
+        <v>75</v>
+      </c>
+      <c r="J10">
+        <v>53.40000000000001</v>
+      </c>
+      <c r="K10">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>21.9</v>
+      </c>
+      <c r="C11">
+        <v>83.3</v>
+      </c>
+      <c r="D11">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="E11">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="F11">
         <v>89.7</v>
       </c>
-      <c r="I6">
-        <v>82.19999999999999</v>
-      </c>
-      <c r="J6">
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>25.3</v>
-      </c>
-      <c r="C7">
-        <v>84.2</v>
-      </c>
-      <c r="D7">
-        <v>94.8</v>
-      </c>
-      <c r="E7">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="F7">
-        <v>92.10000000000001</v>
-      </c>
-      <c r="G7">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="H7">
-        <v>51.3</v>
-      </c>
-      <c r="I7">
-        <v>75.5</v>
-      </c>
-      <c r="J7">
-        <v>75.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>31.2</v>
-      </c>
-      <c r="C8">
-        <v>83.8</v>
-      </c>
-      <c r="D8">
-        <v>32.9</v>
-      </c>
-      <c r="E8">
-        <v>17.1</v>
-      </c>
-      <c r="F8">
-        <v>13.2</v>
-      </c>
-      <c r="G8">
-        <v>37.3</v>
-      </c>
-      <c r="H8">
-        <v>54.7</v>
-      </c>
-      <c r="I8">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="J8">
-        <v>73.59999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="C9">
-        <v>38.5</v>
-      </c>
-      <c r="D9">
-        <v>50.1</v>
-      </c>
-      <c r="E9">
-        <v>84.89999999999999</v>
-      </c>
-      <c r="F9">
-        <v>68.30000000000001</v>
-      </c>
-      <c r="G9">
-        <v>78.60000000000001</v>
-      </c>
-      <c r="H9">
-        <v>60.8</v>
-      </c>
-      <c r="I9">
-        <v>42.8</v>
-      </c>
-      <c r="J9">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>45.9</v>
-      </c>
-      <c r="C10">
-        <v>64</v>
-      </c>
-      <c r="D10">
-        <v>22.6</v>
-      </c>
-      <c r="E10">
-        <v>65.8</v>
-      </c>
-      <c r="F10">
-        <v>75.3</v>
-      </c>
-      <c r="G10">
-        <v>62.6</v>
-      </c>
-      <c r="H10">
-        <v>51.6</v>
-      </c>
-      <c r="I10">
-        <v>42</v>
-      </c>
-      <c r="J10">
-        <v>40.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C11">
-        <v>70.89999999999999</v>
-      </c>
-      <c r="D11">
-        <v>46.6</v>
-      </c>
-      <c r="E11">
-        <v>26.2</v>
-      </c>
-      <c r="F11">
-        <v>35.5</v>
-      </c>
       <c r="G11">
-        <v>28.6</v>
+        <v>64.3</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>50.2</v>
       </c>
       <c r="I11">
-        <v>39.8</v>
+        <v>74.2</v>
       </c>
       <c r="J11">
-        <v>40.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>52.7</v>
+      </c>
+      <c r="K11">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>96.09999999999999</v>
+        <v>46.5</v>
       </c>
       <c r="C12">
-        <v>92</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="D12">
-        <v>97.5</v>
+        <v>24.2</v>
       </c>
       <c r="E12">
-        <v>72.3</v>
+        <v>61.1</v>
       </c>
       <c r="F12">
-        <v>64.60000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G12">
-        <v>53.40000000000001</v>
+        <v>61.1</v>
       </c>
       <c r="H12">
-        <v>34.59999999999999</v>
+        <v>53.2</v>
       </c>
       <c r="I12">
-        <v>36.7</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="J12">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>27.7</v>
+      </c>
+      <c r="K12">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="C13">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="D13">
-        <v>19.6</v>
+        <v>22.3</v>
       </c>
       <c r="E13">
-        <v>23.9</v>
+        <v>27.1</v>
       </c>
       <c r="F13">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="G13">
-        <v>7.199999999999999</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="J13">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>4.9</v>
+      </c>
+      <c r="K13">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C14">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>7.3</v>
       </c>
       <c r="E14">
-        <v>20.6</v>
+        <v>4.8</v>
       </c>
       <c r="F14">
-        <v>8.799999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="G14">
-        <v>4.399999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="H14">
         <v>6.800000000000001</v>
       </c>
       <c r="I14">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="J14">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>2.8</v>
+      </c>
+      <c r="K14">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>83.59999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="C15">
-        <v>17.4</v>
+        <v>6.3</v>
       </c>
       <c r="D15">
-        <v>9.5</v>
+        <v>14.9</v>
       </c>
       <c r="E15">
-        <v>5.5</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>22.1</v>
+        <v>6.5</v>
       </c>
       <c r="G15">
-        <v>10.1</v>
+        <v>3.8</v>
       </c>
       <c r="H15">
-        <v>7.1</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I15">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>1.6</v>
+        <v>0.4</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3227,48 +3278,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>117.29</v>
+        <v>113.0555555555556</v>
       </c>
       <c r="E2">
-        <v>938.3199999999999</v>
+        <v>1017.5</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3277,39 +3328,39 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D3">
-        <v>113.53</v>
+        <v>117.4133333333333</v>
       </c>
       <c r="E3">
-        <v>908.24</v>
+        <v>1056.72</v>
       </c>
       <c r="F3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3317,28 +3368,28 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>114.345</v>
+        <v>113.4755555555555</v>
       </c>
       <c r="E4">
-        <v>914.76</v>
+        <v>1021.28</v>
       </c>
       <c r="F4">
-        <v>99.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3346,28 +3397,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>113.8075</v>
+        <v>112.3444444444444</v>
       </c>
       <c r="E5">
-        <v>910.4599999999999</v>
+        <v>1011.1</v>
       </c>
       <c r="F5">
-        <v>93.7</v>
+        <v>97.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3375,86 +3426,86 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>113.405</v>
+        <v>113.1933333333333</v>
       </c>
       <c r="E6">
-        <v>907.24</v>
+        <v>1018.74</v>
       </c>
       <c r="F6">
-        <v>83.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D7">
-        <v>111.165</v>
+        <v>109.5488888888889</v>
       </c>
       <c r="E7">
-        <v>889.3200000000001</v>
+        <v>985.9400000000001</v>
       </c>
       <c r="F7">
-        <v>74.5</v>
+        <v>62.2</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D8">
-        <v>110.0425</v>
+        <v>107.5111111111111</v>
       </c>
       <c r="E8">
-        <v>880.34</v>
+        <v>967.5999999999999</v>
       </c>
       <c r="F8">
-        <v>71.09999999999999</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3462,115 +3513,115 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D9">
-        <v>98.41499999999999</v>
+        <v>100.0755555555556</v>
       </c>
       <c r="E9">
-        <v>787.3199999999999</v>
+        <v>900.6799999999999</v>
       </c>
       <c r="F9">
-        <v>43.6</v>
+        <v>58.9</v>
       </c>
       <c r="G9">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D10">
-        <v>108.1575</v>
+        <v>107.5733333333333</v>
       </c>
       <c r="E10">
-        <v>865.26</v>
+        <v>968.1600000000001</v>
       </c>
       <c r="F10">
-        <v>41.6</v>
+        <v>51.3</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D11">
-        <v>107.12</v>
+        <v>106.7288888888889</v>
       </c>
       <c r="E11">
-        <v>856.96</v>
+        <v>960.5600000000001</v>
       </c>
       <c r="F11">
-        <v>40.40000000000001</v>
+        <v>51.1</v>
       </c>
       <c r="G11">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>104.8</v>
+        <v>108.04</v>
       </c>
       <c r="E12">
-        <v>838.4</v>
+        <v>972.36</v>
       </c>
       <c r="F12">
-        <v>35.8</v>
+        <v>22.4</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3578,86 +3629,86 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>97.105</v>
+        <v>90.86666666666667</v>
       </c>
       <c r="E13">
-        <v>776.8399999999999</v>
+        <v>817.8</v>
       </c>
       <c r="F13">
-        <v>12.1</v>
+        <v>3.2</v>
       </c>
       <c r="G13">
-        <v>9.300000000000001</v>
+        <v>22.7</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C14">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D14">
-        <v>94.52499999999999</v>
+        <v>101.9355555555556</v>
       </c>
       <c r="E14">
-        <v>756.2</v>
+        <v>917.42</v>
       </c>
       <c r="F14">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G14">
-        <v>37.6</v>
+        <v>25.3</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <v>0.125</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D15">
-        <v>100.3325</v>
+        <v>94.55555555555554</v>
       </c>
       <c r="E15">
-        <v>802.66</v>
+        <v>851</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="G15">
-        <v>45.2</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3675,19 +3726,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3695,19 +3746,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3715,19 +3766,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3735,10 +3786,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -3747,7 +3798,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3755,19 +3806,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3775,19 +3826,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3798,16 +3849,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3818,16 +3869,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3838,16 +3889,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3855,19 +3906,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3875,19 +3926,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3898,16 +3949,16 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3918,16 +3969,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>-23</v>
+        <v>-27</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3935,19 +3986,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D14">
         <v>-27</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3955,19 +4006,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>-27</v>
+        <v>-29</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3977,202 +4028,220 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>9</v>
       </c>
       <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-6</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
         <v>9</v>
       </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>-3</v>
-      </c>
-      <c r="E4">
-        <v>-5</v>
       </c>
       <c r="F4">
         <v>-3</v>
       </c>
       <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>-3</v>
+      </c>
+      <c r="E5">
+        <v>-5</v>
+      </c>
+      <c r="F5">
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
-      </c>
-      <c r="F6">
-        <v>-3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4200,11 +4269,14 @@
       <c r="I7">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4232,11 +4304,14 @@
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4264,75 +4339,84 @@
       <c r="I9">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-7</v>
+      </c>
+      <c r="I10">
+        <v>-4</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>17</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-3</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>-2</v>
-      </c>
-      <c r="C11">
-        <v>-2</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-      <c r="H11">
-        <v>-7</v>
-      </c>
-      <c r="I11">
-        <v>-4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11">
+        <v>-5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -4360,11 +4444,14 @@
       <c r="I12">
         <v>-5</v>
       </c>
-      <c r="J12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12">
+        <v>-9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -4392,72 +4479,81 @@
       <c r="I13">
         <v>-23</v>
       </c>
-      <c r="J13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13">
+        <v>-27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C14">
+        <v>-6</v>
+      </c>
+      <c r="D14">
+        <v>-11</v>
+      </c>
+      <c r="E14">
         <v>-3</v>
       </c>
-      <c r="D14">
-        <v>-8</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="G14">
-        <v>-9</v>
+        <v>-17</v>
       </c>
       <c r="H14">
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="I14">
         <v>-27</v>
       </c>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14">
+        <v>-27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B15">
+        <v>-2</v>
+      </c>
+      <c r="C15">
         <v>-3</v>
       </c>
-      <c r="C15">
+      <c r="D15">
+        <v>-8</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>-6</v>
       </c>
-      <c r="D15">
-        <v>-11</v>
-      </c>
-      <c r="E15">
-        <v>-3</v>
-      </c>
-      <c r="F15">
-        <v>-13</v>
-      </c>
       <c r="G15">
-        <v>-17</v>
+        <v>-9</v>
       </c>
       <c r="H15">
-        <v>-23</v>
+        <v>-16</v>
       </c>
       <c r="I15">
         <v>-27</v>
       </c>
-      <c r="J15" t="s">
-        <v>113</v>
+      <c r="J15">
+        <v>-29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4467,7 +4563,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4475,25 +4571,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4813,51 +4909,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
         <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="135">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -66,31 +66,34 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>0-9-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>0-10-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -186,6 +189,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -210,72 +216,72 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>8-1</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>9.9-4.0-0.1</t>
-  </si>
-  <si>
-    <t>10.9-3.1-0.1</t>
-  </si>
-  <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>8.6-5.3-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>6.7-7.2</t>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>10.3-3.7</t>
+  </si>
+  <si>
+    <t>9.4-4.6</t>
+  </si>
+  <si>
+    <t>9.2-4.7</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>8.4-5.6</t>
   </si>
   <si>
     <t>7.1-6.9</t>
   </si>
   <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>4.7-9.2</t>
-  </si>
-  <si>
-    <t>4.2-9.8-0.1</t>
-  </si>
-  <si>
-    <t>3.8-10.1</t>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>6.0-7.9</t>
+  </si>
+  <si>
+    <t>5.9-8.0</t>
+  </si>
+  <si>
+    <t>4.5-9.5</t>
+  </si>
+  <si>
+    <t>4.3-9.7</t>
+  </si>
+  <si>
+    <t>3.7-10.3</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>11-3</t>
-  </si>
-  <si>
     <t>9-5</t>
   </si>
   <si>
@@ -285,7 +291,7 @@
     <t>7-7</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>6-8</t>
   </si>
   <si>
     <t>4-10</t>
@@ -300,75 +306,78 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>nicholas spadaro</t>
+  </si>
+  <si>
+    <t>Mikaela Mitcho</t>
+  </si>
+  <si>
+    <t>Zachary Dillon</t>
+  </si>
+  <si>
+    <t>Lawrence Rosello</t>
+  </si>
+  <si>
     <t>Sal Spadaro</t>
   </si>
   <si>
-    <t>Zachary Dillon</t>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
+    <t>Kathy Dillon</t>
   </si>
   <si>
     <t>gabriella spadaro</t>
   </si>
   <si>
-    <t>Mikaela Mitcho</t>
-  </si>
-  <si>
-    <t>nicholas spadaro</t>
-  </si>
-  <si>
-    <t>Marissa Rodriguez</t>
-  </si>
-  <si>
-    <t>Lawrence Rosello</t>
-  </si>
-  <si>
-    <t>Kathy Dillon</t>
-  </si>
-  <si>
     <t>Stephanie Mattei</t>
   </si>
   <si>
+    <t>Brendan Fanning</t>
+  </si>
+  <si>
     <t>Michael Dillon</t>
   </si>
   <si>
-    <t>Brendan Fanning</t>
+    <t>Ryan Lesiak</t>
+  </si>
+  <si>
+    <t>Josh Formola</t>
   </si>
   <si>
     <t>Antonio  Spadaro</t>
   </si>
   <si>
-    <t>Josh Formola</t>
-  </si>
-  <si>
-    <t>Ryan Lesiak</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -394,6 +403,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -830,37 +842,37 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -877,28 +889,28 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -907,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -924,7 +936,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -936,28 +948,28 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
         <v>16</v>
@@ -971,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -986,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1018,40 +1030,40 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
@@ -1065,43 +1077,43 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1112,43 +1124,43 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
         <v>18</v>
       </c>
       <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
         <v>20</v>
-      </c>
-      <c r="O8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1159,19 +1171,19 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -1180,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -1189,7 +1201,7 @@
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
@@ -1209,37 +1221,37 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O10" t="s">
         <v>14</v>
@@ -1256,40 +1268,40 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
         <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1300,14 +1312,14 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
@@ -1318,22 +1330,22 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O12" t="s">
         <v>14</v>
@@ -1350,7 +1362,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1359,31 +1371,31 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
         <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1394,28 +1406,28 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
@@ -1424,7 +1436,7 @@
         <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N14" t="s">
         <v>16</v>
@@ -1438,10 +1450,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1450,34 +1462,34 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N15" t="s">
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1495,13 +1507,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1509,13 +1521,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>3.214285714285714</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1523,13 +1535,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3.214285714285714</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1537,13 +1549,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.428571428571428</v>
+        <v>4.071428571428571</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1551,13 +1563,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3.785714285714286</v>
+        <v>4.5</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1565,13 +1577,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>4.285714285714286</v>
+        <v>4.642857142857143</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1579,13 +1591,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4.428571428571429</v>
+        <v>4.785714285714286</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1593,13 +1605,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4.571428571428571</v>
+        <v>5.214285714285714</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1607,13 +1619,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4.571428571428571</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1624,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>4.642857142857143</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1635,13 +1647,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4.714285714285714</v>
+        <v>5.5</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1652,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>5.285714285714286</v>
+        <v>5.5</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1663,13 +1675,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>5.357142857142857</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1677,10 +1689,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>5.428571428571429</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1694,10 +1706,10 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>6.071428571428571</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1715,16 +1727,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1735,13 +1747,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>6.142857142857143</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="D2">
-        <v>-1.857142857142857</v>
+        <v>-1.428571428571429</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1752,13 +1764,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5.571428571428571</v>
+        <v>6.5</v>
       </c>
       <c r="D3">
-        <v>-0.4285714285714288</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1766,16 +1778,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5.428571428571429</v>
+        <v>6.357142857142857</v>
       </c>
       <c r="D4">
-        <v>-1.571428571428571</v>
+        <v>-0.6428571428571432</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1783,13 +1795,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5.357142857142857</v>
+        <v>5.928571428571429</v>
       </c>
       <c r="D5">
-        <v>-0.6428571428571432</v>
+        <v>-0.07142857142857117</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1800,16 +1812,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5.357142857142857</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="D6">
-        <v>0.3571428571428568</v>
+        <v>-1.285714285714286</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1817,13 +1829,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.4285714285714288</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1834,16 +1846,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>4.642857142857143</v>
+        <v>5.071428571428571</v>
       </c>
       <c r="D8">
-        <v>0.6428571428571432</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1851,13 +1863,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4.571428571428571</v>
+        <v>4.857142857142857</v>
       </c>
       <c r="D9">
-        <v>0.5714285714285712</v>
+        <v>-0.1428571428571432</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1868,13 +1880,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4.571428571428571</v>
+        <v>4.857142857142857</v>
       </c>
       <c r="D10">
-        <v>1.571428571428571</v>
+        <v>0.8571428571428568</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1885,16 +1897,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.214285714285714</v>
+        <v>4.785714285714286</v>
       </c>
       <c r="D11">
-        <v>0.2142857142857144</v>
+        <v>0.7857142857142856</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1902,16 +1914,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>3.857142857142857</v>
+        <v>4.357142857142857</v>
       </c>
       <c r="D12">
-        <v>1.857142857142857</v>
+        <v>-0.6428571428571432</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1919,16 +1931,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>3.642857142857143</v>
+        <v>4.214285714285714</v>
       </c>
       <c r="D13">
-        <v>-1.357142857142857</v>
+        <v>2.214285714285714</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1939,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>2.5</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1962,7 +1974,7 @@
         <v>-0.8571428571428572</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1980,81 +1992,81 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>19.4</v>
+        <v>52.6</v>
       </c>
       <c r="C2">
-        <v>39.8</v>
+        <v>22.3</v>
       </c>
       <c r="D2">
-        <v>23.4</v>
+        <v>14.2</v>
       </c>
       <c r="E2">
-        <v>10.1</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="G2">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2080,35 +2092,35 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>66.3</v>
+        <v>9.9</v>
       </c>
       <c r="C3">
-        <v>20.6</v>
+        <v>23.6</v>
       </c>
       <c r="D3">
-        <v>7.3</v>
+        <v>27.9</v>
       </c>
       <c r="E3">
-        <v>3.8</v>
+        <v>19.5</v>
       </c>
       <c r="F3">
-        <v>1.3</v>
+        <v>10.1</v>
       </c>
       <c r="G3">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
@@ -2125,45 +2137,45 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>16.1</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>25.3</v>
+        <v>18.8</v>
       </c>
       <c r="E4">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="F4">
-        <v>14.3</v>
+        <v>13.5</v>
       </c>
       <c r="G4">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="H4">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="I4">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -2175,45 +2187,45 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>5.1</v>
+        <v>20.2</v>
       </c>
       <c r="C5">
-        <v>15.6</v>
+        <v>19.3</v>
       </c>
       <c r="D5">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>19.3</v>
+        <v>18.4</v>
       </c>
       <c r="F5">
-        <v>15.5</v>
+        <v>12.9</v>
       </c>
       <c r="G5">
-        <v>10.8</v>
+        <v>5.8</v>
       </c>
       <c r="H5">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="I5">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="J5">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -2225,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>97.5</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2233,149 +2245,149 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="D6">
-        <v>12.7</v>
+        <v>14.7</v>
       </c>
       <c r="E6">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="F6">
-        <v>18.5</v>
+        <v>23.9</v>
       </c>
       <c r="G6">
-        <v>13.9</v>
+        <v>16.5</v>
       </c>
       <c r="H6">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="I6">
-        <v>7.7</v>
+        <v>3.7</v>
       </c>
       <c r="J6">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>91.8</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="E7">
+        <v>6.5</v>
+      </c>
+      <c r="F7">
+        <v>12.8</v>
+      </c>
+      <c r="G7">
+        <v>18.8</v>
+      </c>
+      <c r="H7">
+        <v>17.9</v>
+      </c>
+      <c r="I7">
+        <v>14.2</v>
+      </c>
+      <c r="J7">
+        <v>12.7</v>
+      </c>
+      <c r="K7">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L7">
         <v>5.8</v>
       </c>
-      <c r="F7">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G7">
-        <v>15.3</v>
-      </c>
-      <c r="H7">
-        <v>14.1</v>
-      </c>
-      <c r="I7">
-        <v>13.9</v>
-      </c>
-      <c r="J7">
-        <v>13.4</v>
-      </c>
-      <c r="K7">
-        <v>11.9</v>
-      </c>
-      <c r="L7">
-        <v>6.4</v>
-      </c>
       <c r="M7">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="N7">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="O7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>62.2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="D8">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="E8">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="F8">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
       <c r="G8">
-        <v>11.9</v>
+        <v>15.4</v>
       </c>
       <c r="H8">
-        <v>14.5</v>
+        <v>15.7</v>
       </c>
       <c r="I8">
-        <v>15.2</v>
+        <v>17.6</v>
       </c>
       <c r="J8">
-        <v>13.7</v>
+        <v>12.7</v>
       </c>
       <c r="K8">
-        <v>11.7</v>
+        <v>10.5</v>
       </c>
       <c r="L8">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="M8">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="O8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>60</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2386,146 +2398,146 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="F9">
-        <v>8.6</v>
+        <v>5.6</v>
       </c>
       <c r="G9">
-        <v>12.5</v>
+        <v>11.2</v>
       </c>
       <c r="H9">
-        <v>14.1</v>
+        <v>16.1</v>
       </c>
       <c r="I9">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="J9">
-        <v>13.9</v>
+        <v>14.8</v>
       </c>
       <c r="K9">
-        <v>12.5</v>
+        <v>17.3</v>
       </c>
       <c r="L9">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="N9">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
         <v>0.1</v>
       </c>
       <c r="P9">
-        <v>58.9</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4.9</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="G10">
-        <v>10.6</v>
+        <v>7.6</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="I10">
-        <v>15.6</v>
+        <v>16.5</v>
       </c>
       <c r="J10">
-        <v>14.8</v>
+        <v>17.1</v>
       </c>
       <c r="K10">
-        <v>14.2</v>
+        <v>16.5</v>
       </c>
       <c r="L10">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="M10">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="N10">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P10">
-        <v>51.3</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="F11">
-        <v>8.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="I11">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="J11">
-        <v>15.7</v>
+        <v>17.7</v>
       </c>
       <c r="K11">
-        <v>14</v>
+        <v>18.3</v>
       </c>
       <c r="L11">
-        <v>10.2</v>
+        <v>17.1</v>
       </c>
       <c r="M11">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="N11">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="O11">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="P11">
-        <v>51.1</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2536,101 +2548,101 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
         <v>0.1</v>
       </c>
       <c r="E12">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="F12">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="H12">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="I12">
-        <v>8.300000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="J12">
-        <v>13.3</v>
+        <v>18.4</v>
       </c>
       <c r="K12">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="L12">
-        <v>20.9</v>
+        <v>19.3</v>
       </c>
       <c r="M12">
-        <v>14.8</v>
+        <v>8.4</v>
       </c>
       <c r="N12">
-        <v>9.800000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>22.4</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.2</v>
-      </c>
-      <c r="G13">
-        <v>0.3</v>
-      </c>
-      <c r="H13">
-        <v>0.8</v>
-      </c>
-      <c r="I13">
-        <v>1.9</v>
-      </c>
       <c r="J13">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="K13">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>12.3</v>
       </c>
       <c r="M13">
-        <v>20.7</v>
+        <v>30</v>
       </c>
       <c r="N13">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="O13">
-        <v>22.7</v>
+        <v>19.8</v>
       </c>
       <c r="P13">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2645,42 +2657,42 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H14">
+        <v>0.4</v>
+      </c>
+      <c r="I14">
+        <v>0.8</v>
+      </c>
+      <c r="J14">
         <v>1.1</v>
       </c>
-      <c r="I14">
-        <v>1.3</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
       <c r="K14">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="L14">
-        <v>12.1</v>
+        <v>5.6</v>
       </c>
       <c r="M14">
-        <v>24.8</v>
+        <v>18.3</v>
       </c>
       <c r="N14">
-        <v>25.6</v>
+        <v>30.8</v>
       </c>
       <c r="O14">
-        <v>25.3</v>
+        <v>39.9</v>
       </c>
       <c r="P14">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2701,31 +2713,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I15">
         <v>0.5</v>
       </c>
       <c r="J15">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="M15">
-        <v>14.7</v>
+        <v>20.8</v>
       </c>
       <c r="N15">
-        <v>26.4</v>
+        <v>27.9</v>
       </c>
       <c r="O15">
-        <v>48</v>
+        <v>38.2</v>
       </c>
       <c r="P15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2735,532 +2747,577 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>86.8</v>
       </c>
       <c r="C2">
-        <v>24.6</v>
+        <v>97.8</v>
       </c>
       <c r="D2">
-        <v>88.3</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>91.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F2">
-        <v>95.5</v>
+        <v>98.3</v>
       </c>
       <c r="G2">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="H2">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="I2">
         <v>99.90000000000001</v>
       </c>
       <c r="J2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K2">
+        <v>99.8</v>
+      </c>
+      <c r="L2">
         <v>100</v>
       </c>
-      <c r="K2">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>71.3</v>
+      </c>
+      <c r="C3">
+        <v>24.7</v>
+      </c>
+      <c r="D3">
+        <v>85.3</v>
+      </c>
+      <c r="E3">
+        <v>91.5</v>
+      </c>
+      <c r="F3">
+        <v>95.5</v>
+      </c>
+      <c r="G3">
+        <v>96.3</v>
+      </c>
+      <c r="H3">
+        <v>99.3</v>
+      </c>
+      <c r="I3">
+        <v>99.7</v>
+      </c>
+      <c r="J3">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>86.3</v>
-      </c>
-      <c r="C3">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="D3">
-        <v>99.7</v>
-      </c>
-      <c r="E3">
-        <v>99.8</v>
-      </c>
-      <c r="F3">
-        <v>97.8</v>
-      </c>
-      <c r="G3">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="H3">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L3">
         <v>100</v>
       </c>
-      <c r="J3">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="K3">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>17.1</v>
+        <v>16.6</v>
       </c>
       <c r="D4">
-        <v>35.09999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="E4">
-        <v>42.9</v>
+        <v>40.5</v>
       </c>
       <c r="F4">
-        <v>66.90000000000001</v>
+        <v>62.3</v>
       </c>
       <c r="G4">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="H4">
-        <v>90.10000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="I4">
-        <v>99</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J4">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="K4">
-        <v>98.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>64.8</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>98.2</v>
       </c>
       <c r="E5">
-        <v>97.39999999999999</v>
+        <v>97</v>
       </c>
       <c r="F5">
-        <v>98.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="G5">
+        <v>99.3</v>
+      </c>
+      <c r="H5">
+        <v>98.2</v>
+      </c>
+      <c r="I5">
+        <v>92.7</v>
+      </c>
+      <c r="J5">
+        <v>96</v>
+      </c>
+      <c r="K5">
         <v>99.2</v>
       </c>
-      <c r="H5">
-        <v>98.7</v>
-      </c>
-      <c r="I5">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="J5">
-        <v>96.3</v>
-      </c>
-      <c r="K5">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>98</v>
+        <v>96.8</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6">
+        <v>86.3</v>
+      </c>
+      <c r="E6">
+        <v>64.2</v>
+      </c>
+      <c r="F6">
+        <v>52.7</v>
+      </c>
+      <c r="G6">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="H6">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="I6">
         <v>84.3</v>
       </c>
-      <c r="E6">
-        <v>67.60000000000001</v>
-      </c>
-      <c r="F6">
-        <v>53.3</v>
-      </c>
-      <c r="G6">
-        <v>73.3</v>
-      </c>
-      <c r="H6">
-        <v>87.8</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
+        <v>90.2</v>
+      </c>
+      <c r="K6">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L6">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>22.9</v>
+      </c>
+      <c r="C7">
+        <v>81.8</v>
+      </c>
+      <c r="D7">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>89.7</v>
+      </c>
+      <c r="G7">
+        <v>65</v>
+      </c>
+      <c r="H7">
+        <v>51.5</v>
+      </c>
+      <c r="I7">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="J7">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>72.7</v>
+      </c>
+      <c r="L7">
+        <v>75.09999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>29.1</v>
+      </c>
+      <c r="C8">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="D8">
+        <v>30.4</v>
+      </c>
+      <c r="E8">
+        <v>15.6</v>
+      </c>
+      <c r="F8">
+        <v>16.3</v>
+      </c>
+      <c r="G8">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="H8">
+        <v>55.3</v>
+      </c>
+      <c r="I8">
+        <v>74.3</v>
+      </c>
+      <c r="J8">
+        <v>51.6</v>
+      </c>
+      <c r="K8">
+        <v>68.30000000000001</v>
+      </c>
+      <c r="L8">
+        <v>68.40000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="C9">
+        <v>41.9</v>
+      </c>
+      <c r="D9">
+        <v>51.8</v>
+      </c>
+      <c r="E9">
         <v>84.7</v>
       </c>
-      <c r="J6">
-        <v>89.60000000000001</v>
-      </c>
-      <c r="K6">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+      <c r="F9">
+        <v>66.3</v>
+      </c>
+      <c r="G9">
+        <v>78.60000000000001</v>
+      </c>
+      <c r="H9">
+        <v>59</v>
+      </c>
+      <c r="I9">
+        <v>42.3</v>
+      </c>
+      <c r="J9">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
+      <c r="L9">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>96.3</v>
+      </c>
+      <c r="C10">
+        <v>91.3</v>
+      </c>
+      <c r="D10">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E10">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="F10">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="G10">
+        <v>55.40000000000001</v>
+      </c>
+      <c r="H10">
+        <v>36.5</v>
+      </c>
+      <c r="I10">
+        <v>35.9</v>
+      </c>
+      <c r="J10">
+        <v>56.89999999999999</v>
+      </c>
+      <c r="K10">
+        <v>40.9</v>
+      </c>
+      <c r="L10">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>46.6</v>
+      </c>
+      <c r="C11">
+        <v>63.4</v>
+      </c>
+      <c r="D11">
+        <v>22.4</v>
+      </c>
+      <c r="E11">
+        <v>61.3</v>
+      </c>
+      <c r="F11">
+        <v>74.2</v>
+      </c>
+      <c r="G11">
+        <v>63.4</v>
+      </c>
+      <c r="H11">
+        <v>52</v>
+      </c>
+      <c r="I11">
+        <v>42.7</v>
+      </c>
+      <c r="J11">
+        <v>26.1</v>
+      </c>
+      <c r="K11">
+        <v>36.4</v>
+      </c>
+      <c r="L11">
+        <v>34.59999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>99.40000000000001</v>
       </c>
-      <c r="C7">
-        <v>71.5</v>
-      </c>
-      <c r="D7">
-        <v>52</v>
-      </c>
-      <c r="E7">
-        <v>24.6</v>
-      </c>
-      <c r="F7">
-        <v>35.9</v>
-      </c>
-      <c r="G7">
-        <v>32.2</v>
-      </c>
-      <c r="H7">
-        <v>51</v>
-      </c>
-      <c r="I7">
-        <v>39.2</v>
-      </c>
-      <c r="J7">
-        <v>60.09999999999999</v>
-      </c>
-      <c r="K7">
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>92.2</v>
-      </c>
-      <c r="C8">
-        <v>43.6</v>
-      </c>
-      <c r="D8">
-        <v>49.1</v>
-      </c>
-      <c r="E8">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="F8">
-        <v>69.19999999999999</v>
-      </c>
-      <c r="G8">
-        <v>78.8</v>
-      </c>
-      <c r="H8">
-        <v>63.4</v>
-      </c>
-      <c r="I8">
-        <v>42.2</v>
-      </c>
-      <c r="J8">
-        <v>63</v>
-      </c>
-      <c r="K8">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+      <c r="C12">
+        <v>71.2</v>
+      </c>
+      <c r="D12">
+        <v>50.9</v>
+      </c>
+      <c r="E12">
+        <v>24.2</v>
+      </c>
+      <c r="F12">
+        <v>35.6</v>
+      </c>
+      <c r="G12">
+        <v>32.1</v>
+      </c>
+      <c r="H12">
+        <v>49.5</v>
+      </c>
+      <c r="I12">
+        <v>37.9</v>
+      </c>
+      <c r="J12">
+        <v>62.5</v>
+      </c>
+      <c r="K12">
+        <v>34.4</v>
+      </c>
+      <c r="L12">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>5.7</v>
+      </c>
+      <c r="C13">
+        <v>6.9</v>
+      </c>
+      <c r="D13">
+        <v>17.5</v>
+      </c>
+      <c r="E13">
+        <v>23.2</v>
+      </c>
+      <c r="F13">
+        <v>7.5</v>
+      </c>
+      <c r="G13">
+        <v>2.8</v>
+      </c>
+      <c r="H13">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="C9">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="D9">
-        <v>98.8</v>
-      </c>
-      <c r="E9">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="F9">
-        <v>63.5</v>
-      </c>
-      <c r="G9">
-        <v>53.7</v>
-      </c>
-      <c r="H9">
-        <v>34.9</v>
-      </c>
-      <c r="I9">
-        <v>33.90000000000001</v>
-      </c>
-      <c r="J9">
-        <v>52.40000000000001</v>
-      </c>
-      <c r="K9">
-        <v>56.89999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>30.9</v>
-      </c>
-      <c r="C10">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="D10">
-        <v>30.9</v>
-      </c>
-      <c r="E10">
-        <v>18.1</v>
-      </c>
-      <c r="F10">
-        <v>13.8</v>
-      </c>
-      <c r="G10">
-        <v>35.9</v>
-      </c>
-      <c r="H10">
-        <v>55.3</v>
-      </c>
-      <c r="I10">
-        <v>75</v>
-      </c>
-      <c r="J10">
-        <v>53.40000000000001</v>
-      </c>
-      <c r="K10">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
+      <c r="I13">
+        <v>2.7</v>
+      </c>
+      <c r="J13">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="K13">
+        <v>2.6</v>
+      </c>
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>21.9</v>
-      </c>
-      <c r="C11">
-        <v>83.3</v>
-      </c>
-      <c r="D11">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="E11">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="F11">
-        <v>89.7</v>
-      </c>
-      <c r="G11">
-        <v>64.3</v>
-      </c>
-      <c r="H11">
-        <v>50.2</v>
-      </c>
-      <c r="I11">
-        <v>74.2</v>
-      </c>
-      <c r="J11">
-        <v>52.7</v>
-      </c>
-      <c r="K11">
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>46.5</v>
-      </c>
-      <c r="C12">
-        <v>65.10000000000001</v>
-      </c>
-      <c r="D12">
-        <v>24.2</v>
-      </c>
-      <c r="E12">
-        <v>61.1</v>
-      </c>
-      <c r="F12">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="G12">
-        <v>61.1</v>
-      </c>
-      <c r="H12">
-        <v>53.2</v>
-      </c>
-      <c r="I12">
-        <v>41.09999999999999</v>
-      </c>
-      <c r="J12">
-        <v>27.7</v>
-      </c>
-      <c r="K12">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1.7</v>
       </c>
-      <c r="C13">
-        <v>6.3</v>
-      </c>
-      <c r="D13">
-        <v>22.3</v>
-      </c>
-      <c r="E13">
-        <v>27.1</v>
-      </c>
-      <c r="F13">
-        <v>14.5</v>
-      </c>
-      <c r="G13">
-        <v>7.000000000000001</v>
-      </c>
-      <c r="H13">
-        <v>3.3</v>
-      </c>
-      <c r="I13">
-        <v>12.4</v>
-      </c>
-      <c r="J13">
-        <v>4.9</v>
-      </c>
-      <c r="K13">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
+      <c r="C14">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="D14">
+        <v>20.9</v>
+      </c>
+      <c r="E14">
+        <v>29.5</v>
+      </c>
+      <c r="F14">
+        <v>13.9</v>
+      </c>
+      <c r="G14">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="H14">
+        <v>3.7</v>
+      </c>
+      <c r="I14">
+        <v>10.8</v>
+      </c>
+      <c r="J14">
+        <v>3.9</v>
+      </c>
+      <c r="K14">
+        <v>1.1</v>
+      </c>
+      <c r="L14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>7.3</v>
-      </c>
-      <c r="E14">
-        <v>4.8</v>
-      </c>
-      <c r="F14">
-        <v>21.9</v>
-      </c>
-      <c r="G14">
-        <v>10.8</v>
-      </c>
-      <c r="H14">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="I14">
+      <c r="B15">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="C15">
+        <v>19.4</v>
+      </c>
+      <c r="D15">
+        <v>9.4</v>
+      </c>
+      <c r="E15">
+        <v>7.1</v>
+      </c>
+      <c r="F15">
+        <v>24.8</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>6.7</v>
+      </c>
+      <c r="I15">
         <v>1.8</v>
       </c>
-      <c r="J14">
-        <v>2.8</v>
-      </c>
-      <c r="K14">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>4.5</v>
-      </c>
-      <c r="C15">
-        <v>6.3</v>
-      </c>
-      <c r="D15">
-        <v>14.9</v>
-      </c>
-      <c r="E15">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>6.5</v>
-      </c>
-      <c r="G15">
-        <v>3.8</v>
-      </c>
-      <c r="H15">
-        <v>7.000000000000001</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
       <c r="J15">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>1.1</v>
+      </c>
+      <c r="L15">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -3278,48 +3335,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>113.0555555555556</v>
+        <v>115.99</v>
       </c>
       <c r="E2">
-        <v>1017.5</v>
+        <v>1159.9</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3328,97 +3385,97 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>0.8888888888888888</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>117.4133333333333</v>
+        <v>111.814</v>
       </c>
       <c r="E3">
-        <v>1056.72</v>
+        <v>1118.14</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>113.4755555555555</v>
+        <v>113.664</v>
       </c>
       <c r="E4">
-        <v>1021.28</v>
+        <v>1136.64</v>
       </c>
       <c r="F4">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D5">
-        <v>112.3444444444444</v>
+        <v>114.802</v>
       </c>
       <c r="E5">
-        <v>1011.1</v>
+        <v>1148.02</v>
       </c>
       <c r="F5">
-        <v>97.5</v>
+        <v>99.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3426,86 +3483,86 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>113.1933333333333</v>
+        <v>112.216</v>
       </c>
       <c r="E6">
-        <v>1018.74</v>
+        <v>1122.16</v>
       </c>
       <c r="F6">
-        <v>91.8</v>
+        <v>98.8</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>109.5488888888889</v>
+        <v>107.84</v>
       </c>
       <c r="E7">
-        <v>985.9400000000001</v>
+        <v>1078.4</v>
       </c>
       <c r="F7">
-        <v>62.2</v>
+        <v>72</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>107.5111111111111</v>
+        <v>107.944</v>
       </c>
       <c r="E8">
-        <v>967.5999999999999</v>
+        <v>1079.44</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3513,86 +3570,86 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>100.0755555555556</v>
+        <v>101.77</v>
       </c>
       <c r="E9">
-        <v>900.6799999999999</v>
+        <v>1017.7</v>
       </c>
       <c r="F9">
-        <v>58.9</v>
+        <v>50.5</v>
       </c>
       <c r="G9">
         <v>0.1</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>107.5733333333333</v>
+        <v>106.112</v>
       </c>
       <c r="E10">
-        <v>968.1600000000001</v>
+        <v>1061.12</v>
       </c>
       <c r="F10">
-        <v>51.3</v>
+        <v>40.3</v>
       </c>
       <c r="G10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>106.7288888888889</v>
+        <v>104.92</v>
       </c>
       <c r="E11">
-        <v>960.5600000000001</v>
+        <v>1049.2</v>
       </c>
       <c r="F11">
-        <v>51.1</v>
+        <v>33.5</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3600,115 +3657,115 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>108.04</v>
+        <v>106.208</v>
       </c>
       <c r="E12">
-        <v>972.36</v>
+        <v>1062.08</v>
       </c>
       <c r="F12">
-        <v>22.4</v>
+        <v>33.1</v>
       </c>
       <c r="G12">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>90.86666666666667</v>
+        <v>96.16</v>
       </c>
       <c r="E13">
-        <v>817.8</v>
+        <v>961.6</v>
       </c>
       <c r="F13">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="G13">
-        <v>22.7</v>
+        <v>19.8</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14">
-        <v>0.2222222222222222</v>
+        <v>0.3</v>
       </c>
       <c r="D14">
-        <v>101.9355555555556</v>
+        <v>87.884</v>
       </c>
       <c r="E14">
-        <v>917.42</v>
+        <v>878.8399999999999</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="G14">
-        <v>25.3</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>94.55555555555554</v>
+        <v>102.042</v>
       </c>
       <c r="E15">
-        <v>851</v>
+        <v>1020.42</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G15">
-        <v>48</v>
+        <v>38.2</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3726,19 +3783,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3746,19 +3803,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3766,19 +3823,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3786,19 +3843,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3806,19 +3863,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3826,19 +3883,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3849,16 +3906,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3866,19 +3923,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3886,19 +3943,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3909,16 +3966,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3926,19 +3983,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3946,19 +4003,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3966,19 +4023,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13">
-        <v>-27</v>
+        <v>-23</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3989,13 +4046,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -4006,19 +4063,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4028,138 +4085,147 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>127</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>9</v>
       </c>
       <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>17</v>
-      </c>
-      <c r="I2">
+      <c r="K2">
         <v>15</v>
       </c>
-      <c r="J2">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>-3</v>
+      </c>
+      <c r="E3">
+        <v>-5</v>
+      </c>
+      <c r="F3">
+        <v>-3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>18</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>-3</v>
-      </c>
-      <c r="F4">
-        <v>-3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -4167,81 +4233,90 @@
       <c r="J4">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>9</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6">
         <v>15</v>
       </c>
-      <c r="I6">
-        <v>18</v>
-      </c>
       <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4272,81 +4347,90 @@
       <c r="J7">
         <v>9</v>
       </c>
-      <c r="K7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>-3</v>
-      </c>
       <c r="C8">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
       <c r="C9">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4377,116 +4461,128 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>-6</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>-16</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="H11">
         <v>-3</v>
       </c>
       <c r="I11">
+        <v>-5</v>
+      </c>
+      <c r="J11">
+        <v>-9</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="J11">
-        <v>-5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>-6</v>
-      </c>
       <c r="C12">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>-16</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>-3</v>
       </c>
       <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
         <v>-5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
+        <v>-6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>-2</v>
+      </c>
+      <c r="C13">
+        <v>-3</v>
+      </c>
+      <c r="D13">
+        <v>-8</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-6</v>
+      </c>
+      <c r="G13">
         <v>-9</v>
       </c>
-      <c r="K12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>-7</v>
-      </c>
-      <c r="C13">
-        <v>-13</v>
-      </c>
-      <c r="D13">
-        <v>-10</v>
-      </c>
-      <c r="E13">
-        <v>-19</v>
-      </c>
-      <c r="F13">
-        <v>-18</v>
-      </c>
-      <c r="G13">
-        <v>-21</v>
-      </c>
       <c r="H13">
-        <v>-28</v>
+        <v>-16</v>
       </c>
       <c r="I13">
+        <v>-27</v>
+      </c>
+      <c r="J13">
+        <v>-29</v>
+      </c>
+      <c r="K13">
         <v>-23</v>
       </c>
-      <c r="J13">
-        <v>-27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4517,43 +4613,49 @@
       <c r="J14">
         <v>-27</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14">
+        <v>-25</v>
+      </c>
+      <c r="L14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="C15">
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="D15">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="F15">
-        <v>-6</v>
+        <v>-18</v>
       </c>
       <c r="G15">
-        <v>-9</v>
+        <v>-21</v>
       </c>
       <c r="H15">
-        <v>-16</v>
+        <v>-28</v>
       </c>
       <c r="I15">
+        <v>-23</v>
+      </c>
+      <c r="J15">
         <v>-27</v>
       </c>
-      <c r="J15">
-        <v>-29</v>
-      </c>
-      <c r="K15" t="s">
-        <v>108</v>
+      <c r="K15">
+        <v>-28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4563,7 +4665,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4571,25 +4673,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4623,25 +4725,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>-25</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>-3</v>
-      </c>
       <c r="G3">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4649,25 +4751,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>-3</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4678,22 +4780,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>-3</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4701,25 +4803,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4727,25 +4829,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4753,25 +4855,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F8">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4779,25 +4881,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4808,22 +4910,22 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>-13</v>
+      </c>
+      <c r="G10">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>-5</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4831,22 +4933,22 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
       <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
         <v>12</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -4857,25 +4959,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>-11</v>
-      </c>
       <c r="F12">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4883,51 +4985,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>-4</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
       <c r="G13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="136">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -66,34 +66,34 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>0-10-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -192,6 +192,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -216,67 +219,64 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>10.3-3.7</t>
-  </si>
-  <si>
-    <t>9.4-4.6</t>
-  </si>
-  <si>
-    <t>9.2-4.7</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>8.4-5.6</t>
-  </si>
-  <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>6.0-7.9</t>
-  </si>
-  <si>
-    <t>5.9-8.0</t>
-  </si>
-  <si>
-    <t>4.5-9.5</t>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>9.7-4.2</t>
+  </si>
+  <si>
+    <t>9.7-4.3</t>
+  </si>
+  <si>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>8.5-5.4</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>7.5-6.4</t>
+  </si>
+  <si>
+    <t>7.4-6.5</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
   </si>
   <si>
     <t>4.3-9.7</t>
   </si>
   <si>
-    <t>3.7-10.3</t>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>4.1-9.9</t>
   </si>
   <si>
     <t>10-4</t>
@@ -309,27 +309,27 @@
     <t>nicholas spadaro</t>
   </si>
   <si>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
+    <t>Zachary Dillon</t>
+  </si>
+  <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
     <t>Mikaela Mitcho</t>
   </si>
   <si>
-    <t>Zachary Dillon</t>
-  </si>
-  <si>
     <t>Lawrence Rosello</t>
   </si>
   <si>
-    <t>Sal Spadaro</t>
-  </si>
-  <si>
-    <t>Marissa Rodriguez</t>
+    <t>gabriella spadaro</t>
   </si>
   <si>
     <t>Kathy Dillon</t>
   </si>
   <si>
-    <t>gabriella spadaro</t>
-  </si>
-  <si>
     <t>Stephanie Mattei</t>
   </si>
   <si>
@@ -348,34 +348,34 @@
     <t>Antonio  Spadaro</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -845,7 +848,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -860,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -875,10 +878,10 @@
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -907,7 +910,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -922,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -936,31 +939,31 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -969,10 +972,10 @@
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -986,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1001,13 +1004,13 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -1016,10 +1019,10 @@
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1063,7 +1066,7 @@
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
@@ -1080,7 +1083,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1095,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1110,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O7" t="s">
         <v>19</v>
@@ -1174,13 +1177,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1189,13 +1192,13 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
@@ -1204,10 +1207,10 @@
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1221,28 +1224,28 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1251,10 +1254,10 @@
         <v>14</v>
       </c>
       <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
         <v>16</v>
-      </c>
-      <c r="O10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1262,46 +1265,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
       </c>
       <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
         <v>21</v>
-      </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1312,43 +1315,43 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
       <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
         <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1359,31 +1362,31 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -1392,10 +1395,10 @@
         <v>18</v>
       </c>
       <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
         <v>21</v>
-      </c>
-      <c r="O13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1409,28 +1412,28 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -1439,10 +1442,10 @@
         <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1456,28 +1459,28 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
@@ -1486,10 +1489,10 @@
         <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1521,13 +1524,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.571428571428572</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1535,13 +1538,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>3.857142857142857</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1549,13 +1552,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4.071428571428571</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1566,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>4.785714285714286</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1577,13 +1580,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.642857142857143</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1591,13 +1594,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>4.785714285714286</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1605,13 +1608,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.214285714285714</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1619,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5.285714285714286</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1633,13 +1636,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5.357142857142857</v>
+        <v>5.928571428571429</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1650,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1661,13 +1664,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1675,13 +1678,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>5.571428571428571</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1689,13 +1692,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>5.857142857142857</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1703,13 +1706,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>6.285714285714286</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1744,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>6.571428571428571</v>
+        <v>7.5</v>
       </c>
       <c r="D2">
-        <v>-1.428571428571429</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1761,16 +1764,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>7.357142857142857</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>-0.6428571428571432</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1795,16 +1798,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5.928571428571429</v>
+        <v>6.071428571428571</v>
       </c>
       <c r="D5">
-        <v>-0.07142857142857117</v>
+        <v>-0.9285714285714288</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1812,16 +1815,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5.714285714285714</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>-1.285714285714286</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1832,13 +1835,13 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>5.428571428571429</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.4285714285714288</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1849,13 +1852,13 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>5.071428571428571</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="D8">
-        <v>1.071428571428571</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1866,13 +1869,13 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>4.857142857142857</v>
+        <v>5.642857142857143</v>
       </c>
       <c r="D9">
-        <v>-0.1428571428571432</v>
+        <v>-0.3571428571428568</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1883,13 +1886,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.857142857142857</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="D10">
-        <v>0.8571428571428568</v>
+        <v>0.5714285714285712</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1897,16 +1900,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>4.785714285714286</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="D11">
-        <v>0.7857142857142856</v>
+        <v>-0.7142857142857144</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1914,16 +1917,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4.357142857142857</v>
+        <v>5.071428571428571</v>
       </c>
       <c r="D12">
-        <v>-0.6428571428571432</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1934,13 +1937,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>4.214285714285714</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="D13">
-        <v>2.214285714285714</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1951,10 +1954,10 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>3.214285714285714</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="D14">
-        <v>0.2142857142857144</v>
+        <v>0.4285714285714284</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -1968,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>2.142857142857143</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="D15">
-        <v>-0.8571428571428572</v>
+        <v>-0.7142857142857144</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -2042,25 +2045,25 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>52.6</v>
+        <v>45.7</v>
       </c>
       <c r="C2">
-        <v>22.3</v>
+        <v>30.1</v>
       </c>
       <c r="D2">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="F2">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H2">
         <v>0.3</v>
@@ -2092,34 +2095,34 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>9.9</v>
+        <v>40.7</v>
       </c>
       <c r="C3">
-        <v>23.6</v>
+        <v>33.8</v>
       </c>
       <c r="D3">
-        <v>27.9</v>
+        <v>12.5</v>
       </c>
       <c r="E3">
-        <v>19.5</v>
+        <v>6.5</v>
       </c>
       <c r="F3">
-        <v>10.1</v>
+        <v>3.7</v>
       </c>
       <c r="G3">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2137,42 +2140,42 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>14.2</v>
       </c>
       <c r="D4">
-        <v>18.8</v>
+        <v>29.2</v>
       </c>
       <c r="E4">
-        <v>18.8</v>
+        <v>23.2</v>
       </c>
       <c r="F4">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="G4">
-        <v>6.1</v>
+        <v>9.4</v>
       </c>
       <c r="H4">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="I4">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2187,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2195,31 +2198,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>20.2</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>19.3</v>
+        <v>13.9</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>19.7</v>
       </c>
       <c r="E5">
-        <v>18.4</v>
+        <v>20.9</v>
       </c>
       <c r="F5">
-        <v>12.9</v>
+        <v>16.7</v>
       </c>
       <c r="G5">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="H5">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="I5">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="K5">
         <v>0.3</v>
@@ -2237,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>99.5</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2245,37 +2248,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>14.7</v>
+        <v>7.8</v>
       </c>
       <c r="E6">
-        <v>21.6</v>
+        <v>13.5</v>
       </c>
       <c r="F6">
-        <v>23.9</v>
+        <v>19.3</v>
       </c>
       <c r="G6">
-        <v>16.5</v>
+        <v>17.2</v>
       </c>
       <c r="H6">
-        <v>7.6</v>
+        <v>17.7</v>
       </c>
       <c r="I6">
-        <v>3.7</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>0.8</v>
+        <v>7.2</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2287,107 +2290,107 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>98.8</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="E7">
-        <v>6.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F7">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
       <c r="G7">
-        <v>18.8</v>
+        <v>14.2</v>
       </c>
       <c r="H7">
-        <v>17.9</v>
+        <v>12.6</v>
       </c>
       <c r="I7">
-        <v>14.2</v>
+        <v>16.4</v>
       </c>
       <c r="J7">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="K7">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="L7">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="M7">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="N7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>72</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="D8">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="E8">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>9.5</v>
+        <v>11.4</v>
       </c>
       <c r="G8">
-        <v>15.4</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="I8">
-        <v>17.6</v>
+        <v>15.9</v>
       </c>
       <c r="J8">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="K8">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="L8">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>69.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2395,49 +2398,49 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="E9">
-        <v>1.6</v>
+        <v>8.6</v>
       </c>
       <c r="F9">
-        <v>5.6</v>
+        <v>9.5</v>
       </c>
       <c r="G9">
-        <v>11.2</v>
+        <v>15.6</v>
       </c>
       <c r="H9">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="I9">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="J9">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="K9">
-        <v>17.3</v>
+        <v>10.3</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>5.1</v>
       </c>
       <c r="M9">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>50.5</v>
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2451,43 +2454,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="F10">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="G10">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H10">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="I10">
-        <v>16.5</v>
+        <v>17.1</v>
       </c>
       <c r="J10">
-        <v>17.1</v>
+        <v>20.3</v>
       </c>
       <c r="K10">
-        <v>16.5</v>
+        <v>18.1</v>
       </c>
       <c r="L10">
-        <v>15.5</v>
+        <v>14.2</v>
       </c>
       <c r="M10">
-        <v>7.4</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="O10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>40.3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2501,43 +2504,43 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
+        <v>1.4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5.9</v>
+      </c>
+      <c r="H11">
+        <v>10.5</v>
+      </c>
+      <c r="I11">
+        <v>12.1</v>
+      </c>
+      <c r="J11">
+        <v>16.8</v>
+      </c>
+      <c r="K11">
+        <v>25.5</v>
+      </c>
+      <c r="L11">
+        <v>18.7</v>
+      </c>
+      <c r="M11">
+        <v>4.3</v>
+      </c>
+      <c r="N11">
         <v>0.4</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>6.4</v>
-      </c>
-      <c r="H11">
-        <v>11.7</v>
-      </c>
-      <c r="I11">
-        <v>11.9</v>
-      </c>
-      <c r="J11">
-        <v>17.7</v>
-      </c>
-      <c r="K11">
-        <v>18.3</v>
-      </c>
-      <c r="L11">
-        <v>17.1</v>
-      </c>
-      <c r="M11">
-        <v>7.8</v>
-      </c>
-      <c r="N11">
-        <v>4.7</v>
-      </c>
       <c r="O11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>33.5</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2548,51 +2551,51 @@
         <v>0</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0.1</v>
       </c>
-      <c r="D12">
-        <v>0.1</v>
-      </c>
-      <c r="E12">
-        <v>0.9</v>
-      </c>
-      <c r="F12">
-        <v>2.7</v>
-      </c>
       <c r="G12">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H12">
-        <v>9.1</v>
+        <v>2.8</v>
       </c>
       <c r="I12">
-        <v>15.8</v>
+        <v>7.8</v>
       </c>
       <c r="J12">
-        <v>18.4</v>
+        <v>12.7</v>
       </c>
       <c r="K12">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="L12">
-        <v>19.3</v>
+        <v>32.7</v>
       </c>
       <c r="M12">
-        <v>8.4</v>
+        <v>15.3</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="P12">
-        <v>33.1</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2610,34 +2613,34 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J13">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="K13">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L13">
-        <v>12.3</v>
+        <v>13.2</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>39.7</v>
       </c>
       <c r="N13">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="O13">
-        <v>19.8</v>
+        <v>13.2</v>
       </c>
       <c r="P13">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2663,36 +2666,36 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="L14">
         <v>5.6</v>
       </c>
       <c r="M14">
-        <v>18.3</v>
+        <v>13.3</v>
       </c>
       <c r="N14">
-        <v>30.8</v>
+        <v>23.8</v>
       </c>
       <c r="O14">
-        <v>39.9</v>
+        <v>56.7</v>
       </c>
       <c r="P14">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2713,31 +2716,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J15">
+        <v>0.3</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="K15">
-        <v>3.8</v>
-      </c>
       <c r="L15">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="M15">
-        <v>20.8</v>
+        <v>22.9</v>
       </c>
       <c r="N15">
-        <v>27.9</v>
+        <v>43.2</v>
       </c>
       <c r="O15">
-        <v>38.2</v>
+        <v>28.4</v>
       </c>
       <c r="P15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2747,13 +2750,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2787,537 +2790,582 @@
       <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>86.8</v>
+        <v>66.5</v>
       </c>
       <c r="C2">
-        <v>97.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E2">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="F2">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="G2">
         <v>99</v>
       </c>
-      <c r="E2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F2">
-        <v>98.3</v>
-      </c>
-      <c r="G2">
-        <v>98</v>
-      </c>
       <c r="H2">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="J2">
-        <v>99.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="K2">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="L2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>71.3</v>
+        <v>65.3</v>
       </c>
       <c r="C3">
-        <v>24.7</v>
+        <v>25.6</v>
       </c>
       <c r="D3">
-        <v>85.3</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E3">
-        <v>91.5</v>
+        <v>90.7</v>
       </c>
       <c r="F3">
-        <v>95.5</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="G3">
-        <v>96.3</v>
+        <v>97</v>
       </c>
       <c r="H3">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="I3">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>86.8</v>
+      </c>
+      <c r="C4">
+        <v>98.2</v>
+      </c>
+      <c r="D4">
+        <v>99.5</v>
+      </c>
+      <c r="E4">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F4">
+        <v>97.8</v>
+      </c>
+      <c r="G4">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="H4">
+        <v>99.3</v>
+      </c>
+      <c r="I4">
+        <v>99.8</v>
+      </c>
+      <c r="J4">
+        <v>99.7</v>
+      </c>
+      <c r="K4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="L4">
+        <v>98.2</v>
+      </c>
+      <c r="M4">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>16.6</v>
-      </c>
-      <c r="D4">
-        <v>36.3</v>
-      </c>
-      <c r="E4">
-        <v>40.5</v>
-      </c>
-      <c r="F4">
-        <v>62.3</v>
-      </c>
-      <c r="G4">
-        <v>83.3</v>
-      </c>
-      <c r="H4">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="I4">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="J4">
-        <v>97.5</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B5">
-        <v>64</v>
+        <v>2.9</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>17.1</v>
       </c>
       <c r="D5">
-        <v>98.2</v>
+        <v>37.2</v>
       </c>
       <c r="E5">
-        <v>97</v>
+        <v>43.2</v>
       </c>
       <c r="F5">
-        <v>97.5</v>
+        <v>63</v>
       </c>
       <c r="G5">
-        <v>99.3</v>
+        <v>85.3</v>
       </c>
       <c r="H5">
-        <v>98.2</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="I5">
-        <v>92.7</v>
+        <v>97.8</v>
       </c>
       <c r="J5">
-        <v>96</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="K5">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L5">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="M5">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>96.8</v>
+        <v>98.2</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D6">
-        <v>86.3</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E6">
-        <v>64.2</v>
+        <v>65.7</v>
       </c>
       <c r="F6">
-        <v>52.7</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="G6">
-        <v>73.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="H6">
-        <v>88.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="I6">
-        <v>84.3</v>
+        <v>84</v>
       </c>
       <c r="J6">
-        <v>90.2</v>
+        <v>89.3</v>
       </c>
       <c r="K6">
-        <v>95.59999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="L6">
-        <v>98.40000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>84.2</v>
+      </c>
+      <c r="M6">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>22.9</v>
+        <v>23.9</v>
       </c>
       <c r="C7">
-        <v>81.8</v>
+        <v>83.2</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="E7">
         <v>90</v>
       </c>
       <c r="F7">
-        <v>89.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G7">
-        <v>65</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H7">
-        <v>51.5</v>
+        <v>50.9</v>
       </c>
       <c r="I7">
-        <v>76.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="J7">
-        <v>51</v>
+        <v>51.8</v>
       </c>
       <c r="K7">
-        <v>72.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="L7">
-        <v>75.09999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>80.60000000000001</v>
+      </c>
+      <c r="M7">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>29.1</v>
+        <v>27.9</v>
       </c>
       <c r="C8">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="D8">
-        <v>30.4</v>
+        <v>32.6</v>
       </c>
       <c r="E8">
-        <v>15.6</v>
+        <v>17.1</v>
       </c>
       <c r="F8">
-        <v>16.3</v>
+        <v>13.4</v>
       </c>
       <c r="G8">
-        <v>35.09999999999999</v>
+        <v>33.4</v>
       </c>
       <c r="H8">
-        <v>55.3</v>
+        <v>53.8</v>
       </c>
       <c r="I8">
-        <v>74.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="J8">
-        <v>51.6</v>
+        <v>50.8</v>
       </c>
       <c r="K8">
-        <v>68.30000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="L8">
-        <v>68.40000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>76.5</v>
+      </c>
+      <c r="M8">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>92.30000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C9">
-        <v>41.9</v>
+        <v>40.5</v>
       </c>
       <c r="D9">
-        <v>51.8</v>
+        <v>49.6</v>
       </c>
       <c r="E9">
-        <v>84.7</v>
+        <v>84</v>
       </c>
       <c r="F9">
-        <v>66.3</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="G9">
-        <v>78.60000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>61.5</v>
       </c>
       <c r="I9">
-        <v>42.3</v>
+        <v>43.9</v>
       </c>
       <c r="J9">
-        <v>60.09999999999999</v>
+        <v>60.7</v>
       </c>
       <c r="K9">
-        <v>48</v>
+        <v>48.6</v>
       </c>
       <c r="L9">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>67.30000000000001</v>
+      </c>
+      <c r="M9">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>96.3</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="C10">
-        <v>91.3</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D10">
-        <v>97.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E10">
-        <v>71.59999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="F10">
-        <v>65.40000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G10">
         <v>55.40000000000001</v>
       </c>
       <c r="H10">
-        <v>36.5</v>
+        <v>32.2</v>
       </c>
       <c r="I10">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>54.6</v>
+      </c>
+      <c r="K10">
+        <v>39.4</v>
+      </c>
+      <c r="L10">
+        <v>45.6</v>
+      </c>
+      <c r="M10">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C11">
+        <v>71.8</v>
+      </c>
+      <c r="D11">
+        <v>51.5</v>
+      </c>
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>38.7</v>
+      </c>
+      <c r="G11">
+        <v>30.6</v>
+      </c>
+      <c r="H11">
+        <v>51.3</v>
+      </c>
+      <c r="I11">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>61.9</v>
+      </c>
+      <c r="K11">
+        <v>35.4</v>
+      </c>
+      <c r="L11">
+        <v>37</v>
+      </c>
+      <c r="M11">
         <v>35.9</v>
       </c>
-      <c r="J10">
-        <v>56.89999999999999</v>
-      </c>
-      <c r="K10">
-        <v>40.9</v>
-      </c>
-      <c r="L10">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>46.6</v>
-      </c>
-      <c r="C11">
-        <v>63.4</v>
-      </c>
-      <c r="D11">
-        <v>22.4</v>
-      </c>
-      <c r="E11">
-        <v>61.3</v>
-      </c>
-      <c r="F11">
-        <v>74.2</v>
-      </c>
-      <c r="G11">
-        <v>63.4</v>
-      </c>
-      <c r="H11">
-        <v>52</v>
-      </c>
-      <c r="I11">
-        <v>42.7</v>
-      </c>
-      <c r="J11">
-        <v>26.1</v>
-      </c>
-      <c r="K11">
-        <v>36.4</v>
-      </c>
-      <c r="L11">
-        <v>34.59999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>99.40000000000001</v>
+        <v>50.3</v>
       </c>
       <c r="C12">
-        <v>71.2</v>
+        <v>66.5</v>
       </c>
       <c r="D12">
-        <v>50.9</v>
+        <v>20.6</v>
       </c>
       <c r="E12">
-        <v>24.2</v>
+        <v>62.3</v>
       </c>
       <c r="F12">
-        <v>35.6</v>
+        <v>74.7</v>
       </c>
       <c r="G12">
-        <v>32.1</v>
+        <v>63.8</v>
       </c>
       <c r="H12">
-        <v>49.5</v>
+        <v>54.2</v>
       </c>
       <c r="I12">
-        <v>37.9</v>
+        <v>40.2</v>
       </c>
       <c r="J12">
-        <v>62.5</v>
+        <v>28.9</v>
       </c>
       <c r="K12">
-        <v>34.4</v>
+        <v>36</v>
       </c>
       <c r="L12">
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.3</v>
+      </c>
+      <c r="M12">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>5.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C13">
-        <v>6.9</v>
+        <v>15.9</v>
       </c>
       <c r="D13">
-        <v>17.5</v>
+        <v>8.1</v>
       </c>
       <c r="E13">
-        <v>23.2</v>
+        <v>4.9</v>
       </c>
       <c r="F13">
-        <v>7.5</v>
+        <v>19.9</v>
       </c>
       <c r="G13">
-        <v>2.8</v>
+        <v>10.2</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I13">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="J13">
-        <v>0.7000000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="K13">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.3</v>
+      </c>
+      <c r="M13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1.7</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="C14">
-        <v>7.399999999999999</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D14">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="E14">
-        <v>29.5</v>
+        <v>25.2</v>
       </c>
       <c r="F14">
-        <v>13.9</v>
+        <v>13.4</v>
       </c>
       <c r="G14">
-        <v>6.600000000000001</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="H14">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I14">
-        <v>10.8</v>
+        <v>12.5</v>
       </c>
       <c r="J14">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="K14">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="L14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>84.09999999999999</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>19.4</v>
+        <v>7.5</v>
       </c>
       <c r="D15">
-        <v>9.4</v>
+        <v>15.1</v>
       </c>
       <c r="E15">
-        <v>7.1</v>
+        <v>21.7</v>
       </c>
       <c r="F15">
-        <v>24.8</v>
+        <v>7.8</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="H15">
-        <v>6.7</v>
+        <v>8.9</v>
       </c>
       <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="K15">
         <v>1.8</v>
       </c>
-      <c r="J15">
-        <v>3.6</v>
-      </c>
-      <c r="K15">
-        <v>1.1</v>
-      </c>
       <c r="L15">
-        <v>0.6</v>
+        <v>0.3</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3338,45 +3386,45 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2">
-        <v>115.99</v>
+        <v>116.1781818181818</v>
       </c>
       <c r="E2">
-        <v>1159.9</v>
+        <v>1277.96</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3393,22 +3441,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D3">
-        <v>111.814</v>
+        <v>115.2036363636364</v>
       </c>
       <c r="E3">
-        <v>1118.14</v>
+        <v>1267.24</v>
       </c>
       <c r="F3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3417,27 +3465,27 @@
         <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>113.664</v>
+        <v>110.5709090909091</v>
       </c>
       <c r="E4">
-        <v>1136.64</v>
+        <v>1216.28</v>
       </c>
       <c r="F4">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3454,19 +3502,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>114.802</v>
+        <v>111.5945454545454</v>
       </c>
       <c r="E5">
-        <v>1148.02</v>
+        <v>1227.54</v>
       </c>
       <c r="F5">
-        <v>99.5</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3483,19 +3531,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>112.216</v>
+        <v>109.3927272727273</v>
       </c>
       <c r="E6">
-        <v>1122.16</v>
+        <v>1203.32</v>
       </c>
       <c r="F6">
-        <v>98.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3509,22 +3557,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D7">
-        <v>107.84</v>
+        <v>107.3618181818182</v>
       </c>
       <c r="E7">
-        <v>1078.4</v>
+        <v>1180.98</v>
       </c>
       <c r="F7">
-        <v>72</v>
+        <v>77.5</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3538,22 +3586,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D8">
-        <v>107.944</v>
+        <v>107.6527272727273</v>
       </c>
       <c r="E8">
-        <v>1079.44</v>
+        <v>1184.18</v>
       </c>
       <c r="F8">
-        <v>69.39999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3573,19 +3621,19 @@
         <v>67</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D9">
-        <v>101.77</v>
+        <v>104.9345454545455</v>
       </c>
       <c r="E9">
-        <v>1017.7</v>
+        <v>1154.28</v>
       </c>
       <c r="F9">
-        <v>50.5</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -3602,25 +3650,25 @@
         <v>68</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D10">
-        <v>106.112</v>
+        <v>106.0327272727273</v>
       </c>
       <c r="E10">
-        <v>1061.12</v>
+        <v>1166.36</v>
       </c>
       <c r="F10">
-        <v>40.3</v>
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3631,19 +3679,19 @@
         <v>68</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D11">
-        <v>104.92</v>
+        <v>104.6618181818182</v>
       </c>
       <c r="E11">
-        <v>1049.2</v>
+        <v>1151.28</v>
       </c>
       <c r="F11">
-        <v>33.5</v>
+        <v>34.3</v>
       </c>
       <c r="G11">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
@@ -3657,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D12">
-        <v>106.208</v>
+        <v>105.1636363636364</v>
       </c>
       <c r="E12">
-        <v>1062.08</v>
+        <v>1156.8</v>
       </c>
       <c r="F12">
-        <v>33.1</v>
+        <v>12.1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
@@ -3683,25 +3731,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D13">
+        <v>101.9654545454545</v>
+      </c>
+      <c r="E13">
+        <v>1121.62</v>
+      </c>
+      <c r="F13">
         <v>0.3</v>
       </c>
-      <c r="D13">
-        <v>96.16</v>
-      </c>
-      <c r="E13">
-        <v>961.6</v>
-      </c>
-      <c r="F13">
-        <v>1.6</v>
-      </c>
       <c r="G13">
-        <v>19.8</v>
+        <v>13.2</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -3715,22 +3763,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D14">
-        <v>87.884</v>
+        <v>88.06181818181818</v>
       </c>
       <c r="E14">
-        <v>878.8399999999999</v>
+        <v>968.6799999999999</v>
       </c>
       <c r="F14">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>39.90000000000001</v>
+        <v>56.7</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
@@ -3741,25 +3789,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D15">
-        <v>102.042</v>
+        <v>95.76363636363635</v>
       </c>
       <c r="E15">
-        <v>1020.42</v>
+        <v>1053.4</v>
       </c>
       <c r="F15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>38.2</v>
+        <v>28.4</v>
       </c>
       <c r="H15" t="s">
         <v>84</v>
@@ -3809,10 +3857,10 @@
         <v>94</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>108</v>
@@ -3823,16 +3871,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>95</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>109</v>
@@ -3849,10 +3897,10 @@
         <v>96</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>110</v>
@@ -3863,19 +3911,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>97</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3883,16 +3931,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>98</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>111</v>
@@ -3903,19 +3951,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3923,16 +3971,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>112</v>
@@ -3943,16 +3991,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>113</v>
@@ -3989,10 +4037,10 @@
         <v>103</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>115</v>
@@ -4012,10 +4060,10 @@
         <v>-6</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4029,13 +4077,13 @@
         <v>105</v>
       </c>
       <c r="D13">
-        <v>-23</v>
+        <v>-14</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4049,13 +4097,13 @@
         <v>106</v>
       </c>
       <c r="D14">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4069,13 +4117,13 @@
         <v>107</v>
       </c>
       <c r="D15">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4085,13 +4133,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>118</v>
       </c>
@@ -4123,10 +4171,13 @@
         <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4160,49 +4211,55 @@
       <c r="K2">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="D3">
         <v>-3</v>
       </c>
       <c r="E3">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F3">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4236,201 +4293,219 @@
       <c r="K4">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-6</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>-3</v>
       </c>
-      <c r="C5">
-        <v>-4</v>
-      </c>
-      <c r="D5">
-        <v>-2</v>
-      </c>
-      <c r="E5">
-        <v>-4</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>-4</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-6</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="C7">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="D7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
       <c r="H7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>9</v>
       </c>
       <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
       <c r="C8">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
         <v>4</v>
       </c>
-      <c r="J8">
+      <c r="M8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
         <v>8</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
-      <c r="F9">
-        <v>-3</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4464,11 +4539,14 @@
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -4502,11 +4580,14 @@
       <c r="K11">
         <v>-1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11">
+        <v>-5</v>
+      </c>
+      <c r="M11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -4540,11 +4621,14 @@
       <c r="K12">
         <v>-6</v>
       </c>
-      <c r="L12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>-6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4578,11 +4662,14 @@
       <c r="K13">
         <v>-23</v>
       </c>
-      <c r="L13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13">
+        <v>-14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4616,11 +4703,14 @@
       <c r="K14">
         <v>-25</v>
       </c>
-      <c r="L14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14">
+        <v>-27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -4654,8 +4744,11 @@
       <c r="K15">
         <v>-28</v>
       </c>
-      <c r="L15" t="s">
-        <v>116</v>
+      <c r="L15">
+        <v>-30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4665,7 +4758,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4673,25 +4766,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4751,25 +4844,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4777,25 +4870,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>-3</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4803,25 +4896,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="G6">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4829,25 +4922,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4855,25 +4948,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4881,25 +4974,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
       <c r="E9">
-        <v>19</v>
+        <v>-3</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4907,25 +5000,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4933,25 +5026,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>-13</v>
       </c>
       <c r="G11">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4959,50 +5052,24 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>-5</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
       <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
         <v>6</v>
       </c>
     </row>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="142">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -195,6 +196,69 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Lawrence Rosello</t>
+  </si>
+  <si>
+    <t>Josh Formola</t>
+  </si>
+  <si>
+    <t>Antonio  Spadaro</t>
+  </si>
+  <si>
+    <t>Ryan Lesiak</t>
+  </si>
+  <si>
+    <t>Michael Dillon</t>
+  </si>
+  <si>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
+    <t>Mikaela Mitcho</t>
+  </si>
+  <si>
+    <t>Kathy Dillon</t>
+  </si>
+  <si>
+    <t>gabriella spadaro</t>
+  </si>
+  <si>
+    <t>nicholas spadaro</t>
+  </si>
+  <si>
+    <t>Zachary Dillon</t>
+  </si>
+  <si>
+    <t>Brendan Fanning</t>
+  </si>
+  <si>
+    <t>Stephanie Mattei</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -237,37 +301,34 @@
     <t>3-8</t>
   </si>
   <si>
-    <t>9.7-4.2</t>
+    <t>9.8-4.2</t>
   </si>
   <si>
     <t>9.7-4.3</t>
   </si>
   <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>8.5-5.4</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>7.5-6.4</t>
-  </si>
-  <si>
-    <t>7.4-6.5</t>
+    <t>8.8-5.1</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>7.6-6.3</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
   </si>
   <si>
     <t>7.5-6.5</t>
   </si>
   <si>
-    <t>6.6-7.4</t>
+    <t>6.6-7.3</t>
   </si>
   <si>
     <t>6.4-7.6</t>
   </si>
   <si>
-    <t>5.5-8.5</t>
+    <t>5.5-8.4</t>
   </si>
   <si>
     <t>4.3-9.7</t>
@@ -276,7 +337,7 @@
     <t>4.0-10.0</t>
   </si>
   <si>
-    <t>4.1-9.9</t>
+    <t>4.0-9.9</t>
   </si>
   <si>
     <t>10-4</t>
@@ -304,48 +365,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>nicholas spadaro</t>
-  </si>
-  <si>
-    <t>Marissa Rodriguez</t>
-  </si>
-  <si>
-    <t>Zachary Dillon</t>
-  </si>
-  <si>
-    <t>Sal Spadaro</t>
-  </si>
-  <si>
-    <t>Mikaela Mitcho</t>
-  </si>
-  <si>
-    <t>Lawrence Rosello</t>
-  </si>
-  <si>
-    <t>gabriella spadaro</t>
-  </si>
-  <si>
-    <t>Kathy Dillon</t>
-  </si>
-  <si>
-    <t>Stephanie Mattei</t>
-  </si>
-  <si>
-    <t>Brendan Fanning</t>
-  </si>
-  <si>
-    <t>Michael Dillon</t>
-  </si>
-  <si>
-    <t>Ryan Lesiak</t>
-  </si>
-  <si>
-    <t>Josh Formola</t>
-  </si>
-  <si>
-    <t>Antonio  Spadaro</t>
   </si>
   <si>
     <t>↑5</t>
@@ -1500,6 +1519,328 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>-23</v>
+      </c>
+      <c r="G2">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>-25</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>-14</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>-3</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-13</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
@@ -2048,25 +2389,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>45.7</v>
+        <v>49.1</v>
       </c>
       <c r="C2">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="D2">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="E2">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="F2">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="G2">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2098,28 +2439,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>40.7</v>
+        <v>38.6</v>
       </c>
       <c r="C3">
-        <v>33.8</v>
+        <v>32.3</v>
       </c>
       <c r="D3">
-        <v>12.5</v>
+        <v>14.2</v>
       </c>
       <c r="E3">
-        <v>6.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F3">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2148,31 +2489,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="C4">
-        <v>14.2</v>
+        <v>15.7</v>
       </c>
       <c r="D4">
-        <v>29.2</v>
+        <v>31.1</v>
       </c>
       <c r="E4">
-        <v>23.2</v>
+        <v>22.5</v>
       </c>
       <c r="F4">
-        <v>13.9</v>
+        <v>11.8</v>
       </c>
       <c r="G4">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="H4">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2190,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2198,34 +2539,34 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="C5">
-        <v>13.9</v>
+        <v>13</v>
       </c>
       <c r="D5">
+        <v>17.4</v>
+      </c>
+      <c r="E5">
         <v>19.7</v>
       </c>
-      <c r="E5">
-        <v>20.9</v>
-      </c>
       <c r="F5">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="G5">
-        <v>7.9</v>
+        <v>11.3</v>
       </c>
       <c r="H5">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I5">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2240,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>97.90000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2251,34 +2592,34 @@
         <v>0.4</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D6">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="E6">
-        <v>13.5</v>
+        <v>15.1</v>
       </c>
       <c r="F6">
-        <v>19.3</v>
+        <v>17.6</v>
       </c>
       <c r="G6">
-        <v>17.2</v>
+        <v>18.6</v>
       </c>
       <c r="H6">
-        <v>17.7</v>
+        <v>15.6</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="J6">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="K6">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="L6">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2290,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>88.40000000000001</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2298,40 +2639,40 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="E7">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="F7">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="G7">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="H7">
-        <v>12.6</v>
+        <v>13.8</v>
       </c>
       <c r="I7">
-        <v>16.4</v>
+        <v>14.1</v>
       </c>
       <c r="J7">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="K7">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="L7">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2340,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>77.5</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2348,37 +2689,37 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F8">
-        <v>11.4</v>
+        <v>15.3</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>13.7</v>
       </c>
       <c r="H8">
-        <v>15.9</v>
+        <v>12.9</v>
       </c>
       <c r="I8">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="J8">
-        <v>11.9</v>
+        <v>13.5</v>
       </c>
       <c r="K8">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="L8">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2390,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>76.90000000000001</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2398,40 +2739,40 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="D9">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="E9">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="F9">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="G9">
+        <v>12.8</v>
+      </c>
+      <c r="H9">
+        <v>16.7</v>
+      </c>
+      <c r="I9">
+        <v>14.5</v>
+      </c>
+      <c r="J9">
         <v>15.6</v>
       </c>
-      <c r="H9">
-        <v>15.7</v>
-      </c>
-      <c r="I9">
-        <v>15.5</v>
-      </c>
-      <c r="J9">
-        <v>14.7</v>
-      </c>
       <c r="K9">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L9">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M9">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2440,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>69.09999999999999</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2454,43 +2795,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="G10">
-        <v>8.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H10">
-        <v>12.8</v>
+        <v>15.1</v>
       </c>
       <c r="I10">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="J10">
-        <v>20.3</v>
+        <v>18.8</v>
       </c>
       <c r="K10">
-        <v>18.1</v>
+        <v>17.3</v>
       </c>
       <c r="L10">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>44</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2504,43 +2845,43 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="G11">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H11">
-        <v>10.5</v>
+        <v>11.3</v>
       </c>
       <c r="I11">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="J11">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="K11">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
       <c r="L11">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="M11">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="N11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2557,40 +2898,40 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H12">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I12">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="J12">
         <v>12.7</v>
       </c>
       <c r="K12">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="L12">
-        <v>32.7</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>15.3</v>
+        <v>12.2</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="O12">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="P12">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2619,28 +2960,28 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J13">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K13">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L13">
         <v>13.2</v>
       </c>
       <c r="M13">
-        <v>39.7</v>
+        <v>40.7</v>
       </c>
       <c r="N13">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="O13">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="P13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2678,16 +3019,16 @@
         <v>0.6</v>
       </c>
       <c r="L14">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>13.3</v>
+        <v>15</v>
       </c>
       <c r="N14">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="O14">
-        <v>56.7</v>
+        <v>55.7</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2722,22 +3063,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M15">
-        <v>22.9</v>
+        <v>23.9</v>
       </c>
       <c r="N15">
-        <v>43.2</v>
+        <v>41.3</v>
       </c>
       <c r="O15">
-        <v>28.4</v>
+        <v>29.9</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2799,31 +3140,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>66.5</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="C2">
-        <v>92.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D2">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>96.39999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="F2">
-        <v>97.89999999999999</v>
+        <v>98</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="H2">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="I2">
-        <v>92.2</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="J2">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="K2">
         <v>99.2</v>
@@ -2840,31 +3181,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>65.3</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="C3">
-        <v>25.6</v>
+        <v>23.6</v>
       </c>
       <c r="D3">
-        <v>85.90000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E3">
-        <v>90.7</v>
+        <v>91</v>
       </c>
       <c r="F3">
-        <v>94.89999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="G3">
-        <v>97</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="H3">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I3">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -2881,37 +3222,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>86.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C4">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="D4">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E4">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F4">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="G4">
-        <v>97.89999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="H4">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I4">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J4">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K4">
         <v>99.8</v>
       </c>
-      <c r="J4">
-        <v>99.7</v>
-      </c>
-      <c r="K4">
-        <v>99.59999999999999</v>
-      </c>
       <c r="L4">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="M4">
         <v>99.3</v>
@@ -2922,40 +3263,40 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="C5">
-        <v>17.1</v>
+        <v>15.5</v>
       </c>
       <c r="D5">
-        <v>37.2</v>
+        <v>36.1</v>
       </c>
       <c r="E5">
-        <v>43.2</v>
+        <v>42.2</v>
       </c>
       <c r="F5">
-        <v>63</v>
+        <v>65.3</v>
       </c>
       <c r="G5">
-        <v>85.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H5">
-        <v>91.60000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="I5">
-        <v>97.8</v>
+        <v>98.5</v>
       </c>
       <c r="J5">
-        <v>96.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="K5">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="L5">
-        <v>96.59999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="M5">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2963,122 +3304,122 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>98.2</v>
+        <v>97.5</v>
       </c>
       <c r="C6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>86.59999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E6">
-        <v>65.7</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="F6">
-        <v>53.40000000000001</v>
+        <v>54.2</v>
       </c>
       <c r="G6">
-        <v>72.7</v>
+        <v>74.7</v>
       </c>
       <c r="H6">
-        <v>86.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I6">
-        <v>84</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="J6">
-        <v>89.3</v>
+        <v>89.5</v>
       </c>
       <c r="K6">
-        <v>95.89999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="L6">
-        <v>84.2</v>
+        <v>87.5</v>
       </c>
       <c r="M6">
-        <v>86.7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>23.9</v>
+        <v>30.8</v>
       </c>
       <c r="C7">
-        <v>83.2</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="D7">
-        <v>94.19999999999999</v>
+        <v>31.7</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>15.3</v>
       </c>
       <c r="F7">
-        <v>90.90000000000001</v>
+        <v>13.9</v>
       </c>
       <c r="G7">
-        <v>67.90000000000001</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>50.9</v>
+        <v>53</v>
       </c>
       <c r="I7">
-        <v>75.40000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J7">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="K7">
         <v>71.09999999999999</v>
       </c>
       <c r="L7">
-        <v>80.60000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="M7">
-        <v>77.2</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>27.9</v>
+        <v>23.4</v>
       </c>
       <c r="C8">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="D8">
-        <v>32.6</v>
+        <v>95.5</v>
       </c>
       <c r="E8">
-        <v>17.1</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F8">
-        <v>13.4</v>
+        <v>89.7</v>
       </c>
       <c r="G8">
-        <v>33.4</v>
+        <v>63.8</v>
       </c>
       <c r="H8">
-        <v>53.8</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="I8">
-        <v>74.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="J8">
-        <v>50.8</v>
+        <v>50.3</v>
       </c>
       <c r="K8">
-        <v>71.7</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="L8">
-        <v>76.5</v>
+        <v>76.8</v>
       </c>
       <c r="M8">
-        <v>76.59999999999999</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3086,40 +3427,40 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>92.90000000000001</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="C9">
-        <v>40.5</v>
+        <v>38.1</v>
       </c>
       <c r="D9">
+        <v>49.7</v>
+      </c>
+      <c r="E9">
+        <v>83.39999999999999</v>
+      </c>
+      <c r="F9">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="G9">
+        <v>81</v>
+      </c>
+      <c r="H9">
+        <v>61.9</v>
+      </c>
+      <c r="I9">
+        <v>46.2</v>
+      </c>
+      <c r="J9">
+        <v>59.09999999999999</v>
+      </c>
+      <c r="K9">
         <v>49.6</v>
       </c>
-      <c r="E9">
-        <v>84</v>
-      </c>
-      <c r="F9">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="G9">
-        <v>77.7</v>
-      </c>
-      <c r="H9">
-        <v>61.5</v>
-      </c>
-      <c r="I9">
-        <v>43.9</v>
-      </c>
-      <c r="J9">
-        <v>60.7</v>
-      </c>
-      <c r="K9">
-        <v>48.6</v>
-      </c>
       <c r="L9">
-        <v>67.30000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="M9">
-        <v>68.5</v>
+        <v>67.80000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3127,40 +3468,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>97.39999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="C10">
-        <v>90.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="D10">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="E10">
-        <v>72.7</v>
+        <v>74.2</v>
       </c>
       <c r="F10">
-        <v>64.09999999999999</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="G10">
-        <v>55.40000000000001</v>
+        <v>55.7</v>
       </c>
       <c r="H10">
-        <v>32.2</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="I10">
-        <v>38</v>
+        <v>35.8</v>
       </c>
       <c r="J10">
-        <v>54.6</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="K10">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="L10">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="M10">
-        <v>46.2</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3168,40 +3509,40 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C11">
-        <v>71.8</v>
+        <v>70.7</v>
       </c>
       <c r="D11">
-        <v>51.5</v>
+        <v>48.7</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>38.7</v>
+        <v>37</v>
       </c>
       <c r="G11">
-        <v>30.6</v>
+        <v>31.3</v>
       </c>
       <c r="H11">
-        <v>51.3</v>
+        <v>47.4</v>
       </c>
       <c r="I11">
-        <v>38</v>
+        <v>39.8</v>
       </c>
       <c r="J11">
-        <v>61.9</v>
+        <v>61.5</v>
       </c>
       <c r="K11">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>40.8</v>
       </c>
       <c r="M11">
-        <v>35.9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3209,40 +3550,40 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>50.3</v>
+        <v>42.2</v>
       </c>
       <c r="C12">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="D12">
-        <v>20.6</v>
+        <v>24.2</v>
       </c>
       <c r="E12">
-        <v>62.3</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>74.7</v>
       </c>
       <c r="G12">
-        <v>63.8</v>
+        <v>61.8</v>
       </c>
       <c r="H12">
-        <v>54.2</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="I12">
-        <v>40.2</v>
+        <v>38.8</v>
       </c>
       <c r="J12">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="K12">
-        <v>36</v>
+        <v>36.6</v>
       </c>
       <c r="L12">
-        <v>12.3</v>
+        <v>15.7</v>
       </c>
       <c r="M12">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3250,19 +3591,19 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>83.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="C13">
-        <v>15.9</v>
+        <v>18.9</v>
       </c>
       <c r="D13">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="E13">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="F13">
-        <v>19.9</v>
+        <v>24.4</v>
       </c>
       <c r="G13">
         <v>10.2</v>
@@ -3271,16 +3612,16 @@
         <v>7.8</v>
       </c>
       <c r="I13">
+        <v>1.6</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
         <v>1.5</v>
       </c>
-      <c r="J13">
-        <v>3.9</v>
-      </c>
-      <c r="K13">
-        <v>1.4</v>
-      </c>
       <c r="L13">
-        <v>1.3</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="M13">
         <v>0.2</v>
@@ -3291,37 +3632,37 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>0.8999999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="C14">
-        <v>7.000000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="D14">
-        <v>21.5</v>
+        <v>19.7</v>
       </c>
       <c r="E14">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="F14">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="G14">
-        <v>5.899999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="H14">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I14">
-        <v>12.5</v>
+        <v>11.8</v>
       </c>
       <c r="J14">
-        <v>4.6</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="K14">
         <v>0.5</v>
       </c>
       <c r="L14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3332,37 +3673,37 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="C15">
-        <v>7.5</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="D15">
-        <v>15.1</v>
+        <v>16.5</v>
       </c>
       <c r="E15">
-        <v>21.7</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>7.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G15">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H15">
-        <v>8.9</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="J15">
-        <v>0.8999999999999999</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -3382,438 +3723,435 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>111.59</v>
+      </c>
+      <c r="E2">
+        <v>0.636</v>
+      </c>
+      <c r="F2">
+        <v>111.12</v>
+      </c>
+      <c r="G2">
+        <v>0.576</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>95.76000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.273</v>
+      </c>
+      <c r="F3">
+        <v>109.86</v>
+      </c>
+      <c r="G3">
+        <v>0.576</v>
+      </c>
+      <c r="H3">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>88.06</v>
+      </c>
+      <c r="E4">
+        <v>0.273</v>
+      </c>
+      <c r="F4">
+        <v>108.38</v>
+      </c>
+      <c r="G4">
+        <v>0.515</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>104.93</v>
+      </c>
+      <c r="E5">
+        <v>0.545</v>
+      </c>
+      <c r="F5">
+        <v>104.22</v>
+      </c>
+      <c r="G5">
+        <v>0.394</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>107.65</v>
+      </c>
+      <c r="E6">
+        <v>0.545</v>
+      </c>
+      <c r="F6">
+        <v>109.08</v>
+      </c>
+      <c r="G6">
+        <v>0.576</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>115.2</v>
+      </c>
+      <c r="E7">
+        <v>0.727</v>
+      </c>
+      <c r="F7">
+        <v>108.14</v>
+      </c>
+      <c r="G7">
+        <v>0.515</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>105.16</v>
+      </c>
+      <c r="E8">
+        <v>0.364</v>
+      </c>
+      <c r="F8">
+        <v>103.1</v>
+      </c>
+      <c r="G8">
+        <v>0.485</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9">
+        <v>109.39</v>
+      </c>
+      <c r="E9">
+        <v>0.545</v>
+      </c>
+      <c r="F9">
+        <v>102.97</v>
+      </c>
+      <c r="G9">
+        <v>0.485</v>
+      </c>
+      <c r="H9">
+        <v>-2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>101.97</v>
+      </c>
+      <c r="E10">
+        <v>0.273</v>
+      </c>
+      <c r="F10">
+        <v>109.03</v>
+      </c>
+      <c r="G10">
+        <v>0.606</v>
+      </c>
+      <c r="H10">
+        <v>-2.7</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>116.1781818181818</v>
-      </c>
-      <c r="E2">
-        <v>1277.96</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>104.66</v>
+      </c>
+      <c r="E11">
+        <v>0.455</v>
+      </c>
+      <c r="F11">
+        <v>107.33</v>
+      </c>
+      <c r="G11">
+        <v>0.545</v>
+      </c>
+      <c r="H11">
+        <v>-4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>116.18</v>
+      </c>
+      <c r="E12">
+        <v>0.727</v>
+      </c>
+      <c r="F12">
+        <v>105.58</v>
+      </c>
+      <c r="G12">
+        <v>0.485</v>
+      </c>
+      <c r="H12">
+        <v>-5</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D3">
-        <v>115.2036363636364</v>
-      </c>
-      <c r="E3">
-        <v>1267.24</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>106.03</v>
+      </c>
+      <c r="E13">
+        <v>0.455</v>
+      </c>
+      <c r="F13">
+        <v>101.95</v>
+      </c>
+      <c r="G13">
+        <v>0.394</v>
+      </c>
+      <c r="H13">
+        <v>-10</v>
+      </c>
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D4">
-        <v>110.5709090909091</v>
-      </c>
-      <c r="E4">
-        <v>1216.28</v>
-      </c>
-      <c r="F4">
-        <v>99.5</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D5">
-        <v>111.5945454545454</v>
-      </c>
-      <c r="E5">
-        <v>1227.54</v>
-      </c>
-      <c r="F5">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D6">
-        <v>109.3927272727273</v>
-      </c>
-      <c r="E6">
-        <v>1203.32</v>
-      </c>
-      <c r="F6">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D7">
-        <v>107.3618181818182</v>
-      </c>
-      <c r="E7">
-        <v>1180.98</v>
-      </c>
-      <c r="F7">
-        <v>77.5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>76</v>
       </c>
-      <c r="I7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D8">
-        <v>107.6527272727273</v>
-      </c>
-      <c r="E8">
-        <v>1184.18</v>
-      </c>
-      <c r="F8">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D14">
+        <v>107.36</v>
+      </c>
+      <c r="E14">
+        <v>0.545</v>
+      </c>
+      <c r="F14">
+        <v>104.66</v>
+      </c>
+      <c r="G14">
+        <v>0.485</v>
+      </c>
+      <c r="H14">
+        <v>-10.3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D9">
-        <v>104.9345454545455</v>
-      </c>
-      <c r="E9">
-        <v>1154.28</v>
-      </c>
-      <c r="F9">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D10">
-        <v>106.0327272727273</v>
-      </c>
-      <c r="E10">
-        <v>1166.36</v>
-      </c>
-      <c r="F10">
-        <v>44</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D11">
-        <v>104.6618181818182</v>
-      </c>
-      <c r="E11">
-        <v>1151.28</v>
-      </c>
-      <c r="F11">
-        <v>34.3</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D12">
-        <v>105.1636363636364</v>
-      </c>
-      <c r="E12">
-        <v>1156.8</v>
-      </c>
-      <c r="F12">
-        <v>12.1</v>
-      </c>
-      <c r="G12">
-        <v>1.7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D13">
-        <v>101.9654545454545</v>
-      </c>
-      <c r="E13">
-        <v>1121.62</v>
-      </c>
-      <c r="F13">
-        <v>0.3</v>
-      </c>
-      <c r="G13">
-        <v>13.2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D14">
-        <v>88.06181818181818</v>
-      </c>
-      <c r="E14">
-        <v>968.6799999999999</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>56.7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15">
-        <v>0.2727272727272727</v>
-      </c>
       <c r="D15">
-        <v>95.76363636363635</v>
+        <v>110.57</v>
       </c>
       <c r="E15">
-        <v>1053.4</v>
+        <v>0.636</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>99.13</v>
       </c>
       <c r="G15">
-        <v>28.4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" t="s">
-        <v>90</v>
+        <v>0.364</v>
+      </c>
+      <c r="H15">
+        <v>-10.7</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3822,6 +4160,454 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D2">
+        <v>116.1781818181818</v>
+      </c>
+      <c r="E2">
+        <v>1277.96</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D3">
+        <v>115.2036363636364</v>
+      </c>
+      <c r="E3">
+        <v>1267.24</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D4">
+        <v>110.5709090909091</v>
+      </c>
+      <c r="E4">
+        <v>1216.28</v>
+      </c>
+      <c r="F4">
+        <v>99.2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D5">
+        <v>111.5945454545454</v>
+      </c>
+      <c r="E5">
+        <v>1227.54</v>
+      </c>
+      <c r="F5">
+        <v>98.5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D6">
+        <v>109.3927272727273</v>
+      </c>
+      <c r="E6">
+        <v>1203.32</v>
+      </c>
+      <c r="F6">
+        <v>86.8</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D7">
+        <v>107.3618181818182</v>
+      </c>
+      <c r="E7">
+        <v>1180.98</v>
+      </c>
+      <c r="F7">
+        <v>78.2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D8">
+        <v>107.6527272727273</v>
+      </c>
+      <c r="E8">
+        <v>1184.18</v>
+      </c>
+      <c r="F8">
+        <v>74.5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D9">
+        <v>104.9345454545455</v>
+      </c>
+      <c r="E9">
+        <v>1154.28</v>
+      </c>
+      <c r="F9">
+        <v>68.30000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D10">
+        <v>106.0327272727273</v>
+      </c>
+      <c r="E10">
+        <v>1166.36</v>
+      </c>
+      <c r="F10">
+        <v>47.59999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D11">
+        <v>104.6618181818182</v>
+      </c>
+      <c r="E11">
+        <v>1151.28</v>
+      </c>
+      <c r="F11">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D12">
+        <v>105.1636363636364</v>
+      </c>
+      <c r="E12">
+        <v>1156.8</v>
+      </c>
+      <c r="F12">
+        <v>11.8</v>
+      </c>
+      <c r="G12">
+        <v>1.1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D13">
+        <v>101.9654545454545</v>
+      </c>
+      <c r="E13">
+        <v>1121.62</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>13.3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D14">
+        <v>88.06181818181818</v>
+      </c>
+      <c r="E14">
+        <v>968.6799999999999</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>55.7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D15">
+        <v>95.76363636363635</v>
+      </c>
+      <c r="E15">
+        <v>1053.4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>29.9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -3834,16 +4620,16 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3854,7 +4640,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -3863,7 +4649,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3874,7 +4660,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -3883,7 +4669,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3894,7 +4680,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -3903,7 +4689,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3914,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -3923,7 +4709,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3934,7 +4720,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -3943,7 +4729,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3954,7 +4740,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -3963,7 +4749,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3974,7 +4760,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -3983,7 +4769,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3994,7 +4780,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -4003,7 +4789,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4014,7 +4800,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -4023,7 +4809,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4034,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>-5</v>
@@ -4043,7 +4829,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4054,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>-6</v>
@@ -4063,7 +4849,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4074,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>-14</v>
@@ -4083,7 +4869,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4094,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>-27</v>
@@ -4103,7 +4889,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4114,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>-30</v>
@@ -4123,7 +4909,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4131,7 +4917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
@@ -4141,40 +4927,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4215,7 +5001,7 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4256,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4297,7 +5083,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4338,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4379,7 +5165,7 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4420,7 +5206,7 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4461,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4502,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4543,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4584,7 +5370,7 @@
         <v>-5</v>
       </c>
       <c r="M11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4625,7 +5411,7 @@
         <v>-6</v>
       </c>
       <c r="M12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4666,7 +5452,7 @@
         <v>-14</v>
       </c>
       <c r="M13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4707,7 +5493,7 @@
         <v>-27</v>
       </c>
       <c r="M14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4748,329 +5534,7 @@
         <v>-30</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>-23</v>
-      </c>
-      <c r="G2">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>-25</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>-14</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>-3</v>
-      </c>
-      <c r="G5">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>-3</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11">
-        <v>-13</v>
-      </c>
-      <c r="G11">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="143">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -202,7 +202,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -307,7 +307,7 @@
     <t>9.7-4.3</t>
   </si>
   <si>
-    <t>8.8-5.1</t>
+    <t>8.8-5.2</t>
   </si>
   <si>
     <t>8.5-5.5</t>
@@ -319,19 +319,22 @@
     <t>7.6-6.4</t>
   </si>
   <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>6.6-7.3</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
+    <t>7.4-6.5</t>
+  </si>
+  <si>
+    <t>7.5-6.4</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.4-7.5</t>
   </si>
   <si>
     <t>5.5-8.4</t>
   </si>
   <si>
-    <t>4.3-9.7</t>
+    <t>4.2-9.8</t>
   </si>
   <si>
     <t>4.0-10.0</t>
@@ -1529,25 +1532,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2389,25 +2392,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>49.1</v>
+        <v>46.1</v>
       </c>
       <c r="C2">
-        <v>29.3</v>
+        <v>33.4</v>
       </c>
       <c r="D2">
-        <v>13.9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="F2">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G2">
         <v>1.5</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2439,25 +2442,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>38.6</v>
+        <v>39.9</v>
       </c>
       <c r="C3">
-        <v>32.3</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>14.2</v>
+        <v>12.5</v>
       </c>
       <c r="E3">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="G3">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I3">
         <v>0.1</v>
@@ -2489,34 +2492,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="C4">
-        <v>15.7</v>
+        <v>14.3</v>
       </c>
       <c r="D4">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="E4">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="F4">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="G4">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="H4">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I4">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2539,34 +2542,34 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>11.3</v>
       </c>
       <c r="D5">
-        <v>17.4</v>
+        <v>20.8</v>
       </c>
       <c r="E5">
-        <v>19.7</v>
+        <v>20.2</v>
       </c>
       <c r="F5">
-        <v>16.6</v>
+        <v>15.1</v>
       </c>
       <c r="G5">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J5">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2589,37 +2592,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="D6">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="E6">
-        <v>15.1</v>
+        <v>13.6</v>
       </c>
       <c r="F6">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="G6">
-        <v>18.6</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="I6">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="J6">
-        <v>6.6</v>
+        <v>8.9</v>
       </c>
       <c r="K6">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L6">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2631,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>86.8</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2639,37 +2642,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D7">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="E7">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F7">
-        <v>13.8</v>
+        <v>13.2</v>
       </c>
       <c r="G7">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="H7">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
       <c r="I7">
-        <v>14.1</v>
+        <v>15.2</v>
       </c>
       <c r="J7">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="K7">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M7">
         <v>0.1</v>
@@ -2681,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>78.2</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2689,41 +2692,41 @@
         <v>2</v>
       </c>
       <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>2.9</v>
+      </c>
+      <c r="D8">
+        <v>5.1</v>
+      </c>
+      <c r="E8">
+        <v>7.8</v>
+      </c>
+      <c r="F8">
+        <v>14.9</v>
+      </c>
+      <c r="G8">
+        <v>12.8</v>
+      </c>
+      <c r="H8">
+        <v>16.9</v>
+      </c>
+      <c r="I8">
+        <v>15.7</v>
+      </c>
+      <c r="J8">
+        <v>12.2</v>
+      </c>
+      <c r="K8">
+        <v>8.6</v>
+      </c>
+      <c r="L8">
+        <v>2.6</v>
+      </c>
+      <c r="M8">
         <v>0.2</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>5.4</v>
-      </c>
-      <c r="E8">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F8">
-        <v>15.3</v>
-      </c>
-      <c r="G8">
-        <v>13.7</v>
-      </c>
-      <c r="H8">
-        <v>12.9</v>
-      </c>
-      <c r="I8">
-        <v>16.2</v>
-      </c>
-      <c r="J8">
-        <v>13.5</v>
-      </c>
-      <c r="K8">
-        <v>9.1</v>
-      </c>
-      <c r="L8">
-        <v>2.9</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>74.5</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2742,37 +2745,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="E9">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>12.8</v>
+        <v>15.3</v>
       </c>
       <c r="H9">
-        <v>16.7</v>
+        <v>13.9</v>
       </c>
       <c r="I9">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="J9">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L9">
         <v>5.2</v>
       </c>
       <c r="M9">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2781,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>68.3</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2795,43 +2798,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="F10">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="G10">
-        <v>9.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="H10">
-        <v>15.1</v>
+        <v>12.5</v>
       </c>
       <c r="I10">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="J10">
-        <v>18.8</v>
+        <v>19.9</v>
       </c>
       <c r="K10">
-        <v>17.3</v>
+        <v>19.7</v>
       </c>
       <c r="L10">
         <v>13.1</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N10">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>47.6</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2845,43 +2848,43 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="F11">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G11">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H11">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="I11">
-        <v>12.7</v>
+        <v>14</v>
       </c>
       <c r="J11">
-        <v>17.1</v>
+        <v>14.1</v>
       </c>
       <c r="K11">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="L11">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="M11">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="N11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>34.6</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2898,40 +2901,40 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0.1</v>
       </c>
-      <c r="F12">
-        <v>0.4</v>
-      </c>
       <c r="G12">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H12">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>12.7</v>
+        <v>14.1</v>
       </c>
       <c r="K12">
-        <v>21.4</v>
+        <v>22.1</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="M12">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="N12">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="O12">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>11.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2960,28 +2963,28 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J13">
         <v>1.2</v>
       </c>
       <c r="K13">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="L13">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="M13">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="N13">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="O13">
-        <v>13.3</v>
+        <v>14.2</v>
       </c>
       <c r="P13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3016,19 +3019,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="N14">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="O14">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3063,22 +3066,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K15">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="L15">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>23.9</v>
+        <v>21.9</v>
       </c>
       <c r="N15">
-        <v>41.3</v>
+        <v>43.9</v>
       </c>
       <c r="O15">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3140,34 +3143,34 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>64.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="C2">
-        <v>94.59999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="D2">
+        <v>98.2</v>
+      </c>
+      <c r="E2">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F2">
+        <v>98.2</v>
+      </c>
+      <c r="G2">
         <v>99</v>
       </c>
-      <c r="E2">
-        <v>96.8</v>
-      </c>
-      <c r="F2">
-        <v>98</v>
-      </c>
-      <c r="G2">
-        <v>98.5</v>
-      </c>
       <c r="H2">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="I2">
-        <v>92.30000000000001</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="J2">
-        <v>97.2</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="K2">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -3181,28 +3184,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>68.60000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="C3">
-        <v>23.6</v>
+        <v>24.4</v>
       </c>
       <c r="D3">
-        <v>86.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E3">
-        <v>91</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="F3">
-        <v>93.5</v>
+        <v>95</v>
       </c>
       <c r="G3">
-        <v>95.39999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="H3">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="I3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J3">
         <v>99.90000000000001</v>
@@ -3211,7 +3214,7 @@
         <v>100</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -3222,40 +3225,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>87.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="C4">
         <v>98.5</v>
       </c>
       <c r="D4">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="E4">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F4">
-        <v>97.2</v>
+        <v>98</v>
       </c>
       <c r="G4">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="H4">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="I4">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="J4">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="K4">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L4">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="M4">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3263,40 +3266,40 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="C5">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D5">
-        <v>36.1</v>
+        <v>37.5</v>
       </c>
       <c r="E5">
-        <v>42.2</v>
+        <v>42.9</v>
       </c>
       <c r="F5">
-        <v>65.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="G5">
-        <v>83.09999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="H5">
-        <v>92.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I5">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="J5">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="K5">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L5">
-        <v>95.89999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="M5">
-        <v>98</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3304,122 +3307,122 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>97.5</v>
+        <v>98.3</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6">
-        <v>86.09999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E6">
-        <v>68.60000000000001</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="F6">
-        <v>54.2</v>
+        <v>53.2</v>
       </c>
       <c r="G6">
-        <v>74.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H6">
-        <v>86.40000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I6">
-        <v>81.69999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="J6">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="K6">
-        <v>96.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="L6">
-        <v>87.5</v>
+        <v>85.8</v>
       </c>
       <c r="M6">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>30.8</v>
+        <v>22.3</v>
       </c>
       <c r="C7">
-        <v>84.39999999999999</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="D7">
-        <v>31.7</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="E7">
-        <v>15.3</v>
+        <v>88.2</v>
       </c>
       <c r="F7">
-        <v>13.9</v>
+        <v>90.2</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>51.8</v>
       </c>
       <c r="I7">
-        <v>73.90000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="J7">
-        <v>51.9</v>
+        <v>52.3</v>
       </c>
       <c r="K7">
-        <v>71.09999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="L7">
-        <v>71.2</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="M7">
-        <v>79.40000000000001</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>23.4</v>
+        <v>28.2</v>
       </c>
       <c r="C8">
-        <v>83.2</v>
+        <v>83.7</v>
       </c>
       <c r="D8">
-        <v>95.5</v>
+        <v>33.1</v>
       </c>
       <c r="E8">
-        <v>88.59999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="F8">
-        <v>89.7</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>63.8</v>
+        <v>34.4</v>
       </c>
       <c r="H8">
-        <v>53.40000000000001</v>
+        <v>53.8</v>
       </c>
       <c r="I8">
-        <v>77</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="J8">
-        <v>50.3</v>
+        <v>50.4</v>
       </c>
       <c r="K8">
-        <v>69.39999999999999</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="L8">
-        <v>76.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="M8">
-        <v>75.5</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3427,40 +3430,40 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>92.80000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="C9">
-        <v>38.1</v>
+        <v>40.7</v>
       </c>
       <c r="D9">
-        <v>49.7</v>
+        <v>51.5</v>
       </c>
       <c r="E9">
-        <v>83.39999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="F9">
-        <v>71.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="G9">
-        <v>81</v>
+        <v>78.8</v>
       </c>
       <c r="H9">
-        <v>61.9</v>
+        <v>63.1</v>
       </c>
       <c r="I9">
-        <v>46.2</v>
+        <v>42.9</v>
       </c>
       <c r="J9">
-        <v>59.09999999999999</v>
+        <v>62.1</v>
       </c>
       <c r="K9">
-        <v>49.6</v>
+        <v>50.2</v>
       </c>
       <c r="L9">
-        <v>66.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="M9">
-        <v>67.80000000000001</v>
+        <v>69.39999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3468,40 +3471,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>96.7</v>
+        <v>95.7</v>
       </c>
       <c r="C10">
-        <v>90.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D10">
-        <v>98.2</v>
+        <v>97.7</v>
       </c>
       <c r="E10">
-        <v>74.2</v>
+        <v>73.2</v>
       </c>
       <c r="F10">
-        <v>60.09999999999999</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G10">
-        <v>55.7</v>
+        <v>54.8</v>
       </c>
       <c r="H10">
-        <v>34.59999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="I10">
-        <v>35.8</v>
+        <v>36.8</v>
       </c>
       <c r="J10">
-        <v>53.90000000000001</v>
+        <v>55.2</v>
       </c>
       <c r="K10">
-        <v>38.1</v>
+        <v>36.9</v>
       </c>
       <c r="L10">
-        <v>45.8</v>
+        <v>45.3</v>
       </c>
       <c r="M10">
-        <v>45.3</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3509,40 +3512,40 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C11">
-        <v>70.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D11">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>28.6</v>
       </c>
       <c r="F11">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="G11">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
       <c r="H11">
-        <v>47.4</v>
+        <v>49.7</v>
       </c>
       <c r="I11">
-        <v>39.8</v>
+        <v>40.2</v>
       </c>
       <c r="J11">
-        <v>61.5</v>
+        <v>57.4</v>
       </c>
       <c r="K11">
+        <v>39.4</v>
+      </c>
+      <c r="L11">
+        <v>39.7</v>
+      </c>
+      <c r="M11">
         <v>35.2</v>
-      </c>
-      <c r="L11">
-        <v>40.8</v>
-      </c>
-      <c r="M11">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3550,81 +3553,81 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="C12">
-        <v>66.7</v>
+        <v>64.7</v>
       </c>
       <c r="D12">
-        <v>24.2</v>
+        <v>23.2</v>
       </c>
       <c r="E12">
-        <v>62</v>
+        <v>60.7</v>
       </c>
       <c r="F12">
-        <v>74.7</v>
+        <v>72.3</v>
       </c>
       <c r="G12">
-        <v>61.8</v>
+        <v>62.5</v>
       </c>
       <c r="H12">
-        <v>55.50000000000001</v>
+        <v>52.1</v>
       </c>
       <c r="I12">
-        <v>38.8</v>
+        <v>42.1</v>
       </c>
       <c r="J12">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="K12">
         <v>36.6</v>
       </c>
       <c r="L12">
-        <v>15.7</v>
+        <v>14.1</v>
       </c>
       <c r="M12">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>85.8</v>
+        <v>5.5</v>
       </c>
       <c r="C13">
-        <v>18.9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D13">
-        <v>8.9</v>
+        <v>14.5</v>
       </c>
       <c r="E13">
-        <v>4.2</v>
+        <v>21.5</v>
       </c>
       <c r="F13">
-        <v>24.4</v>
+        <v>7.7</v>
       </c>
       <c r="G13">
-        <v>10.2</v>
+        <v>3.3</v>
       </c>
       <c r="H13">
-        <v>7.8</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="I13">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="K13">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="L13">
-        <v>0.7000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="M13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3632,37 +3635,37 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="C14">
-        <v>8.1</v>
+        <v>6.4</v>
       </c>
       <c r="D14">
-        <v>19.7</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>25.5</v>
+        <v>27.1</v>
       </c>
       <c r="F14">
-        <v>13.7</v>
+        <v>11.8</v>
       </c>
       <c r="G14">
-        <v>6.3</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="H14">
         <v>3.4</v>
       </c>
       <c r="I14">
-        <v>11.8</v>
+        <v>10.8</v>
       </c>
       <c r="J14">
-        <v>5.600000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3670,40 +3673,40 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>5.7</v>
+        <v>83.5</v>
       </c>
       <c r="C15">
-        <v>7.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="D15">
-        <v>16.5</v>
+        <v>7.6</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="F15">
-        <v>7.199999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="G15">
-        <v>3.7</v>
+        <v>9.9</v>
       </c>
       <c r="H15">
-        <v>6.600000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="I15">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="J15">
-        <v>0.7000000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -3761,8 +3764,8 @@
       <c r="D2">
         <v>111.59</v>
       </c>
-      <c r="E2">
-        <v>0.636</v>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
       <c r="F2">
         <v>111.12</v>
@@ -3790,8 +3793,8 @@
       <c r="D3">
         <v>95.76000000000001</v>
       </c>
-      <c r="E3">
-        <v>0.273</v>
+      <c r="E3" t="s">
+        <v>19</v>
       </c>
       <c r="F3">
         <v>109.86</v>
@@ -3819,8 +3822,8 @@
       <c r="D4">
         <v>88.06</v>
       </c>
-      <c r="E4">
-        <v>0.273</v>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="F4">
         <v>108.38</v>
@@ -3848,8 +3851,8 @@
       <c r="D5">
         <v>104.93</v>
       </c>
-      <c r="E5">
-        <v>0.545</v>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
       <c r="F5">
         <v>104.22</v>
@@ -3877,8 +3880,8 @@
       <c r="D6">
         <v>107.65</v>
       </c>
-      <c r="E6">
-        <v>0.545</v>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
       <c r="F6">
         <v>109.08</v>
@@ -3906,8 +3909,8 @@
       <c r="D7">
         <v>115.2</v>
       </c>
-      <c r="E7">
-        <v>0.727</v>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
       <c r="F7">
         <v>108.14</v>
@@ -3935,8 +3938,8 @@
       <c r="D8">
         <v>105.16</v>
       </c>
-      <c r="E8">
-        <v>0.364</v>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
       <c r="F8">
         <v>103.1</v>
@@ -3964,8 +3967,8 @@
       <c r="D9">
         <v>109.39</v>
       </c>
-      <c r="E9">
-        <v>0.545</v>
+      <c r="E9" t="s">
+        <v>20</v>
       </c>
       <c r="F9">
         <v>102.97</v>
@@ -3993,8 +3996,8 @@
       <c r="D10">
         <v>101.97</v>
       </c>
-      <c r="E10">
-        <v>0.273</v>
+      <c r="E10" t="s">
+        <v>19</v>
       </c>
       <c r="F10">
         <v>109.03</v>
@@ -4022,8 +4025,8 @@
       <c r="D11">
         <v>104.66</v>
       </c>
-      <c r="E11">
-        <v>0.455</v>
+      <c r="E11" t="s">
+        <v>16</v>
       </c>
       <c r="F11">
         <v>107.33</v>
@@ -4051,8 +4054,8 @@
       <c r="D12">
         <v>116.18</v>
       </c>
-      <c r="E12">
-        <v>0.727</v>
+      <c r="E12" t="s">
+        <v>18</v>
       </c>
       <c r="F12">
         <v>105.58</v>
@@ -4080,8 +4083,8 @@
       <c r="D13">
         <v>106.03</v>
       </c>
-      <c r="E13">
-        <v>0.455</v>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
       <c r="F13">
         <v>101.95</v>
@@ -4109,8 +4112,8 @@
       <c r="D14">
         <v>107.36</v>
       </c>
-      <c r="E14">
-        <v>0.545</v>
+      <c r="E14" t="s">
+        <v>20</v>
       </c>
       <c r="F14">
         <v>104.66</v>
@@ -4138,8 +4141,8 @@
       <c r="D15">
         <v>110.57</v>
       </c>
-      <c r="E15">
-        <v>0.636</v>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
       <c r="F15">
         <v>99.13</v>
@@ -4222,7 +4225,7 @@
         <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4251,7 +4254,7 @@
         <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4280,7 +4283,7 @@
         <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4309,7 +4312,7 @@
         <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4329,7 +4332,7 @@
         <v>1203.32</v>
       </c>
       <c r="F6">
-        <v>86.8</v>
+        <v>85.2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4338,7 +4341,7 @@
         <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4358,7 +4361,7 @@
         <v>1180.98</v>
       </c>
       <c r="F7">
-        <v>78.2</v>
+        <v>79.2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4367,7 +4370,7 @@
         <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4387,7 +4390,7 @@
         <v>1184.18</v>
       </c>
       <c r="F8">
-        <v>74.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4396,7 +4399,7 @@
         <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4416,13 +4419,13 @@
         <v>1154.28</v>
       </c>
       <c r="F9">
-        <v>68.30000000000001</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
         <v>108</v>
@@ -4445,16 +4448,16 @@
         <v>1166.36</v>
       </c>
       <c r="F10">
-        <v>47.59999999999999</v>
+        <v>44.1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4474,16 +4477,16 @@
         <v>1151.28</v>
       </c>
       <c r="F11">
-        <v>34.59999999999999</v>
+        <v>37.2</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4503,16 +4506,16 @@
         <v>1156.8</v>
       </c>
       <c r="F12">
-        <v>11.8</v>
+        <v>10.4</v>
       </c>
       <c r="G12">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4532,16 +4535,16 @@
         <v>1121.62</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>13.3</v>
+        <v>14.2</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4564,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4593,13 +4596,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4620,16 +4623,16 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4649,7 +4652,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4669,7 +4672,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4689,7 +4692,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4709,7 +4712,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4729,7 +4732,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4749,7 +4752,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4769,7 +4772,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4789,7 +4792,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4809,7 +4812,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4829,7 +4832,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4849,7 +4852,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4869,7 +4872,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4889,7 +4892,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4909,7 +4912,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4927,40 +4930,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5001,7 +5004,7 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5042,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5083,7 +5086,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5124,7 +5127,7 @@
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5165,7 +5168,7 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5206,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5247,7 +5250,7 @@
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5288,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5329,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5370,7 +5373,7 @@
         <v>-5</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5411,7 +5414,7 @@
         <v>-6</v>
       </c>
       <c r="M12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5452,7 +5455,7 @@
         <v>-14</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5493,7 +5496,7 @@
         <v>-27</v>
       </c>
       <c r="M14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5534,7 +5537,7 @@
         <v>-30</v>
       </c>
       <c r="M15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="147">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -67,34 +67,34 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -196,6 +196,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -217,48 +220,48 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Michael Dillon</t>
+  </si>
+  <si>
+    <t>nicholas spadaro</t>
+  </si>
+  <si>
     <t>Lawrence Rosello</t>
   </si>
   <si>
+    <t>Antonio  Spadaro</t>
+  </si>
+  <si>
+    <t>Kathy Dillon</t>
+  </si>
+  <si>
+    <t>Ryan Lesiak</t>
+  </si>
+  <si>
     <t>Josh Formola</t>
   </si>
   <si>
-    <t>Antonio  Spadaro</t>
-  </si>
-  <si>
-    <t>Ryan Lesiak</t>
-  </si>
-  <si>
-    <t>Michael Dillon</t>
-  </si>
-  <si>
     <t>Marissa Rodriguez</t>
   </si>
   <si>
+    <t>Stephanie Mattei</t>
+  </si>
+  <si>
     <t>Sal Spadaro</t>
   </si>
   <si>
     <t>Mikaela Mitcho</t>
   </si>
   <si>
-    <t>Kathy Dillon</t>
-  </si>
-  <si>
     <t>gabriella spadaro</t>
   </si>
   <si>
-    <t>nicholas spadaro</t>
+    <t>Brendan Fanning</t>
   </si>
   <si>
     <t>Zachary Dillon</t>
   </si>
   <si>
-    <t>Brendan Fanning</t>
-  </si>
-  <si>
-    <t>Stephanie Mattei</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -283,72 +286,69 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>9.8-4.2</t>
-  </si>
-  <si>
-    <t>9.7-4.3</t>
-  </si>
-  <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>7.6-6.3</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>7.4-6.5</t>
-  </si>
-  <si>
-    <t>7.5-6.4</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>6.4-7.5</t>
-  </si>
-  <si>
-    <t>5.5-8.4</t>
-  </si>
-  <si>
-    <t>4.2-9.8</t>
-  </si>
-  <si>
-    <t>4.0-10.0</t>
-  </si>
-  <si>
-    <t>4.0-9.9</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>9.1-4.9</t>
+  </si>
+  <si>
+    <t>10.2-3.8</t>
+  </si>
+  <si>
+    <t>8.2-5.8</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>5.9-8.0</t>
+  </si>
+  <si>
+    <t>4.9-9.1</t>
+  </si>
+  <si>
+    <t>3.6-10.3</t>
+  </si>
+  <si>
+    <t>3.8-10.2</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -358,6 +358,12 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -370,36 +376,39 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓6</t>
+    <t>0</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -431,6 +440,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -867,7 +879,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -876,34 +888,34 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -914,43 +926,43 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -961,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -976,7 +988,7 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -1011,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1055,10 +1067,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1070,7 +1082,7 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -1079,16 +1091,16 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
@@ -1102,10 +1114,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1114,13 +1126,13 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1135,10 +1147,10 @@
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1149,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -1158,13 +1170,13 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -1173,19 +1185,19 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1196,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1205,34 +1217,34 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
         <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1240,46 +1252,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" t="s">
-        <v>20</v>
-      </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1290,43 +1302,43 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" t="s">
-        <v>18</v>
-      </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1337,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1346,34 +1358,34 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
       <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
         <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1381,10 +1393,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1399,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1408,16 +1420,16 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O13" t="s">
         <v>21</v>
@@ -1431,43 +1443,43 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
-      </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1475,10 +1487,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1487,13 +1499,13 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
@@ -1502,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
@@ -1511,10 +1523,10 @@
         <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1532,25 +1544,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1558,25 +1570,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>-27</v>
       </c>
       <c r="F2">
-        <v>-23</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1584,25 +1596,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>-23</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1610,25 +1622,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>-25</v>
       </c>
       <c r="F4">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1636,25 +1648,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1662,25 +1674,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>-3</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1688,25 +1700,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="G7">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1714,25 +1726,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1740,25 +1752,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1766,25 +1778,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
       <c r="E10">
-        <v>19</v>
+        <v>-3</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1792,25 +1804,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>-15</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11">
-        <v>-13</v>
-      </c>
       <c r="G11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1818,25 +1830,25 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1868,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>4.142857142857143</v>
+        <v>4.857142857142857</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1885,10 +1897,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>4.428571428571429</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1896,13 +1908,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.428571428571429</v>
+        <v>5.071428571428571</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1910,13 +1922,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4.785714285714286</v>
+        <v>5.142857142857143</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1927,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.357142857142857</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1941,10 +1953,10 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>5.357142857142857</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1952,13 +1964,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.714285714285714</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1969,10 +1981,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>5.857142857142857</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1980,13 +1992,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>5.928571428571429</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1994,13 +2006,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2008,13 +2020,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>6.642857142857143</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2022,13 +2034,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>6.142857142857143</v>
+        <v>6.785714285714286</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2036,10 +2048,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>6.428571428571429</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -2050,10 +2062,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>6.428571428571429</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -2091,16 +2103,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>7.5</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.7142857142857135</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2108,16 +2120,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>7.357142857142857</v>
+        <v>7.642857142857143</v>
       </c>
       <c r="D3">
-        <v>-0.6428571428571432</v>
+        <v>-0.3571428571428568</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2125,13 +2137,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>6.357142857142857</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D4">
-        <v>-0.6428571428571432</v>
+        <v>-0.9285714285714288</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -2142,16 +2154,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6.071428571428571</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="D5">
-        <v>-0.9285714285714288</v>
+        <v>-0.1428571428571432</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2162,10 +2174,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>6.714285714285714</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.2857142857142856</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -2176,13 +2188,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -2196,13 +2208,13 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>5.714285714285714</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="D8">
-        <v>0.7142857142857144</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2210,16 +2222,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>5.642857142857143</v>
+        <v>6.214285714285714</v>
       </c>
       <c r="D9">
-        <v>-0.3571428571428568</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2227,16 +2239,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>5.571428571428571</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="D10">
-        <v>0.5714285714285712</v>
+        <v>-1.214285714285714</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2244,16 +2256,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>5.285714285714286</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="D11">
-        <v>-0.7142857142857144</v>
+        <v>0.5714285714285712</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2264,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.071428571428571</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="D12">
-        <v>1.071428571428571</v>
+        <v>0.4285714285714288</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -2281,13 +2293,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>4.714285714285714</v>
+        <v>5.071428571428571</v>
       </c>
       <c r="D13">
-        <v>1.714285714285714</v>
+        <v>2.071428571428571</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2298,13 +2310,13 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>3.428571428571428</v>
+        <v>4.214285714285714</v>
       </c>
       <c r="D14">
-        <v>0.4285714285714284</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2315,13 +2327,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>2.285714285714286</v>
+        <v>2.357142857142857</v>
       </c>
       <c r="D15">
-        <v>-0.7142857142857144</v>
+        <v>-0.6428571428571428</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2389,31 +2401,31 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>46.1</v>
+        <v>10.1</v>
       </c>
       <c r="C2">
-        <v>33.4</v>
+        <v>32.7</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>31.3</v>
       </c>
       <c r="E2">
-        <v>6.2</v>
+        <v>15.8</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2439,31 +2451,31 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>39.9</v>
+        <v>10.9</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>33.8</v>
       </c>
       <c r="D3">
-        <v>12.5</v>
+        <v>24.1</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="F3">
-        <v>3.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2489,37 +2501,37 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>3.4</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C4">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="D4">
-        <v>30.9</v>
+        <v>6.5</v>
       </c>
       <c r="E4">
-        <v>22.7</v>
+        <v>1.5</v>
       </c>
       <c r="F4">
-        <v>12.7</v>
+        <v>0.3</v>
       </c>
       <c r="G4">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2534,42 +2546,42 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>99.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>11.3</v>
+        <v>6.1</v>
       </c>
       <c r="D5">
-        <v>20.8</v>
+        <v>11.2</v>
       </c>
       <c r="E5">
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>15.1</v>
+        <v>21.8</v>
       </c>
       <c r="G5">
-        <v>10.6</v>
+        <v>17.6</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>14.4</v>
       </c>
       <c r="I5">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="J5">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2584,45 +2596,45 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>98.5</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="C6">
-        <v>1.9</v>
+        <v>7.9</v>
       </c>
       <c r="D6">
-        <v>7.2</v>
+        <v>12.7</v>
       </c>
       <c r="E6">
-        <v>13.6</v>
+        <v>16.2</v>
       </c>
       <c r="F6">
-        <v>17.8</v>
+        <v>20.9</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19.4</v>
       </c>
       <c r="H6">
-        <v>14.8</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>11.8</v>
+        <v>6.9</v>
       </c>
       <c r="J6">
-        <v>8.9</v>
+        <v>1.7</v>
       </c>
       <c r="K6">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="L6">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2634,48 +2646,48 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>85.2</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>4.3</v>
+      </c>
+      <c r="D7">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E7">
+        <v>15.9</v>
+      </c>
+      <c r="F7">
+        <v>20.7</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>15.6</v>
+      </c>
+      <c r="I7">
+        <v>8.9</v>
+      </c>
+      <c r="J7">
+        <v>3.1</v>
+      </c>
+      <c r="K7">
         <v>0.4</v>
       </c>
-      <c r="C7">
-        <v>2.8</v>
-      </c>
-      <c r="D7">
-        <v>8.5</v>
-      </c>
-      <c r="E7">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F7">
-        <v>13.2</v>
-      </c>
-      <c r="G7">
-        <v>14.5</v>
-      </c>
-      <c r="H7">
-        <v>14.8</v>
-      </c>
-      <c r="I7">
-        <v>15.2</v>
-      </c>
-      <c r="J7">
-        <v>12.5</v>
-      </c>
-      <c r="K7">
-        <v>5.4</v>
-      </c>
       <c r="L7">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2684,48 +2696,48 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>79.2</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="E8">
-        <v>7.8</v>
+        <v>12.3</v>
       </c>
       <c r="F8">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="G8">
-        <v>12.8</v>
+        <v>17.7</v>
       </c>
       <c r="H8">
-        <v>16.9</v>
+        <v>24.3</v>
       </c>
       <c r="I8">
-        <v>15.7</v>
+        <v>12.1</v>
       </c>
       <c r="J8">
-        <v>12.2</v>
+        <v>9.6</v>
       </c>
       <c r="K8">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="L8">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="M8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2734,48 +2746,48 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>76.40000000000001</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
-        <v>8.6</v>
+        <v>2.8</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>7.1</v>
       </c>
       <c r="G9">
-        <v>15.3</v>
+        <v>9.6</v>
       </c>
       <c r="H9">
-        <v>13.9</v>
+        <v>16.8</v>
       </c>
       <c r="I9">
-        <v>14.3</v>
+        <v>29.3</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>16.1</v>
       </c>
       <c r="K9">
-        <v>9.199999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="L9">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="M9">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2784,12 +2796,12 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>69.7</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2798,43 +2810,43 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="G10">
+        <v>0.3</v>
+      </c>
+      <c r="H10">
+        <v>4.3</v>
+      </c>
+      <c r="I10">
+        <v>14.8</v>
+      </c>
+      <c r="J10">
+        <v>24.1</v>
+      </c>
+      <c r="K10">
+        <v>25.8</v>
+      </c>
+      <c r="L10">
+        <v>24.7</v>
+      </c>
+      <c r="M10">
+        <v>5.5</v>
+      </c>
+      <c r="N10">
         <v>0.4</v>
       </c>
-      <c r="E10">
-        <v>1.3</v>
-      </c>
-      <c r="F10">
-        <v>4.1</v>
-      </c>
-      <c r="G10">
-        <v>8.9</v>
-      </c>
-      <c r="H10">
-        <v>12.5</v>
-      </c>
-      <c r="I10">
-        <v>16.9</v>
-      </c>
-      <c r="J10">
-        <v>19.9</v>
-      </c>
-      <c r="K10">
-        <v>19.7</v>
-      </c>
-      <c r="L10">
-        <v>13.1</v>
-      </c>
-      <c r="M10">
-        <v>2.9</v>
-      </c>
-      <c r="N10">
-        <v>0.3</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>44.1</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2848,48 +2860,48 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="G11">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="H11">
-        <v>11.5</v>
+        <v>5.1</v>
       </c>
       <c r="I11">
-        <v>14</v>
+        <v>10.9</v>
       </c>
       <c r="J11">
-        <v>14.1</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>24.4</v>
+        <v>26.5</v>
       </c>
       <c r="L11">
-        <v>18.7</v>
+        <v>25.4</v>
       </c>
       <c r="M11">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="N11">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>37.2</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2907,39 +2919,39 @@
         <v>0.1</v>
       </c>
       <c r="G12">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>10.3</v>
       </c>
       <c r="J12">
-        <v>14.1</v>
+        <v>19.5</v>
       </c>
       <c r="K12">
-        <v>22.1</v>
+        <v>24</v>
       </c>
       <c r="L12">
-        <v>34.3</v>
+        <v>24.4</v>
       </c>
       <c r="M12">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="N12">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>10.4</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2963,28 +2975,28 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J13">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="K13">
-        <v>3.3</v>
+        <v>7.6</v>
       </c>
       <c r="L13">
-        <v>13.5</v>
+        <v>14.6</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>49.9</v>
       </c>
       <c r="N13">
-        <v>26.7</v>
+        <v>23</v>
       </c>
       <c r="O13">
-        <v>14.2</v>
+        <v>2.3</v>
       </c>
       <c r="P13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3019,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.1</v>
+        <v>3.2</v>
       </c>
       <c r="N14">
-        <v>24.3</v>
+        <v>22.5</v>
       </c>
       <c r="O14">
-        <v>56.2</v>
+        <v>74.3</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3039,7 +3051,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3066,22 +3078,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
-        <v>21.9</v>
+        <v>20.7</v>
       </c>
       <c r="N15">
-        <v>43.9</v>
+        <v>51.4</v>
       </c>
       <c r="O15">
-        <v>28.6</v>
+        <v>23.4</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3094,13 +3106,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -3137,578 +3149,623 @@
       <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C2">
-        <v>94.19999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="D2">
-        <v>98.2</v>
+        <v>99.3</v>
       </c>
       <c r="E2">
-        <v>97.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="F2">
-        <v>98.2</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="H2">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="I2">
-        <v>94.39999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J2">
-        <v>96.89999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="K2">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>62.9</v>
+      </c>
+      <c r="C3">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>97.5</v>
+      </c>
+      <c r="F3">
+        <v>97.8</v>
+      </c>
+      <c r="G3">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="H3">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="I3">
+        <v>93.2</v>
+      </c>
+      <c r="J3">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>65.8</v>
-      </c>
-      <c r="C3">
-        <v>24.4</v>
-      </c>
-      <c r="D3">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="E3">
-        <v>90.10000000000001</v>
-      </c>
-      <c r="F3">
-        <v>95</v>
-      </c>
-      <c r="G3">
-        <v>97.5</v>
-      </c>
-      <c r="H3">
-        <v>99.2</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>88.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C4">
-        <v>98.5</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>99.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E4">
-        <v>99.40000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="F4">
-        <v>98</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="G4">
-        <v>98</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="H4">
         <v>98.8</v>
       </c>
       <c r="I4">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J4">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="F5">
+        <v>54.3</v>
+      </c>
+      <c r="G5">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="H5">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="I5">
+        <v>86.5</v>
+      </c>
+      <c r="J5">
+        <v>89.2</v>
+      </c>
+      <c r="K5">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="L5">
+        <v>86.8</v>
+      </c>
+      <c r="M5">
+        <v>97.3</v>
+      </c>
+      <c r="N5">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3.6</v>
+      </c>
+      <c r="C6">
+        <v>15.8</v>
+      </c>
+      <c r="D6">
+        <v>37.5</v>
+      </c>
+      <c r="E6">
+        <v>41.09999999999999</v>
+      </c>
+      <c r="F6">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <v>83.89999999999999</v>
+      </c>
+      <c r="H6">
+        <v>92.5</v>
+      </c>
+      <c r="I6">
+        <v>97.8</v>
+      </c>
+      <c r="J6">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="K6">
         <v>99.59999999999999</v>
       </c>
-      <c r="L4">
-        <v>98.7</v>
-      </c>
-      <c r="M4">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>3.3</v>
-      </c>
-      <c r="C5">
-        <v>15.3</v>
-      </c>
-      <c r="D5">
-        <v>37.5</v>
-      </c>
-      <c r="E5">
-        <v>42.9</v>
-      </c>
-      <c r="F5">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="G5">
-        <v>82.5</v>
-      </c>
-      <c r="H5">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="I5">
-        <v>98.7</v>
-      </c>
-      <c r="J5">
-        <v>97.2</v>
-      </c>
-      <c r="K5">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="L5">
-        <v>96.2</v>
-      </c>
-      <c r="M5">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>98.3</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="E6">
-        <v>66.10000000000001</v>
-      </c>
-      <c r="F6">
-        <v>53.2</v>
-      </c>
-      <c r="G6">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="H6">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="I6">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="J6">
-        <v>90</v>
-      </c>
-      <c r="K6">
-        <v>96.09999999999999</v>
-      </c>
       <c r="L6">
-        <v>85.8</v>
+        <v>96.5</v>
       </c>
       <c r="M6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>95.8</v>
+      </c>
+      <c r="N6">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>22.3</v>
+        <v>23.3</v>
       </c>
       <c r="C7">
-        <v>82.69999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D7">
-        <v>94.89999999999999</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="E7">
-        <v>88.2</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F7">
-        <v>90.2</v>
+        <v>88.8</v>
       </c>
       <c r="G7">
-        <v>66.60000000000001</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="H7">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="I7">
-        <v>74.09999999999999</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="J7">
-        <v>52.3</v>
+        <v>54.2</v>
       </c>
       <c r="K7">
-        <v>70.3</v>
+        <v>69.3</v>
       </c>
       <c r="L7">
-        <v>77.10000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="M7">
-        <v>78.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>93</v>
+      </c>
+      <c r="N7">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>91.3</v>
+      </c>
+      <c r="C8">
+        <v>38.3</v>
+      </c>
+      <c r="D8">
+        <v>47.5</v>
+      </c>
+      <c r="E8">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="F8">
+        <v>70.7</v>
+      </c>
+      <c r="G8">
+        <v>79.7</v>
+      </c>
+      <c r="H8">
+        <v>61.2</v>
+      </c>
+      <c r="I8">
+        <v>43.5</v>
+      </c>
+      <c r="J8">
+        <v>63.1</v>
+      </c>
+      <c r="K8">
+        <v>51.3</v>
+      </c>
+      <c r="L8">
+        <v>68.8</v>
+      </c>
+      <c r="M8">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="N8">
+        <v>85.59999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>28.2</v>
-      </c>
-      <c r="C8">
-        <v>83.7</v>
-      </c>
-      <c r="D8">
-        <v>33.1</v>
-      </c>
-      <c r="E8">
-        <v>16.5</v>
-      </c>
-      <c r="F8">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>34.4</v>
-      </c>
-      <c r="H8">
-        <v>53.8</v>
-      </c>
-      <c r="I8">
-        <v>71.39999999999999</v>
-      </c>
-      <c r="J8">
-        <v>50.4</v>
-      </c>
-      <c r="K8">
-        <v>68.60000000000001</v>
-      </c>
-      <c r="L8">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="M8">
-        <v>75.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B9">
-        <v>93.30000000000001</v>
+        <v>29.5</v>
       </c>
       <c r="C9">
-        <v>40.7</v>
+        <v>84.2</v>
       </c>
       <c r="D9">
-        <v>51.5</v>
+        <v>34.1</v>
       </c>
       <c r="E9">
-        <v>82.8</v>
+        <v>15.6</v>
       </c>
       <c r="F9">
-        <v>68.7</v>
+        <v>13.1</v>
       </c>
       <c r="G9">
-        <v>78.8</v>
+        <v>35.3</v>
       </c>
       <c r="H9">
-        <v>63.1</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="I9">
-        <v>42.9</v>
+        <v>74.8</v>
       </c>
       <c r="J9">
-        <v>62.1</v>
+        <v>49.9</v>
       </c>
       <c r="K9">
-        <v>50.2</v>
+        <v>68.8</v>
       </c>
       <c r="L9">
-        <v>66.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="M9">
-        <v>69.39999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>60.3</v>
+      </c>
+      <c r="N9">
+        <v>66.40000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>95.7</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="C10">
-        <v>90.40000000000001</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="D10">
-        <v>97.7</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>73.2</v>
+        <v>62.3</v>
       </c>
       <c r="F10">
-        <v>64.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="G10">
-        <v>54.8</v>
+        <v>64.7</v>
       </c>
       <c r="H10">
-        <v>34.5</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="I10">
-        <v>36.8</v>
+        <v>41.9</v>
       </c>
       <c r="J10">
-        <v>55.2</v>
+        <v>27.1</v>
       </c>
       <c r="K10">
-        <v>36.9</v>
+        <v>38.2</v>
       </c>
       <c r="L10">
-        <v>45.3</v>
+        <v>12.8</v>
       </c>
       <c r="M10">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>23.2</v>
+      </c>
+      <c r="N10">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C11">
-        <v>74.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="D11">
-        <v>48.5</v>
+        <v>49.7</v>
       </c>
       <c r="E11">
-        <v>28.6</v>
+        <v>23.8</v>
       </c>
       <c r="F11">
-        <v>36.9</v>
+        <v>34.8</v>
       </c>
       <c r="G11">
-        <v>30.8</v>
+        <v>27.5</v>
       </c>
       <c r="H11">
         <v>49.7</v>
       </c>
       <c r="I11">
-        <v>40.2</v>
+        <v>39.1</v>
       </c>
       <c r="J11">
-        <v>57.4</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>39.4</v>
+        <v>35.7</v>
       </c>
       <c r="L11">
-        <v>39.7</v>
+        <v>38.2</v>
       </c>
       <c r="M11">
-        <v>35.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>25.2</v>
+      </c>
+      <c r="N11">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>47.8</v>
+        <v>95.5</v>
       </c>
       <c r="C12">
-        <v>64.7</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="D12">
-        <v>23.2</v>
+        <v>97.7</v>
       </c>
       <c r="E12">
-        <v>60.7</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>72.3</v>
+        <v>63.7</v>
       </c>
       <c r="G12">
-        <v>62.5</v>
+        <v>53.7</v>
       </c>
       <c r="H12">
-        <v>52.1</v>
+        <v>33.7</v>
       </c>
       <c r="I12">
-        <v>42.1</v>
+        <v>33.6</v>
       </c>
       <c r="J12">
-        <v>28.8</v>
+        <v>52.3</v>
       </c>
       <c r="K12">
-        <v>36.6</v>
+        <v>38.3</v>
       </c>
       <c r="L12">
-        <v>14.1</v>
+        <v>43</v>
       </c>
       <c r="M12">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19.7</v>
+      </c>
+      <c r="N12">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>7.000000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="D13">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E13">
-        <v>21.5</v>
+        <v>24.6</v>
       </c>
       <c r="F13">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="G13">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="H13">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="I13">
         <v>3.3</v>
-      </c>
-      <c r="H13">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="I13">
-        <v>2.3</v>
       </c>
       <c r="J13">
         <v>0.6</v>
       </c>
       <c r="K13">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>0.4</v>
       </c>
-      <c r="M13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="C14">
         <v>6.4</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>22.3</v>
       </c>
       <c r="E14">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="F14">
-        <v>11.8</v>
+        <v>14.9</v>
       </c>
       <c r="G14">
-        <v>7.000000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="H14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>10.8</v>
+        <v>11.7</v>
       </c>
       <c r="J14">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="K14">
-        <v>0.7000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>83.5</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C15">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="D15">
+        <v>7.8</v>
+      </c>
+      <c r="E15">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>9.6</v>
+      </c>
+      <c r="H15">
         <v>7.6</v>
       </c>
-      <c r="E15">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="F15">
-        <v>24.5</v>
-      </c>
-      <c r="G15">
-        <v>9.9</v>
-      </c>
-      <c r="H15">
-        <v>6.9</v>
-      </c>
       <c r="I15">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="J15">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L15">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
     </row>
@@ -3730,25 +3787,25 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3756,28 +3813,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>111.59</v>
+        <v>109.89</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>111.12</v>
+        <v>110.94</v>
       </c>
       <c r="G2">
-        <v>0.576</v>
+        <v>0.583</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3785,28 +3842,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>95.76000000000001</v>
+        <v>113.48</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>109.86</v>
+        <v>110.16</v>
       </c>
       <c r="G3">
-        <v>0.576</v>
+        <v>0.583</v>
       </c>
       <c r="H3">
-        <v>9.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3814,28 +3871,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>88.06</v>
+        <v>110.38</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>108.38</v>
+        <v>107.46</v>
       </c>
       <c r="G4">
-        <v>0.515</v>
+        <v>0.458</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3843,28 +3900,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>104.93</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>104.22</v>
+        <v>107.13</v>
       </c>
       <c r="G5">
-        <v>0.394</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3872,28 +3929,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>101.44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>111.66</v>
+      </c>
+      <c r="G6">
+        <v>0.625</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
         <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6">
-        <v>107.65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>109.08</v>
-      </c>
-      <c r="G6">
-        <v>0.576</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3901,28 +3958,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>115.2</v>
+        <v>104.24</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>108.14</v>
+        <v>103.58</v>
       </c>
       <c r="G7">
-        <v>0.515</v>
+        <v>0.417</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3930,28 +3987,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>105.16</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>103.1</v>
+        <v>104.13</v>
       </c>
       <c r="G8">
-        <v>0.485</v>
+        <v>0.458</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3959,28 +4016,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>109.39</v>
+        <v>117.1</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>102.97</v>
+        <v>107.1</v>
       </c>
       <c r="G9">
-        <v>0.485</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3988,28 +4045,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>101.97</v>
+        <v>112.94</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>109.03</v>
+        <v>103.67</v>
       </c>
       <c r="G10">
-        <v>0.606</v>
+        <v>0.375</v>
       </c>
       <c r="H10">
-        <v>-2.7</v>
+        <v>-2</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4017,28 +4074,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>104.66</v>
+        <v>104.32</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>107.33</v>
+        <v>102.34</v>
       </c>
       <c r="G11">
-        <v>0.545</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
         <v>-4</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4046,28 +4103,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>116.18</v>
+        <v>109.95</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>105.58</v>
+        <v>100.53</v>
       </c>
       <c r="G12">
-        <v>0.485</v>
+        <v>0.458</v>
       </c>
       <c r="H12">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4075,28 +4132,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>106.03</v>
+        <v>104.78</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>101.95</v>
+        <v>107.06</v>
       </c>
       <c r="G13">
-        <v>0.394</v>
+        <v>0.583</v>
       </c>
       <c r="H13">
-        <v>-10</v>
+        <v>-9.5</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4107,25 +4164,25 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14">
-        <v>107.36</v>
+        <v>105.89</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>104.66</v>
+        <v>105.63</v>
       </c>
       <c r="G14">
-        <v>0.485</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
-        <v>-10.3</v>
+        <v>-12</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4133,28 +4190,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>110.57</v>
+        <v>102.37</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>99.13</v>
+        <v>101.28</v>
       </c>
       <c r="G15">
-        <v>0.364</v>
+        <v>0.458</v>
       </c>
       <c r="H15">
-        <v>-10.7</v>
+        <v>-21</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4175,45 +4232,45 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>116.1781818181818</v>
+        <v>112.9366666666667</v>
       </c>
       <c r="E2">
-        <v>1277.96</v>
+        <v>1355.24</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -4222,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
         <v>106</v>
@@ -4230,19 +4287,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>115.2036363636364</v>
+        <v>113.485</v>
       </c>
       <c r="E3">
-        <v>1267.24</v>
+        <v>1361.82</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -4251,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
         <v>106</v>
@@ -4259,28 +4316,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>0.6363636363636364</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>110.5709090909091</v>
+        <v>117.1016666666667</v>
       </c>
       <c r="E4">
-        <v>1216.28</v>
+        <v>1405.22</v>
       </c>
       <c r="F4">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
         <v>107</v>
@@ -4288,57 +4345,57 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5">
-        <v>111.5945454545454</v>
+        <v>109.945</v>
       </c>
       <c r="E5">
-        <v>1227.54</v>
+        <v>1319.34</v>
       </c>
       <c r="F5">
-        <v>98.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D6">
-        <v>109.3927272727273</v>
+        <v>110.385</v>
       </c>
       <c r="E6">
-        <v>1203.32</v>
+        <v>1324.62</v>
       </c>
       <c r="F6">
-        <v>85.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
         <v>108</v>
@@ -4346,28 +4403,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D7">
-        <v>107.3618181818182</v>
+        <v>109.885</v>
       </c>
       <c r="E7">
-        <v>1180.98</v>
+        <v>1318.62</v>
       </c>
       <c r="F7">
-        <v>79.2</v>
+        <v>96.5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
         <v>108</v>
@@ -4375,89 +4432,89 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D8">
-        <v>107.6527272727273</v>
+        <v>104.2433333333333</v>
       </c>
       <c r="E8">
-        <v>1184.18</v>
+        <v>1250.92</v>
       </c>
       <c r="F8">
-        <v>76.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>104.9345454545455</v>
+        <v>105.895</v>
       </c>
       <c r="E9">
-        <v>1154.28</v>
+        <v>1270.74</v>
       </c>
       <c r="F9">
-        <v>69.69999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D10">
-        <v>106.0327272727273</v>
+        <v>104.32</v>
       </c>
       <c r="E10">
-        <v>1166.36</v>
+        <v>1251.84</v>
       </c>
       <c r="F10">
-        <v>44.1</v>
+        <v>19.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4465,25 +4522,25 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D11">
-        <v>104.6618181818182</v>
+        <v>104.7816666666667</v>
       </c>
       <c r="E11">
-        <v>1151.28</v>
+        <v>1257.38</v>
       </c>
       <c r="F11">
-        <v>37.2</v>
+        <v>19.2</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
         <v>110</v>
@@ -4491,28 +4548,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D12">
-        <v>105.1636363636364</v>
+        <v>102.3716666666667</v>
       </c>
       <c r="E12">
-        <v>1156.8</v>
+        <v>1228.46</v>
       </c>
       <c r="F12">
-        <v>10.4</v>
+        <v>15.1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
         <v>110</v>
@@ -4520,25 +4577,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>101.9654545454545</v>
+        <v>98.31499999999998</v>
       </c>
       <c r="E13">
-        <v>1121.62</v>
+        <v>1179.78</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G13">
-        <v>14.2</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="s">
         <v>103</v>
@@ -4552,57 +4609,57 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="D14">
-        <v>88.06181818181818</v>
+        <v>87.57000000000001</v>
       </c>
       <c r="E14">
-        <v>968.6799999999999</v>
+        <v>1050.84</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.2</v>
+        <v>74.3</v>
       </c>
       <c r="H14" t="s">
         <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="D15">
-        <v>95.76363636363635</v>
+        <v>101.445</v>
       </c>
       <c r="E15">
-        <v>1053.4</v>
+        <v>1217.34</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.6</v>
+        <v>23.4</v>
       </c>
       <c r="H15" t="s">
         <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4623,16 +4680,16 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4640,19 +4697,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4660,19 +4717,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4680,19 +4737,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4700,19 +4757,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4720,19 +4777,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4740,19 +4797,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4760,19 +4817,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4780,19 +4837,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4800,19 +4857,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4820,19 +4877,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4840,19 +4897,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4863,16 +4920,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4883,16 +4940,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>-27</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4903,16 +4960,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>-30</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4922,502 +4979,538 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>139</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <v>-7</v>
+      </c>
+      <c r="D2">
+        <v>-3</v>
+      </c>
+      <c r="E2">
+        <v>-3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>18</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>12</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>15</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>-5</v>
+      </c>
+      <c r="F4">
+        <v>-3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>-5</v>
-      </c>
-      <c r="C3">
-        <v>-7</v>
-      </c>
-      <c r="D3">
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>-3</v>
       </c>
-      <c r="E3">
+      <c r="C5">
+        <v>-4</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>-4</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>-3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>12</v>
-      </c>
-      <c r="L4">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>-4</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-6</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>16</v>
-      </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>-3</v>
-      </c>
-      <c r="E6">
-        <v>-5</v>
       </c>
       <c r="F6">
         <v>-3</v>
       </c>
       <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-6</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8">
         <v>11</v>
       </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>14</v>
-      </c>
-      <c r="L6">
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-7</v>
+      </c>
+      <c r="I9">
+        <v>-4</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="M6" t="s">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-3</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-      <c r="E7">
-        <v>-4</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
         <v>1</v>
-      </c>
-      <c r="E8">
-        <v>-3</v>
-      </c>
-      <c r="F8">
-        <v>-3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-      <c r="H10">
-        <v>-7</v>
-      </c>
-      <c r="I10">
-        <v>-4</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>-6</v>
-      </c>
-      <c r="C11">
-        <v>-5</v>
-      </c>
-      <c r="D11">
-        <v>-6</v>
-      </c>
-      <c r="E11">
-        <v>-16</v>
-      </c>
-      <c r="F11">
-        <v>-12</v>
-      </c>
-      <c r="G11">
-        <v>-4</v>
       </c>
       <c r="H11">
         <v>-3</v>
       </c>
       <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
         <v>-5</v>
       </c>
-      <c r="J11">
-        <v>-9</v>
-      </c>
       <c r="K11">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="L11">
+        <v>-6</v>
+      </c>
+      <c r="M11">
+        <v>-4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>-6</v>
+      </c>
+      <c r="C12">
         <v>-5</v>
       </c>
-      <c r="M11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
       <c r="D12">
-        <v>11</v>
+        <v>-6</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>-16</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="H12">
         <v>-3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="J12">
+        <v>-9</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
         <v>-5</v>
       </c>
-      <c r="K12">
-        <v>-6</v>
-      </c>
-      <c r="L12">
-        <v>-6</v>
-      </c>
-      <c r="M12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>-5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5454,11 +5547,14 @@
       <c r="L13">
         <v>-14</v>
       </c>
-      <c r="M13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13">
+        <v>-15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -5495,11 +5591,14 @@
       <c r="L14">
         <v>-27</v>
       </c>
-      <c r="M14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="M14">
+        <v>-27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -5536,8 +5635,11 @@
       <c r="L15">
         <v>-30</v>
       </c>
-      <c r="M15" t="s">
-        <v>124</v>
+      <c r="M15">
+        <v>-30</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="149">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -67,34 +67,37 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -199,6 +202,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -220,48 +226,48 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
+    <t>Lawrence Rosello</t>
+  </si>
+  <si>
+    <t>Antonio  Spadaro</t>
+  </si>
+  <si>
+    <t>nicholas spadaro</t>
+  </si>
+  <si>
     <t>Michael Dillon</t>
   </si>
   <si>
-    <t>nicholas spadaro</t>
-  </si>
-  <si>
-    <t>Lawrence Rosello</t>
-  </si>
-  <si>
-    <t>Antonio  Spadaro</t>
-  </si>
-  <si>
     <t>Kathy Dillon</t>
   </si>
   <si>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
+    <t>Stephanie Mattei</t>
+  </si>
+  <si>
+    <t>Josh Formola</t>
+  </si>
+  <si>
     <t>Ryan Lesiak</t>
   </si>
   <si>
-    <t>Josh Formola</t>
-  </si>
-  <si>
-    <t>Marissa Rodriguez</t>
-  </si>
-  <si>
-    <t>Stephanie Mattei</t>
-  </si>
-  <si>
-    <t>Sal Spadaro</t>
+    <t>gabriella spadaro</t>
+  </si>
+  <si>
+    <t>Zachary Dillon</t>
   </si>
   <si>
     <t>Mikaela Mitcho</t>
   </si>
   <si>
-    <t>gabriella spadaro</t>
-  </si>
-  <si>
     <t>Brendan Fanning</t>
   </si>
   <si>
-    <t>Zachary Dillon</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -286,87 +292,93 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>9.1-4.9</t>
-  </si>
-  <si>
-    <t>10.2-3.8</t>
-  </si>
-  <si>
-    <t>8.2-5.8</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>5.9-8.0</t>
-  </si>
-  <si>
-    <t>4.9-9.1</t>
-  </si>
-  <si>
-    <t>3.6-10.3</t>
-  </si>
-  <si>
-    <t>3.8-10.2</t>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>9.5-4.5</t>
+  </si>
+  <si>
+    <t>10.6-3.4</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>3.3-10.7</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
+  </si>
+  <si>
+    <t>3.4-10.6</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
-    <t>7-7</t>
+    <t>11-3</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>5-9</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -376,10 +388,13 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↑4</t>
@@ -388,27 +403,15 @@
     <t>↑5</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
+    <t>↓10</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -443,6 +446,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -879,16 +885,16 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -897,7 +903,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -906,16 +912,16 @@
         <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -947,19 +953,19 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
@@ -973,43 +979,43 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1020,40 +1026,40 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
         <v>21</v>
@@ -1067,34 +1073,34 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
@@ -1103,7 +1109,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1117,40 +1123,40 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1161,22 +1167,22 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -1188,16 +1194,16 @@
         <v>16</v>
       </c>
       <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
         <v>21</v>
       </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
       <c r="O8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1208,22 +1214,22 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -1232,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -1241,10 +1247,10 @@
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1255,43 +1261,43 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
         <v>18</v>
-      </c>
-      <c r="N10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1302,43 +1308,43 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
         <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
       </c>
       <c r="N11" t="s">
         <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1352,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1361,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1376,10 +1382,10 @@
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
@@ -1396,28 +1402,28 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
@@ -1443,10 +1449,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1455,22 +1461,22 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
         <v>16</v>
@@ -1479,7 +1485,7 @@
         <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1487,46 +1493,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
       </c>
       <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
         <v>16</v>
       </c>
-      <c r="N15" t="s">
-        <v>20</v>
-      </c>
       <c r="O15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1544,25 +1550,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1700,25 +1706,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>-13</v>
       </c>
       <c r="F7">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1726,25 +1732,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="G8">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1752,25 +1758,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>-6</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>17</v>
-      </c>
-      <c r="G9">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1778,25 +1784,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1804,25 +1810,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1830,25 +1836,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>-15</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1866,13 +1872,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1883,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.857142857142857</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1897,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1908,13 +1914,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>5.071428571428571</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1922,10 +1928,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.142857142857143</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1936,13 +1942,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5.714285714285714</v>
+        <v>6.071428571428571</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1950,13 +1956,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5.714285714285714</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1964,13 +1970,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>6.142857142857143</v>
+        <v>6.642857142857143</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1978,10 +1984,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6.142857142857143</v>
+        <v>6.714285714285714</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1992,13 +1998,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>6.428571428571429</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2006,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2023,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>6.642857142857143</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -2034,13 +2040,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>6.785714285714286</v>
+        <v>7.214285714285714</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2048,10 +2054,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>6.857142857142857</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -2065,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2086,16 +2092,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2106,10 +2112,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>8.285714285714286</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>-0.7142857142857135</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -2123,13 +2129,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>7.642857142857143</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="D3">
-        <v>-0.3571428571428568</v>
+        <v>-0.7142857142857135</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2137,13 +2143,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>7.071428571428571</v>
+        <v>7.642857142857143</v>
       </c>
       <c r="D4">
-        <v>-0.9285714285714288</v>
+        <v>-0.3571428571428568</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -2154,16 +2160,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>6.857142857142857</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="D5">
-        <v>-0.1428571428571432</v>
+        <v>-0.4285714285714288</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2174,13 +2180,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.714285714285714</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="D6">
-        <v>-0.2857142857142856</v>
+        <v>0.1428571428571432</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2188,16 +2194,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>0.07142857142857117</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2205,16 +2211,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>6.285714285714286</v>
+        <v>6.785714285714286</v>
       </c>
       <c r="D8">
-        <v>1.285714285714286</v>
+        <v>-1.214285714285714</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2222,13 +2228,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>6.214285714285714</v>
+        <v>6.785714285714286</v>
       </c>
       <c r="D9">
-        <v>0.2142857142857144</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -2239,16 +2245,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5.785714285714286</v>
+        <v>6.357142857142857</v>
       </c>
       <c r="D10">
-        <v>-1.214285714285714</v>
+        <v>0.3571428571428568</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2256,16 +2262,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>5.571428571428571</v>
+        <v>6.357142857142857</v>
       </c>
       <c r="D11">
-        <v>0.5714285714285712</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2273,13 +2279,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>5.428571428571429</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="D12">
-        <v>0.4285714285714288</v>
+        <v>-0.1428571428571432</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -2293,10 +2299,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>5.071428571428571</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="D13">
-        <v>2.071428571428571</v>
+        <v>2.428571428571429</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -2316,7 +2322,7 @@
         <v>0.2142857142857144</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2327,10 +2333,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>2.357142857142857</v>
+        <v>2.5</v>
       </c>
       <c r="D15">
-        <v>-0.6428571428571428</v>
+        <v>-0.5</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -2351,52 +2357,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2404,28 +2410,28 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>32.7</v>
+        <v>15.1</v>
       </c>
       <c r="D2">
-        <v>31.3</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>15.8</v>
+        <v>19.8</v>
       </c>
       <c r="F2">
-        <v>5.4</v>
+        <v>13.9</v>
       </c>
       <c r="G2">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2451,31 +2457,31 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>33.8</v>
+        <v>19.7</v>
       </c>
       <c r="D3">
-        <v>24.1</v>
+        <v>20.1</v>
       </c>
       <c r="E3">
-        <v>13.5</v>
+        <v>19.6</v>
       </c>
       <c r="F3">
-        <v>8.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>12.8</v>
       </c>
       <c r="H3">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2501,22 +2507,22 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>77.09999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="C4">
-        <v>14.6</v>
+        <v>59.2</v>
       </c>
       <c r="D4">
-        <v>6.5</v>
+        <v>18.3</v>
       </c>
       <c r="E4">
-        <v>1.5</v>
+        <v>15.2</v>
       </c>
       <c r="F4">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2551,37 +2557,37 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>11.2</v>
+        <v>13.7</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>27.2</v>
       </c>
       <c r="F5">
-        <v>21.8</v>
+        <v>16.2</v>
       </c>
       <c r="G5">
-        <v>17.6</v>
+        <v>15.3</v>
       </c>
       <c r="H5">
-        <v>14.4</v>
+        <v>18.5</v>
       </c>
       <c r="I5">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2596,42 +2602,42 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>1.1</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C6">
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
       <c r="D6">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2646,42 +2652,42 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>9.300000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E7">
-        <v>15.9</v>
+        <v>8.4</v>
       </c>
       <c r="F7">
-        <v>20.7</v>
+        <v>22.3</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>26.9</v>
       </c>
       <c r="H7">
-        <v>15.6</v>
+        <v>21.6</v>
       </c>
       <c r="I7">
-        <v>8.9</v>
+        <v>16.3</v>
       </c>
       <c r="J7">
         <v>3.1</v>
       </c>
       <c r="K7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2696,45 +2702,45 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>96.5</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>12.3</v>
+        <v>6.3</v>
       </c>
       <c r="F8">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="G8">
-        <v>17.7</v>
+        <v>18.9</v>
       </c>
       <c r="H8">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="I8">
-        <v>12.1</v>
+        <v>24.8</v>
       </c>
       <c r="J8">
-        <v>9.6</v>
+        <v>10.2</v>
       </c>
       <c r="K8">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2746,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>85.8</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2763,31 +2769,31 @@
         <v>0.6</v>
       </c>
       <c r="E9">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="F9">
-        <v>7.1</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>9.6</v>
+        <v>20.2</v>
       </c>
       <c r="H9">
-        <v>16.8</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>29.3</v>
+        <v>28.2</v>
       </c>
       <c r="J9">
-        <v>16.1</v>
+        <v>15.1</v>
       </c>
       <c r="K9">
-        <v>10.9</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2796,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>66.2</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2816,42 +2822,42 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H10">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="I10">
-        <v>14.8</v>
+        <v>18.1</v>
       </c>
       <c r="J10">
-        <v>24.1</v>
+        <v>39.4</v>
       </c>
       <c r="K10">
-        <v>25.8</v>
+        <v>29.6</v>
       </c>
       <c r="L10">
-        <v>24.7</v>
+        <v>3.8</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>19.5</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2866,42 +2872,42 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>5.1</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
-        <v>10.9</v>
+        <v>3.1</v>
       </c>
       <c r="J11">
-        <v>23</v>
+        <v>27.8</v>
       </c>
       <c r="K11">
-        <v>26.5</v>
+        <v>45.6</v>
       </c>
       <c r="L11">
-        <v>25.4</v>
+        <v>23.3</v>
       </c>
       <c r="M11">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>19.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2916,37 +2922,37 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.9</v>
+        <v>17.1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="P12">
-        <v>15.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2975,33 +2981,33 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>14.6</v>
+        <v>1.9</v>
       </c>
       <c r="M13">
-        <v>49.9</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="N13">
-        <v>23</v>
+        <v>21.2</v>
       </c>
       <c r="O13">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3037,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>21.2</v>
       </c>
       <c r="N14">
-        <v>22.5</v>
+        <v>61.7</v>
       </c>
       <c r="O14">
-        <v>74.3</v>
+        <v>17.1</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3051,7 +3057,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3078,22 +3084,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="K15">
-        <v>0.7</v>
+        <v>22.7</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>20.7</v>
+        <v>1.9</v>
       </c>
       <c r="N15">
-        <v>51.4</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3106,174 +3112,183 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>87.59999999999999</v>
+        <v>87</v>
       </c>
       <c r="C2">
-        <v>99.2</v>
+        <v>97.8</v>
       </c>
       <c r="D2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E2">
         <v>99.3</v>
       </c>
-      <c r="E2">
-        <v>99</v>
-      </c>
       <c r="F2">
-        <v>97.89999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="G2">
-        <v>97.89999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H2">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="K2">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="L2">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
       <c r="N2">
+        <v>99.5</v>
+      </c>
+      <c r="O2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3.2</v>
+      </c>
+      <c r="C3">
+        <v>16.6</v>
+      </c>
+      <c r="D3">
+        <v>38.2</v>
+      </c>
+      <c r="E3">
+        <v>43.6</v>
+      </c>
+      <c r="F3">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="G3">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="H3">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="I3">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="J3">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="K3">
+        <v>99.7</v>
+      </c>
+      <c r="L3">
+        <v>96.5</v>
+      </c>
+      <c r="M3">
+        <v>94.8</v>
+      </c>
+      <c r="N3">
+        <v>99.2</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>62.9</v>
       </c>
-      <c r="C3">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="D3">
-        <v>99</v>
-      </c>
-      <c r="E3">
-        <v>97.5</v>
-      </c>
-      <c r="F3">
+      <c r="C4">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="D4">
+        <v>98.7</v>
+      </c>
+      <c r="E4">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>98.2</v>
+      </c>
+      <c r="G4">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="H4">
         <v>97.8</v>
       </c>
-      <c r="G3">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="H3">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="I3">
-        <v>93.2</v>
-      </c>
-      <c r="J3">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="K3">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E4">
-        <v>88.8</v>
-      </c>
-      <c r="F4">
-        <v>95.19999999999999</v>
-      </c>
-      <c r="G4">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="H4">
-        <v>98.8</v>
-      </c>
       <c r="I4">
-        <v>99.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -3284,439 +3299,469 @@
       <c r="N4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="C5">
+        <v>39.1</v>
+      </c>
+      <c r="D5">
+        <v>48.7</v>
+      </c>
+      <c r="E5">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F5">
+        <v>69.8</v>
+      </c>
+      <c r="G5">
+        <v>76.5</v>
+      </c>
+      <c r="H5">
+        <v>62.8</v>
+      </c>
+      <c r="I5">
+        <v>47.4</v>
+      </c>
+      <c r="J5">
+        <v>63.6</v>
+      </c>
+      <c r="K5">
+        <v>51.7</v>
+      </c>
+      <c r="L5">
+        <v>68.5</v>
+      </c>
+      <c r="M5">
+        <v>84.8</v>
+      </c>
+      <c r="N5">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="C6">
+        <v>24.5</v>
+      </c>
+      <c r="D6">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E6">
+        <v>89.3</v>
+      </c>
+      <c r="F6">
+        <v>96.2</v>
+      </c>
+      <c r="G6">
+        <v>96</v>
+      </c>
+      <c r="H6">
+        <v>99.2</v>
+      </c>
+      <c r="I6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="C5">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D5">
-        <v>85</v>
-      </c>
-      <c r="E5">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="F5">
-        <v>54.3</v>
-      </c>
-      <c r="G5">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="H5">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="I5">
-        <v>86.5</v>
-      </c>
-      <c r="J5">
-        <v>89.2</v>
-      </c>
-      <c r="K5">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="L5">
-        <v>86.8</v>
-      </c>
-      <c r="M5">
-        <v>97.3</v>
-      </c>
-      <c r="N5">
-        <v>99.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>3.6</v>
-      </c>
-      <c r="C6">
-        <v>15.8</v>
-      </c>
-      <c r="D6">
-        <v>37.5</v>
-      </c>
-      <c r="E6">
-        <v>41.09999999999999</v>
-      </c>
-      <c r="F6">
-        <v>65</v>
-      </c>
-      <c r="G6">
-        <v>83.89999999999999</v>
-      </c>
-      <c r="H6">
-        <v>92.5</v>
-      </c>
-      <c r="I6">
-        <v>97.8</v>
-      </c>
-      <c r="J6">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="K6">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="L6">
-        <v>96.5</v>
-      </c>
-      <c r="M6">
-        <v>95.8</v>
-      </c>
-      <c r="N6">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>98.2</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="E7">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="F7">
+        <v>54.8</v>
+      </c>
+      <c r="G7">
+        <v>75.2</v>
+      </c>
+      <c r="H7">
+        <v>89.3</v>
+      </c>
+      <c r="I7">
+        <v>84.2</v>
+      </c>
+      <c r="J7">
+        <v>90.2</v>
+      </c>
+      <c r="K7">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="L7">
+        <v>85.8</v>
+      </c>
+      <c r="M7">
+        <v>96</v>
+      </c>
+      <c r="N7">
+        <v>90.5</v>
+      </c>
+      <c r="O7">
+        <v>96.09999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>23.3</v>
-      </c>
-      <c r="C7">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="D7">
-        <v>95.39999999999999</v>
-      </c>
-      <c r="E7">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="F7">
-        <v>88.8</v>
-      </c>
-      <c r="G7">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="H7">
-        <v>52</v>
-      </c>
-      <c r="I7">
-        <v>72.89999999999999</v>
-      </c>
-      <c r="J7">
-        <v>54.2</v>
-      </c>
-      <c r="K7">
+      <c r="B8">
+        <v>22.2</v>
+      </c>
+      <c r="C8">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="D8">
+        <v>94.5</v>
+      </c>
+      <c r="E8">
+        <v>90.60000000000001</v>
+      </c>
+      <c r="F8">
+        <v>89.8</v>
+      </c>
+      <c r="G8">
+        <v>66.60000000000001</v>
+      </c>
+      <c r="H8">
+        <v>51.8</v>
+      </c>
+      <c r="I8">
+        <v>75.2</v>
+      </c>
+      <c r="J8">
+        <v>50.6</v>
+      </c>
+      <c r="K8">
         <v>69.3</v>
       </c>
-      <c r="L7">
-        <v>77.5</v>
-      </c>
-      <c r="M7">
-        <v>93</v>
-      </c>
-      <c r="N7">
-        <v>96.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>91.3</v>
-      </c>
-      <c r="C8">
-        <v>38.3</v>
-      </c>
-      <c r="D8">
-        <v>47.5</v>
-      </c>
-      <c r="E8">
-        <v>85.39999999999999</v>
-      </c>
-      <c r="F8">
-        <v>70.7</v>
-      </c>
-      <c r="G8">
-        <v>79.7</v>
-      </c>
-      <c r="H8">
-        <v>61.2</v>
-      </c>
-      <c r="I8">
-        <v>43.5</v>
-      </c>
-      <c r="J8">
-        <v>63.1</v>
-      </c>
-      <c r="K8">
-        <v>51.3</v>
-      </c>
       <c r="L8">
-        <v>68.8</v>
+        <v>78.2</v>
       </c>
       <c r="M8">
-        <v>84.59999999999999</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="N8">
-        <v>85.59999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="O8">
+        <v>90.60000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>29.5</v>
+        <v>30.7</v>
       </c>
       <c r="C9">
-        <v>84.2</v>
+        <v>83.5</v>
       </c>
       <c r="D9">
+        <v>31.3</v>
+      </c>
+      <c r="E9">
+        <v>15.1</v>
+      </c>
+      <c r="F9">
+        <v>12.6</v>
+      </c>
+      <c r="G9">
         <v>34.1</v>
       </c>
-      <c r="E9">
-        <v>15.6</v>
-      </c>
-      <c r="F9">
-        <v>13.1</v>
-      </c>
-      <c r="G9">
-        <v>35.3</v>
-      </c>
       <c r="H9">
-        <v>55.60000000000001</v>
+        <v>54.1</v>
       </c>
       <c r="I9">
-        <v>74.8</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J9">
-        <v>49.9</v>
+        <v>48.1</v>
       </c>
       <c r="K9">
-        <v>68.8</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="L9">
-        <v>76.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="M9">
-        <v>60.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="N9">
+        <v>77.8</v>
+      </c>
+      <c r="O9">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>44.6</v>
+      </c>
+      <c r="C10">
         <v>66.40000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>47.09999999999999</v>
-      </c>
-      <c r="C10">
-        <v>66.10000000000001</v>
-      </c>
       <c r="D10">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="E10">
-        <v>62.3</v>
+        <v>61.4</v>
       </c>
       <c r="F10">
-        <v>75</v>
+        <v>74.3</v>
       </c>
       <c r="G10">
-        <v>64.7</v>
+        <v>61.3</v>
       </c>
       <c r="H10">
-        <v>55.50000000000001</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="I10">
-        <v>41.9</v>
+        <v>40.9</v>
       </c>
       <c r="J10">
-        <v>27.1</v>
+        <v>29.2</v>
       </c>
       <c r="K10">
-        <v>38.2</v>
+        <v>36.5</v>
       </c>
       <c r="L10">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="M10">
-        <v>23.2</v>
+        <v>24.1</v>
       </c>
       <c r="N10">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>37</v>
+      </c>
+      <c r="O10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>95.8</v>
+      </c>
+      <c r="C11">
+        <v>91.7</v>
+      </c>
+      <c r="D11">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E11">
+        <v>72.8</v>
+      </c>
+      <c r="F11">
+        <v>62.4</v>
+      </c>
+      <c r="G11">
+        <v>54.2</v>
+      </c>
+      <c r="H11">
+        <v>32.2</v>
+      </c>
+      <c r="I11">
+        <v>32.3</v>
+      </c>
+      <c r="J11">
+        <v>53.6</v>
+      </c>
+      <c r="K11">
+        <v>40.3</v>
+      </c>
+      <c r="L11">
+        <v>39</v>
+      </c>
+      <c r="M11">
+        <v>21.4</v>
+      </c>
+      <c r="N11">
+        <v>15.7</v>
+      </c>
+      <c r="O11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1.4</v>
+      </c>
+      <c r="C12">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D12">
+        <v>22.5</v>
+      </c>
+      <c r="E12">
+        <v>29.3</v>
+      </c>
+      <c r="F12">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>99.8</v>
-      </c>
-      <c r="C11">
-        <v>71.8</v>
-      </c>
-      <c r="D11">
-        <v>49.7</v>
-      </c>
-      <c r="E11">
-        <v>23.8</v>
-      </c>
-      <c r="F11">
-        <v>34.8</v>
-      </c>
-      <c r="G11">
-        <v>27.5</v>
-      </c>
-      <c r="H11">
-        <v>49.7</v>
-      </c>
-      <c r="I11">
-        <v>39.1</v>
-      </c>
-      <c r="J11">
-        <v>61</v>
-      </c>
-      <c r="K11">
-        <v>35.7</v>
-      </c>
-      <c r="L11">
-        <v>38.2</v>
-      </c>
-      <c r="M11">
-        <v>25.2</v>
-      </c>
-      <c r="N11">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>95.5</v>
-      </c>
-      <c r="C12">
-        <v>91.60000000000001</v>
-      </c>
-      <c r="D12">
-        <v>97.7</v>
-      </c>
-      <c r="E12">
-        <v>74</v>
-      </c>
-      <c r="F12">
-        <v>63.7</v>
-      </c>
       <c r="G12">
-        <v>53.7</v>
+        <v>7.6</v>
       </c>
       <c r="H12">
-        <v>33.7</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>33.6</v>
+        <v>12.5</v>
       </c>
       <c r="J12">
-        <v>52.3</v>
+        <v>4.7</v>
       </c>
       <c r="K12">
-        <v>38.3</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="C13">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>14.6</v>
+        <v>17.1</v>
       </c>
       <c r="E13">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="F13">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="G13">
         <v>4.100000000000001</v>
       </c>
       <c r="H13">
-        <v>7.399999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="I13">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J13">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="K13">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="N13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>2.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C14">
-        <v>6.4</v>
+        <v>14.8</v>
       </c>
       <c r="D14">
-        <v>22.3</v>
+        <v>7.5</v>
       </c>
       <c r="E14">
-        <v>27.5</v>
+        <v>5.4</v>
       </c>
       <c r="F14">
-        <v>14.9</v>
+        <v>23.3</v>
       </c>
       <c r="G14">
+        <v>10.7</v>
+      </c>
+      <c r="H14">
         <v>7.1</v>
       </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
       <c r="I14">
-        <v>11.7</v>
+        <v>1.8</v>
       </c>
       <c r="J14">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3724,48 +3769,54 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>85.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>73.3</v>
       </c>
       <c r="D15">
-        <v>7.8</v>
+        <v>48.7</v>
       </c>
       <c r="E15">
-        <v>5.600000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>35.7</v>
       </c>
       <c r="G15">
-        <v>9.6</v>
+        <v>31.1</v>
       </c>
       <c r="H15">
-        <v>7.6</v>
+        <v>49.7</v>
       </c>
       <c r="I15">
-        <v>1.9</v>
+        <v>38.2</v>
       </c>
       <c r="J15">
+        <v>62.5</v>
+      </c>
+      <c r="K15">
+        <v>32.3</v>
+      </c>
+      <c r="L15">
+        <v>39.3</v>
+      </c>
+      <c r="M15">
+        <v>20.3</v>
+      </c>
+      <c r="N15">
         <v>4</v>
       </c>
-      <c r="K15">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="L15">
-        <v>1.3</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="O15">
         <v>0</v>
       </c>
     </row>
@@ -3784,28 +3835,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3813,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>109.89</v>
+        <v>106.7</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>110.94</v>
+        <v>116.56</v>
       </c>
       <c r="G2">
-        <v>0.583</v>
+        <v>0.769</v>
       </c>
       <c r="H2">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3842,28 +3893,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3">
-        <v>113.48</v>
+        <v>110.6</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3">
-        <v>110.16</v>
+        <v>112.15</v>
       </c>
       <c r="G3">
-        <v>0.583</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H3">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3871,28 +3922,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>110.38</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>107.46</v>
+        <v>108.67</v>
       </c>
       <c r="G4">
-        <v>0.458</v>
+        <v>0.538</v>
       </c>
       <c r="H4">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3900,28 +3951,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>112.15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>110.6</v>
+      </c>
+      <c r="G5">
+        <v>0.615</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
         <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5">
-        <v>87.56999999999999</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>107.13</v>
-      </c>
-      <c r="G5">
-        <v>0.5</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3929,28 +3980,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>108.07</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>102.92</v>
+      </c>
+      <c r="G6">
+        <v>0.385</v>
+      </c>
+      <c r="H6">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6">
-        <v>101.44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>111.66</v>
-      </c>
-      <c r="G6">
-        <v>0.625</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3958,28 +4009,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>104.24</v>
+        <v>100.3</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>103.58</v>
+        <v>111.62</v>
       </c>
       <c r="G7">
-        <v>0.417</v>
+        <v>0.615</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3987,28 +4038,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>98.31999999999999</v>
+        <v>116.56</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>104.13</v>
+        <v>106.7</v>
       </c>
       <c r="G8">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4016,28 +4067,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>117.1</v>
+        <v>111.62</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>107.1</v>
+        <v>100.3</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0.231</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4045,28 +4096,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>112.94</v>
+        <v>96.62</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>103.67</v>
+        <v>106.71</v>
       </c>
       <c r="G10">
-        <v>0.375</v>
+        <v>0.538</v>
       </c>
       <c r="H10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4074,28 +4125,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11">
-        <v>104.32</v>
+        <v>106.72</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>102.34</v>
+        <v>100.99</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H11">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4103,28 +4154,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>109.95</v>
+        <v>102.92</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>100.53</v>
+        <v>108.07</v>
       </c>
       <c r="G12">
-        <v>0.458</v>
+        <v>0.538</v>
       </c>
       <c r="H12">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4132,28 +4183,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>104.78</v>
+        <v>100.99</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13">
-        <v>107.06</v>
+        <v>106.72</v>
       </c>
       <c r="G13">
-        <v>0.583</v>
+        <v>0.615</v>
       </c>
       <c r="H13">
-        <v>-9.5</v>
+        <v>-13</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4161,28 +4212,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14">
-        <v>105.89</v>
+        <v>108.67</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14">
-        <v>105.63</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.231</v>
       </c>
       <c r="H14">
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4190,28 +4241,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>102.37</v>
+        <v>106.71</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>101.28</v>
+        <v>96.62</v>
       </c>
       <c r="G15">
-        <v>0.458</v>
+        <v>0.308</v>
       </c>
       <c r="H15">
-        <v>-21</v>
+        <v>-37</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4229,31 +4280,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4261,16 +4312,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D2">
-        <v>112.9366666666667</v>
+        <v>111.6215384615385</v>
       </c>
       <c r="E2">
-        <v>1355.24</v>
+        <v>1451.08</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -4279,27 +4330,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D3">
-        <v>113.485</v>
+        <v>110.5969230769231</v>
       </c>
       <c r="E3">
-        <v>1361.82</v>
+        <v>1437.76</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -4308,27 +4359,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D4">
-        <v>117.1016666666667</v>
+        <v>112.1461538461538</v>
       </c>
       <c r="E4">
-        <v>1405.22</v>
+        <v>1457.9</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -4337,126 +4388,126 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D5">
-        <v>109.945</v>
+        <v>106.72</v>
       </c>
       <c r="E5">
-        <v>1319.34</v>
+        <v>1387.36</v>
       </c>
       <c r="F5">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6">
-        <v>0.5833333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D6">
-        <v>110.385</v>
+        <v>116.5584615384615</v>
       </c>
       <c r="E6">
-        <v>1324.62</v>
+        <v>1515.26</v>
       </c>
       <c r="F6">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D7">
-        <v>109.885</v>
+        <v>108.6723076923077</v>
       </c>
       <c r="E7">
-        <v>1318.62</v>
+        <v>1412.74</v>
       </c>
       <c r="F7">
-        <v>96.5</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C8">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D8">
-        <v>104.2433333333333</v>
+        <v>108.0738461538461</v>
       </c>
       <c r="E8">
-        <v>1250.92</v>
+        <v>1404.96</v>
       </c>
       <c r="F8">
-        <v>85.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4464,28 +4515,28 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D9">
-        <v>105.895</v>
+        <v>106.7123076923077</v>
       </c>
       <c r="E9">
-        <v>1270.74</v>
+        <v>1387.26</v>
       </c>
       <c r="F9">
-        <v>66.2</v>
+        <v>83.5</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4493,86 +4544,86 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D10">
-        <v>104.32</v>
+        <v>106.7030769230769</v>
       </c>
       <c r="E10">
-        <v>1251.84</v>
+        <v>1387.14</v>
       </c>
       <c r="F10">
-        <v>19.5</v>
+        <v>27.2</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D11">
-        <v>104.7816666666667</v>
+        <v>100.9907692307692</v>
       </c>
       <c r="E11">
-        <v>1257.38</v>
+        <v>1312.88</v>
       </c>
       <c r="F11">
-        <v>19.2</v>
+        <v>3.3</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C12">
-        <v>0.4166666666666667</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D12">
-        <v>102.3716666666667</v>
+        <v>87.32307692307693</v>
       </c>
       <c r="E12">
-        <v>1228.46</v>
+        <v>1135.2</v>
       </c>
       <c r="F12">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4580,86 +4631,86 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D13">
-        <v>98.31499999999998</v>
+        <v>96.61846153846152</v>
       </c>
       <c r="E13">
-        <v>1179.78</v>
+        <v>1256.04</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D14">
-        <v>87.57000000000001</v>
+        <v>100.2969230769231</v>
       </c>
       <c r="E14">
-        <v>1050.84</v>
+        <v>1303.86</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>74.3</v>
+        <v>17.1</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C15">
-        <v>0.25</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D15">
-        <v>101.445</v>
+        <v>102.9246153846154</v>
       </c>
       <c r="E15">
-        <v>1217.34</v>
+        <v>1338.02</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4677,19 +4728,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4700,16 +4751,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4720,16 +4771,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4740,16 +4791,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4760,16 +4811,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4780,16 +4831,16 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4797,19 +4848,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4820,16 +4871,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4837,19 +4888,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4857,19 +4908,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4877,19 +4928,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4897,10 +4948,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>-5</v>
@@ -4909,7 +4960,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4920,16 +4971,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4937,19 +4988,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4957,19 +5008,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>-30</v>
+        <v>-37</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4979,54 +5030,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>141</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -5066,11 +5120,14 @@
       <c r="M2">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5110,11 +5167,14 @@
       <c r="M3">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5154,11 +5214,14 @@
       <c r="M4">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5198,11 +5261,14 @@
       <c r="M5">
         <v>9</v>
       </c>
-      <c r="N5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -5242,55 +5308,61 @@
       <c r="M6">
         <v>7</v>
       </c>
-      <c r="N6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>-7</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5330,187 +5402,202 @@
       <c r="M8">
         <v>4</v>
       </c>
-      <c r="N8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
+      <c r="O9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
+        <v>-6</v>
+      </c>
+      <c r="E10">
+        <v>-16</v>
+      </c>
+      <c r="F10">
+        <v>-12</v>
+      </c>
+      <c r="G10">
+        <v>-4</v>
+      </c>
+      <c r="H10">
+        <v>-3</v>
+      </c>
+      <c r="I10">
+        <v>-5</v>
+      </c>
+      <c r="J10">
+        <v>-9</v>
+      </c>
+      <c r="K10">
         <v>-1</v>
       </c>
-      <c r="H9">
-        <v>-7</v>
-      </c>
-      <c r="I9">
-        <v>-4</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="L10">
+        <v>-5</v>
+      </c>
+      <c r="M10">
+        <v>-5</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>-3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="N9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
         <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>-3</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>-5</v>
-      </c>
-      <c r="K11">
-        <v>-6</v>
-      </c>
-      <c r="L11">
-        <v>-6</v>
-      </c>
-      <c r="M11">
-        <v>-4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>-6</v>
-      </c>
-      <c r="C12">
-        <v>-5</v>
-      </c>
-      <c r="D12">
-        <v>-6</v>
-      </c>
-      <c r="E12">
-        <v>-16</v>
-      </c>
-      <c r="F12">
-        <v>-12</v>
-      </c>
-      <c r="G12">
-        <v>-4</v>
       </c>
       <c r="H12">
         <v>-3</v>
       </c>
       <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
         <v>-5</v>
       </c>
-      <c r="J12">
-        <v>-9</v>
-      </c>
       <c r="K12">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="L12">
+        <v>-6</v>
+      </c>
+      <c r="M12">
+        <v>-4</v>
+      </c>
+      <c r="N12">
         <v>-5</v>
       </c>
-      <c r="M12">
-        <v>-5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5550,96 +5637,105 @@
       <c r="M13">
         <v>-15</v>
       </c>
-      <c r="N13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="N13">
+        <v>-13</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="C14">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="D14">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E14">
-        <v>-3</v>
+        <v>-19</v>
       </c>
       <c r="F14">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="G14">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="H14">
+        <v>-28</v>
+      </c>
+      <c r="I14">
         <v>-23</v>
-      </c>
-      <c r="I14">
-        <v>-27</v>
       </c>
       <c r="J14">
         <v>-27</v>
       </c>
       <c r="K14">
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="L14">
+        <v>-30</v>
+      </c>
+      <c r="M14">
+        <v>-30</v>
+      </c>
+      <c r="N14">
+        <v>-30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>-3</v>
+      </c>
+      <c r="C15">
+        <v>-6</v>
+      </c>
+      <c r="D15">
+        <v>-11</v>
+      </c>
+      <c r="E15">
+        <v>-3</v>
+      </c>
+      <c r="F15">
+        <v>-13</v>
+      </c>
+      <c r="G15">
+        <v>-17</v>
+      </c>
+      <c r="H15">
+        <v>-23</v>
+      </c>
+      <c r="I15">
         <v>-27</v>
-      </c>
-      <c r="M14">
-        <v>-27</v>
-      </c>
-      <c r="N14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>-7</v>
-      </c>
-      <c r="C15">
-        <v>-13</v>
-      </c>
-      <c r="D15">
-        <v>-10</v>
-      </c>
-      <c r="E15">
-        <v>-19</v>
-      </c>
-      <c r="F15">
-        <v>-18</v>
-      </c>
-      <c r="G15">
-        <v>-21</v>
-      </c>
-      <c r="H15">
-        <v>-28</v>
-      </c>
-      <c r="I15">
-        <v>-23</v>
       </c>
       <c r="J15">
         <v>-27</v>
       </c>
       <c r="K15">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="L15">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="M15">
-        <v>-30</v>
-      </c>
-      <c r="N15" t="s">
-        <v>126</v>
+        <v>-27</v>
+      </c>
+      <c r="N15">
+        <v>-37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="137">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -67,37 +67,37 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -205,6 +205,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -229,45 +232,45 @@
     <t>Sal Spadaro</t>
   </si>
   <si>
+    <t>Antonio  Spadaro</t>
+  </si>
+  <si>
+    <t>Michael Dillon</t>
+  </si>
+  <si>
+    <t>Stephanie Mattei</t>
+  </si>
+  <si>
+    <t>Mikaela Mitcho</t>
+  </si>
+  <si>
+    <t>Josh Formola</t>
+  </si>
+  <si>
     <t>Lawrence Rosello</t>
   </si>
   <si>
-    <t>Antonio  Spadaro</t>
+    <t>Kathy Dillon</t>
+  </si>
+  <si>
+    <t>Zachary Dillon</t>
   </si>
   <si>
     <t>nicholas spadaro</t>
   </si>
   <si>
-    <t>Michael Dillon</t>
-  </si>
-  <si>
-    <t>Kathy Dillon</t>
+    <t>Ryan Lesiak</t>
   </si>
   <si>
     <t>Marissa Rodriguez</t>
   </si>
   <si>
-    <t>Stephanie Mattei</t>
-  </si>
-  <si>
-    <t>Josh Formola</t>
-  </si>
-  <si>
-    <t>Ryan Lesiak</t>
+    <t>Brendan Fanning</t>
   </si>
   <si>
     <t>gabriella spadaro</t>
   </si>
   <si>
-    <t>Zachary Dillon</t>
-  </si>
-  <si>
-    <t>Mikaela Mitcho</t>
-  </si>
-  <si>
-    <t>Brendan Fanning</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -292,93 +295,42 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>9.5-4.5</t>
-  </si>
-  <si>
-    <t>10.6-3.4</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>3.3-10.7</t>
-  </si>
-  <si>
-    <t>4.4-9.6</t>
-  </si>
-  <si>
-    <t>3.4-10.6</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>8-6</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>11-3</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>3-11</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -388,30 +340,39 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>↓8</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -449,6 +410,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -885,13 +849,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -912,13 +876,13 @@
         <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -932,43 +896,43 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
       </c>
       <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -979,40 +943,40 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
         <v>16</v>
@@ -1026,10 +990,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1041,7 +1005,7 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -1050,16 +1014,16 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O5" t="s">
         <v>21</v>
@@ -1076,7 +1040,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1100,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -1167,40 +1131,40 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O8" t="s">
         <v>14</v>
@@ -1214,13 +1178,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1232,22 +1196,22 @@
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O9" t="s">
         <v>14</v>
@@ -1261,7 +1225,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1273,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
@@ -1294,7 +1258,7 @@
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O10" t="s">
         <v>18</v>
@@ -1305,10 +1269,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1317,34 +1281,34 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
         <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1355,10 +1319,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1373,22 +1337,22 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O12" t="s">
         <v>14</v>
@@ -1402,28 +1366,28 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
@@ -1438,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1449,40 +1413,40 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
       <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
-      </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O14" t="s">
         <v>14</v>
@@ -1493,46 +1457,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
         <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1550,25 +1514,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1628,22 +1592,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4">
-        <v>-25</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>-33</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1654,25 +1618,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>-25</v>
       </c>
       <c r="F5">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1680,25 +1644,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1706,25 +1670,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>-13</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1732,25 +1696,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>-13</v>
       </c>
       <c r="F8">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1758,25 +1722,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1784,25 +1748,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1810,25 +1774,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1836,25 +1800,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1889,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.142857142857143</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1903,10 +1867,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5.285714285714286</v>
+        <v>5.642857142857143</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1914,13 +1878,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>5.785714285714286</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1928,13 +1892,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>5.857142857142857</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1942,10 +1906,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.071428571428571</v>
+        <v>6.642857142857143</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1959,7 +1923,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>6.142857142857143</v>
+        <v>6.642857142857143</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1970,13 +1934,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>6.642857142857143</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1984,10 +1948,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>6.714285714285714</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1998,13 +1962,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>7.357142857142857</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2012,13 +1976,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>7.071428571428571</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2026,13 +1990,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>7.071428571428571</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2040,13 +2004,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>7.214285714285714</v>
+        <v>7.928571428571429</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2054,13 +2018,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>7.285714285714286</v>
+        <v>8.071428571428571</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2068,13 +2032,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>7.857142857142857</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2112,10 +2076,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>-0.8571428571428577</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -2129,13 +2093,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>8.285714285714286</v>
+        <v>8.357142857142858</v>
       </c>
       <c r="D3">
-        <v>-0.7142857142857135</v>
+        <v>-0.6428571428571423</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2143,13 +2107,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>7.642857142857143</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="D4">
-        <v>-0.3571428571428568</v>
+        <v>-0.7142857142857135</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -2160,13 +2124,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>7.571428571428571</v>
+        <v>8.071428571428571</v>
       </c>
       <c r="D5">
-        <v>-0.4285714285714288</v>
+        <v>-0.9285714285714288</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -2180,10 +2144,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.142857142857143</v>
+        <v>8.071428571428571</v>
       </c>
       <c r="D6">
-        <v>0.1428571428571432</v>
+        <v>0.07142857142857117</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -2194,13 +2158,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>7.071428571428571</v>
+        <v>7.357142857142857</v>
       </c>
       <c r="D7">
-        <v>0.07142857142857117</v>
+        <v>-0.6428571428571432</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -2211,16 +2175,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>6.785714285714286</v>
+        <v>7.357142857142857</v>
       </c>
       <c r="D8">
-        <v>-1.214285714285714</v>
+        <v>0.3571428571428568</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2228,16 +2192,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>6.785714285714286</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="D9">
-        <v>-0.2142857142857144</v>
+        <v>0.1428571428571432</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2245,16 +2209,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>6.357142857142857</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D10">
-        <v>0.3571428571428568</v>
+        <v>-0.9285714285714288</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2262,16 +2226,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>6.357142857142857</v>
+        <v>6.714285714285714</v>
       </c>
       <c r="D11">
-        <v>1.357142857142857</v>
+        <v>-0.2857142857142856</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2279,16 +2243,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>5.857142857142857</v>
+        <v>6.357142857142857</v>
       </c>
       <c r="D12">
-        <v>-0.1428571428571432</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2299,13 +2263,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>5.428571428571429</v>
+        <v>5.928571428571429</v>
       </c>
       <c r="D13">
-        <v>2.428571428571429</v>
+        <v>2.928571428571429</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2316,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>4.214285714285714</v>
+        <v>5.214285714285714</v>
       </c>
       <c r="D14">
         <v>0.2142857142857144</v>
@@ -2333,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>2.5</v>
+        <v>2.928571428571428</v>
       </c>
       <c r="D15">
-        <v>-0.5</v>
+        <v>-0.07142857142857162</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2407,31 +2371,31 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2457,31 +2421,31 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7.1</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2507,22 +2471,22 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>59.2</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2557,31 +2521,31 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>16.2</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2607,19 +2571,19 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>94.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2657,7 +2621,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2666,25 +2630,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.4</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>22.3</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>26.9</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2702,12 +2666,12 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>96.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2716,28 +2680,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>18.9</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2752,42 +2716,42 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>89.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2802,12 +2766,12 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>83.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2825,22 +2789,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>39.4</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>29.6</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2849,15 +2813,15 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10">
-        <v>27.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2878,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2902,12 +2866,12 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2946,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.1</v>
+        <v>100</v>
       </c>
       <c r="O12">
-        <v>82.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2957,7 +2921,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2987,16 +2951,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L13">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>76.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3007,7 +2971,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3034,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3043,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>61.7</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3084,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3112,13 +3076,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -3161,513 +3125,546 @@
       <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>43.4</v>
+      </c>
+      <c r="C2">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>23.3</v>
+      </c>
+      <c r="E2">
+        <v>58.7</v>
+      </c>
+      <c r="F2">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="G2">
+        <v>61.7</v>
+      </c>
+      <c r="H2">
+        <v>49.2</v>
+      </c>
+      <c r="I2">
+        <v>41.8</v>
+      </c>
+      <c r="J2">
+        <v>29.2</v>
+      </c>
+      <c r="K2">
+        <v>32.7</v>
+      </c>
+      <c r="L2">
+        <v>13.6</v>
+      </c>
+      <c r="M2">
+        <v>24.2</v>
+      </c>
+      <c r="N2">
+        <v>37.6</v>
+      </c>
+      <c r="O2">
+        <v>54.3</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>22.1</v>
+      </c>
+      <c r="C3">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="D3">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="E3">
+        <v>89.5</v>
+      </c>
+      <c r="F3">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="G3">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="H3">
+        <v>51.7</v>
+      </c>
+      <c r="I3">
+        <v>73.7</v>
+      </c>
+      <c r="J3">
+        <v>53.40000000000001</v>
+      </c>
+      <c r="K3">
+        <v>71.7</v>
+      </c>
+      <c r="L3">
+        <v>79.7</v>
+      </c>
+      <c r="M3">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="N3">
+        <v>81.2</v>
+      </c>
+      <c r="O3">
+        <v>92.5</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>87</v>
-      </c>
-      <c r="C2">
-        <v>97.8</v>
-      </c>
-      <c r="D2">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E2">
-        <v>99.3</v>
-      </c>
-      <c r="F2">
+      <c r="B4">
+        <v>87.7</v>
+      </c>
+      <c r="C4">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D4">
+        <v>99.7</v>
+      </c>
+      <c r="E4">
+        <v>99.5</v>
+      </c>
+      <c r="F4">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="G4">
         <v>98.2</v>
       </c>
-      <c r="G2">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="H2">
-        <v>99.3</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>99.5</v>
-      </c>
-      <c r="K2">
-        <v>99.7</v>
-      </c>
-      <c r="L2">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>99.5</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3.2</v>
-      </c>
-      <c r="C3">
-        <v>16.6</v>
-      </c>
-      <c r="D3">
-        <v>38.2</v>
-      </c>
-      <c r="E3">
-        <v>43.6</v>
-      </c>
-      <c r="F3">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="G3">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="H3">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="I3">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="J3">
+      <c r="H4">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I4">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K4">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="L4">
         <v>97.39999999999999</v>
-      </c>
-      <c r="K3">
-        <v>99.7</v>
-      </c>
-      <c r="L3">
-        <v>96.5</v>
-      </c>
-      <c r="M3">
-        <v>94.8</v>
-      </c>
-      <c r="N3">
-        <v>99.2</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>62.9</v>
-      </c>
-      <c r="C4">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="D4">
-        <v>98.7</v>
-      </c>
-      <c r="E4">
-        <v>96</v>
-      </c>
-      <c r="F4">
-        <v>98.2</v>
-      </c>
-      <c r="G4">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="H4">
-        <v>97.8</v>
-      </c>
-      <c r="I4">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="J4">
-        <v>95.89999999999999</v>
-      </c>
-      <c r="K4">
-        <v>99.7</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="O4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>91.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C5">
-        <v>39.1</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>48.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="E5">
-        <v>82.09999999999999</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="F5">
-        <v>69.8</v>
+        <v>50.1</v>
       </c>
       <c r="G5">
-        <v>76.5</v>
+        <v>74.5</v>
       </c>
       <c r="H5">
-        <v>62.8</v>
+        <v>89</v>
       </c>
       <c r="I5">
-        <v>47.4</v>
+        <v>85.2</v>
       </c>
       <c r="J5">
-        <v>63.6</v>
+        <v>89</v>
       </c>
       <c r="K5">
-        <v>51.7</v>
+        <v>97.2</v>
       </c>
       <c r="L5">
-        <v>68.5</v>
+        <v>86.7</v>
       </c>
       <c r="M5">
-        <v>84.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="N5">
-        <v>96.39999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="O5">
+        <v>99.5</v>
+      </c>
+      <c r="P5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>70.09999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="C6">
-        <v>24.5</v>
+        <v>15.1</v>
       </c>
       <c r="D6">
-        <v>87.09999999999999</v>
+        <v>37.3</v>
       </c>
       <c r="E6">
-        <v>89.3</v>
+        <v>41.7</v>
       </c>
       <c r="F6">
-        <v>96.2</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="G6">
-        <v>96</v>
+        <v>84.3</v>
       </c>
       <c r="H6">
-        <v>99.2</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="I6">
-        <v>99.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="K6">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>98.2</v>
+        <v>64.3</v>
       </c>
       <c r="C7">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="D7">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E7">
+        <v>97.3</v>
+      </c>
+      <c r="F7">
+        <v>97.8</v>
+      </c>
+      <c r="G7">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="H7">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="I7">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="J7">
+        <v>95.7</v>
+      </c>
+      <c r="K7">
         <v>100</v>
       </c>
-      <c r="D7">
-        <v>85.39999999999999</v>
-      </c>
-      <c r="E7">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="F7">
-        <v>54.8</v>
-      </c>
-      <c r="G7">
-        <v>75.2</v>
-      </c>
-      <c r="H7">
-        <v>89.3</v>
-      </c>
-      <c r="I7">
-        <v>84.2</v>
-      </c>
-      <c r="J7">
-        <v>90.2</v>
-      </c>
-      <c r="K7">
-        <v>97.59999999999999</v>
-      </c>
       <c r="L7">
-        <v>85.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N7">
-        <v>90.5</v>
+        <v>100</v>
       </c>
       <c r="O7">
-        <v>96.09999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>22.2</v>
+        <v>92</v>
       </c>
       <c r="C8">
-        <v>82.69999999999999</v>
+        <v>41.7</v>
       </c>
       <c r="D8">
-        <v>94.5</v>
+        <v>49.5</v>
       </c>
       <c r="E8">
-        <v>90.60000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="F8">
-        <v>89.8</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="G8">
-        <v>66.60000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="H8">
-        <v>51.8</v>
+        <v>62.9</v>
       </c>
       <c r="I8">
-        <v>75.2</v>
+        <v>41</v>
       </c>
       <c r="J8">
-        <v>50.6</v>
+        <v>63.8</v>
       </c>
       <c r="K8">
-        <v>69.3</v>
+        <v>49.9</v>
       </c>
       <c r="L8">
-        <v>78.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="M8">
-        <v>93.60000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="N8">
-        <v>79.90000000000001</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="O8">
-        <v>90.60000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>91.3</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>30.7</v>
+        <v>71</v>
       </c>
       <c r="C9">
-        <v>83.5</v>
+        <v>23.4</v>
       </c>
       <c r="D9">
-        <v>31.3</v>
+        <v>86.8</v>
       </c>
       <c r="E9">
-        <v>15.1</v>
+        <v>91.7</v>
       </c>
       <c r="F9">
-        <v>12.6</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="G9">
-        <v>34.1</v>
+        <v>96.7</v>
       </c>
       <c r="H9">
-        <v>54.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I9">
-        <v>72.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="J9">
-        <v>48.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K9">
-        <v>68.30000000000001</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>78.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M9">
-        <v>64.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="N9">
-        <v>77.8</v>
+        <v>100</v>
       </c>
       <c r="O9">
-        <v>84.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>44.6</v>
+        <v>2.2</v>
       </c>
       <c r="C10">
-        <v>66.40000000000001</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="D10">
-        <v>22.8</v>
+        <v>20.9</v>
       </c>
       <c r="E10">
-        <v>61.4</v>
+        <v>24.7</v>
       </c>
       <c r="F10">
-        <v>74.3</v>
+        <v>16.5</v>
       </c>
       <c r="G10">
-        <v>61.3</v>
+        <v>7.7</v>
       </c>
       <c r="H10">
-        <v>52.40000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="I10">
-        <v>40.9</v>
+        <v>12.2</v>
       </c>
       <c r="J10">
-        <v>29.2</v>
+        <v>4.9</v>
       </c>
       <c r="K10">
-        <v>36.5</v>
+        <v>1.1</v>
       </c>
       <c r="L10">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>95.8</v>
+        <v>4.9</v>
       </c>
       <c r="C11">
-        <v>91.7</v>
+        <v>7.9</v>
       </c>
       <c r="D11">
-        <v>98.09999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="E11">
-        <v>72.8</v>
+        <v>23.6</v>
       </c>
       <c r="F11">
-        <v>62.4</v>
+        <v>6.3</v>
       </c>
       <c r="G11">
-        <v>54.2</v>
+        <v>3.3</v>
       </c>
       <c r="H11">
-        <v>32.2</v>
+        <v>8.6</v>
       </c>
       <c r="I11">
-        <v>32.3</v>
+        <v>2.6</v>
       </c>
       <c r="J11">
-        <v>53.6</v>
+        <v>0.6</v>
       </c>
       <c r="K11">
-        <v>40.3</v>
+        <v>3.2</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>0.1</v>
       </c>
       <c r="M11">
-        <v>21.4</v>
+        <v>0.8</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="C12">
         <v>15.7</v>
       </c>
-      <c r="O11">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1.4</v>
-      </c>
-      <c r="C12">
+      <c r="D12">
         <v>8.300000000000001</v>
       </c>
-      <c r="D12">
-        <v>22.5</v>
-      </c>
       <c r="E12">
-        <v>29.3</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G12">
+        <v>10.7</v>
+      </c>
+      <c r="H12">
         <v>7.6</v>
       </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
       <c r="I12">
-        <v>12.5</v>
+        <v>1.6</v>
       </c>
       <c r="J12">
         <v>4.7</v>
       </c>
       <c r="K12">
-        <v>0.7000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3678,145 +3675,157 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>6.2</v>
+        <v>96.7</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>90.3</v>
       </c>
       <c r="D13">
-        <v>17.1</v>
+        <v>98.2</v>
       </c>
       <c r="E13">
-        <v>23.7</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="F13">
-        <v>7.6</v>
+        <v>64.7</v>
       </c>
       <c r="G13">
-        <v>4.100000000000001</v>
+        <v>54.2</v>
       </c>
       <c r="H13">
-        <v>6.9</v>
+        <v>36.1</v>
       </c>
       <c r="I13">
-        <v>3.7</v>
+        <v>37.9</v>
       </c>
       <c r="J13">
-        <v>0.7000000000000001</v>
+        <v>51.6</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>39.4</v>
       </c>
       <c r="L13">
-        <v>0.3</v>
+        <v>45.7</v>
       </c>
       <c r="M13">
-        <v>0.8999999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>85.90000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="C14">
-        <v>14.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D14">
-        <v>7.5</v>
+        <v>29.6</v>
       </c>
       <c r="E14">
-        <v>5.4</v>
+        <v>16.6</v>
       </c>
       <c r="F14">
-        <v>23.3</v>
+        <v>14.6</v>
       </c>
       <c r="G14">
-        <v>10.7</v>
+        <v>34.8</v>
       </c>
       <c r="H14">
-        <v>7.1</v>
+        <v>53.7</v>
       </c>
       <c r="I14">
-        <v>1.8</v>
+        <v>73.5</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>49.6</v>
       </c>
       <c r="K14">
-        <v>0.8</v>
+        <v>68.7</v>
       </c>
       <c r="L14">
-        <v>1.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>46.3</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C15">
-        <v>73.3</v>
+        <v>71.7</v>
       </c>
       <c r="D15">
-        <v>48.7</v>
+        <v>51.8</v>
       </c>
       <c r="E15">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F15">
-        <v>35.7</v>
+        <v>37.2</v>
       </c>
       <c r="G15">
-        <v>31.1</v>
+        <v>33.5</v>
       </c>
       <c r="H15">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="I15">
-        <v>38.2</v>
+        <v>39.1</v>
       </c>
       <c r="J15">
-        <v>62.5</v>
+        <v>60.4</v>
       </c>
       <c r="K15">
-        <v>32.3</v>
+        <v>36</v>
       </c>
       <c r="L15">
-        <v>39.3</v>
+        <v>36.5</v>
       </c>
       <c r="M15">
-        <v>20.3</v>
+        <v>22.3</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>0</v>
       </c>
     </row>
@@ -3838,25 +3847,25 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3867,25 +3876,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2">
-        <v>106.7</v>
+        <v>106.98</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>116.56</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3893,28 +3902,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>110.6</v>
+        <v>88.33</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>112.15</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3922,28 +3931,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>87.31999999999999</v>
+        <v>106.57</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>108.67</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3951,28 +3960,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>112.15</v>
+        <v>111.48</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>110.6</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3980,28 +3989,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>108.07</v>
+        <v>109.41</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6">
-        <v>102.92</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4009,28 +4018,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>100.3</v>
+        <v>99.25</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>111.62</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4038,28 +4047,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>116.56</v>
+        <v>109.53</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>106.7</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4067,28 +4076,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>111.62</v>
+        <v>100.82</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>100.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4096,28 +4105,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>96.62</v>
+        <v>101.86</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>106.71</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4125,28 +4134,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>106.72</v>
+        <v>110.06</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
       <c r="F11">
-        <v>100.99</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4154,28 +4163,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>102.92</v>
+        <v>106.93</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>108.07</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4183,28 +4192,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13">
-        <v>100.99</v>
+        <v>114.33</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>106.72</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4212,28 +4221,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>108.67</v>
+        <v>105.45</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>87.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4241,28 +4250,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15">
-        <v>106.71</v>
+        <v>100.96</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>96.62</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4283,45 +4292,45 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>111.6215384615385</v>
+        <v>106.9771428571429</v>
       </c>
       <c r="E2">
-        <v>1451.08</v>
+        <v>1497.68</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -4330,27 +4339,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D3">
-        <v>110.5969230769231</v>
+        <v>106.5714285714286</v>
       </c>
       <c r="E3">
-        <v>1437.76</v>
+        <v>1492</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -4359,27 +4368,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <v>0.6923076923076923</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D4">
-        <v>112.1461538461538</v>
+        <v>111.4814285714286</v>
       </c>
       <c r="E4">
-        <v>1457.9</v>
+        <v>1560.74</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -4388,27 +4397,27 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5">
-        <v>106.72</v>
+        <v>109.4071428571429</v>
       </c>
       <c r="E5">
-        <v>1387.36</v>
+        <v>1531.7</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -4417,27 +4426,27 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6">
-        <v>0.7692307692307693</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D6">
-        <v>116.5584615384615</v>
+        <v>109.5257142857143</v>
       </c>
       <c r="E6">
-        <v>1515.26</v>
+        <v>1533.36</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -4446,201 +4455,201 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>92</v>
       </c>
       <c r="C7">
-        <v>0.5384615384615384</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D7">
-        <v>108.6723076923077</v>
+        <v>110.0614285714286</v>
       </c>
       <c r="E7">
-        <v>1412.74</v>
+        <v>1540.86</v>
       </c>
       <c r="F7">
-        <v>96.89999999999999</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D8">
-        <v>108.0738461538461</v>
+        <v>106.9285714285714</v>
       </c>
       <c r="E8">
-        <v>1404.96</v>
+        <v>1497</v>
       </c>
       <c r="F8">
-        <v>89.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9">
-        <v>0.5384615384615384</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D9">
-        <v>106.7123076923077</v>
+        <v>114.3328571428572</v>
       </c>
       <c r="E9">
-        <v>1387.26</v>
+        <v>1600.66</v>
       </c>
       <c r="F9">
-        <v>83.5</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10">
-        <v>0.4615384615384616</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="D10">
-        <v>106.7030769230769</v>
+        <v>88.33428571428571</v>
       </c>
       <c r="E10">
-        <v>1387.14</v>
+        <v>1236.68</v>
       </c>
       <c r="F10">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C11">
-        <v>0.4615384615384616</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D11">
-        <v>100.9907692307692</v>
+        <v>99.24714285714285</v>
       </c>
       <c r="E11">
-        <v>1312.88</v>
+        <v>1389.46</v>
       </c>
       <c r="F11">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>94</v>
       </c>
       <c r="C12">
-        <v>0.2307692307692308</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="D12">
-        <v>87.32307692307693</v>
+        <v>100.8157142857143</v>
       </c>
       <c r="E12">
-        <v>1135.2</v>
+        <v>1411.42</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.89999999999999</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C13">
-        <v>0.3076923076923077</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>96.61846153846152</v>
+        <v>101.8642857142857</v>
       </c>
       <c r="E13">
-        <v>1256.04</v>
+        <v>1426.1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4649,39 +4658,39 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C14">
-        <v>0.2307692307692308</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
-        <v>100.2969230769231</v>
+        <v>105.4514285714286</v>
       </c>
       <c r="E14">
-        <v>1303.86</v>
+        <v>1476.32</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4689,16 +4698,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15">
-        <v>0.3846153846153846</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D15">
-        <v>102.9246153846154</v>
+        <v>100.9628571428571</v>
       </c>
       <c r="E15">
-        <v>1338.02</v>
+        <v>1413.48</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -4707,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4731,16 +4740,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4751,16 +4760,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4768,19 +4777,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4788,19 +4797,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4808,19 +4817,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4828,19 +4837,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4848,19 +4857,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4868,19 +4877,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4888,19 +4897,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4908,19 +4917,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4928,19 +4937,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>-3</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4948,19 +4957,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4968,19 +4977,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>-13</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4994,13 +5003,13 @@
         <v>69</v>
       </c>
       <c r="D14">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5011,16 +5020,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>-37</v>
+        <v>-33</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5030,57 +5039,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -5123,410 +5135,437 @@
       <c r="N2">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>-3</v>
+      </c>
+      <c r="E3">
+        <v>-5</v>
+      </c>
+      <c r="F3">
+        <v>-3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>9</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>18</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>12</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>15</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>20</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>18</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="O3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-7</v>
+      </c>
+      <c r="I5">
+        <v>-4</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>-3</v>
       </c>
-      <c r="E4">
-        <v>-5</v>
-      </c>
-      <c r="F4">
-        <v>-3</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>12</v>
-      </c>
-      <c r="N4">
-        <v>12</v>
-      </c>
-      <c r="O4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>-3</v>
-      </c>
-      <c r="C5">
+      <c r="C6">
         <v>-4</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>-2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>-4</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>9</v>
-      </c>
-      <c r="N5">
-        <v>11</v>
-      </c>
-      <c r="O5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
-      </c>
-      <c r="F6">
-        <v>-3</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
         <v>9</v>
       </c>
-      <c r="J6">
-        <v>15</v>
-      </c>
       <c r="K6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
+        <v>-5</v>
+      </c>
+      <c r="D9">
+        <v>-6</v>
+      </c>
+      <c r="E9">
+        <v>-16</v>
+      </c>
+      <c r="F9">
+        <v>-12</v>
+      </c>
+      <c r="G9">
+        <v>-4</v>
+      </c>
+      <c r="H9">
+        <v>-3</v>
+      </c>
+      <c r="I9">
+        <v>-5</v>
+      </c>
+      <c r="J9">
+        <v>-9</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-5</v>
+      </c>
+      <c r="M9">
+        <v>-5</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>-3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="O6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>-3</v>
+      </c>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>-7</v>
-      </c>
-      <c r="I7">
-        <v>-4</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>7</v>
-      </c>
-      <c r="O7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-6</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-      <c r="O8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
+      <c r="H11">
         <v>5</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>-5</v>
-      </c>
-      <c r="D10">
-        <v>-6</v>
-      </c>
-      <c r="E10">
-        <v>-16</v>
-      </c>
-      <c r="F10">
-        <v>-12</v>
-      </c>
-      <c r="G10">
-        <v>-4</v>
-      </c>
-      <c r="H10">
-        <v>-3</v>
-      </c>
-      <c r="I10">
-        <v>-5</v>
-      </c>
-      <c r="J10">
-        <v>-9</v>
-      </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-      <c r="L10">
-        <v>-5</v>
-      </c>
-      <c r="M10">
-        <v>-5</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-      <c r="H11">
-        <v>18</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -5535,116 +5574,125 @@
         <v>15</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
         <v>-3</v>
       </c>
-      <c r="O11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-2</v>
+      </c>
+      <c r="C12">
+        <v>-3</v>
+      </c>
+      <c r="D12">
+        <v>-8</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-6</v>
+      </c>
+      <c r="G12">
+        <v>-9</v>
+      </c>
+      <c r="H12">
+        <v>-16</v>
+      </c>
+      <c r="I12">
+        <v>-27</v>
+      </c>
+      <c r="J12">
+        <v>-29</v>
+      </c>
+      <c r="K12">
+        <v>-23</v>
+      </c>
+      <c r="L12">
+        <v>-14</v>
+      </c>
+      <c r="M12">
+        <v>-15</v>
+      </c>
+      <c r="N12">
+        <v>-13</v>
+      </c>
+      <c r="O12">
+        <v>-9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>17</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>-3</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>-5</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-6</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-6</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>-4</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>-5</v>
       </c>
-      <c r="O12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>-2</v>
-      </c>
-      <c r="C13">
-        <v>-3</v>
-      </c>
-      <c r="D13">
-        <v>-8</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>-6</v>
-      </c>
-      <c r="G13">
-        <v>-9</v>
-      </c>
-      <c r="H13">
-        <v>-16</v>
-      </c>
-      <c r="I13">
-        <v>-27</v>
-      </c>
-      <c r="J13">
-        <v>-29</v>
-      </c>
-      <c r="K13">
-        <v>-23</v>
-      </c>
-      <c r="L13">
-        <v>-14</v>
-      </c>
-      <c r="M13">
-        <v>-15</v>
-      </c>
-      <c r="N13">
+      <c r="O13">
         <v>-13</v>
       </c>
-      <c r="O13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -5687,11 +5735,14 @@
       <c r="N14">
         <v>-30</v>
       </c>
-      <c r="O14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14">
+        <v>-27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -5734,8 +5785,11 @@
       <c r="N15">
         <v>-37</v>
       </c>
-      <c r="O15" t="s">
-        <v>128</v>
+      <c r="O15">
+        <v>-33</v>
+      </c>
+      <c r="P15" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="145">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -67,210 +67,231 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>1-14-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>13th Place</t>
+  </si>
+  <si>
+    <t>14th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
+    <t>Antonio  Spadaro</t>
+  </si>
+  <si>
+    <t>Michael Dillon</t>
+  </si>
+  <si>
+    <t>Stephanie Mattei</t>
+  </si>
+  <si>
+    <t>Mikaela Mitcho</t>
+  </si>
+  <si>
+    <t>Josh Formola</t>
+  </si>
+  <si>
+    <t>Lawrence Rosello</t>
+  </si>
+  <si>
+    <t>Kathy Dillon</t>
+  </si>
+  <si>
+    <t>Zachary Dillon</t>
+  </si>
+  <si>
+    <t>nicholas spadaro</t>
+  </si>
+  <si>
+    <t>Ryan Lesiak</t>
+  </si>
+  <si>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
+    <t>Brendan Fanning</t>
+  </si>
+  <si>
+    <t>gabriella spadaro</t>
+  </si>
+  <si>
     <t>7-7-0</t>
   </si>
   <si>
-    <t>4-10-0</t>
+    <t>3-11-0</t>
   </si>
   <si>
     <t>8-6-0</t>
   </si>
   <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
   </si>
   <si>
     <t>10-4-0</t>
   </si>
   <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>11th Place</t>
-  </si>
-  <si>
-    <t>12th Place</t>
-  </si>
-  <si>
-    <t>13th Place</t>
-  </si>
-  <si>
-    <t>14th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Sal Spadaro</t>
-  </si>
-  <si>
-    <t>Antonio  Spadaro</t>
-  </si>
-  <si>
-    <t>Michael Dillon</t>
-  </si>
-  <si>
-    <t>Stephanie Mattei</t>
-  </si>
-  <si>
-    <t>Mikaela Mitcho</t>
-  </si>
-  <si>
-    <t>Josh Formola</t>
-  </si>
-  <si>
-    <t>Lawrence Rosello</t>
-  </si>
-  <si>
-    <t>Kathy Dillon</t>
-  </si>
-  <si>
-    <t>Zachary Dillon</t>
-  </si>
-  <si>
-    <t>nicholas spadaro</t>
-  </si>
-  <si>
-    <t>Ryan Lesiak</t>
-  </si>
-  <si>
-    <t>Marissa Rodriguez</t>
-  </si>
-  <si>
-    <t>Brendan Fanning</t>
-  </si>
-  <si>
-    <t>gabriella spadaro</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -340,37 +361,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓8</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -413,6 +434,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -849,25 +873,25 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -885,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -911,13 +935,13 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -932,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -943,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -955,31 +979,31 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
         <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -987,46 +1011,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1034,46 +1058,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
         <v>16</v>
-      </c>
-      <c r="O6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1090,7 +1114,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1114,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
         <v>20</v>
@@ -1128,16 +1152,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -1146,28 +1170,28 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
         <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1178,13 +1202,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1193,16 +1217,16 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
@@ -1214,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="O9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1222,46 +1246,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1272,43 +1296,43 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1316,46 +1340,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
         <v>18</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>18</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
         <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1366,31 +1390,31 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
@@ -1399,10 +1423,10 @@
         <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1413,25 +1437,25 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -1440,16 +1464,16 @@
         <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
         <v>14</v>
       </c>
       <c r="O14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1460,7 +1484,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1472,31 +1496,31 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1514,25 +1538,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1722,25 +1746,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>15</v>
       </c>
       <c r="F9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1748,77 +1772,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="G10">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>17</v>
-      </c>
-      <c r="G11">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
-      <c r="F12">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1836,13 +1808,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1853,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.142857142857143</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1867,10 +1839,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5.642857142857143</v>
+        <v>6.5</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1878,13 +1850,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>6.428571428571429</v>
+        <v>6.928571428571429</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1892,13 +1864,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>6.571428571428571</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1909,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.642857142857143</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1920,13 +1892,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>6.642857142857143</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1934,13 +1906,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>7.142857142857143</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1948,10 +1920,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>7.285714285714286</v>
+        <v>7.5</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1962,13 +1934,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>7.357142857142857</v>
+        <v>7.642857142857143</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1979,10 +1951,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>7.428571428571429</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1990,13 +1962,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>7.571428571428571</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2004,13 +1976,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7.928571428571429</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2021,10 +1993,10 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>8.071428571428571</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2032,13 +2004,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>8.142857142857142</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2056,16 +2028,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2076,10 +2048,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9.142857142857142</v>
+        <v>9.785714285714286</v>
       </c>
       <c r="D2">
-        <v>-0.8571428571428577</v>
+        <v>-1.214285714285714</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -2090,16 +2062,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>8.357142857142858</v>
+        <v>9.214285714285714</v>
       </c>
       <c r="D3">
-        <v>-0.6428571428571423</v>
+        <v>-0.7857142857142865</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2107,16 +2079,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>8.285714285714286</v>
+        <v>9.071428571428571</v>
       </c>
       <c r="D4">
-        <v>-0.7142857142857135</v>
+        <v>0.07142857142857117</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2124,16 +2096,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>8.071428571428571</v>
+        <v>8.785714285714286</v>
       </c>
       <c r="D5">
-        <v>-0.9285714285714288</v>
+        <v>-0.2142857142857135</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2141,16 +2113,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>8.071428571428571</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="D6">
-        <v>0.07142857142857117</v>
+        <v>-0.2857142857142865</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2161,13 +2133,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>7.357142857142857</v>
+        <v>8.214285714285714</v>
       </c>
       <c r="D7">
-        <v>-0.6428571428571432</v>
+        <v>-0.7857142857142865</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2178,10 +2150,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>7.357142857142857</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="D8">
-        <v>0.3571428571428568</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -2192,16 +2164,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7.142857142857143</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="D9">
-        <v>0.1428571428571432</v>
+        <v>-0.4285714285714288</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2209,13 +2181,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>7.071428571428571</v>
+        <v>7.5</v>
       </c>
       <c r="D10">
-        <v>-0.9285714285714288</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -2226,13 +2198,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>6.714285714285714</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="D11">
-        <v>-0.2857142857142856</v>
+        <v>0.4285714285714288</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -2246,13 +2218,13 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>6.357142857142857</v>
+        <v>6.642857142857143</v>
       </c>
       <c r="D12">
-        <v>1.357142857142857</v>
+        <v>0.6428571428571432</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2263,13 +2235,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>5.928571428571429</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="D13">
-        <v>2.928571428571429</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2297,10 +2269,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>2.928571428571428</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>-0.07142857142857162</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -2321,52 +2293,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3084,49 +3056,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3134,46 +3106,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43.4</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="C2">
-        <v>65.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>23.3</v>
+        <v>22.7</v>
       </c>
       <c r="E2">
-        <v>58.7</v>
+        <v>64.5</v>
       </c>
       <c r="F2">
-        <v>74.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="G2">
-        <v>61.7</v>
+        <v>61</v>
       </c>
       <c r="H2">
-        <v>49.2</v>
+        <v>52.7</v>
       </c>
       <c r="I2">
-        <v>41.8</v>
+        <v>39.5</v>
       </c>
       <c r="J2">
-        <v>29.2</v>
+        <v>28.2</v>
       </c>
       <c r="K2">
-        <v>32.7</v>
+        <v>37.5</v>
       </c>
       <c r="L2">
-        <v>13.6</v>
+        <v>12.5</v>
       </c>
       <c r="M2">
-        <v>24.2</v>
+        <v>22.7</v>
       </c>
       <c r="N2">
-        <v>37.6</v>
+        <v>37.9</v>
       </c>
       <c r="O2">
-        <v>54.3</v>
+        <v>50.1</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -3184,46 +3156,46 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.1</v>
+        <v>24.8</v>
       </c>
       <c r="C3">
-        <v>83.59999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="D3">
-        <v>93.60000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="E3">
-        <v>89.5</v>
+        <v>91.2</v>
       </c>
       <c r="F3">
-        <v>90.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="G3">
-        <v>64.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="H3">
-        <v>51.7</v>
+        <v>48.6</v>
       </c>
       <c r="I3">
-        <v>73.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="J3">
-        <v>53.40000000000001</v>
+        <v>54.7</v>
       </c>
       <c r="K3">
-        <v>71.7</v>
+        <v>71.8</v>
       </c>
       <c r="L3">
-        <v>79.7</v>
+        <v>79.2</v>
       </c>
       <c r="M3">
-        <v>92.40000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="N3">
-        <v>81.2</v>
+        <v>78</v>
       </c>
       <c r="O3">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -3234,43 +3206,43 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>87.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C4">
-        <v>98.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="D4">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E4">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="F4">
         <v>97.39999999999999</v>
       </c>
       <c r="G4">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="H4">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="I4">
+        <v>99.7</v>
+      </c>
+      <c r="J4">
         <v>99.90000000000001</v>
       </c>
-      <c r="J4">
-        <v>99.59999999999999</v>
-      </c>
       <c r="K4">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="L4">
-        <v>97.39999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
       <c r="N4">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -3284,46 +3256,46 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>97.8</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D5">
-        <v>86.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="E5">
-        <v>67.60000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F5">
-        <v>50.1</v>
+        <v>53.1</v>
       </c>
       <c r="G5">
-        <v>74.5</v>
+        <v>72.5</v>
       </c>
       <c r="H5">
-        <v>89</v>
+        <v>90.7</v>
       </c>
       <c r="I5">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="J5">
-        <v>89</v>
+        <v>89.5</v>
       </c>
       <c r="K5">
-        <v>97.2</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="L5">
-        <v>86.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="M5">
-        <v>97.09999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="N5">
-        <v>90.40000000000001</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="O5">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -3334,40 +3306,40 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="C6">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="D6">
+        <v>37.1</v>
+      </c>
+      <c r="E6">
         <v>37.3</v>
       </c>
-      <c r="E6">
-        <v>41.7</v>
-      </c>
       <c r="F6">
-        <v>65.10000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="G6">
         <v>84.3</v>
       </c>
       <c r="H6">
-        <v>92.60000000000001</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="I6">
         <v>98.40000000000001</v>
       </c>
       <c r="J6">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="K6">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L6">
-        <v>97.5</v>
+        <v>95.5</v>
       </c>
       <c r="M6">
-        <v>95.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="N6">
         <v>99</v>
@@ -3384,40 +3356,40 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>64.3</v>
+        <v>62.4</v>
       </c>
       <c r="C7">
-        <v>93.89999999999999</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="D7">
-        <v>98.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E7">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="F7">
-        <v>97.8</v>
+        <v>96.8</v>
       </c>
       <c r="G7">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H7">
-        <v>97.39999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="I7">
-        <v>93.30000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="J7">
-        <v>95.7</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="L7">
+        <v>99.7</v>
+      </c>
+      <c r="M7">
         <v>99.90000000000001</v>
-      </c>
-      <c r="M7">
-        <v>100</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -3434,46 +3406,46 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>93.5</v>
       </c>
       <c r="C8">
-        <v>41.7</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="E8">
-        <v>85.09999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F8">
-        <v>67.60000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="G8">
-        <v>76.09999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="H8">
-        <v>62.9</v>
+        <v>63.7</v>
       </c>
       <c r="I8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>63.8</v>
+        <v>60.2</v>
       </c>
       <c r="K8">
-        <v>49.9</v>
+        <v>51.2</v>
       </c>
       <c r="L8">
-        <v>64.09999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="M8">
-        <v>85.7</v>
+        <v>87.2</v>
       </c>
       <c r="N8">
-        <v>96.89999999999999</v>
+        <v>97</v>
       </c>
       <c r="O8">
-        <v>91.3</v>
+        <v>94</v>
       </c>
       <c r="P8">
         <v>100</v>
@@ -3484,37 +3456,37 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="C9">
-        <v>23.4</v>
+        <v>25.5</v>
       </c>
       <c r="D9">
-        <v>86.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="E9">
-        <v>91.7</v>
+        <v>91.3</v>
       </c>
       <c r="F9">
-        <v>95.39999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="G9">
-        <v>96.7</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="H9">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I9">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
         <v>99.90000000000001</v>
       </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
       <c r="L9">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -3534,37 +3506,37 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="C10">
-        <v>8.799999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D10">
-        <v>20.9</v>
+        <v>21.9</v>
       </c>
       <c r="E10">
-        <v>24.7</v>
+        <v>27.3</v>
       </c>
       <c r="F10">
-        <v>16.5</v>
+        <v>13.2</v>
       </c>
       <c r="G10">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="H10">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="I10">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="J10">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K10">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3584,40 +3556,40 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="C11">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="D11">
-        <v>15.2</v>
+        <v>18.4</v>
       </c>
       <c r="E11">
-        <v>23.6</v>
+        <v>26.1</v>
       </c>
       <c r="F11">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="G11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H11">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="I11">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="J11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L11">
         <v>0.1</v>
       </c>
       <c r="M11">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3634,37 +3606,37 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>86.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="C12">
-        <v>15.7</v>
+        <v>16.9</v>
       </c>
       <c r="D12">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>5.899999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="F12">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="G12">
-        <v>10.7</v>
+        <v>10.2</v>
       </c>
       <c r="H12">
-        <v>7.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>3.7</v>
+      </c>
+      <c r="K12">
         <v>1.6</v>
       </c>
-      <c r="J12">
-        <v>4.7</v>
-      </c>
-      <c r="K12">
-        <v>1.2</v>
-      </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3684,46 +3656,46 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>96.7</v>
+        <v>96.3</v>
       </c>
       <c r="C13">
-        <v>90.3</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="D13">
-        <v>98.2</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="E13">
-        <v>71.39999999999999</v>
+        <v>72</v>
       </c>
       <c r="F13">
-        <v>64.7</v>
+        <v>63.5</v>
       </c>
       <c r="G13">
-        <v>54.2</v>
+        <v>58.09999999999999</v>
       </c>
       <c r="H13">
-        <v>36.1</v>
+        <v>34.3</v>
       </c>
       <c r="I13">
-        <v>37.9</v>
+        <v>36</v>
       </c>
       <c r="J13">
-        <v>51.6</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="K13">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="L13">
-        <v>45.7</v>
+        <v>44.9</v>
       </c>
       <c r="M13">
-        <v>19.2</v>
+        <v>22</v>
       </c>
       <c r="N13">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="O13">
-        <v>16.1</v>
+        <v>14.7</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3734,46 +3706,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.4</v>
+        <v>30.9</v>
       </c>
       <c r="C14">
-        <v>83.59999999999999</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="D14">
-        <v>29.6</v>
+        <v>33.1</v>
       </c>
       <c r="E14">
-        <v>16.6</v>
+        <v>12.8</v>
       </c>
       <c r="F14">
-        <v>14.6</v>
+        <v>13.9</v>
       </c>
       <c r="G14">
-        <v>34.8</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>53.7</v>
+        <v>55.2</v>
       </c>
       <c r="I14">
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="J14">
-        <v>49.6</v>
+        <v>49.1</v>
       </c>
       <c r="K14">
-        <v>68.7</v>
+        <v>66.8</v>
       </c>
       <c r="L14">
-        <v>77.40000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="M14">
-        <v>63.2</v>
+        <v>62.2</v>
       </c>
       <c r="N14">
-        <v>77.60000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="O14">
-        <v>46.3</v>
+        <v>49.3</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3787,40 +3759,40 @@
         <v>99.7</v>
       </c>
       <c r="C15">
-        <v>71.7</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="D15">
-        <v>51.8</v>
+        <v>48.8</v>
       </c>
       <c r="E15">
-        <v>26.7</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>37.2</v>
+        <v>37.7</v>
       </c>
       <c r="G15">
-        <v>33.5</v>
+        <v>30.7</v>
       </c>
       <c r="H15">
-        <v>49.8</v>
+        <v>48.4</v>
       </c>
       <c r="I15">
-        <v>39.1</v>
+        <v>38.7</v>
       </c>
       <c r="J15">
-        <v>60.4</v>
+        <v>61.7</v>
       </c>
       <c r="K15">
-        <v>36</v>
+        <v>34.5</v>
       </c>
       <c r="L15">
-        <v>36.5</v>
+        <v>39.7</v>
       </c>
       <c r="M15">
-        <v>22.3</v>
+        <v>19.3</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3844,28 +3816,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3876,13 +3848,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>106.98</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3905,13 +3877,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>88.33</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3934,13 +3906,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>106.57</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3963,13 +3935,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>111.48</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3992,13 +3964,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>109.41</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4021,13 +3993,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>99.25</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4050,13 +4022,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>109.53</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4079,13 +4051,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>100.82</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4108,13 +4080,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>101.86</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4137,13 +4109,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>110.06</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4166,13 +4138,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>106.93</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4195,13 +4167,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>114.33</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4224,13 +4196,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14">
         <v>105.45</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4253,13 +4225,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>100.96</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -4289,31 +4261,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4321,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -4339,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4350,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -4368,10 +4340,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4379,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>0.6428571428571429</v>
@@ -4397,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4408,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -4426,10 +4398,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4437,7 +4409,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>0.6428571428571429</v>
@@ -4455,10 +4427,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4466,7 +4438,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>0.6428571428571429</v>
@@ -4484,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4495,7 +4467,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>0.5714285714285714</v>
@@ -4513,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4524,7 +4496,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>0.7142857142857143</v>
@@ -4542,10 +4514,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4553,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>0.2142857142857143</v>
@@ -4571,10 +4543,10 @@
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4582,7 +4554,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>0.3571428571428572</v>
@@ -4600,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4611,7 +4583,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>0.2142857142857143</v>
@@ -4629,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4640,7 +4612,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -4658,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4669,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -4687,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4698,7 +4670,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C15">
         <v>0.3571428571428572</v>
@@ -4716,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4737,19 +4709,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4757,19 +4729,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4777,19 +4749,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4797,19 +4769,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4817,19 +4789,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4840,16 +4812,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4857,19 +4829,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4877,19 +4849,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4900,7 +4872,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -4909,7 +4881,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4917,19 +4889,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>76</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4937,19 +4909,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4957,10 +4929,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>-9</v>
@@ -4969,7 +4941,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4977,19 +4949,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D13">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5000,16 +4972,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>-27</v>
+        <v>-36</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5020,16 +4992,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>-33</v>
+        <v>-42</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5039,260 +5011,275 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>-3</v>
       </c>
       <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="F2">
         <v>-3</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
       <c r="G2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
         <v>8</v>
       </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>16</v>
-      </c>
       <c r="M2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="D3">
         <v>-3</v>
       </c>
       <c r="E3">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F3">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>21</v>
+      </c>
+      <c r="P3">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-7</v>
+      </c>
+      <c r="I4">
+        <v>-4</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="I3">
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="J3">
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>18</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
         <v>13</v>
       </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
+      <c r="P5">
         <v>15</v>
       </c>
-      <c r="I4">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>20</v>
-      </c>
-      <c r="O4">
-        <v>13</v>
-      </c>
-      <c r="P4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-2</v>
-      </c>
-      <c r="C5">
-        <v>-2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>-7</v>
-      </c>
-      <c r="I5">
-        <v>-4</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5338,111 +5325,120 @@
       <c r="O6">
         <v>6</v>
       </c>
-      <c r="P6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>13</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>-3</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <v>-4</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>-6</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>9</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>16</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>11</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="P7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
+      <c r="P8">
         <v>4</v>
       </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -5488,211 +5484,226 @@
       <c r="O9">
         <v>3</v>
       </c>
-      <c r="P9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>18</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>15</v>
-      </c>
       <c r="K10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>3</v>
       </c>
-      <c r="P10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>-3</v>
+      </c>
+      <c r="D11">
+        <v>-8</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-6</v>
+      </c>
+      <c r="G11">
+        <v>-9</v>
+      </c>
+      <c r="H11">
+        <v>-16</v>
+      </c>
+      <c r="I11">
+        <v>-27</v>
+      </c>
+      <c r="J11">
+        <v>-29</v>
+      </c>
+      <c r="K11">
+        <v>-23</v>
+      </c>
+      <c r="L11">
+        <v>-14</v>
+      </c>
+      <c r="M11">
+        <v>-15</v>
+      </c>
+      <c r="N11">
+        <v>-13</v>
+      </c>
+      <c r="O11">
+        <v>-9</v>
+      </c>
+      <c r="P11">
+        <v>-4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>-3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>-5</v>
+      </c>
+      <c r="K12">
+        <v>-6</v>
+      </c>
+      <c r="L12">
+        <v>-6</v>
+      </c>
+      <c r="M12">
+        <v>-4</v>
+      </c>
+      <c r="N12">
+        <v>-5</v>
+      </c>
+      <c r="O12">
+        <v>-13</v>
+      </c>
+      <c r="P12">
+        <v>-9</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>-1</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>-3</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>-3</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>9</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <v>15</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="M11">
+      <c r="M13">
         <v>7</v>
       </c>
-      <c r="N11">
+      <c r="N13">
         <v>7</v>
       </c>
-      <c r="O11">
+      <c r="O13">
         <v>-3</v>
       </c>
-      <c r="P11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>-2</v>
-      </c>
-      <c r="C12">
-        <v>-3</v>
-      </c>
-      <c r="D12">
-        <v>-8</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>-6</v>
-      </c>
-      <c r="G12">
-        <v>-9</v>
-      </c>
-      <c r="H12">
-        <v>-16</v>
-      </c>
-      <c r="I12">
-        <v>-27</v>
-      </c>
-      <c r="J12">
-        <v>-29</v>
-      </c>
-      <c r="K12">
-        <v>-23</v>
-      </c>
-      <c r="L12">
-        <v>-14</v>
-      </c>
-      <c r="M12">
-        <v>-15</v>
-      </c>
-      <c r="N12">
-        <v>-13</v>
-      </c>
-      <c r="O12">
-        <v>-9</v>
-      </c>
-      <c r="P12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>-3</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>-5</v>
-      </c>
-      <c r="K13">
-        <v>-6</v>
-      </c>
-      <c r="L13">
-        <v>-6</v>
-      </c>
-      <c r="M13">
-        <v>-4</v>
-      </c>
-      <c r="N13">
-        <v>-5</v>
-      </c>
-      <c r="O13">
-        <v>-13</v>
-      </c>
-      <c r="P13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13">
+        <v>-10</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -5738,11 +5749,14 @@
       <c r="O14">
         <v>-27</v>
       </c>
-      <c r="P14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14">
+        <v>-36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -5788,8 +5802,11 @@
       <c r="O15">
         <v>-33</v>
       </c>
-      <c r="P15" t="s">
-        <v>114</v>
+      <c r="P15">
+        <v>-42</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="145">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -67,40 +67,40 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>1-14-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>2-14-0</t>
+  </si>
+  <si>
+    <t>1-15-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -361,39 +361,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↑4</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -873,10 +873,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -891,25 +891,25 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -935,13 +935,13 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -964,46 +964,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -1041,16 +1041,16 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1067,37 +1067,37 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
       <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
       <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1108,7 +1108,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1117,16 +1117,16 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1135,7 +1135,7 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
@@ -1152,34 +1152,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -1188,10 +1188,10 @@
         <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1202,13 +1202,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1217,28 +1217,28 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
       </c>
       <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
       <c r="N9" t="s">
         <v>14</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1252,19 +1252,19 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -1273,13 +1273,13 @@
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N10" t="s">
         <v>14</v>
@@ -1293,37 +1293,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
         <v>22</v>
@@ -1332,7 +1332,7 @@
         <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1346,40 +1346,40 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="L12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
       <c r="O12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1393,16 +1393,16 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -1411,22 +1411,22 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
       </c>
       <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" t="s">
         <v>22</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1434,46 +1434,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
         <v>18</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
         <v>18</v>
       </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" t="s">
-        <v>14</v>
-      </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1481,10 +1481,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1496,7 +1496,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1505,16 +1505,16 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N15" t="s">
         <v>14</v>
@@ -1530,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1765,32 +1765,6 @@
       </c>
       <c r="H9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>-3</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.714285714285714</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1836,13 +1810,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1850,13 +1824,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>6.928571428571429</v>
+        <v>7.214285714285714</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1864,13 +1838,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>7.357142857142857</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1881,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.071428571428571</v>
+        <v>7.642857142857143</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1892,13 +1866,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>7.428571428571429</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1906,10 +1880,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>7.785714285714286</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1920,13 +1894,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7.5</v>
+        <v>8.214285714285714</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1934,13 +1908,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>7.642857142857143</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1948,13 +1922,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>7.857142857142857</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1965,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1976,10 +1950,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>8.285714285714286</v>
+        <v>8.642857142857142</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1990,13 +1964,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>8.571428571428571</v>
+        <v>8.857142857142858</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2007,10 +1981,10 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>8.714285714285714</v>
+        <v>9.642857142857142</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2048,10 +2022,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9.785714285714286</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="D2">
-        <v>-1.214285714285714</v>
+        <v>-1.285714285714286</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -2065,13 +2039,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9.214285714285714</v>
+        <v>10.21428571428571</v>
       </c>
       <c r="D3">
         <v>-0.7857142857142865</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2082,13 +2056,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>9.071428571428571</v>
+        <v>9.571428571428571</v>
       </c>
       <c r="D4">
-        <v>0.07142857142857117</v>
+        <v>0.5714285714285712</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2099,13 +2073,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>8.785714285714286</v>
+        <v>9.071428571428571</v>
       </c>
       <c r="D5">
-        <v>-0.2142857142857135</v>
+        <v>-0.9285714285714288</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2116,13 +2090,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>8.714285714285714</v>
+        <v>8.857142857142858</v>
       </c>
       <c r="D6">
-        <v>-0.2857142857142865</v>
+        <v>-0.1428571428571423</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2133,13 +2107,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>8.214285714285714</v>
+        <v>8.785714285714286</v>
       </c>
       <c r="D7">
-        <v>-0.7857142857142865</v>
+        <v>-0.2142857142857135</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2147,16 +2121,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>7.714285714285714</v>
+        <v>8.357142857142858</v>
       </c>
       <c r="D8">
-        <v>0.7142857142857144</v>
+        <v>-0.6428571428571423</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2164,16 +2138,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7.571428571428571</v>
+        <v>7.928571428571429</v>
       </c>
       <c r="D9">
-        <v>-0.4285714285714288</v>
+        <v>-0.07142857142857117</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2181,16 +2155,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>7.928571428571429</v>
       </c>
       <c r="D10">
-        <v>-0.5</v>
+        <v>-0.07142857142857117</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2198,16 +2172,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>7.428571428571429</v>
+        <v>7.785714285714286</v>
       </c>
       <c r="D11">
-        <v>0.4285714285714288</v>
+        <v>0.7857142857142856</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2218,10 +2192,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>6.642857142857143</v>
+        <v>7.357142857142857</v>
       </c>
       <c r="D12">
-        <v>0.6428571428571432</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2235,13 +2209,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>6.142857142857143</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="D13">
-        <v>2.142857142857143</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2252,13 +2226,13 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>5.214285714285714</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="D14">
-        <v>0.2142857142857144</v>
+        <v>-0.4285714285714288</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3106,46 +3080,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.40000000000001</v>
+        <v>47.4</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>63.7</v>
       </c>
       <c r="D2">
-        <v>22.7</v>
+        <v>23.7</v>
       </c>
       <c r="E2">
-        <v>64.5</v>
+        <v>60.4</v>
       </c>
       <c r="F2">
-        <v>73.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H2">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="I2">
-        <v>39.5</v>
+        <v>44.1</v>
       </c>
       <c r="J2">
-        <v>28.2</v>
+        <v>29.6</v>
       </c>
       <c r="K2">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="L2">
-        <v>12.5</v>
+        <v>13.9</v>
       </c>
       <c r="M2">
-        <v>22.7</v>
+        <v>23.7</v>
       </c>
       <c r="N2">
-        <v>37.9</v>
+        <v>38.7</v>
       </c>
       <c r="O2">
-        <v>50.1</v>
+        <v>50.4</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -3156,46 +3130,46 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24.8</v>
+        <v>20.9</v>
       </c>
       <c r="C3">
-        <v>82.89999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D3">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E3">
-        <v>91.2</v>
+        <v>91.5</v>
       </c>
       <c r="F3">
-        <v>91.3</v>
+        <v>90</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>63.8</v>
       </c>
       <c r="H3">
-        <v>48.6</v>
+        <v>50.5</v>
       </c>
       <c r="I3">
-        <v>74.90000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="J3">
-        <v>54.7</v>
+        <v>51.6</v>
       </c>
       <c r="K3">
-        <v>71.8</v>
+        <v>71</v>
       </c>
       <c r="L3">
-        <v>79.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="M3">
-        <v>91.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="N3">
-        <v>78</v>
+        <v>79.5</v>
       </c>
       <c r="O3">
-        <v>92.7</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -3206,43 +3180,43 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>87.09999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="C4">
-        <v>99.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D4">
+        <v>99.5</v>
+      </c>
+      <c r="E4">
+        <v>99.7</v>
+      </c>
+      <c r="F4">
+        <v>97.2</v>
+      </c>
+      <c r="G4">
+        <v>97.8</v>
+      </c>
+      <c r="H4">
+        <v>99</v>
+      </c>
+      <c r="I4">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J4">
+        <v>99.5</v>
+      </c>
+      <c r="K4">
         <v>99.59999999999999</v>
       </c>
-      <c r="E4">
-        <v>99.3</v>
-      </c>
-      <c r="F4">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="G4">
-        <v>98.7</v>
-      </c>
-      <c r="H4">
-        <v>99.3</v>
-      </c>
-      <c r="I4">
-        <v>99.7</v>
-      </c>
-      <c r="J4">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="K4">
-        <v>99.5</v>
-      </c>
       <c r="L4">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
       <c r="N4">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -3256,46 +3230,46 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>97.39999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D5">
+        <v>85.2</v>
+      </c>
+      <c r="E5">
+        <v>66.3</v>
+      </c>
+      <c r="F5">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>76.7</v>
+      </c>
+      <c r="H5">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="I5">
         <v>85.09999999999999</v>
-      </c>
-      <c r="E5">
-        <v>67.2</v>
-      </c>
-      <c r="F5">
-        <v>53.1</v>
-      </c>
-      <c r="G5">
-        <v>72.5</v>
-      </c>
-      <c r="H5">
-        <v>90.7</v>
-      </c>
-      <c r="I5">
-        <v>84.59999999999999</v>
       </c>
       <c r="J5">
         <v>89.5</v>
       </c>
       <c r="K5">
-        <v>95.89999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="L5">
-        <v>87.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="M5">
-        <v>97.89999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="N5">
-        <v>92.10000000000001</v>
+        <v>89</v>
       </c>
       <c r="O5">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -3306,43 +3280,43 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>14.5</v>
+        <v>13.3</v>
       </c>
       <c r="D6">
-        <v>37.1</v>
+        <v>36.1</v>
       </c>
       <c r="E6">
-        <v>37.3</v>
+        <v>39.7</v>
       </c>
       <c r="F6">
-        <v>63.9</v>
+        <v>64</v>
       </c>
       <c r="G6">
-        <v>84.3</v>
+        <v>83.5</v>
       </c>
       <c r="H6">
-        <v>92.10000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="I6">
         <v>98.40000000000001</v>
       </c>
       <c r="J6">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="K6">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="L6">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="M6">
-        <v>96.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N6">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -3356,37 +3330,37 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>62.4</v>
+        <v>63.3</v>
       </c>
       <c r="C7">
-        <v>93.10000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="D7">
-        <v>97.8</v>
+        <v>98.5</v>
       </c>
       <c r="E7">
         <v>97</v>
       </c>
       <c r="F7">
-        <v>96.8</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="G7">
+        <v>99.2</v>
+      </c>
+      <c r="H7">
         <v>99.09999999999999</v>
       </c>
-      <c r="H7">
-        <v>98.09999999999999</v>
-      </c>
       <c r="I7">
-        <v>93.10000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="J7">
-        <v>96.39999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="K7">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L7">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="M7">
         <v>99.90000000000001</v>
@@ -3406,46 +3380,46 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>93.5</v>
+        <v>94</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>40.9</v>
       </c>
       <c r="D8">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="E8">
-        <v>84.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="F8">
-        <v>70.8</v>
+        <v>72.5</v>
       </c>
       <c r="G8">
-        <v>79.7</v>
+        <v>78</v>
       </c>
       <c r="H8">
-        <v>63.7</v>
+        <v>61.8</v>
       </c>
       <c r="I8">
-        <v>44</v>
+        <v>41.3</v>
       </c>
       <c r="J8">
-        <v>60.2</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>51.2</v>
+        <v>48.9</v>
       </c>
       <c r="L8">
-        <v>65.5</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="M8">
-        <v>87.2</v>
+        <v>87.5</v>
       </c>
       <c r="N8">
         <v>97</v>
       </c>
       <c r="O8">
-        <v>94</v>
+        <v>93.2</v>
       </c>
       <c r="P8">
         <v>100</v>
@@ -3456,25 +3430,25 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>65.60000000000001</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>25.5</v>
+        <v>22.1</v>
       </c>
       <c r="D9">
-        <v>85.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E9">
-        <v>91.3</v>
+        <v>90.2</v>
       </c>
       <c r="F9">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
       <c r="G9">
-        <v>96.89999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="H9">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="I9">
         <v>99.90000000000001</v>
@@ -3486,7 +3460,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="L9">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -3506,37 +3480,37 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="C10">
         <v>9.4</v>
       </c>
       <c r="D10">
-        <v>21.9</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="F10">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="G10">
-        <v>6.3</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="H10">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I10">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="J10">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3556,28 +3530,28 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="C11">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="D11">
-        <v>18.4</v>
+        <v>14.9</v>
       </c>
       <c r="E11">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
       <c r="F11">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="G11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="I11">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>0.5</v>
@@ -3586,10 +3560,10 @@
         <v>2.2</v>
       </c>
       <c r="L11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M11">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3606,37 +3580,37 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C12">
-        <v>16.9</v>
+        <v>17.4</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="E12">
-        <v>4.9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F12">
-        <v>21.6</v>
+        <v>22.8</v>
       </c>
       <c r="G12">
-        <v>10.2</v>
+        <v>11.5</v>
       </c>
       <c r="H12">
-        <v>7.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="I12">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="J12">
-        <v>3.7</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="K12">
         <v>1.6</v>
       </c>
       <c r="L12">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3656,46 +3630,46 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>96.3</v>
+        <v>97</v>
       </c>
       <c r="C13">
-        <v>91.60000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="D13">
-        <v>97.89999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="F13">
-        <v>63.5</v>
+        <v>62.7</v>
       </c>
       <c r="G13">
-        <v>58.09999999999999</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="H13">
-        <v>34.3</v>
+        <v>33.5</v>
       </c>
       <c r="I13">
+        <v>35.3</v>
+      </c>
+      <c r="J13">
+        <v>54.1</v>
+      </c>
+      <c r="K13">
         <v>36</v>
       </c>
-      <c r="J13">
-        <v>54.40000000000001</v>
-      </c>
-      <c r="K13">
-        <v>39.6</v>
-      </c>
       <c r="L13">
-        <v>44.9</v>
+        <v>45.2</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N13">
-        <v>14.9</v>
+        <v>15.8</v>
       </c>
       <c r="O13">
-        <v>14.7</v>
+        <v>17.7</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3706,46 +3680,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.9</v>
+        <v>28.6</v>
       </c>
       <c r="C14">
-        <v>81.10000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D14">
+        <v>31.3</v>
+      </c>
+      <c r="E14">
+        <v>15.9</v>
+      </c>
+      <c r="F14">
+        <v>12.8</v>
+      </c>
+      <c r="G14">
         <v>33.1</v>
       </c>
-      <c r="E14">
-        <v>12.8</v>
-      </c>
-      <c r="F14">
-        <v>13.9</v>
-      </c>
-      <c r="G14">
-        <v>32</v>
-      </c>
       <c r="H14">
-        <v>55.2</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="I14">
-        <v>74</v>
+        <v>71.7</v>
       </c>
       <c r="J14">
-        <v>49.1</v>
+        <v>51.1</v>
       </c>
       <c r="K14">
-        <v>66.8</v>
+        <v>69.3</v>
       </c>
       <c r="L14">
-        <v>75.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="M14">
-        <v>62.2</v>
+        <v>61.6</v>
       </c>
       <c r="N14">
-        <v>78.5</v>
+        <v>77</v>
       </c>
       <c r="O14">
-        <v>49.3</v>
+        <v>47.3</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3759,40 +3733,40 @@
         <v>99.7</v>
       </c>
       <c r="C15">
-        <v>72.39999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D15">
-        <v>48.8</v>
+        <v>51.7</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>26.8</v>
       </c>
       <c r="F15">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="G15">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="H15">
-        <v>48.4</v>
+        <v>50.4</v>
       </c>
       <c r="I15">
-        <v>38.7</v>
+        <v>41.2</v>
       </c>
       <c r="J15">
-        <v>61.7</v>
+        <v>58.9</v>
       </c>
       <c r="K15">
-        <v>34.5</v>
+        <v>37</v>
       </c>
       <c r="L15">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="M15">
-        <v>19.3</v>
+        <v>20.9</v>
       </c>
       <c r="N15">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -4735,10 +4709,10 @@
         <v>73</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>112</v>
@@ -4755,7 +4729,7 @@
         <v>80</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -4775,10 +4749,10 @@
         <v>72</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>114</v>
@@ -4789,19 +4763,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4809,19 +4783,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4829,19 +4803,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4855,13 +4829,13 @@
         <v>69</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4869,16 +4843,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>113</v>
@@ -4889,19 +4863,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4909,19 +4883,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>-4</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4929,19 +4903,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4949,16 +4923,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>119</v>
@@ -4975,13 +4949,13 @@
         <v>70</v>
       </c>
       <c r="D14">
-        <v>-36</v>
+        <v>-45</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4995,13 +4969,13 @@
         <v>74</v>
       </c>
       <c r="D15">
-        <v>-42</v>
+        <v>-49</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5011,63 +4985,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5116,11 +5093,14 @@
       <c r="P2">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -5169,11 +5149,14 @@
       <c r="P3">
         <v>21</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5222,170 +5205,182 @@
       <c r="P4">
         <v>16</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="N5">
+        <v>-3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>9</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>15</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>18</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>15</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>20</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>18</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>20</v>
       </c>
-      <c r="O5">
+      <c r="O6">
         <v>13</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>15</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>-3</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-4</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-4</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-1</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>9</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>9</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>11</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>6</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>13</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>-3</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5434,276 +5429,294 @@
       <c r="P8">
         <v>4</v>
       </c>
-      <c r="Q8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>-3</v>
+      </c>
+      <c r="D9">
+        <v>-8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>-9</v>
+      </c>
+      <c r="H9">
+        <v>-16</v>
+      </c>
+      <c r="I9">
+        <v>-27</v>
+      </c>
+      <c r="J9">
+        <v>-29</v>
+      </c>
+      <c r="K9">
+        <v>-23</v>
+      </c>
+      <c r="L9">
+        <v>-14</v>
+      </c>
+      <c r="M9">
+        <v>-15</v>
+      </c>
+      <c r="N9">
+        <v>-13</v>
+      </c>
+      <c r="O9">
+        <v>-9</v>
+      </c>
+      <c r="P9">
+        <v>-4</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>-6</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-5</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-6</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-16</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-12</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-4</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-3</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-5</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>-9</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-1</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-5</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>-5</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
       <c r="N10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>3</v>
       </c>
       <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>-3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>-3</v>
+      </c>
+      <c r="P11">
+        <v>-10</v>
+      </c>
+      <c r="Q11">
         <v>-4</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>-4</v>
+      </c>
+      <c r="Q12">
+        <v>-6</v>
+      </c>
+      <c r="R12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-2</v>
-      </c>
-      <c r="C11">
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>-3</v>
       </c>
-      <c r="D11">
-        <v>-8</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>-5</v>
+      </c>
+      <c r="K13">
         <v>-6</v>
       </c>
-      <c r="G11">
+      <c r="L13">
+        <v>-6</v>
+      </c>
+      <c r="M13">
+        <v>-4</v>
+      </c>
+      <c r="N13">
+        <v>-5</v>
+      </c>
+      <c r="O13">
+        <v>-13</v>
+      </c>
+      <c r="P13">
         <v>-9</v>
       </c>
-      <c r="H11">
-        <v>-16</v>
-      </c>
-      <c r="I11">
-        <v>-27</v>
-      </c>
-      <c r="J11">
-        <v>-29</v>
-      </c>
-      <c r="K11">
-        <v>-23</v>
-      </c>
-      <c r="L11">
-        <v>-14</v>
-      </c>
-      <c r="M11">
-        <v>-15</v>
-      </c>
-      <c r="N11">
-        <v>-13</v>
-      </c>
-      <c r="O11">
-        <v>-9</v>
-      </c>
-      <c r="P11">
-        <v>-4</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>17</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>-3</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>-5</v>
-      </c>
-      <c r="K12">
-        <v>-6</v>
-      </c>
-      <c r="L12">
-        <v>-6</v>
-      </c>
-      <c r="M12">
-        <v>-4</v>
-      </c>
-      <c r="N12">
-        <v>-5</v>
-      </c>
-      <c r="O12">
-        <v>-13</v>
-      </c>
-      <c r="P12">
-        <v>-9</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>-3</v>
-      </c>
-      <c r="F13">
-        <v>-3</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>9</v>
-      </c>
-      <c r="J13">
-        <v>15</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>7</v>
-      </c>
-      <c r="N13">
-        <v>7</v>
-      </c>
-      <c r="O13">
-        <v>-3</v>
-      </c>
-      <c r="P13">
-        <v>-10</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="Q13">
+        <v>-11</v>
+      </c>
+      <c r="R13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -5752,11 +5765,14 @@
       <c r="P14">
         <v>-36</v>
       </c>
-      <c r="Q14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="Q14">
+        <v>-45</v>
+      </c>
+      <c r="R14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -5805,8 +5821,11 @@
       <c r="P15">
         <v>-42</v>
       </c>
-      <c r="Q15" t="s">
-        <v>122</v>
+      <c r="Q15">
+        <v>-49</v>
+      </c>
+      <c r="R15" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -3080,46 +3080,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47.4</v>
+        <v>45.2</v>
       </c>
       <c r="C2">
-        <v>63.7</v>
+        <v>63.9</v>
       </c>
       <c r="D2">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="E2">
-        <v>60.4</v>
+        <v>63.1</v>
       </c>
       <c r="F2">
-        <v>74.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>63.8</v>
       </c>
       <c r="H2">
-        <v>53.1</v>
+        <v>55.2</v>
       </c>
       <c r="I2">
-        <v>44.1</v>
+        <v>40.7</v>
       </c>
       <c r="J2">
-        <v>29.6</v>
+        <v>27.4</v>
       </c>
       <c r="K2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2">
-        <v>13.9</v>
+        <v>11.9</v>
       </c>
       <c r="M2">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="N2">
-        <v>38.7</v>
+        <v>37.6</v>
       </c>
       <c r="O2">
-        <v>50.4</v>
+        <v>51.2</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -3130,46 +3130,46 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.9</v>
+        <v>25.6</v>
       </c>
       <c r="C3">
-        <v>84.59999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="D3">
-        <v>95.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E3">
-        <v>91.5</v>
+        <v>90</v>
       </c>
       <c r="F3">
-        <v>90</v>
+        <v>88.8</v>
       </c>
       <c r="G3">
-        <v>63.8</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H3">
-        <v>50.5</v>
+        <v>52.3</v>
       </c>
       <c r="I3">
-        <v>73.40000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="J3">
-        <v>51.6</v>
+        <v>50.7</v>
       </c>
       <c r="K3">
-        <v>71</v>
+        <v>73.2</v>
       </c>
       <c r="L3">
-        <v>78.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="M3">
-        <v>92.2</v>
+        <v>93.2</v>
       </c>
       <c r="N3">
-        <v>79.5</v>
+        <v>81</v>
       </c>
       <c r="O3">
-        <v>91.90000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -3180,43 +3180,43 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>85.39999999999999</v>
+        <v>85</v>
       </c>
       <c r="C4">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D4">
         <v>99.5</v>
       </c>
       <c r="E4">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="F4">
         <v>97.2</v>
       </c>
       <c r="G4">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="H4">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I4">
         <v>99.90000000000001</v>
       </c>
       <c r="J4">
+        <v>99.8</v>
+      </c>
+      <c r="K4">
         <v>99.5</v>
       </c>
-      <c r="K4">
-        <v>99.59999999999999</v>
-      </c>
       <c r="L4">
-        <v>98.5</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
       <c r="N4">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -3230,46 +3230,46 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>98.59999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
-        <v>85.2</v>
+        <v>85.8</v>
       </c>
       <c r="E5">
-        <v>66.3</v>
+        <v>66.8</v>
       </c>
       <c r="F5">
-        <v>51</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="G5">
-        <v>76.7</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="H5">
-        <v>89.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="I5">
-        <v>85.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="J5">
-        <v>89.5</v>
+        <v>89.7</v>
       </c>
       <c r="K5">
-        <v>97.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="L5">
-        <v>85</v>
+        <v>87.3</v>
       </c>
       <c r="M5">
-        <v>97.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="N5">
-        <v>89</v>
+        <v>91.7</v>
       </c>
       <c r="O5">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -3280,43 +3280,43 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="C6">
-        <v>13.3</v>
+        <v>17.2</v>
       </c>
       <c r="D6">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="E6">
-        <v>39.7</v>
+        <v>42.7</v>
       </c>
       <c r="F6">
-        <v>64</v>
+        <v>62.6</v>
       </c>
       <c r="G6">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H6">
-        <v>90.3</v>
+        <v>90.7</v>
       </c>
       <c r="I6">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="J6">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="K6">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L6">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="M6">
-        <v>95.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="N6">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -3330,40 +3330,40 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>63.3</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="C7">
-        <v>95.7</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="D7">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E7">
-        <v>97</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="F7">
-        <v>97.39999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="G7">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H7">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="I7">
-        <v>92.7</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="J7">
-        <v>97.39999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="K7">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="L7">
         <v>100</v>
       </c>
       <c r="M7">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -3380,46 +3380,46 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8">
-        <v>40.9</v>
+        <v>41.6</v>
       </c>
       <c r="D8">
-        <v>49.3</v>
+        <v>53</v>
       </c>
       <c r="E8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>78</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="H8">
-        <v>61.8</v>
+        <v>62.8</v>
       </c>
       <c r="I8">
-        <v>41.3</v>
+        <v>44.7</v>
       </c>
       <c r="J8">
-        <v>60</v>
+        <v>60.3</v>
       </c>
       <c r="K8">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="L8">
-        <v>65.60000000000001</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="M8">
-        <v>87.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N8">
-        <v>97</v>
+        <v>95.7</v>
       </c>
       <c r="O8">
-        <v>93.2</v>
+        <v>92.2</v>
       </c>
       <c r="P8">
         <v>100</v>
@@ -3430,37 +3430,37 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>68.2</v>
       </c>
       <c r="C9">
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="D9">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="E9">
-        <v>90.2</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="F9">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="G9">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="H9">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="I9">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
+        <v>99.8</v>
+      </c>
+      <c r="L9">
         <v>99.90000000000001</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -3480,37 +3480,37 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="C10">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>19.9</v>
       </c>
       <c r="E10">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="F10">
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="G10">
-        <v>7.399999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H10">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I10">
-        <v>12.8</v>
+        <v>10.9</v>
       </c>
       <c r="J10">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3530,40 +3530,40 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C11">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D11">
+        <v>15.8</v>
+      </c>
+      <c r="E11">
+        <v>23.4</v>
+      </c>
+      <c r="F11">
+        <v>5.2</v>
+      </c>
+      <c r="G11">
+        <v>3.1</v>
+      </c>
+      <c r="H11">
         <v>6.3</v>
       </c>
-      <c r="D11">
-        <v>14.9</v>
-      </c>
-      <c r="E11">
-        <v>25.5</v>
-      </c>
-      <c r="F11">
-        <v>7.9</v>
-      </c>
-      <c r="G11">
-        <v>3.4</v>
-      </c>
-      <c r="H11">
-        <v>7.8</v>
-      </c>
       <c r="I11">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J11">
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3580,37 +3580,37 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>85.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="C12">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="D12">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="E12">
-        <v>7.000000000000001</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="F12">
-        <v>22.8</v>
+        <v>21.4</v>
       </c>
       <c r="G12">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H12">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="I12">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="J12">
-        <v>4.100000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="K12">
+        <v>1.3</v>
+      </c>
+      <c r="L12">
         <v>1.6</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3630,46 +3630,46 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>95.3</v>
       </c>
       <c r="C13">
-        <v>91.8</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="D13">
-        <v>98.3</v>
+        <v>97.7</v>
       </c>
       <c r="E13">
-        <v>72.5</v>
+        <v>71.8</v>
       </c>
       <c r="F13">
-        <v>62.7</v>
+        <v>63.1</v>
       </c>
       <c r="G13">
-        <v>55.50000000000001</v>
+        <v>58.5</v>
       </c>
       <c r="H13">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="I13">
-        <v>35.3</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="J13">
-        <v>54.1</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K13">
-        <v>36</v>
+        <v>36.8</v>
       </c>
       <c r="L13">
-        <v>45.2</v>
+        <v>47.9</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>17.7</v>
       </c>
       <c r="N13">
-        <v>15.8</v>
+        <v>15.1</v>
       </c>
       <c r="O13">
-        <v>17.7</v>
+        <v>18.2</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3680,46 +3680,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>84.59999999999999</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="D14">
-        <v>31.3</v>
+        <v>32.6</v>
       </c>
       <c r="E14">
-        <v>15.9</v>
+        <v>17.3</v>
       </c>
       <c r="F14">
-        <v>12.8</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>33.1</v>
+        <v>32.5</v>
       </c>
       <c r="H14">
-        <v>55.90000000000001</v>
+        <v>54.7</v>
       </c>
       <c r="I14">
-        <v>71.7</v>
+        <v>74.5</v>
       </c>
       <c r="J14">
-        <v>51.1</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>69.3</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="L14">
-        <v>74.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="M14">
-        <v>61.6</v>
+        <v>61.1</v>
       </c>
       <c r="N14">
-        <v>77</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="O14">
-        <v>47.3</v>
+        <v>45.7</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3730,43 +3730,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C15">
-        <v>72.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="D15">
-        <v>51.7</v>
+        <v>51</v>
       </c>
       <c r="E15">
-        <v>26.8</v>
+        <v>23.2</v>
       </c>
       <c r="F15">
-        <v>37.9</v>
+        <v>38.5</v>
       </c>
       <c r="G15">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="H15">
-        <v>50.4</v>
+        <v>48.8</v>
       </c>
       <c r="I15">
-        <v>41.2</v>
+        <v>41.7</v>
       </c>
       <c r="J15">
-        <v>58.9</v>
+        <v>61.3</v>
       </c>
       <c r="K15">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="L15">
-        <v>40.2</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="M15">
-        <v>20.9</v>
+        <v>24.9</v>
       </c>
       <c r="N15">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O15">
         <v>0</v>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="145">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -67,40 +67,43 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>2-14-0</t>
-  </si>
-  <si>
-    <t>1-15-0</t>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>1-16-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -352,91 +355,88 @@
     <t>5.0-9.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>↓8</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -876,34 +876,34 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -920,43 +920,43 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -967,43 +967,43 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1014,16 +1014,16 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -1032,7 +1032,7 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -1044,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -1058,40 +1058,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
       <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
         <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
       </c>
       <c r="N6" t="s">
         <v>16</v>
@@ -1105,46 +1105,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
       </c>
       <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
       <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1152,16 +1152,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1170,25 +1170,25 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O8" t="s">
         <v>14</v>
@@ -1202,13 +1202,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1217,25 +1217,25 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O9" t="s">
         <v>14</v>
@@ -1246,46 +1246,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
         <v>14</v>
       </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1293,46 +1293,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1343,13 +1343,13 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1358,28 +1358,28 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1396,10 +1396,10 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -1408,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1440,19 +1440,19 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -1461,16 +1461,16 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O14" t="s">
         <v>14</v>
@@ -1487,7 +1487,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1496,31 +1496,31 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1590,25 +1590,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>-5</v>
       </c>
       <c r="F3">
-        <v>-23</v>
+        <v>-48</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1616,25 +1616,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="F4">
-        <v>-33</v>
+        <v>-53</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1642,25 +1642,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>-23</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1668,25 +1668,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>-14</v>
+        <v>-33</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1694,25 +1694,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>-25</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>-3</v>
-      </c>
       <c r="G7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1720,22 +1720,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8">
-        <v>-13</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -1746,25 +1746,51 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>-3</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1782,13 +1808,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1796,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>6.714285714285714</v>
+        <v>7.214285714285714</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1810,13 +1836,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>7.071428571428571</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1824,13 +1850,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7.214285714285714</v>
+        <v>7.642857142857143</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1838,13 +1864,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>7.357142857142857</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1855,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.642857142857143</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1869,10 +1895,10 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>7.714285714285714</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1880,13 +1906,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7.785714285714286</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1894,13 +1920,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>8.214285714285714</v>
+        <v>8.642857142857142</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1908,13 +1934,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>8.285714285714286</v>
+        <v>8.642857142857142</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1925,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>8.428571428571429</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1936,13 +1962,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>8.428571428571429</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1950,13 +1976,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>8.642857142857142</v>
+        <v>9.357142857142858</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1964,13 +1990,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>8.857142857142858</v>
+        <v>9.357142857142858</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1981,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>9.642857142857142</v>
+        <v>10.21428571428571</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -2002,16 +2028,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2022,10 +2048,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>10.71428571428571</v>
+        <v>11.57142857142857</v>
       </c>
       <c r="D2">
-        <v>-1.285714285714286</v>
+        <v>-1.428571428571429</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -2039,13 +2065,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>10.21428571428571</v>
+        <v>10.92857142857143</v>
       </c>
       <c r="D3">
-        <v>-0.7857142857142865</v>
+        <v>-0.07142857142857117</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2053,16 +2079,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>9.571428571428571</v>
+        <v>9.785714285714286</v>
       </c>
       <c r="D4">
-        <v>0.5714285714285712</v>
+        <v>-1.214285714285714</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2070,16 +2096,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>9.071428571428571</v>
+        <v>9.785714285714286</v>
       </c>
       <c r="D5">
-        <v>-0.9285714285714288</v>
+        <v>0.7857142857142865</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2087,13 +2113,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>8.857142857142858</v>
+        <v>9.714285714285714</v>
       </c>
       <c r="D6">
-        <v>-0.1428571428571423</v>
+        <v>-0.2857142857142865</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -2104,13 +2130,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>8.785714285714286</v>
+        <v>9.357142857142858</v>
       </c>
       <c r="D7">
-        <v>-0.2142857142857135</v>
+        <v>-0.6428571428571423</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -2121,16 +2147,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>8.357142857142858</v>
+        <v>9.285714285714286</v>
       </c>
       <c r="D8">
-        <v>-0.6428571428571423</v>
+        <v>0.2857142857142865</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2138,16 +2164,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7.928571428571429</v>
+        <v>8.5</v>
       </c>
       <c r="D9">
-        <v>-0.07142857142857117</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2155,13 +2181,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>7.928571428571429</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>-0.07142857142857117</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -2181,7 +2207,7 @@
         <v>0.7857142857142856</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2192,13 +2218,13 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>7.357142857142857</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="D12">
-        <v>1.357142857142857</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2209,10 +2235,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>6.857142857142857</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="D13">
-        <v>1.857142857142857</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -2226,10 +2252,10 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>5.571428571428571</v>
+        <v>6.214285714285714</v>
       </c>
       <c r="D14">
-        <v>-0.4285714285714288</v>
+        <v>-0.7857142857142856</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -2243,13 +2269,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-0.7857142857142856</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2267,52 +2293,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3030,49 +3056,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3080,46 +3106,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="C2">
-        <v>63.9</v>
+        <v>63.2</v>
       </c>
       <c r="D2">
-        <v>23.1</v>
+        <v>21.9</v>
       </c>
       <c r="E2">
-        <v>63.1</v>
+        <v>62.1</v>
       </c>
       <c r="F2">
-        <v>75.5</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="G2">
-        <v>63.8</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="H2">
-        <v>55.2</v>
+        <v>52.6</v>
       </c>
       <c r="I2">
         <v>40.7</v>
       </c>
       <c r="J2">
-        <v>27.4</v>
+        <v>26.6</v>
       </c>
       <c r="K2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2">
-        <v>11.9</v>
+        <v>13.7</v>
       </c>
       <c r="M2">
-        <v>23.8</v>
+        <v>20.5</v>
       </c>
       <c r="N2">
-        <v>37.6</v>
+        <v>40</v>
       </c>
       <c r="O2">
-        <v>51.2</v>
+        <v>50.4</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -3130,46 +3156,46 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>25.6</v>
+        <v>21.5</v>
       </c>
       <c r="C3">
-        <v>82.89999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="D3">
-        <v>93.7</v>
+        <v>94.8</v>
       </c>
       <c r="E3">
+        <v>89.3</v>
+      </c>
+      <c r="F3">
         <v>90</v>
       </c>
-      <c r="F3">
-        <v>88.8</v>
-      </c>
       <c r="G3">
-        <v>64.09999999999999</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H3">
         <v>52.3</v>
       </c>
       <c r="I3">
-        <v>75.90000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="J3">
-        <v>50.7</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>73.2</v>
+        <v>73.5</v>
       </c>
       <c r="L3">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="M3">
-        <v>93.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="N3">
-        <v>81</v>
+        <v>79.3</v>
       </c>
       <c r="O3">
-        <v>93.30000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -3180,43 +3206,43 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C4">
-        <v>98.3</v>
+        <v>97.5</v>
       </c>
       <c r="D4">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="E4">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="F4">
-        <v>97.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G4">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="H4">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="I4">
+        <v>99.8</v>
+      </c>
+      <c r="J4">
         <v>99.90000000000001</v>
-      </c>
-      <c r="J4">
-        <v>99.8</v>
       </c>
       <c r="K4">
         <v>99.5</v>
       </c>
       <c r="L4">
-        <v>97.89999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -3230,46 +3256,46 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>97.89999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="E5">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="F5">
+        <v>50.8</v>
+      </c>
+      <c r="G5">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="H5">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="I5">
         <v>85.8</v>
       </c>
-      <c r="E5">
-        <v>66.8</v>
-      </c>
-      <c r="F5">
-        <v>54.40000000000001</v>
-      </c>
-      <c r="G5">
-        <v>72.89999999999999</v>
-      </c>
-      <c r="H5">
-        <v>87.5</v>
-      </c>
-      <c r="I5">
-        <v>81.2</v>
-      </c>
       <c r="J5">
-        <v>89.7</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>96.5</v>
+        <v>95.3</v>
       </c>
       <c r="L5">
-        <v>87.3</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="M5">
-        <v>96.7</v>
+        <v>96.2</v>
       </c>
       <c r="N5">
-        <v>91.7</v>
+        <v>89.5</v>
       </c>
       <c r="O5">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -3280,43 +3306,43 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="C6">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
       <c r="D6">
-        <v>36.2</v>
+        <v>41.4</v>
       </c>
       <c r="E6">
-        <v>42.7</v>
+        <v>42.2</v>
       </c>
       <c r="F6">
-        <v>62.6</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="G6">
-        <v>83.59999999999999</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="H6">
-        <v>90.7</v>
+        <v>92.5</v>
       </c>
       <c r="I6">
-        <v>98.5</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="J6">
-        <v>97.3</v>
+        <v>96.2</v>
       </c>
       <c r="K6">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="L6">
-        <v>96.8</v>
+        <v>96.2</v>
       </c>
       <c r="M6">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="N6">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -3330,40 +3356,40 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>65.60000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="C7">
-        <v>93.89999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D7">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E7">
+        <v>96.8</v>
+      </c>
+      <c r="F7">
         <v>97.89999999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <v>99.3</v>
+      </c>
+      <c r="H7">
         <v>98.2</v>
       </c>
-      <c r="G7">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="H7">
-        <v>98.7</v>
-      </c>
       <c r="I7">
-        <v>92.30000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="J7">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="K7">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L7">
         <v>100</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -3380,46 +3406,46 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>93.8</v>
       </c>
       <c r="C8">
-        <v>41.6</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>50.5</v>
       </c>
       <c r="E8">
-        <v>83</v>
+        <v>82.5</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>66.8</v>
       </c>
       <c r="G8">
-        <v>79.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="H8">
-        <v>62.8</v>
+        <v>61.1</v>
       </c>
       <c r="I8">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="J8">
-        <v>60.3</v>
+        <v>61.5</v>
       </c>
       <c r="K8">
-        <v>47.9</v>
+        <v>50.5</v>
       </c>
       <c r="L8">
-        <v>68.30000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="M8">
-        <v>86.40000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="N8">
-        <v>95.7</v>
+        <v>96</v>
       </c>
       <c r="O8">
-        <v>92.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="P8">
         <v>100</v>
@@ -3430,25 +3456,25 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>68.2</v>
+        <v>68.89999999999999</v>
       </c>
       <c r="C9">
-        <v>22.7</v>
+        <v>23.5</v>
       </c>
       <c r="D9">
-        <v>86</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="E9">
-        <v>90.60000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F9">
-        <v>96</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="G9">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H9">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I9">
         <v>99.8</v>
@@ -3457,10 +3483,10 @@
         <v>100</v>
       </c>
       <c r="K9">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -3480,37 +3506,37 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="D10">
-        <v>19.9</v>
+        <v>21.9</v>
       </c>
       <c r="E10">
         <v>25.1</v>
       </c>
       <c r="F10">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="G10">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="H10">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I10">
         <v>10.9</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3530,40 +3556,40 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="C11">
         <v>8.300000000000001</v>
       </c>
       <c r="D11">
-        <v>15.8</v>
+        <v>14.1</v>
       </c>
       <c r="E11">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="F11">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="G11">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H11">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="I11">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="J11">
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M11">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3580,40 +3606,40 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>85.3</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="C12">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="D12">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="E12">
-        <v>5.600000000000001</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>21.4</v>
+        <v>23.5</v>
       </c>
       <c r="G12">
-        <v>9.199999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="H12">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="I12">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="J12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K12">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L12">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3630,46 +3656,46 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>95.3</v>
+        <v>95.7</v>
       </c>
       <c r="C13">
-        <v>91.10000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="D13">
-        <v>97.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E13">
-        <v>71.8</v>
+        <v>74.7</v>
       </c>
       <c r="F13">
-        <v>63.1</v>
+        <v>63.4</v>
       </c>
       <c r="G13">
-        <v>58.5</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="H13">
-        <v>34.1</v>
+        <v>33.4</v>
       </c>
       <c r="I13">
-        <v>35.09999999999999</v>
+        <v>35.3</v>
       </c>
       <c r="J13">
-        <v>56.00000000000001</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="K13">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="L13">
-        <v>47.9</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>17.7</v>
+        <v>20.8</v>
       </c>
       <c r="N13">
-        <v>15.1</v>
+        <v>16.7</v>
       </c>
       <c r="O13">
-        <v>18.2</v>
+        <v>17</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3680,46 +3706,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>29.6</v>
       </c>
       <c r="C14">
-        <v>84.89999999999999</v>
+        <v>84</v>
       </c>
       <c r="D14">
-        <v>32.6</v>
+        <v>31.9</v>
       </c>
       <c r="E14">
-        <v>17.3</v>
+        <v>16.7</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="G14">
-        <v>32.5</v>
+        <v>37.6</v>
       </c>
       <c r="H14">
-        <v>54.7</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="I14">
-        <v>74.5</v>
+        <v>73.7</v>
       </c>
       <c r="J14">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="K14">
-        <v>70.39999999999999</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="L14">
-        <v>71.8</v>
+        <v>76.2</v>
       </c>
       <c r="M14">
-        <v>61.1</v>
+        <v>62.7</v>
       </c>
       <c r="N14">
-        <v>75.90000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="O14">
-        <v>45.7</v>
+        <v>48.8</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3730,43 +3756,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C15">
-        <v>71.3</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>50.3</v>
       </c>
       <c r="E15">
-        <v>23.2</v>
+        <v>27.3</v>
       </c>
       <c r="F15">
         <v>38.5</v>
       </c>
       <c r="G15">
-        <v>31.8</v>
+        <v>29.9</v>
       </c>
       <c r="H15">
-        <v>48.8</v>
+        <v>50.7</v>
       </c>
       <c r="I15">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="J15">
         <v>61.3</v>
       </c>
       <c r="K15">
-        <v>36.8</v>
+        <v>34.8</v>
       </c>
       <c r="L15">
-        <v>39.90000000000001</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="N15">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3790,28 +3816,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3822,13 +3848,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>106.98</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3851,13 +3877,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>88.33</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3880,13 +3906,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>106.57</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3909,13 +3935,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>111.48</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3938,13 +3964,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>109.41</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3967,13 +3993,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>99.25</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3996,13 +4022,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>109.53</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4025,13 +4051,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>100.82</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4054,13 +4080,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10">
         <v>101.86</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4083,13 +4109,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>110.06</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4112,13 +4138,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>106.93</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4141,13 +4167,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>114.33</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4170,13 +4196,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>105.45</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4199,13 +4225,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15">
         <v>100.96</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -4235,31 +4261,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4267,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -4285,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4296,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -4314,10 +4340,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4325,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0.6428571428571429</v>
@@ -4343,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4354,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -4372,10 +4398,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4383,7 +4409,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>0.6428571428571429</v>
@@ -4401,10 +4427,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4412,7 +4438,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>0.6428571428571429</v>
@@ -4430,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4441,7 +4467,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>0.5714285714285714</v>
@@ -4459,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4470,7 +4496,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9">
         <v>0.7142857142857143</v>
@@ -4488,10 +4514,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4499,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>0.2142857142857143</v>
@@ -4517,10 +4543,10 @@
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4528,7 +4554,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>0.3571428571428572</v>
@@ -4546,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4557,7 +4583,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12">
         <v>0.2142857142857143</v>
@@ -4575,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4586,7 +4612,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -4604,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4615,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -4633,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4644,7 +4670,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <v>0.3571428571428572</v>
@@ -4662,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4674,316 +4700,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11">
-        <v>-4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12">
-        <v>-6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13">
-        <v>-11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14">
-        <v>-45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15">
-        <v>-49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R15"/>
   <sheetViews>
@@ -4993,167 +4709,167 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="D2">
         <v>-3</v>
       </c>
       <c r="E2">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q2">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>112</v>
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>-3</v>
       </c>
       <c r="E3">
+        <v>-5</v>
+      </c>
+      <c r="F3">
         <v>-3</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
       <c r="G3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
         <v>8</v>
       </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>16</v>
-      </c>
       <c r="M3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q3">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>113</v>
+        <v>30</v>
+      </c>
+      <c r="R3">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -5208,8 +4924,8 @@
       <c r="Q4">
         <v>24</v>
       </c>
-      <c r="R4" t="s">
-        <v>114</v>
+      <c r="R4">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -5264,8 +4980,8 @@
       <c r="Q5">
         <v>14</v>
       </c>
-      <c r="R5" t="s">
-        <v>114</v>
+      <c r="R5">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -5320,8 +5036,8 @@
       <c r="Q6">
         <v>9</v>
       </c>
-      <c r="R6" t="s">
-        <v>115</v>
+      <c r="R6">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -5376,176 +5092,176 @@
       <c r="Q7">
         <v>5</v>
       </c>
-      <c r="R7" t="s">
-        <v>116</v>
+      <c r="R7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <v>-8</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-9</v>
+      </c>
+      <c r="H8">
+        <v>-16</v>
+      </c>
+      <c r="I8">
+        <v>-27</v>
+      </c>
+      <c r="J8">
+        <v>-29</v>
+      </c>
+      <c r="K8">
+        <v>-23</v>
+      </c>
+      <c r="L8">
+        <v>-14</v>
+      </c>
+      <c r="M8">
+        <v>-15</v>
+      </c>
+      <c r="N8">
+        <v>-13</v>
+      </c>
+      <c r="O8">
+        <v>-9</v>
+      </c>
+      <c r="P8">
         <v>-4</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-6</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
-      <c r="M8">
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
         <v>4</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>4</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="C9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>-16</v>
+        <v>17</v>
       </c>
       <c r="I9">
-        <v>-27</v>
+        <v>15</v>
       </c>
       <c r="J9">
-        <v>-29</v>
+        <v>16</v>
       </c>
       <c r="K9">
-        <v>-23</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9" t="s">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>3</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>118</v>
+        <v>-6</v>
+      </c>
+      <c r="R10">
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -5600,64 +5316,64 @@
       <c r="Q11">
         <v>-4</v>
       </c>
-      <c r="R11" t="s">
-        <v>113</v>
+      <c r="R11">
+        <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>-12</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>-6</v>
-      </c>
-      <c r="R12" t="s">
-        <v>119</v>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>-10</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5712,120 +5428,1015 @@
       <c r="Q13">
         <v>-11</v>
       </c>
-      <c r="R13" t="s">
-        <v>119</v>
+      <c r="R13">
+        <v>-10</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="C14">
+        <v>-6</v>
+      </c>
+      <c r="D14">
+        <v>-11</v>
+      </c>
+      <c r="E14">
+        <v>-3</v>
+      </c>
+      <c r="F14">
         <v>-13</v>
       </c>
-      <c r="D14">
-        <v>-10</v>
-      </c>
-      <c r="E14">
-        <v>-19</v>
-      </c>
-      <c r="F14">
-        <v>-18</v>
-      </c>
       <c r="G14">
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="H14">
-        <v>-28</v>
+        <v>-23</v>
       </c>
       <c r="I14">
-        <v>-23</v>
+        <v>-27</v>
       </c>
       <c r="J14">
         <v>-27</v>
       </c>
       <c r="K14">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="L14">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="M14">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="N14">
-        <v>-30</v>
+        <v>-37</v>
       </c>
       <c r="O14">
-        <v>-27</v>
+        <v>-33</v>
       </c>
       <c r="P14">
-        <v>-36</v>
+        <v>-42</v>
       </c>
       <c r="Q14">
-        <v>-45</v>
-      </c>
-      <c r="R14" t="s">
-        <v>120</v>
+        <v>-49</v>
+      </c>
+      <c r="R14">
+        <v>-48</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="C15">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="D15">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E15">
-        <v>-3</v>
+        <v>-19</v>
       </c>
       <c r="F15">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="G15">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="H15">
+        <v>-28</v>
+      </c>
+      <c r="I15">
         <v>-23</v>
-      </c>
-      <c r="I15">
-        <v>-27</v>
       </c>
       <c r="J15">
         <v>-27</v>
       </c>
       <c r="K15">
+        <v>-28</v>
+      </c>
+      <c r="L15">
+        <v>-30</v>
+      </c>
+      <c r="M15">
+        <v>-30</v>
+      </c>
+      <c r="N15">
+        <v>-30</v>
+      </c>
+      <c r="O15">
+        <v>-27</v>
+      </c>
+      <c r="P15">
+        <v>-36</v>
+      </c>
+      <c r="Q15">
+        <v>-45</v>
+      </c>
+      <c r="R15">
+        <v>-53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <v>-7</v>
+      </c>
+      <c r="D2">
+        <v>-3</v>
+      </c>
+      <c r="E2">
+        <v>-3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>23</v>
+      </c>
+      <c r="O2">
+        <v>21</v>
+      </c>
+      <c r="P2">
+        <v>21</v>
+      </c>
+      <c r="Q2">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>-3</v>
+      </c>
+      <c r="E3">
+        <v>-5</v>
+      </c>
+      <c r="F3">
+        <v>-3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+      <c r="R3">
+        <v>31</v>
+      </c>
+      <c r="S3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-7</v>
+      </c>
+      <c r="I4">
+        <v>-4</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4">
+        <v>24</v>
+      </c>
+      <c r="R4">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>-3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-3</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>13</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <v>-8</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-9</v>
+      </c>
+      <c r="H8">
+        <v>-16</v>
+      </c>
+      <c r="I8">
+        <v>-27</v>
+      </c>
+      <c r="J8">
+        <v>-29</v>
+      </c>
+      <c r="K8">
+        <v>-23</v>
+      </c>
+      <c r="L8">
+        <v>-14</v>
+      </c>
+      <c r="M8">
+        <v>-15</v>
+      </c>
+      <c r="N8">
+        <v>-13</v>
+      </c>
+      <c r="O8">
+        <v>-9</v>
+      </c>
+      <c r="P8">
+        <v>-4</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-6</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>-4</v>
+      </c>
+      <c r="Q10">
+        <v>-6</v>
+      </c>
+      <c r="R10">
+        <v>-3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>-3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>-3</v>
+      </c>
+      <c r="P11">
+        <v>-10</v>
+      </c>
+      <c r="Q11">
+        <v>-4</v>
+      </c>
+      <c r="R11">
+        <v>-5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>-6</v>
+      </c>
+      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12">
+        <v>-6</v>
+      </c>
+      <c r="E12">
+        <v>-16</v>
+      </c>
+      <c r="F12">
+        <v>-12</v>
+      </c>
+      <c r="G12">
+        <v>-4</v>
+      </c>
+      <c r="H12">
+        <v>-3</v>
+      </c>
+      <c r="I12">
+        <v>-5</v>
+      </c>
+      <c r="J12">
+        <v>-9</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-5</v>
+      </c>
+      <c r="M12">
+        <v>-5</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>-10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>-3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>-5</v>
+      </c>
+      <c r="K13">
+        <v>-6</v>
+      </c>
+      <c r="L13">
+        <v>-6</v>
+      </c>
+      <c r="M13">
+        <v>-4</v>
+      </c>
+      <c r="N13">
+        <v>-5</v>
+      </c>
+      <c r="O13">
+        <v>-13</v>
+      </c>
+      <c r="P13">
+        <v>-9</v>
+      </c>
+      <c r="Q13">
+        <v>-11</v>
+      </c>
+      <c r="R13">
+        <v>-10</v>
+      </c>
+      <c r="S13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>-3</v>
+      </c>
+      <c r="C14">
+        <v>-6</v>
+      </c>
+      <c r="D14">
+        <v>-11</v>
+      </c>
+      <c r="E14">
+        <v>-3</v>
+      </c>
+      <c r="F14">
+        <v>-13</v>
+      </c>
+      <c r="G14">
+        <v>-17</v>
+      </c>
+      <c r="H14">
+        <v>-23</v>
+      </c>
+      <c r="I14">
+        <v>-27</v>
+      </c>
+      <c r="J14">
+        <v>-27</v>
+      </c>
+      <c r="K14">
         <v>-25</v>
       </c>
+      <c r="L14">
+        <v>-27</v>
+      </c>
+      <c r="M14">
+        <v>-27</v>
+      </c>
+      <c r="N14">
+        <v>-37</v>
+      </c>
+      <c r="O14">
+        <v>-33</v>
+      </c>
+      <c r="P14">
+        <v>-42</v>
+      </c>
+      <c r="Q14">
+        <v>-49</v>
+      </c>
+      <c r="R14">
+        <v>-48</v>
+      </c>
+      <c r="S14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>-7</v>
+      </c>
+      <c r="C15">
+        <v>-13</v>
+      </c>
+      <c r="D15">
+        <v>-10</v>
+      </c>
+      <c r="E15">
+        <v>-19</v>
+      </c>
+      <c r="F15">
+        <v>-18</v>
+      </c>
+      <c r="G15">
+        <v>-21</v>
+      </c>
+      <c r="H15">
+        <v>-28</v>
+      </c>
+      <c r="I15">
+        <v>-23</v>
+      </c>
+      <c r="J15">
+        <v>-27</v>
+      </c>
+      <c r="K15">
+        <v>-28</v>
+      </c>
       <c r="L15">
+        <v>-30</v>
+      </c>
+      <c r="M15">
+        <v>-30</v>
+      </c>
+      <c r="N15">
+        <v>-30</v>
+      </c>
+      <c r="O15">
         <v>-27</v>
       </c>
-      <c r="M15">
-        <v>-27</v>
-      </c>
-      <c r="N15">
-        <v>-37</v>
-      </c>
-      <c r="O15">
-        <v>-33</v>
-      </c>
       <c r="P15">
-        <v>-42</v>
+        <v>-36</v>
       </c>
       <c r="Q15">
-        <v>-49</v>
-      </c>
-      <c r="R15" t="s">
-        <v>121</v>
+        <v>-45</v>
+      </c>
+      <c r="R15">
+        <v>-53</v>
+      </c>
+      <c r="S15" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/THE BEST OF THE BEST 2025.xlsx
+++ b/leagues/THE BEST OF THE BEST 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="147">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -120,6 +124,237 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>13th Place</t>
+  </si>
+  <si>
+    <t>14th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Sal Spadaro</t>
+  </si>
+  <si>
+    <t>Antonio  Spadaro</t>
+  </si>
+  <si>
+    <t>Michael Dillon</t>
+  </si>
+  <si>
+    <t>Stephanie Mattei</t>
+  </si>
+  <si>
+    <t>Mikaela Mitcho</t>
+  </si>
+  <si>
+    <t>Josh Formola</t>
+  </si>
+  <si>
+    <t>Lawrence Rosello</t>
+  </si>
+  <si>
+    <t>Kathy Dillon</t>
+  </si>
+  <si>
+    <t>Zachary Dillon</t>
+  </si>
+  <si>
+    <t>nicholas spadaro</t>
+  </si>
+  <si>
+    <t>Ryan Lesiak</t>
+  </si>
+  <si>
+    <t>Marissa Rodriguez</t>
+  </si>
+  <si>
+    <t>Brendan Fanning</t>
+  </si>
+  <si>
+    <t>gabriella spadaro</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -127,48 +362,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Marissa Rodriguez</t>
-  </si>
-  <si>
-    <t>Mikaela Mitcho</t>
-  </si>
-  <si>
-    <t>Stephanie Mattei</t>
-  </si>
-  <si>
-    <t>Zachary Dillon</t>
-  </si>
-  <si>
-    <t>nicholas spadaro</t>
-  </si>
-  <si>
-    <t>Lawrence Rosello</t>
-  </si>
-  <si>
-    <t>Ryan Lesiak</t>
-  </si>
-  <si>
-    <t>Sal Spadaro</t>
-  </si>
-  <si>
-    <t>Kathy Dillon</t>
-  </si>
-  <si>
-    <t>gabriella spadaro</t>
-  </si>
-  <si>
-    <t>Brendan Fanning</t>
-  </si>
-  <si>
-    <t>Michael Dillon</t>
-  </si>
-  <si>
-    <t>Josh Formola</t>
-  </si>
-  <si>
-    <t>Antonio  Spadaro</t>
   </si>
   <si>
     <t>↑8</t>
@@ -1341,6 +1534,276 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>-27</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>-5</v>
+      </c>
+      <c r="F3">
+        <v>-48</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-10</v>
+      </c>
+      <c r="F4">
+        <v>-53</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>-23</v>
+      </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>-33</v>
+      </c>
+      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>-25</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>-14</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>-3</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
@@ -1828,6 +2291,2422 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>47.4</v>
+      </c>
+      <c r="C2">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>21.8</v>
+      </c>
+      <c r="E2">
+        <v>61.6</v>
+      </c>
+      <c r="F2">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="G2">
+        <v>63.2</v>
+      </c>
+      <c r="H2">
+        <v>55.40000000000001</v>
+      </c>
+      <c r="I2">
+        <v>42.6</v>
+      </c>
+      <c r="J2">
+        <v>28.3</v>
+      </c>
+      <c r="K2">
+        <v>34.4</v>
+      </c>
+      <c r="L2">
+        <v>12.6</v>
+      </c>
+      <c r="M2">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="O2">
+        <v>52.2</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>25.2</v>
+      </c>
+      <c r="C3">
+        <v>84.7</v>
+      </c>
+      <c r="D3">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="E3">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F3">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="G3">
+        <v>67.2</v>
+      </c>
+      <c r="H3">
+        <v>51.4</v>
+      </c>
+      <c r="I3">
+        <v>75.3</v>
+      </c>
+      <c r="J3">
+        <v>53.3</v>
+      </c>
+      <c r="K3">
+        <v>73</v>
+      </c>
+      <c r="L3">
+        <v>77.3</v>
+      </c>
+      <c r="M3">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="N3">
+        <v>82.39999999999999</v>
+      </c>
+      <c r="O3">
+        <v>91.5</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>86.7</v>
+      </c>
+      <c r="C4">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D4">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E4">
+        <v>99.5</v>
+      </c>
+      <c r="F4">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="G4">
+        <v>96.8</v>
+      </c>
+      <c r="H4">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>99.7</v>
+      </c>
+      <c r="K4">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L4">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>99.8</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>97.8</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>84.5</v>
+      </c>
+      <c r="E5">
+        <v>66.60000000000001</v>
+      </c>
+      <c r="F5">
+        <v>53.40000000000001</v>
+      </c>
+      <c r="G5">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="H5">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="I5">
+        <v>83.7</v>
+      </c>
+      <c r="J5">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K5">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L5">
+        <v>85.8</v>
+      </c>
+      <c r="M5">
+        <v>96.8</v>
+      </c>
+      <c r="N5">
+        <v>90.5</v>
+      </c>
+      <c r="O5">
+        <v>99.5</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3.9</v>
+      </c>
+      <c r="C6">
+        <v>15.6</v>
+      </c>
+      <c r="D6">
+        <v>37.3</v>
+      </c>
+      <c r="E6">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="F6">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="G6">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="H6">
+        <v>91.60000000000001</v>
+      </c>
+      <c r="I6">
+        <v>98.3</v>
+      </c>
+      <c r="J6">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="K6">
+        <v>99.8</v>
+      </c>
+      <c r="L6">
+        <v>97.8</v>
+      </c>
+      <c r="M6">
+        <v>95.8</v>
+      </c>
+      <c r="N6">
+        <v>99.8</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="C7">
+        <v>94</v>
+      </c>
+      <c r="D7">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E7">
+        <v>97.5</v>
+      </c>
+      <c r="F7">
+        <v>97.5</v>
+      </c>
+      <c r="G7">
+        <v>99.3</v>
+      </c>
+      <c r="H7">
+        <v>97.8</v>
+      </c>
+      <c r="I7">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="J7">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="K7">
+        <v>99.5</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>99.8</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C8">
+        <v>41.5</v>
+      </c>
+      <c r="D8">
+        <v>51.5</v>
+      </c>
+      <c r="E8">
+        <v>83.3</v>
+      </c>
+      <c r="F8">
+        <v>67.10000000000001</v>
+      </c>
+      <c r="G8">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="H8">
+        <v>61.9</v>
+      </c>
+      <c r="I8">
+        <v>43.3</v>
+      </c>
+      <c r="J8">
+        <v>62.3</v>
+      </c>
+      <c r="K8">
+        <v>51.1</v>
+      </c>
+      <c r="L8">
+        <v>66.5</v>
+      </c>
+      <c r="M8">
+        <v>86.2</v>
+      </c>
+      <c r="N8">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="O8">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>66.3</v>
+      </c>
+      <c r="C9">
+        <v>23.9</v>
+      </c>
+      <c r="D9">
+        <v>85.8</v>
+      </c>
+      <c r="E9">
+        <v>89.8</v>
+      </c>
+      <c r="F9">
+        <v>96.2</v>
+      </c>
+      <c r="G9">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="H9">
+        <v>99.3</v>
+      </c>
+      <c r="I9">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="D10">
+        <v>20.6</v>
+      </c>
+      <c r="E10">
+        <v>25.6</v>
+      </c>
+      <c r="F10">
+        <v>12.4</v>
+      </c>
+      <c r="G10">
+        <v>6.5</v>
+      </c>
+      <c r="H10">
+        <v>3.9</v>
+      </c>
+      <c r="I10">
+        <v>13.2</v>
+      </c>
+      <c r="J10">
+        <v>4.6</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5.2</v>
+      </c>
+      <c r="C11">
+        <v>6.2</v>
+      </c>
+      <c r="D11">
+        <v>16.1</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>7.3</v>
+      </c>
+      <c r="G11">
+        <v>4.3</v>
+      </c>
+      <c r="H11">
+        <v>6.9</v>
+      </c>
+      <c r="I11">
+        <v>2.6</v>
+      </c>
+      <c r="J11">
+        <v>1.2</v>
+      </c>
+      <c r="K11">
+        <v>2.3</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <v>1.1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>85.7</v>
+      </c>
+      <c r="C12">
+        <v>18.7</v>
+      </c>
+      <c r="D12">
+        <v>8.6</v>
+      </c>
+      <c r="E12">
+        <v>5.3</v>
+      </c>
+      <c r="F12">
+        <v>23.3</v>
+      </c>
+      <c r="G12">
+        <v>9.6</v>
+      </c>
+      <c r="H12">
+        <v>7.1</v>
+      </c>
+      <c r="I12">
+        <v>1.7</v>
+      </c>
+      <c r="J12">
+        <v>3.7</v>
+      </c>
+      <c r="K12">
+        <v>1.1</v>
+      </c>
+      <c r="L12">
+        <v>1.4</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="C13">
+        <v>90.7</v>
+      </c>
+      <c r="D13">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="E13">
+        <v>73.3</v>
+      </c>
+      <c r="F13">
+        <v>63.1</v>
+      </c>
+      <c r="G13">
+        <v>56.49999999999999</v>
+      </c>
+      <c r="H13">
+        <v>33.3</v>
+      </c>
+      <c r="I13">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="J13">
+        <v>52.90000000000001</v>
+      </c>
+      <c r="K13">
+        <v>39.2</v>
+      </c>
+      <c r="L13">
+        <v>45.7</v>
+      </c>
+      <c r="M13">
+        <v>21</v>
+      </c>
+      <c r="N13">
+        <v>16.7</v>
+      </c>
+      <c r="O13">
+        <v>14.9</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>25.5</v>
+      </c>
+      <c r="C14">
+        <v>83.3</v>
+      </c>
+      <c r="D14">
+        <v>30.3</v>
+      </c>
+      <c r="E14">
+        <v>17.7</v>
+      </c>
+      <c r="F14">
+        <v>14.1</v>
+      </c>
+      <c r="G14">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>54.7</v>
+      </c>
+      <c r="I14">
+        <v>74</v>
+      </c>
+      <c r="J14">
+        <v>46.9</v>
+      </c>
+      <c r="K14">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L14">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="M14">
+        <v>60.7</v>
+      </c>
+      <c r="N14">
+        <v>77.3</v>
+      </c>
+      <c r="O14">
+        <v>50</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>99.2</v>
+      </c>
+      <c r="C15">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="D15">
+        <v>52.7</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>36.3</v>
+      </c>
+      <c r="G15">
+        <v>31.3</v>
+      </c>
+      <c r="H15">
+        <v>47.9</v>
+      </c>
+      <c r="I15">
+        <v>37.5</v>
+      </c>
+      <c r="J15">
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <v>34.3</v>
+      </c>
+      <c r="L15">
+        <v>38.1</v>
+      </c>
+      <c r="M15">
+        <v>21.5</v>
+      </c>
+      <c r="N15">
+        <v>2.8</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>106.98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>88.33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>106.57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>111.48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>109.41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>99.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>109.53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>100.82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>101.86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>110.06</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>106.93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>114.33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14">
+        <v>105.45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15">
+        <v>100.96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>106.9771428571429</v>
+      </c>
+      <c r="E2">
+        <v>1497.68</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D3">
+        <v>106.5714285714286</v>
+      </c>
+      <c r="E3">
+        <v>1492</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D4">
+        <v>111.4814285714286</v>
+      </c>
+      <c r="E4">
+        <v>1560.74</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D5">
+        <v>109.4071428571429</v>
+      </c>
+      <c r="E5">
+        <v>1531.7</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D6">
+        <v>109.5257142857143</v>
+      </c>
+      <c r="E6">
+        <v>1533.36</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D7">
+        <v>110.0614285714286</v>
+      </c>
+      <c r="E7">
+        <v>1540.86</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D8">
+        <v>106.9285714285714</v>
+      </c>
+      <c r="E8">
+        <v>1497</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D9">
+        <v>114.3328571428572</v>
+      </c>
+      <c r="E9">
+        <v>1600.66</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D10">
+        <v>88.33428571428571</v>
+      </c>
+      <c r="E10">
+        <v>1236.68</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D11">
+        <v>99.24714285714285</v>
+      </c>
+      <c r="E11">
+        <v>1389.46</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D12">
+        <v>100.8157142857143</v>
+      </c>
+      <c r="E12">
+        <v>1411.42</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>101.8642857142857</v>
+      </c>
+      <c r="E13">
+        <v>1426.1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>105.4514285714286</v>
+      </c>
+      <c r="E14">
+        <v>1476.32</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D15">
+        <v>100.9628571428571</v>
+      </c>
+      <c r="E15">
+        <v>1413.48</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1839,16 +4718,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1859,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -1868,7 +4747,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1879,7 +4758,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <v>31</v>
@@ -1888,7 +4767,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1899,7 +4778,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -1908,7 +4787,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1919,7 +4798,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -1928,7 +4807,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1939,7 +4818,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -1948,7 +4827,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1959,7 +4838,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1968,7 +4847,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1979,7 +4858,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1988,7 +4867,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1999,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2008,7 +4887,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2019,7 +4898,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>-3</v>
@@ -2028,7 +4907,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2039,7 +4918,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>-5</v>
@@ -2048,7 +4927,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2059,7 +4938,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>-10</v>
@@ -2068,7 +4947,7 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2079,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>-10</v>
@@ -2088,7 +4967,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2099,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>-48</v>
@@ -2108,7 +4987,7 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2119,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>-53</v>
@@ -2128,7 +5007,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +5015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -2146,58 +5025,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2256,7 +5135,7 @@
         <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2315,7 +5194,7 @@
         <v>31</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2374,7 +5253,7 @@
         <v>30</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2433,7 +5312,7 @@
         <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2492,7 +5371,7 @@
         <v>8</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2551,7 +5430,7 @@
         <v>4</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2610,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2669,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2728,7 +5607,7 @@
         <v>-3</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2787,7 +5666,7 @@
         <v>-5</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2846,7 +5725,7 @@
         <v>-10</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2905,7 +5784,7 @@
         <v>-10</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2964,7 +5843,7 @@
         <v>-48</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3023,277 +5902,7 @@
         <v>-53</v>
       </c>
       <c r="S15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>-27</v>
-      </c>
-      <c r="F2">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>-5</v>
-      </c>
-      <c r="F3">
-        <v>-48</v>
-      </c>
-      <c r="G3">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>-10</v>
-      </c>
-      <c r="F4">
-        <v>-53</v>
-      </c>
-      <c r="G4">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>-23</v>
-      </c>
-      <c r="G5">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>-33</v>
-      </c>
-      <c r="G6">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>-25</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>-14</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <v>-3</v>
-      </c>
-      <c r="G10">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
